--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FDFECF-BFD0-4689-B5A0-D137A5DD131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DC2F7-A567-42F7-9E9B-D0C7C6B42812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
+    <sheet name="Sigle CPU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="315">
   <si>
     <t>TDP</t>
   </si>
@@ -826,273 +827,281 @@
     <t>92 W</t>
   </si>
   <si>
+    <t>148 W</t>
+  </si>
+  <si>
+    <t>82 W</t>
+  </si>
+  <si>
+    <t>110 W</t>
+  </si>
+  <si>
+    <t>14900KS</t>
+  </si>
+  <si>
+    <t>150 W</t>
+  </si>
+  <si>
+    <t>14900K</t>
+  </si>
+  <si>
+    <t>14900KF</t>
+  </si>
+  <si>
+    <t>219 W</t>
+  </si>
+  <si>
+    <t>14900F</t>
+  </si>
+  <si>
+    <t>14900T</t>
+  </si>
+  <si>
+    <t>35 W</t>
+  </si>
+  <si>
+    <t>106 W</t>
+  </si>
+  <si>
+    <t>14790F</t>
+  </si>
+  <si>
+    <t>14700K</t>
+  </si>
+  <si>
+    <t>12 (12)</t>
+  </si>
+  <si>
+    <t>125 W</t>
+  </si>
+  <si>
+    <t>14700KF</t>
+  </si>
+  <si>
+    <t>14700F</t>
+  </si>
+  <si>
+    <t>14700T</t>
+  </si>
+  <si>
+    <t>14600K</t>
+  </si>
+  <si>
+    <t>181 W</t>
+  </si>
+  <si>
+    <t>14600KF</t>
+  </si>
+  <si>
+    <t>154 W</t>
+  </si>
+  <si>
+    <t>14600T</t>
+  </si>
+  <si>
+    <t>92 W</t>
+  </si>
+  <si>
+    <t>14500T</t>
+  </si>
+  <si>
+    <t>14490F</t>
+  </si>
+  <si>
+    <t>148 W</t>
+  </si>
+  <si>
+    <t>14400F</t>
+  </si>
+  <si>
+    <t>14400T</t>
+  </si>
+  <si>
+    <t>82 W</t>
+  </si>
+  <si>
+    <t>60 W</t>
+  </si>
+  <si>
+    <t>110 W</t>
+  </si>
+  <si>
+    <t>14100F</t>
+  </si>
+  <si>
+    <t>14100T</t>
+  </si>
+  <si>
+    <t>69 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel 13° GEN - Raptor lake </t>
+  </si>
+  <si>
+    <t>Intel 14° GEN - Raptor lake Refresh</t>
+  </si>
+  <si>
+    <t>B760
+H770
+Z790</t>
+  </si>
+  <si>
+    <t>300T</t>
+  </si>
+  <si>
+    <t>46 W</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Socket: LGA 1700</t>
+  </si>
+  <si>
+    <t>13100T</t>
+  </si>
+  <si>
+    <t>13100F</t>
+  </si>
+  <si>
+    <t>13400T</t>
+  </si>
+  <si>
+    <t>13500T</t>
+  </si>
+  <si>
+    <t>13400F</t>
+  </si>
+  <si>
+    <t>13490F</t>
+  </si>
+  <si>
     <r>
-      <t>13500</t>
+      <t xml:space="preserve">– </t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>13500T</t>
+      <t>F</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
+      <t xml:space="preserve"> : GPU integrata disabilitata. Necessita di scheda grafica dedicata.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>13490F</t>
+      <t xml:space="preserve">– </t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
-    </r>
-  </si>
-  <si>
-    <t>148 W</t>
-  </si>
-  <si>
-    <r>
-      <t>13400</t>
+      <t>T</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
+      <t xml:space="preserve"> : CPU con consumo energetico ridotto, TDP inferiore alla versione standard dello stesso modello.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>13400F</t>
+      <t xml:space="preserve">– </t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>13400T</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
+      <t xml:space="preserve"> : Edizione speciale</t>
     </r>
   </si>
   <si>
-    <t>82 W</t>
-  </si>
-  <si>
     <r>
-      <t>13100</t>
+      <t>–</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
-    </r>
-  </si>
-  <si>
-    <t>110 W</t>
-  </si>
-  <si>
-    <r>
-      <t>13100F</t>
+      <t xml:space="preserve"> K</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>13100T</t>
+      <t xml:space="preserve"> : CPU con possibilità di overclocking ( su  scheda madre con chipset appositi tipo </t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>[d]</t>
+      <t>Z..90</t>
     </r>
-  </si>
-  <si>
-    <t>14900KS</t>
-  </si>
-  <si>
-    <t>150 W</t>
-  </si>
-  <si>
-    <t>14900K</t>
-  </si>
-  <si>
-    <t>14900KF</t>
-  </si>
-  <si>
-    <t>219 W</t>
-  </si>
-  <si>
-    <t>14900F</t>
-  </si>
-  <si>
-    <t>14900T</t>
-  </si>
-  <si>
-    <t>35 W</t>
-  </si>
-  <si>
-    <t>106 W</t>
-  </si>
-  <si>
-    <t>14790F</t>
-  </si>
-  <si>
-    <t>14700K</t>
-  </si>
-  <si>
-    <t>12 (12)</t>
-  </si>
-  <si>
-    <t>125 W</t>
-  </si>
-  <si>
-    <t>14700KF</t>
-  </si>
-  <si>
-    <t>14700F</t>
-  </si>
-  <si>
-    <t>14700T</t>
-  </si>
-  <si>
-    <t>14600K</t>
-  </si>
-  <si>
-    <t>181 W</t>
-  </si>
-  <si>
-    <t>14600KF</t>
-  </si>
-  <si>
-    <t>154 W</t>
-  </si>
-  <si>
-    <t>14600T</t>
-  </si>
-  <si>
-    <t>92 W</t>
-  </si>
-  <si>
-    <t>14500T</t>
-  </si>
-  <si>
-    <t>14490F</t>
-  </si>
-  <si>
-    <t>148 W</t>
-  </si>
-  <si>
-    <t>14400F</t>
-  </si>
-  <si>
-    <t>14400T</t>
-  </si>
-  <si>
-    <t>82 W</t>
-  </si>
-  <si>
-    <t>60 W</t>
-  </si>
-  <si>
-    <t>110 W</t>
-  </si>
-  <si>
-    <t>14100F</t>
-  </si>
-  <si>
-    <t>14100T</t>
-  </si>
-  <si>
-    <t>69 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel 13° GEN - Raptor lake </t>
-  </si>
-  <si>
-    <t>Intel 14° GEN - Raptor lake Refresh</t>
-  </si>
-  <si>
-    <t>B760
-H770
-Z790</t>
-  </si>
-  <si>
-    <t>300T</t>
-  </si>
-  <si>
-    <t>46 W</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t>Socket: LGA 1700</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1171,18 +1180,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3366CC"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color rgb="FF3366CC"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1739,22 +1748,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1764,15 +1766,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1803,15 +1799,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1824,45 +1814,315 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1881,15 +2141,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1926,15 +2177,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1953,360 +2195,129 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -2630,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+    <sheetView tabSelected="1" topLeftCell="W5" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,3422 +2656,3775 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2"/>
-    <col min="23" max="23" width="9.140625" style="19"/>
-    <col min="28" max="28" width="9.140625" style="19"/>
-    <col min="31" max="37" width="9.140625" style="19"/>
-    <col min="39" max="51" width="9.140625" style="19"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="23" max="23" width="9.140625" style="14"/>
+    <col min="28" max="28" width="9.140625" style="14"/>
+    <col min="31" max="37" width="9.140625" style="14"/>
+    <col min="39" max="51" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="W1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
+      <c r="H1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="W1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="139" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="146" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="122" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="148" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="103" t="s">
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="140" t="s">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="165" t="s">
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="178" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="179"/>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="60"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="126" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="138" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT3" s="139"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139"/>
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139"/>
+      <c r="AY3" s="140"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="126" t="s">
+      <c r="H4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="151" t="s">
+      <c r="K4" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="147" t="s">
+      <c r="O4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="144" t="s">
+      <c r="V4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="144" t="s">
+      <c r="W4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="145" t="s">
+      <c r="Y4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="168" t="s">
+      <c r="Z4" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="170" t="s">
+      <c r="AA4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="170" t="s">
+      <c r="AB4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="170" t="s">
+      <c r="AC4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="175" t="s">
+      <c r="AE4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="163" t="s">
+      <c r="AF4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="163" t="s">
+      <c r="AG4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="181" t="s">
+      <c r="AH4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="182"/>
-      <c r="AJ4" s="159" t="s">
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="46" t="s">
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="49" t="s">
+      <c r="AM4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="49" t="s">
+      <c r="AN4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="52" t="s">
+      <c r="AO4" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="96" t="s">
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="61" t="s">
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="64" t="s">
+      <c r="AT4" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="64" t="s">
+      <c r="AU4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="67" t="s">
+      <c r="AV4" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="90" t="s">
+      <c r="AW4" s="145"/>
+      <c r="AX4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="91"/>
+      <c r="AY4" s="119"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="183"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="65"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="93"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="142"/>
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="123"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="147"/>
+      <c r="AX5" s="120"/>
+      <c r="AY5" s="121"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="170"/>
-      <c r="AB6" s="170"/>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="176"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="185"/>
-      <c r="AJ6" s="161"/>
-      <c r="AK6" s="162"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="93"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="136"/>
+      <c r="AP6" s="137"/>
+      <c r="AQ6" s="110"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="142"/>
+      <c r="AT6" s="123"/>
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="148"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="121"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="164"/>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="27" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="AI7" s="27" t="s">
+      <c r="AI7" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AK7" s="32" t="s">
+      <c r="AK7" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="37" t="s">
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="AP7" s="37" t="s">
+      <c r="AP7" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="AQ7" s="37" t="s">
+      <c r="AQ7" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AR7" s="38" t="s">
+      <c r="AR7" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="39" t="s">
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="AW7" s="39" t="s">
+      <c r="AW7" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="AX7" s="39" t="s">
+      <c r="AX7" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="AY7" s="40" t="s">
+      <c r="AY7" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="127" t="s">
+      <c r="I8" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="117" t="s">
+      <c r="L8" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="127" t="s">
+      <c r="N8" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="116" t="s">
+      <c r="O8" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="100" t="s">
+      <c r="Q8" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="100" t="s">
+      <c r="S8" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="73" t="s">
+      <c r="U8" s="156" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="138" t="s">
+      <c r="V8" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="X8" s="100" t="s">
+      <c r="X8" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="Y8" s="101" t="s">
+      <c r="Y8" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="108" t="s">
+      <c r="Z8" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="AA8" s="138" t="s">
+      <c r="AA8" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AB8" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" s="100" t="s">
+      <c r="AC8" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="101" t="s">
+      <c r="AD8" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="AE8" s="180" t="s">
+      <c r="AE8" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="AF8" s="89" t="s">
+      <c r="AF8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="23" t="s">
+      <c r="AG8" s="164" t="s">
         <v>202</v>
       </c>
-      <c r="AH8" s="86" t="s">
+      <c r="AH8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="86" t="s">
+      <c r="AI8" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="24" t="s">
+      <c r="AJ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AK8" s="189" t="s">
+      <c r="AK8" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM8" s="89" t="s">
+      <c r="AL8" s="156" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="AN8" s="23" t="s">
+      <c r="AN8" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="86" t="s">
+      <c r="AO8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="86" t="s">
+      <c r="AP8" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="AQ8" s="24" t="s">
+      <c r="AQ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AR8" s="42" t="s">
+      <c r="AR8" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="AS8" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="AT8" s="89" t="s">
+      <c r="AS8" s="156" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="AU8" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV8" s="86" t="s">
+      <c r="AU8" s="164" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="86" t="s">
+      <c r="AW8" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="AX8" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY8" s="42" t="s">
+      <c r="AX8" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY8" s="117" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="134" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="162"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="82"/>
+      <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="6" t="s">
+      <c r="K9" s="158"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="127"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="6" t="s">
+      <c r="N9" s="82"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="100"/>
-      <c r="T9" s="101" t="s">
+      <c r="S9" s="65"/>
+      <c r="T9" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="74"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="6" t="s">
+      <c r="U9" s="154"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="6" t="s">
+      <c r="X9" s="65"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="23" t="s">
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86" t="s">
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AK9" s="189"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="23" t="s">
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86" t="s">
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="86" t="s">
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="154"/>
+      <c r="AT9" s="167"/>
+      <c r="AU9" s="164" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AY9" s="42"/>
+      <c r="AY9" s="117"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="3">
+      <c r="A10" s="158"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="187">
         <v>6700</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="6">
+      <c r="D10" s="65"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="180">
         <v>7700</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="82"/>
+      <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="6">
+      <c r="K10" s="158"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="180">
         <v>8700</v>
       </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="82"/>
+      <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="6" t="s">
+      <c r="P10" s="158"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="100"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="6">
+      <c r="S10" s="65"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="180">
         <v>10910</v>
       </c>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="6">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="180">
         <v>11900</v>
       </c>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="101" t="s">
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="23" t="s">
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="189"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="23" t="s">
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="164" t="s">
         <v>246</v>
       </c>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="42"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="154"/>
+      <c r="AT10" s="167"/>
+      <c r="AU10" s="164" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="117"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="158"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="162"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="82"/>
+      <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="109"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="6" t="s">
+      <c r="K11" s="158"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="127"/>
-      <c r="O11" s="14" t="s">
+      <c r="N11" s="82"/>
+      <c r="O11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="6">
+      <c r="P11" s="158"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="180">
         <v>9900</v>
       </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="16" t="s">
+      <c r="S11" s="65"/>
+      <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="74"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="6">
+      <c r="U11" s="154"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="180">
         <v>10900</v>
       </c>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101" t="s">
+      <c r="X11" s="65"/>
+      <c r="Y11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="6" t="s">
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="23">
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="164">
         <v>12900</v>
       </c>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86" t="s">
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="189" t="s">
+      <c r="AK11" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="23">
+      <c r="AL11" s="154"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="164">
         <v>13900</v>
       </c>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86" t="s">
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="42" t="s">
+      <c r="AR11" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="23">
+      <c r="AS11" s="154"/>
+      <c r="AT11" s="167"/>
+      <c r="AU11" s="164">
         <v>14900</v>
       </c>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
-      <c r="AX11" s="86" t="s">
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AY11" s="42" t="s">
-        <v>277</v>
+      <c r="AY11" s="117" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="100" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="I12" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="117" t="s">
+      <c r="K12" s="158"/>
+      <c r="L12" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="127" t="s">
+      <c r="N12" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="6" t="s">
+      <c r="P12" s="158"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="180" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="16" t="s">
+      <c r="S12" s="65"/>
+      <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="74"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="6" t="s">
+      <c r="U12" s="154"/>
+      <c r="V12" s="179"/>
+      <c r="W12" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="6" t="s">
+      <c r="X12" s="65"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="16" t="s">
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="23" t="s">
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="167"/>
+      <c r="AG12" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="23" t="s">
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="154"/>
+      <c r="AM12" s="167"/>
+      <c r="AN12" s="164" t="s">
         <v>248</v>
       </c>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="86"/>
-      <c r="AX12" s="86"/>
-      <c r="AY12" s="42"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="154"/>
+      <c r="AT12" s="167"/>
+      <c r="AU12" s="164" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="117"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="134" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="6" t="s">
+      <c r="F13" s="162"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="82"/>
+      <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="109"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="6">
+      <c r="K13" s="158"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="180">
         <v>8600</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="14" t="s">
+      <c r="N13" s="82"/>
+      <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="100" t="s">
+      <c r="P13" s="158"/>
+      <c r="Q13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="100" t="s">
+      <c r="S13" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="101" t="s">
+      <c r="T13" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="74"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="6" t="s">
+      <c r="U13" s="154"/>
+      <c r="V13" s="179"/>
+      <c r="W13" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="16" t="s">
+      <c r="X13" s="65"/>
+      <c r="Y13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="138" t="s">
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="AB13" s="6" t="s">
+      <c r="AB13" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="101" t="s">
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="23" t="s">
+      <c r="AE13" s="154"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="164" t="s">
         <v>209</v>
       </c>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="24" t="s">
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK13" s="29" t="s">
+      <c r="AK13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="23" t="s">
+      <c r="AL13" s="154"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="24" t="s">
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR13" s="33" t="s">
+      <c r="AR13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS13" s="74"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="AV13" s="86"/>
-      <c r="AW13" s="86"/>
-      <c r="AX13" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY13" s="33" t="s">
-        <v>281</v>
+      <c r="AS13" s="154"/>
+      <c r="AT13" s="167"/>
+      <c r="AU13" s="164" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY13" s="24" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="3">
+      <c r="A14" s="158"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="187">
         <v>6600</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="6">
+      <c r="D14" s="65"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="180">
         <v>7600</v>
       </c>
-      <c r="I14" s="127"/>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="109"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="6" t="s">
+      <c r="K14" s="158"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="127"/>
-      <c r="O14" s="14" t="s">
+      <c r="N14" s="82"/>
+      <c r="O14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="6" t="s">
+      <c r="P14" s="158"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="6" t="s">
+      <c r="S14" s="65"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101" t="s">
+      <c r="X14" s="65"/>
+      <c r="Y14" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="6" t="s">
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="179"/>
+      <c r="AB14" s="180" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="89" t="s">
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AG14" s="23" t="s">
+      <c r="AG14" s="164" t="s">
         <v>211</v>
       </c>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86" t="s">
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="86" t="s">
+      <c r="AJ14" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AK14" s="189" t="s">
+      <c r="AK14" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="89" t="s">
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="89" t="s">
+      <c r="AN14" s="167" t="s">
         <v>250</v>
       </c>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86" t="s">
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="86" t="s">
+      <c r="AQ14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="42" t="s">
+      <c r="AR14" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="AS14" s="74"/>
-      <c r="AT14" s="89" t="s">
+      <c r="AS14" s="154"/>
+      <c r="AT14" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AU14" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="24" t="s">
+      <c r="AU14" s="164" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AX14" s="24" t="s">
+      <c r="AX14" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="AY14" s="33" t="s">
-        <v>277</v>
+      <c r="AY14" s="24" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="6" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="82"/>
+      <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="109"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="6">
+      <c r="K15" s="158"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="180">
         <v>8500</v>
       </c>
-      <c r="N15" s="127"/>
-      <c r="O15" s="14" t="s">
+      <c r="N15" s="82"/>
+      <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="6">
+      <c r="P15" s="158"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="180">
         <v>9700</v>
       </c>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101" t="s">
+      <c r="S15" s="65"/>
+      <c r="T15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="74"/>
-      <c r="V15" s="138" t="s">
+      <c r="U15" s="154"/>
+      <c r="V15" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="W15" s="180" t="s">
         <v>146</v>
       </c>
-      <c r="X15" s="100" t="s">
+      <c r="X15" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="6">
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="180">
         <v>11700</v>
       </c>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="101" t="s">
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="23" t="s">
+      <c r="AE15" s="154"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="189"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="74"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV15" s="86"/>
-      <c r="AW15" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX15" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY15" s="42" t="s">
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="154"/>
+      <c r="AM15" s="167"/>
+      <c r="AN15" s="167"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="154"/>
+      <c r="AT15" s="167"/>
+      <c r="AU15" s="164" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX15" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY15" s="117" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="3">
+      <c r="A16" s="158"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="187">
         <v>6500</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="6">
+      <c r="D16" s="65"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="180">
         <v>7500</v>
       </c>
-      <c r="I16" s="127"/>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="109"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="6" t="s">
+      <c r="K16" s="158"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="127"/>
-      <c r="O16" s="14" t="s">
+      <c r="N16" s="82"/>
+      <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="6" t="s">
+      <c r="P16" s="158"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="6" t="s">
+      <c r="S16" s="65"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="179"/>
+      <c r="W16" s="180" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="6" t="s">
+      <c r="X16" s="65"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="179"/>
+      <c r="AB16" s="180" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="23">
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="154"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="164">
         <v>12700</v>
       </c>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="86" t="s">
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="189" t="s">
+      <c r="AK16" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="23" t="s">
+      <c r="AL16" s="154"/>
+      <c r="AM16" s="167"/>
+      <c r="AN16" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="AO16" s="86"/>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86" t="s">
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AR16" s="42" t="s">
+      <c r="AR16" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="89"/>
-      <c r="AU16" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV16" s="86"/>
-      <c r="AW16" s="86"/>
-      <c r="AX16" s="86"/>
-      <c r="AY16" s="42"/>
+      <c r="AS16" s="154"/>
+      <c r="AT16" s="167"/>
+      <c r="AU16" s="164" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="117"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="158"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="134" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="6" t="s">
+      <c r="F17" s="162"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="127"/>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="82"/>
+      <c r="J17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="109"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="6">
+      <c r="K17" s="158"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="180">
         <v>8400</v>
       </c>
-      <c r="N17" s="127"/>
-      <c r="O17" s="14" t="s">
+      <c r="N17" s="82"/>
+      <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="6" t="s">
+      <c r="P17" s="158"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="100"/>
-      <c r="T17" s="16" t="s">
+      <c r="S17" s="65"/>
+      <c r="T17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="74"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="6">
+      <c r="U17" s="154"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="180">
         <v>10700</v>
       </c>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="101" t="s">
+      <c r="X17" s="65"/>
+      <c r="Y17" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="6" t="s">
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="179"/>
+      <c r="AB17" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="16" t="s">
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="23" t="s">
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="167"/>
+      <c r="AG17" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="189"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="23" t="s">
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="154"/>
+      <c r="AM17" s="167"/>
+      <c r="AN17" s="164" t="s">
         <v>252</v>
       </c>
-      <c r="AO17" s="86"/>
-      <c r="AP17" s="86"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="74"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="23">
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="117"/>
+      <c r="AS17" s="154"/>
+      <c r="AT17" s="167"/>
+      <c r="AU17" s="164">
         <v>14700</v>
       </c>
-      <c r="AV17" s="86"/>
-      <c r="AW17" s="86"/>
-      <c r="AX17" s="86" t="s">
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AY17" s="42" t="s">
-        <v>277</v>
+      <c r="AY17" s="117" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="158"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="6">
+      <c r="D18" s="65"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="180">
         <v>7400</v>
       </c>
-      <c r="I18" s="127"/>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="82"/>
+      <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="109"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="6" t="s">
+      <c r="K18" s="158"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="127"/>
-      <c r="O18" s="14" t="s">
+      <c r="N18" s="82"/>
+      <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="100" t="s">
+      <c r="P18" s="158"/>
+      <c r="Q18" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="100" t="s">
+      <c r="S18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="101" t="s">
+      <c r="T18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="74"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="6" t="s">
+      <c r="U18" s="154"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="138" t="s">
+      <c r="X18" s="65"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="AB18" s="6" t="s">
+      <c r="AB18" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="AC18" s="100" t="s">
+      <c r="AC18" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="101" t="s">
+      <c r="AD18" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="23" t="s">
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="167"/>
+      <c r="AG18" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="24" t="s">
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK18" s="29" t="s">
+      <c r="AK18" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="23">
+      <c r="AL18" s="154"/>
+      <c r="AM18" s="167"/>
+      <c r="AN18" s="164">
         <v>13700</v>
       </c>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86" t="s">
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="42" t="s">
+      <c r="AR18" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="86"/>
-      <c r="AX18" s="86"/>
-      <c r="AY18" s="42"/>
+      <c r="AS18" s="154"/>
+      <c r="AT18" s="167"/>
+      <c r="AU18" s="164" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="117"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="158"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="65"/>
+      <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="118"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="6" t="s">
+      <c r="F19" s="162"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="127"/>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="82"/>
+      <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="109"/>
-      <c r="L19" s="117" t="s">
+      <c r="K19" s="158"/>
+      <c r="L19" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="127" t="s">
+      <c r="N19" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="6" t="s">
+      <c r="P19" s="158"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="100"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="6" t="s">
+      <c r="S19" s="65"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="179"/>
+      <c r="W19" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="16" t="s">
+      <c r="X19" s="65"/>
+      <c r="Y19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="6" t="s">
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="179"/>
+      <c r="AB19" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="89" t="s">
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="AG19" s="23" t="s">
+      <c r="AG19" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="AH19" s="86" t="s">
+      <c r="AH19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86" t="s">
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AK19" s="189" t="s">
+      <c r="AK19" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="23" t="s">
+      <c r="AL19" s="154"/>
+      <c r="AM19" s="167"/>
+      <c r="AN19" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="86"/>
-      <c r="AX19" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY19" s="33" t="s">
-        <v>281</v>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="117"/>
+      <c r="AS19" s="154"/>
+      <c r="AT19" s="167"/>
+      <c r="AU19" s="164" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY19" s="24" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="158"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="65"/>
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="127" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="127" t="s">
+      <c r="I20" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="109"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="6">
+      <c r="K20" s="158"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="180">
         <v>8300</v>
       </c>
-      <c r="N20" s="127"/>
-      <c r="O20" s="14" t="s">
+      <c r="N20" s="82"/>
+      <c r="O20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="6">
+      <c r="P20" s="158"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="180">
         <v>9600</v>
       </c>
-      <c r="S20" s="100"/>
-      <c r="T20" s="16" t="s">
+      <c r="S20" s="65"/>
+      <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="74"/>
-      <c r="V20" s="138" t="s">
+      <c r="U20" s="154"/>
+      <c r="V20" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="W20" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="100" t="s">
+      <c r="X20" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="101" t="s">
+      <c r="Y20" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="6">
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="180">
         <v>11600</v>
       </c>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="16" t="s">
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="23" t="s">
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="167"/>
+      <c r="AG20" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="189"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="23" t="s">
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="154"/>
+      <c r="AM20" s="167"/>
+      <c r="AN20" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="24" t="s">
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR20" s="33" t="s">
+      <c r="AR20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS20" s="74"/>
-      <c r="AT20" s="89" t="s">
+      <c r="AS20" s="154"/>
+      <c r="AT20" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="AU20" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV20" s="86" t="s">
+      <c r="AU20" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV20" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="86" t="s">
+      <c r="AW20" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY20" s="42" t="s">
-        <v>290</v>
+      <c r="AX20" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY20" s="117" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="187">
         <v>6400</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="6">
+      <c r="F21" s="162"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="180">
         <v>7320</v>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128" t="s">
+      <c r="I21" s="82"/>
+      <c r="J21" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="109"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="6" t="s">
+      <c r="K21" s="158"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="127"/>
-      <c r="O21" s="14" t="s">
+      <c r="N21" s="82"/>
+      <c r="O21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="6" t="s">
+      <c r="P21" s="158"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="100"/>
-      <c r="T21" s="16" t="s">
+      <c r="S21" s="65"/>
+      <c r="T21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="74"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="6" t="s">
+      <c r="U21" s="154"/>
+      <c r="V21" s="179"/>
+      <c r="W21" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="6" t="s">
+      <c r="X21" s="65"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="179"/>
+      <c r="AB21" s="180" t="s">
         <v>194</v>
       </c>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="16" t="s">
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="23">
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="167"/>
+      <c r="AG21" s="164">
         <v>12600</v>
       </c>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="87" t="s">
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="AJ21" s="24" t="s">
+      <c r="AJ21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AK21" s="29" t="s">
+      <c r="AK21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="89" t="s">
+      <c r="AL21" s="154"/>
+      <c r="AM21" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="AN21" s="23" t="s">
+      <c r="AN21" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="AO21" s="86" t="s">
+      <c r="AO21" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86" t="s">
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AR21" s="42" t="s">
+      <c r="AR21" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="AS21" s="74"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
-      <c r="AX21" s="86"/>
-      <c r="AY21" s="42"/>
+      <c r="AS21" s="154"/>
+      <c r="AT21" s="167"/>
+      <c r="AU21" s="164" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="117"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="100" t="s">
+      <c r="A22" s="158"/>
+      <c r="B22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="187">
         <v>6320</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="134" t="s">
+      <c r="E22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="6">
+      <c r="F22" s="162"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="180">
         <v>7300</v>
       </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="6">
+      <c r="I22" s="82"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="180">
         <v>8100</v>
       </c>
-      <c r="N22" s="127"/>
-      <c r="O22" s="116" t="s">
+      <c r="N22" s="82"/>
+      <c r="O22" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="6">
+      <c r="P22" s="158"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="180">
         <v>9500</v>
       </c>
-      <c r="S22" s="100"/>
-      <c r="T22" s="101" t="s">
+      <c r="S22" s="65"/>
+      <c r="T22" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="74"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="6">
+      <c r="U22" s="154"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="180">
         <v>10600</v>
       </c>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="16" t="s">
+      <c r="X22" s="65"/>
+      <c r="Y22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="6">
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="179"/>
+      <c r="AB22" s="180">
         <v>11500</v>
       </c>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="16" t="s">
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="23" t="s">
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="167"/>
+      <c r="AG22" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="24" t="s">
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK22" s="29" t="s">
+      <c r="AK22" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="23" t="s">
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="167"/>
+      <c r="AN22" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="AO22" s="86"/>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="74"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="23">
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="117"/>
+      <c r="AS22" s="154"/>
+      <c r="AT22" s="167"/>
+      <c r="AU22" s="164">
         <v>14600</v>
       </c>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="86"/>
-      <c r="AX22" s="24" t="s">
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="AY22" s="33" t="s">
-        <v>292</v>
+      <c r="AY22" s="24" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="3">
+      <c r="A23" s="158"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="187">
         <v>6300</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="6" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="127"/>
-      <c r="J23" s="11" t="s">
+      <c r="I23" s="82"/>
+      <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="109"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="6" t="s">
+      <c r="K23" s="158"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="127"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="6" t="s">
+      <c r="N23" s="82"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="100"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="6" t="s">
+      <c r="S23" s="65"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="179"/>
+      <c r="W23" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="16" t="s">
+      <c r="X23" s="65"/>
+      <c r="Y23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="6" t="s">
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="179"/>
+      <c r="AB23" s="180" t="s">
         <v>195</v>
       </c>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="16" t="s">
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="23">
+      <c r="AE23" s="154"/>
+      <c r="AF23" s="167"/>
+      <c r="AG23" s="164">
         <v>12500</v>
       </c>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="24" t="s">
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AK23" s="29" t="s">
+      <c r="AK23" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL23" s="74"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="23">
+      <c r="AL23" s="154"/>
+      <c r="AM23" s="167"/>
+      <c r="AN23" s="164">
         <v>13600</v>
       </c>
-      <c r="AO23" s="86"/>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="24" t="s">
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AR23" s="33" t="s">
+      <c r="AR23" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS23" s="74"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
-      <c r="AX23" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY23" s="33" t="s">
-        <v>294</v>
+      <c r="AS23" s="154"/>
+      <c r="AT23" s="167"/>
+      <c r="AU23" s="164" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY23" s="24" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="187">
         <v>6100</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="6">
+      <c r="D24" s="65"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="180">
         <v>7100</v>
       </c>
-      <c r="I24" s="127"/>
-      <c r="J24" s="11" t="s">
+      <c r="I24" s="82"/>
+      <c r="J24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="109"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="6" t="s">
+      <c r="K24" s="158"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="127"/>
-      <c r="O24" s="14" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="6" t="s">
+      <c r="P24" s="158"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="100"/>
-      <c r="T24" s="16" t="s">
+      <c r="S24" s="65"/>
+      <c r="T24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="74"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="6">
+      <c r="U24" s="154"/>
+      <c r="V24" s="179"/>
+      <c r="W24" s="180">
         <v>10500</v>
       </c>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="16" t="s">
+      <c r="X24" s="65"/>
+      <c r="Y24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="6">
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="179"/>
+      <c r="AB24" s="180">
         <v>11400</v>
       </c>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="101" t="s">
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="23" t="s">
+      <c r="AE24" s="154"/>
+      <c r="AF24" s="167"/>
+      <c r="AG24" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="24" t="s">
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="29" t="s">
+      <c r="AK24" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="23" t="s">
+      <c r="AL24" s="154"/>
+      <c r="AM24" s="167"/>
+      <c r="AN24" s="164" t="s">
         <v>259</v>
       </c>
-      <c r="AO24" s="86"/>
-      <c r="AP24" s="86"/>
-      <c r="AQ24" s="24" t="s">
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR24" s="33" t="s">
+      <c r="AR24" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS24" s="74"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="23">
+      <c r="AS24" s="154"/>
+      <c r="AT24" s="167"/>
+      <c r="AU24" s="164">
         <v>14500</v>
       </c>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="86"/>
-      <c r="AX24" s="24" t="s">
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="AY24" s="33" t="s">
-        <v>292</v>
+      <c r="AY24" s="24" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="158"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="134" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="6" t="s">
+      <c r="F25" s="162"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="11" t="s">
+      <c r="I25" s="82"/>
+      <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="109"/>
-      <c r="L25" s="113" t="s">
+      <c r="K25" s="158"/>
+      <c r="L25" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="127" t="s">
+      <c r="N25" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="116" t="s">
+      <c r="O25" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="6">
+      <c r="P25" s="158"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="180">
         <v>9400</v>
       </c>
-      <c r="S25" s="100"/>
-      <c r="T25" s="101" t="s">
+      <c r="S25" s="65"/>
+      <c r="T25" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="74"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="6" t="s">
+      <c r="U25" s="154"/>
+      <c r="V25" s="179"/>
+      <c r="W25" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="16" t="s">
+      <c r="X25" s="65"/>
+      <c r="Y25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="6" t="s">
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="179"/>
+      <c r="AB25" s="180" t="s">
         <v>196</v>
       </c>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="190" t="s">
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="154"/>
+      <c r="AF25" s="167"/>
+      <c r="AG25" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="86" t="s">
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="189" t="s">
+      <c r="AK25" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="AL25" s="74"/>
-      <c r="AM25" s="76" t="s">
+      <c r="AL25" s="154"/>
+      <c r="AM25" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="AN25" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO25" s="86"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="24" t="s">
+      <c r="AN25" s="21">
+        <v>13500</v>
+      </c>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AR25" s="33" t="s">
+      <c r="AR25" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="86"/>
-      <c r="AX25" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY25" s="33" t="s">
-        <v>294</v>
+      <c r="AS25" s="154"/>
+      <c r="AT25" s="167"/>
+      <c r="AU25" s="164" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY25" s="24" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="6" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="127"/>
-      <c r="J26" s="11" t="s">
+      <c r="I26" s="82"/>
+      <c r="J26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="109"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="6" t="s">
+      <c r="K26" s="158"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="127"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="6" t="s">
+      <c r="N26" s="82"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="6">
+      <c r="S26" s="65"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="180">
         <v>10400</v>
       </c>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101" t="s">
+      <c r="X26" s="65"/>
+      <c r="Y26" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="12" t="s">
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="181"/>
+      <c r="AB26" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="17" t="s">
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="190"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="189"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO26" s="86"/>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="24" t="s">
+      <c r="AE26" s="154"/>
+      <c r="AF26" s="167"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="154"/>
+      <c r="AM26" s="151"/>
+      <c r="AN26" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR26" s="33" t="s">
+      <c r="AR26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86" t="s">
+      <c r="AS26" s="154"/>
+      <c r="AT26" s="167"/>
+      <c r="AU26" s="164" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="86" t="s">
+      <c r="AX26" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AY26" s="42" t="s">
-        <v>297</v>
+      <c r="AY26" s="117" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="6" t="s">
+      <c r="F27" s="162"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="127"/>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="82"/>
+      <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="6" t="s">
+      <c r="K27" s="158"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="127"/>
-      <c r="O27" s="14" t="s">
+      <c r="N27" s="82"/>
+      <c r="O27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="6" t="s">
+      <c r="P27" s="158"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="100"/>
-      <c r="T27" s="16" t="s">
+      <c r="S27" s="65"/>
+      <c r="T27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="74"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="6" t="s">
+      <c r="U27" s="154"/>
+      <c r="V27" s="179"/>
+      <c r="W27" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="134"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="23">
+      <c r="X27" s="65"/>
+      <c r="Y27" s="71"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="176"/>
+      <c r="AE27" s="154"/>
+      <c r="AF27" s="167"/>
+      <c r="AG27" s="164">
         <v>12400</v>
       </c>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="86"/>
-      <c r="AK27" s="189"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO27" s="86"/>
-      <c r="AP27" s="86" t="s">
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="154"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="86" t="s">
+      <c r="AQ27" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="23">
+      <c r="AR27" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS27" s="154"/>
+      <c r="AT27" s="167"/>
+      <c r="AU27" s="164">
         <v>14400</v>
       </c>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="86"/>
-      <c r="AX27" s="86"/>
-      <c r="AY27" s="42"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="117"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
-      <c r="B28" s="100" t="s">
+      <c r="A28" s="158"/>
+      <c r="B28" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="134" t="s">
+      <c r="E28" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="118"/>
-      <c r="G28" s="127" t="s">
+      <c r="F28" s="162"/>
+      <c r="G28" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128" t="s">
+      <c r="I28" s="82"/>
+      <c r="J28" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="109"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="6" t="s">
+      <c r="K28" s="158"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="127"/>
-      <c r="O28" s="14" t="s">
+      <c r="N28" s="82"/>
+      <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="100" t="s">
+      <c r="P28" s="158"/>
+      <c r="Q28" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="100" t="s">
+      <c r="S28" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="101" t="s">
+      <c r="T28" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="74"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="6" t="s">
+      <c r="U28" s="154"/>
+      <c r="V28" s="179"/>
+      <c r="W28" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="9" t="s">
+      <c r="X28" s="65"/>
+      <c r="Y28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="23" t="s">
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="167"/>
+      <c r="AG28" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="86"/>
-      <c r="AK28" s="189"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="94"/>
-      <c r="AO28" s="86"/>
-      <c r="AP28" s="86"/>
-      <c r="AQ28" s="86"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV28" s="86"/>
-      <c r="AW28" s="86"/>
-      <c r="AX28" s="86"/>
-      <c r="AY28" s="42"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="117"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="167"/>
+      <c r="AU28" s="164" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="117"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="158"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="6" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="6" t="s">
+      <c r="I29" s="82"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="127"/>
-      <c r="O29" s="14" t="s">
+      <c r="N29" s="82"/>
+      <c r="O29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="6" t="s">
+      <c r="P29" s="158"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="100"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="138" t="s">
+      <c r="S29" s="65"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="180">
         <v>10320</v>
       </c>
-      <c r="X29" s="100" t="s">
+      <c r="X29" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="134" t="s">
+      <c r="Y29" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="23" t="s">
+      <c r="AE29" s="154"/>
+      <c r="AF29" s="167"/>
+      <c r="AG29" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="24" t="s">
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK29" s="29" t="s">
+      <c r="AK29" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="AO29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="24" t="s">
+      <c r="AL29" s="154"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="21">
+        <v>13400</v>
+      </c>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AR29" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AS29" s="74"/>
-      <c r="AT29" s="89"/>
-      <c r="AU29" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY29" s="33" t="s">
-        <v>300</v>
+      <c r="AR29" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS29" s="154"/>
+      <c r="AT29" s="167"/>
+      <c r="AU29" s="164" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV29" s="46"/>
+      <c r="AW29" s="46"/>
+      <c r="AX29" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY29" s="24" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="118"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="6" t="s">
+      <c r="F30" s="162"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="127"/>
-      <c r="J30" s="11" t="s">
+      <c r="I30" s="82"/>
+      <c r="J30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="109"/>
-      <c r="L30" s="127" t="s">
+      <c r="K30" s="158"/>
+      <c r="L30" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="127" t="s">
+      <c r="N30" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="116" t="s">
+      <c r="O30" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="6">
+      <c r="P30" s="158"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="180">
         <v>9320</v>
       </c>
-      <c r="S30" s="100"/>
-      <c r="T30" s="101" t="s">
+      <c r="S30" s="65"/>
+      <c r="T30" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="74"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="6">
+      <c r="U30" s="154"/>
+      <c r="V30" s="179"/>
+      <c r="W30" s="180">
         <v>10300</v>
       </c>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="134"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="89" t="s">
+      <c r="X30" s="65"/>
+      <c r="Y30" s="71"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="AG30" s="23">
+      <c r="AG30" s="164">
         <v>12300</v>
       </c>
-      <c r="AH30" s="86" t="s">
+      <c r="AH30" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="24" t="s">
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK30" s="29" t="s">
+      <c r="AK30" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO30" s="86"/>
-      <c r="AP30" s="86"/>
-      <c r="AQ30" s="24" t="s">
+      <c r="AL30" s="154"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AR30" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="89" t="s">
+      <c r="AR30" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS30" s="154"/>
+      <c r="AT30" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="AU30" s="23">
+      <c r="AU30" s="164">
         <v>14100</v>
       </c>
-      <c r="AV30" s="86" t="s">
+      <c r="AV30" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="87" t="s">
+      <c r="AW30" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="AX30" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="AY30" s="42" t="s">
-        <v>302</v>
+      <c r="AX30" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY30" s="117" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="158"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="6" t="s">
+      <c r="F31" s="162"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="127"/>
-      <c r="J31" s="11" t="s">
+      <c r="I31" s="82"/>
+      <c r="J31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="109"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="6" t="s">
+      <c r="K31" s="158"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="127"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="6">
+      <c r="N31" s="82"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="180">
         <v>9300</v>
       </c>
-      <c r="S31" s="100"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="6" t="s">
+      <c r="S31" s="65"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="179"/>
+      <c r="W31" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="9" t="s">
+      <c r="X31" s="65"/>
+      <c r="Y31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="23" t="s">
+      <c r="AE31" s="154"/>
+      <c r="AF31" s="167"/>
+      <c r="AG31" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="24" t="s">
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK31" s="29" t="s">
+      <c r="AK31" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="78"/>
-      <c r="AN31" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO31" s="86"/>
-      <c r="AP31" s="86"/>
-      <c r="AQ31" s="24" t="s">
+      <c r="AL31" s="154"/>
+      <c r="AM31" s="152"/>
+      <c r="AN31" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR31" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS31" s="74"/>
-      <c r="AT31" s="89"/>
-      <c r="AU31" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AV31" s="86"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="24" t="s">
+      <c r="AR31" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="AS31" s="154"/>
+      <c r="AT31" s="167"/>
+      <c r="AU31" s="164" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV31" s="46"/>
+      <c r="AW31" s="50"/>
+      <c r="AX31" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="AY31" s="42"/>
+      <c r="AY31" s="117"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="158"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="134" t="s">
+      <c r="D32" s="65"/>
+      <c r="E32" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="6" t="s">
+      <c r="F32" s="162"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="127"/>
-      <c r="J32" s="11" t="s">
+      <c r="I32" s="82"/>
+      <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="109"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="6" t="s">
+      <c r="K32" s="158"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="127"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="6" t="s">
+      <c r="N32" s="82"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="100"/>
-      <c r="T32" s="16" t="s">
+      <c r="S32" s="65"/>
+      <c r="T32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="74"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="6">
+      <c r="U32" s="154"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="180">
         <v>10100</v>
       </c>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="134" t="s">
+      <c r="X32" s="65"/>
+      <c r="Y32" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="74"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="23">
+      <c r="AE32" s="154"/>
+      <c r="AF32" s="167"/>
+      <c r="AG32" s="164">
         <v>12100</v>
       </c>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="24" t="s">
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="189" t="s">
+      <c r="AK32" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="AL32" s="74"/>
-      <c r="AM32" s="79" t="s">
+      <c r="AL32" s="154"/>
+      <c r="AM32" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="AN32" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO32" s="86" t="s">
+      <c r="AN32" s="21">
+        <v>13100</v>
+      </c>
+      <c r="AO32" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="87" t="s">
+      <c r="AP32" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="AQ32" s="24" t="s">
+      <c r="AQ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS32" s="74"/>
-      <c r="AT32" s="89"/>
-      <c r="AU32" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV32" s="86"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY32" s="33" t="s">
-        <v>305</v>
+      <c r="AR32" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS32" s="154"/>
+      <c r="AT32" s="167"/>
+      <c r="AU32" s="164" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY32" s="24" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="3" t="s">
+      <c r="A33" s="158"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="127" t="s">
+      <c r="D33" s="65"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="127" t="s">
+      <c r="I33" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="128" t="s">
+      <c r="J33" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="110"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="12" t="s">
+      <c r="K33" s="159"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="129"/>
-      <c r="O33" s="15" t="s">
+      <c r="N33" s="95"/>
+      <c r="O33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="6">
+      <c r="P33" s="158"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="180">
         <v>9100</v>
       </c>
-      <c r="S33" s="100"/>
-      <c r="T33" s="101" t="s">
+      <c r="S33" s="65"/>
+      <c r="T33" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="74"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="6" t="s">
+      <c r="U33" s="154"/>
+      <c r="V33" s="179"/>
+      <c r="W33" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="134"/>
-      <c r="AE33" s="74"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="23" t="s">
+      <c r="X33" s="65"/>
+      <c r="Y33" s="71"/>
+      <c r="AE33" s="154"/>
+      <c r="AF33" s="167"/>
+      <c r="AG33" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="24" t="s">
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AK33" s="189"/>
-      <c r="AL33" s="74"/>
-      <c r="AM33" s="80"/>
-      <c r="AN33" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO33" s="86"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="24" t="s">
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="154"/>
+      <c r="AM33" s="171"/>
+      <c r="AN33" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="74"/>
-      <c r="AT33" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU33" s="31">
+      <c r="AR33" s="117"/>
+      <c r="AS33" s="154"/>
+      <c r="AT33" s="168" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU33" s="165">
         <v>300</v>
       </c>
-      <c r="AV33" s="82" t="s">
+      <c r="AV33" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="87"/>
-      <c r="AX33" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="AY33" s="84" t="s">
-        <v>311</v>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY33" s="173" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="100" t="s">
+      <c r="A34" s="158"/>
+      <c r="B34" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="134" t="s">
+      <c r="D34" s="65"/>
+      <c r="E34" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="6" t="s">
+      <c r="F34" s="162"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="6" t="s">
+      <c r="I34" s="82"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="190"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="100"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="138"/>
-      <c r="W34" s="6" t="s">
+      <c r="S34" s="65"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="154"/>
+      <c r="V34" s="179"/>
+      <c r="W34" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="9" t="s">
+      <c r="X34" s="65"/>
+      <c r="Y34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="74"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="23" t="s">
+      <c r="AE34" s="154"/>
+      <c r="AF34" s="167"/>
+      <c r="AG34" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="AH34" s="86"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="24" t="s">
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK34" s="29" t="s">
+      <c r="AK34" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="81"/>
-      <c r="AN34" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="88"/>
-      <c r="AQ34" s="26" t="s">
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="172"/>
+      <c r="AN34" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AR34" s="35" t="s">
+      <c r="AR34" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="AS34" s="75"/>
-      <c r="AT34" s="83"/>
-      <c r="AU34" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV34" s="83"/>
-      <c r="AW34" s="88"/>
-      <c r="AX34" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY34" s="85"/>
+      <c r="AS34" s="155"/>
+      <c r="AT34" s="169"/>
+      <c r="AU34" s="166" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV34" s="169"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY34" s="174"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="158"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="12" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="129"/>
-      <c r="J35" s="13" t="s">
+      <c r="I35" s="95"/>
+      <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="6" t="s">
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="190"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="100"/>
-      <c r="T35" s="16" t="s">
+      <c r="S35" s="65"/>
+      <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="74"/>
-      <c r="V35" s="138" t="s">
+      <c r="U35" s="154"/>
+      <c r="V35" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="X35" s="100" t="s">
+      <c r="X35" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="134" t="s">
+      <c r="Y35" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="89" t="s">
+      <c r="AE35" s="154"/>
+      <c r="AF35" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="AG35" s="23" t="s">
+      <c r="AG35" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="AH35" s="86" t="s">
+      <c r="AH35" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="24" t="s">
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK35" s="186" t="s">
+      <c r="AK35" s="44" t="s">
         <v>142</v>
       </c>
+      <c r="AL35" s="175"/>
+      <c r="AM35" s="176"/>
+      <c r="AN35" s="176"/>
+      <c r="AO35" s="176"/>
+      <c r="AP35" s="176"/>
+      <c r="AQ35" s="176"/>
+      <c r="AR35" s="176"/>
+      <c r="AS35" s="176"/>
+      <c r="AT35" s="176"/>
+      <c r="AU35" s="176"/>
+      <c r="AV35" s="176"/>
+      <c r="AW35" s="176"/>
+      <c r="AX35" s="176"/>
+      <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="158"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="134" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="155" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="186"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="190"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="100" t="s">
+      <c r="S36" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="T36" s="16" t="s">
+      <c r="T36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="74"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="6" t="s">
+      <c r="U36" s="154"/>
+      <c r="V36" s="179"/>
+      <c r="W36" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="X36" s="100"/>
-      <c r="Y36" s="134"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="23" t="s">
+      <c r="X36" s="65"/>
+      <c r="Y36" s="71"/>
+      <c r="AE36" s="154"/>
+      <c r="AF36" s="167"/>
+      <c r="AG36" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="AH36" s="86"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="24" t="s">
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="186"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="175"/>
+      <c r="AM36" s="176"/>
+      <c r="AN36" s="176"/>
+      <c r="AO36" s="176"/>
+      <c r="AP36" s="176"/>
+      <c r="AQ36" s="176"/>
+      <c r="AR36" s="176"/>
+      <c r="AS36" s="176"/>
+      <c r="AT36" s="176"/>
+      <c r="AU36" s="176"/>
+      <c r="AV36" s="176"/>
+      <c r="AW36" s="176"/>
+      <c r="AX36" s="176"/>
+      <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="159"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="5"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="6" t="s">
+      <c r="D37" s="66"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="186"/>
+      <c r="M37" s="190"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="100"/>
-      <c r="T37" s="16" t="s">
+      <c r="S37" s="65"/>
+      <c r="T37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="74"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="6" t="s">
+      <c r="U37" s="154"/>
+      <c r="V37" s="179"/>
+      <c r="W37" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="9" t="s">
+      <c r="X37" s="65"/>
+      <c r="Y37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="89" t="s">
+      <c r="AE37" s="154"/>
+      <c r="AF37" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="AG37" s="23" t="s">
+      <c r="AG37" s="164" t="s">
         <v>234</v>
       </c>
-      <c r="AH37" s="86" t="s">
+      <c r="AH37" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="87"/>
-      <c r="AJ37" s="24" t="s">
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK37" s="186"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="175"/>
+      <c r="AM37" s="176"/>
+      <c r="AN37" s="176"/>
+      <c r="AO37" s="176"/>
+      <c r="AP37" s="176"/>
+      <c r="AQ37" s="176"/>
+      <c r="AR37" s="176"/>
+      <c r="AS37" s="176"/>
+      <c r="AT37" s="176"/>
+      <c r="AU37" s="176"/>
+      <c r="AV37" s="176"/>
+      <c r="AW37" s="176"/>
+      <c r="AX37" s="176"/>
+      <c r="AY37" s="176"/>
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="6" t="s">
+      <c r="B38" s="186"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="190"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="100"/>
-      <c r="T38" s="16" t="s">
+      <c r="S38" s="65"/>
+      <c r="T38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="74"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="6" t="s">
+      <c r="U38" s="154"/>
+      <c r="V38" s="179"/>
+      <c r="W38" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="X38" s="100"/>
-      <c r="Y38" s="9" t="s">
+      <c r="X38" s="65"/>
+      <c r="Y38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE38" s="75"/>
-      <c r="AF38" s="188"/>
-      <c r="AG38" s="25" t="s">
+      <c r="AE38" s="155"/>
+      <c r="AF38" s="177"/>
+      <c r="AG38" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="26" t="s">
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="187"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="175"/>
+      <c r="AM38" s="176"/>
+      <c r="AN38" s="176"/>
+      <c r="AO38" s="176"/>
+      <c r="AP38" s="176"/>
+      <c r="AQ38" s="176"/>
+      <c r="AR38" s="176"/>
+      <c r="AS38" s="176"/>
+      <c r="AT38" s="176"/>
+      <c r="AU38" s="176"/>
+      <c r="AV38" s="176"/>
+      <c r="AW38" s="176"/>
+      <c r="AX38" s="176"/>
+      <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="109"/>
-      <c r="Q39" s="157"/>
-      <c r="R39" s="6" t="s">
+      <c r="P39" s="158"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="100"/>
-      <c r="T39" s="16" t="s">
+      <c r="S39" s="65"/>
+      <c r="T39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="74"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="6" t="s">
+      <c r="U39" s="154"/>
+      <c r="V39" s="179"/>
+      <c r="W39" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="X39" s="100"/>
-      <c r="Y39" s="9" t="s">
+      <c r="X39" s="65"/>
+      <c r="Y39" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="AF39" s="176"/>
+      <c r="AG39" s="176"/>
+      <c r="AH39" s="176"/>
+      <c r="AI39" s="176"/>
+      <c r="AJ39" s="176"/>
+      <c r="AK39" s="176"/>
+      <c r="AL39" s="175"/>
+      <c r="AM39" s="176"/>
+      <c r="AN39" s="176"/>
+      <c r="AO39" s="176"/>
+      <c r="AP39" s="176"/>
+      <c r="AQ39" s="176"/>
+      <c r="AR39" s="176"/>
+      <c r="AS39" s="176"/>
+      <c r="AT39" s="176"/>
+      <c r="AU39" s="176"/>
+      <c r="AV39" s="176"/>
+      <c r="AW39" s="176"/>
+      <c r="AX39" s="176"/>
+      <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="109"/>
-      <c r="Q40" s="100" t="s">
+      <c r="P40" s="158"/>
+      <c r="Q40" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="R40" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="100" t="s">
+      <c r="S40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="101" t="s">
+      <c r="T40" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="74"/>
-      <c r="V40" s="100" t="s">
+      <c r="U40" s="154"/>
+      <c r="V40" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="6" t="s">
+      <c r="W40" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="X40" s="100" t="s">
+      <c r="X40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="134" t="s">
+      <c r="Y40" s="71" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="109"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="6" t="s">
+      <c r="P41" s="158"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="100"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="6" t="s">
+      <c r="S41" s="65"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="180" t="s">
         <v>166</v>
       </c>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="134"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="71"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="110"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="12" t="s">
+      <c r="P42" s="159"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="111"/>
-      <c r="T42" s="17" t="s">
+      <c r="S42" s="66"/>
+      <c r="T42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="74"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="6" t="s">
+      <c r="U42" s="154"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="X42" s="100"/>
-      <c r="Y42" s="134"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="71"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="74"/>
-      <c r="V43" s="100"/>
-      <c r="W43" s="6" t="s">
+      <c r="Q43" s="186"/>
+      <c r="R43" s="186"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="X43" s="100"/>
-      <c r="Y43" s="9" t="s">
+      <c r="X43" s="65"/>
+      <c r="Y43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="74"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="6" t="s">
+      <c r="U44" s="154"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="180" t="s">
         <v>169</v>
       </c>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="9" t="s">
+      <c r="X44" s="65"/>
+      <c r="Y44" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="74"/>
-      <c r="V45" s="100"/>
-      <c r="W45" s="6" t="s">
+      <c r="U45" s="154"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="X45" s="100"/>
-      <c r="Y45" s="9" t="s">
+      <c r="X45" s="65"/>
+      <c r="Y45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="74"/>
-      <c r="V46" s="152" t="s">
+      <c r="U46" s="154"/>
+      <c r="V46" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="152"/>
-      <c r="X46" s="152"/>
-      <c r="Y46" s="153"/>
+      <c r="W46" s="160"/>
+      <c r="X46" s="160"/>
+      <c r="Y46" s="161"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="74"/>
-      <c r="V47" s="4" t="s">
+      <c r="U47" s="154"/>
+      <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="6">
+      <c r="W47" s="180">
         <v>10505</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="X47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y47" s="9" t="s">
+      <c r="Y47" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="74"/>
-      <c r="V48" s="138" t="s">
+      <c r="U48" s="154"/>
+      <c r="V48" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="180">
         <v>10325</v>
       </c>
-      <c r="X48" s="100" t="s">
+      <c r="X48" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="154" t="s">
+      <c r="Y48" s="67" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="74"/>
-      <c r="V49" s="138"/>
-      <c r="W49" s="6">
+      <c r="U49" s="154"/>
+      <c r="V49" s="179"/>
+      <c r="W49" s="180">
         <v>10305</v>
       </c>
-      <c r="X49" s="100"/>
-      <c r="Y49" s="154"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="67"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="74"/>
-      <c r="V50" s="138"/>
-      <c r="W50" s="6" t="s">
+      <c r="U50" s="154"/>
+      <c r="V50" s="179"/>
+      <c r="W50" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="21" t="s">
+      <c r="X50" s="65"/>
+      <c r="Y50" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="74"/>
-      <c r="V51" s="138"/>
-      <c r="W51" s="6">
+      <c r="U51" s="154"/>
+      <c r="V51" s="179"/>
+      <c r="W51" s="180">
         <v>10105</v>
       </c>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="154" t="s">
+      <c r="X51" s="65"/>
+      <c r="Y51" s="67" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="74"/>
-      <c r="V52" s="138"/>
-      <c r="W52" s="6" t="s">
+      <c r="U52" s="154"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="X52" s="100"/>
-      <c r="Y52" s="154"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="67"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="74"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="6" t="s">
+      <c r="U53" s="154"/>
+      <c r="V53" s="179"/>
+      <c r="W53" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="100"/>
-      <c r="Y53" s="21" t="s">
+      <c r="X53" s="65"/>
+      <c r="Y53" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="74"/>
-      <c r="V54" s="113" t="s">
+      <c r="U54" s="154"/>
+      <c r="V54" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="W54" s="6" t="s">
+      <c r="W54" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="X54" s="100" t="s">
+      <c r="X54" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="154" t="s">
+      <c r="Y54" s="67" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="74"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="6" t="s">
+      <c r="U55" s="154"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="X55" s="100"/>
-      <c r="Y55" s="154"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="67"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="74"/>
-      <c r="V56" s="114"/>
-      <c r="W56" s="6" t="s">
+      <c r="U56" s="154"/>
+      <c r="V56" s="184"/>
+      <c r="W56" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="X56" s="100"/>
-      <c r="Y56" s="21" t="s">
+      <c r="X56" s="65"/>
+      <c r="Y56" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="74"/>
-      <c r="V57" s="114"/>
-      <c r="W57" s="6" t="s">
+      <c r="U57" s="154"/>
+      <c r="V57" s="184"/>
+      <c r="W57" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="X57" s="100"/>
-      <c r="Y57" s="20" t="s">
+      <c r="X57" s="65"/>
+      <c r="Y57" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="75"/>
-      <c r="V58" s="158"/>
-      <c r="W58" s="12" t="s">
+      <c r="U58" s="155"/>
+      <c r="V58" s="185"/>
+      <c r="W58" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="X58" s="111"/>
-      <c r="Y58" s="22" t="s">
+      <c r="X58" s="66"/>
+      <c r="Y58" s="17" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="59" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="V59" s="175"/>
+      <c r="W59" s="176"/>
+      <c r="X59" s="175"/>
+      <c r="Y59" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE2:AY2"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AO4:AP6"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AV4:AW6"/>
+    <mergeCell ref="AL8:AL34"/>
+    <mergeCell ref="AS8:AS34"/>
+    <mergeCell ref="AM25:AM31"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AV33:AV34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AW26:AW29"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="AE3:AK3"/>
@@ -6085,242 +6449,6 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AK8:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AE2:AY2"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AO4:AP6"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AV4:AW6"/>
-    <mergeCell ref="AL8:AL34"/>
-    <mergeCell ref="AS8:AS34"/>
-    <mergeCell ref="AM25:AM31"/>
-    <mergeCell ref="AM32:AM34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AV33:AV34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AW26:AW29"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AY26:AY28"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AX17:AX18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>
@@ -6622,4 +6750,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId296"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833B0480-670F-4F52-A0B7-EE27BB2F4DF6}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DC2F7-A567-42F7-9E9B-D0C7C6B42812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0D0667-472A-4CDA-B823-A54F2823EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -1108,7 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,6 +1189,14 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1748,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1838,405 +1846,6 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2244,30 +1853,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2277,19 +1862,143 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,26 +2007,321 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -2643,19 +2647,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W5" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.42578125" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -2696,420 +2699,420 @@
       <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="72" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="79" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="125" t="s">
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="99" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="85" t="s">
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="113" t="s">
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="73" t="s">
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="177" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="55" t="s">
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180" t="s">
         <v>198</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="36" t="s">
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="126" t="s">
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184"/>
+      <c r="AK3" s="184"/>
+      <c r="AL3" s="185" t="s">
         <v>297</v>
       </c>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="138" t="s">
+      <c r="AM3" s="186"/>
+      <c r="AN3" s="186"/>
+      <c r="AO3" s="186"/>
+      <c r="AP3" s="186"/>
+      <c r="AQ3" s="186"/>
+      <c r="AR3" s="187"/>
+      <c r="AS3" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="AT3" s="139"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="140"/>
+      <c r="AT3" s="189"/>
+      <c r="AU3" s="189"/>
+      <c r="AV3" s="189"/>
+      <c r="AW3" s="189"/>
+      <c r="AX3" s="189"/>
+      <c r="AY3" s="190"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="116" t="s">
+      <c r="P4" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="112" t="s">
+      <c r="T4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="78" t="s">
+      <c r="Y4" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="58" t="s">
+      <c r="Z4" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="60" t="s">
+      <c r="AA4" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="60" t="s">
+      <c r="AB4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="60" t="s">
+      <c r="AC4" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="62" t="s">
+      <c r="AD4" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="34" t="s">
+      <c r="AG4" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AH4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="52" t="s">
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="129" t="s">
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="105" t="s">
+      <c r="AM4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="105" t="s">
+      <c r="AN4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="132" t="s">
+      <c r="AO4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="108" t="s">
+      <c r="AP4" s="139"/>
+      <c r="AQ4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="141" t="s">
+      <c r="AR4" s="141"/>
+      <c r="AS4" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="122" t="s">
+      <c r="AT4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="122" t="s">
+      <c r="AU4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="144" t="s">
+      <c r="AV4" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="145"/>
-      <c r="AX4" s="118" t="s">
+      <c r="AW4" s="149"/>
+      <c r="AX4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="119"/>
+      <c r="AY4" s="151"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="130"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="142"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="147"/>
-      <c r="AX5" s="120"/>
-      <c r="AY5" s="121"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="144"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="152"/>
+      <c r="AW5" s="153"/>
+      <c r="AX5" s="154"/>
+      <c r="AY5" s="155"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="136"/>
-      <c r="AP6" s="137"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="148"/>
-      <c r="AW6" s="149"/>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="121"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="160"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="144"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="157"/>
+      <c r="AX6" s="154"/>
+      <c r="AY6" s="155"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
       <c r="AH7" s="20" t="s">
         <v>238</v>
       </c>
@@ -3122,9 +3125,9 @@
       <c r="AK7" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
       <c r="AO7" s="27" t="s">
         <v>238</v>
       </c>
@@ -3137,9 +3140,9 @@
       <c r="AR7" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
       <c r="AV7" s="29" t="s">
         <v>238</v>
       </c>
@@ -3154,600 +3157,600 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="75" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="180" t="s">
+      <c r="H8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="90" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="157" t="s">
+      <c r="K8" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="188" t="s">
+      <c r="L8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="180" t="s">
+      <c r="M8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="83" t="s">
+      <c r="O8" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="157" t="s">
+      <c r="P8" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="180" t="s">
+      <c r="R8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="65" t="s">
+      <c r="S8" s="75" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="156" t="s">
+      <c r="U8" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="179" t="s">
+      <c r="V8" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="W8" s="180" t="s">
+      <c r="W8" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="X8" s="65" t="s">
+      <c r="X8" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="157" t="s">
+      <c r="Z8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="AA8" s="179" t="s">
+      <c r="AA8" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="180" t="s">
+      <c r="AB8" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" s="65" t="s">
+      <c r="AC8" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="64" t="s">
+      <c r="AD8" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="AE8" s="153" t="s">
+      <c r="AE8" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="AF8" s="167" t="s">
+      <c r="AF8" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="164" t="s">
+      <c r="AG8" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="AH8" s="46" t="s">
+      <c r="AH8" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="46" t="s">
+      <c r="AI8" s="69" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AK8" s="48" t="s">
+      <c r="AK8" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" s="156" t="s">
+      <c r="AL8" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="AM8" s="167" t="s">
+      <c r="AM8" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AN8" s="164" t="s">
+      <c r="AN8" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="46" t="s">
+      <c r="AO8" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="46" t="s">
+      <c r="AP8" s="69" t="s">
         <v>243</v>
       </c>
       <c r="AQ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AR8" s="117" t="s">
+      <c r="AR8" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AS8" s="156" t="s">
+      <c r="AS8" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="AT8" s="167" t="s">
+      <c r="AT8" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AU8" s="164" t="s">
+      <c r="AU8" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="AV8" s="46" t="s">
+      <c r="AV8" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="46" t="s">
+      <c r="AW8" s="69" t="s">
         <v>243</v>
       </c>
       <c r="AX8" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="AY8" s="117" t="s">
+      <c r="AY8" s="43" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="187" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="180" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="82"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="158"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="180" t="s">
+      <c r="K9" s="80"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="180" t="s">
+      <c r="N9" s="90"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="65"/>
-      <c r="T9" s="64" t="s">
+      <c r="S9" s="75"/>
+      <c r="T9" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="154"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="180" t="s">
+      <c r="U9" s="57"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="180" t="s">
+      <c r="X9" s="75"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="164" t="s">
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46" t="s">
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="154"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="164" t="s">
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46" t="s">
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AR9" s="117"/>
-      <c r="AS9" s="154"/>
-      <c r="AT9" s="167"/>
-      <c r="AU9" s="164" t="s">
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46" t="s">
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AY9" s="117"/>
+      <c r="AY9" s="43"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="187">
+      <c r="A10" s="80"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="39">
         <v>6700</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="180">
+      <c r="D10" s="75"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="37">
         <v>7700</v>
       </c>
-      <c r="I10" s="82"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="158"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="180">
+      <c r="K10" s="80"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="37">
         <v>8700</v>
       </c>
-      <c r="N10" s="82"/>
+      <c r="N10" s="90"/>
       <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="180" t="s">
+      <c r="P10" s="80"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="65"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="180">
+      <c r="S10" s="75"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="37">
         <v>10910</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="180">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="37">
         <v>11900</v>
       </c>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="64" t="s">
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="164" t="s">
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="154"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="164" t="s">
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="154"/>
-      <c r="AT10" s="167"/>
-      <c r="AU10" s="164" t="s">
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="117"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="43"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="187" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="180" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="82"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="158"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="180" t="s">
+      <c r="K11" s="80"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="82"/>
+      <c r="N11" s="90"/>
       <c r="O11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="180">
+      <c r="P11" s="80"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="37">
         <v>9900</v>
       </c>
-      <c r="S11" s="65"/>
+      <c r="S11" s="75"/>
       <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="154"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="180">
+      <c r="U11" s="57"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="37">
         <v>10900</v>
       </c>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="64" t="s">
+      <c r="X11" s="75"/>
+      <c r="Y11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="180" t="s">
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="164">
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="31">
         <v>12900</v>
       </c>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46" t="s">
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="48" t="s">
+      <c r="AK11" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="154"/>
-      <c r="AM11" s="167"/>
-      <c r="AN11" s="164">
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="31">
         <v>13900</v>
       </c>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46" t="s">
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="117" t="s">
+      <c r="AR11" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AS11" s="154"/>
-      <c r="AT11" s="167"/>
-      <c r="AU11" s="164">
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="31">
         <v>14900</v>
       </c>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46" t="s">
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="AY11" s="117" t="s">
+      <c r="AY11" s="43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="187" t="s">
+      <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="75" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="82" t="s">
+      <c r="F12" s="93"/>
+      <c r="G12" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="180" t="s">
+      <c r="H12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="90" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="158"/>
-      <c r="L12" s="188" t="s">
+      <c r="K12" s="80"/>
+      <c r="L12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="180" t="s">
+      <c r="M12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="90" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="180" t="s">
+      <c r="P12" s="80"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="65"/>
+      <c r="S12" s="75"/>
       <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="154"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="180" t="s">
+      <c r="U12" s="57"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="179"/>
-      <c r="AB12" s="180" t="s">
+      <c r="X12" s="75"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" s="65"/>
+      <c r="AC12" s="75"/>
       <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="167"/>
-      <c r="AG12" s="164" t="s">
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="154"/>
-      <c r="AM12" s="167"/>
-      <c r="AN12" s="164" t="s">
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="117"/>
-      <c r="AS12" s="154"/>
-      <c r="AT12" s="167"/>
-      <c r="AU12" s="164" t="s">
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="117"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="43"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="187" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="71" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="180" t="s">
+      <c r="F13" s="93"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="82"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="158"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="180">
+      <c r="K13" s="80"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="37">
         <v>8600</v>
       </c>
-      <c r="N13" s="82"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="65" t="s">
+      <c r="P13" s="80"/>
+      <c r="Q13" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="180" t="s">
+      <c r="R13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="65" t="s">
+      <c r="S13" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="64" t="s">
+      <c r="T13" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="154"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="180" t="s">
+      <c r="U13" s="57"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="65"/>
+      <c r="X13" s="75"/>
       <c r="Y13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="179" t="s">
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AB13" s="180" t="s">
+      <c r="AB13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="64" t="s">
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" s="154"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="164" t="s">
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
       <c r="AJ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AL13" s="154"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="164" t="s">
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
       <c r="AQ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS13" s="154"/>
-      <c r="AT13" s="167"/>
-      <c r="AU13" s="164" t="s">
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="46"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
       <c r="AX13" s="18" t="s">
         <v>271</v>
       </c>
@@ -3756,96 +3759,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="187">
+      <c r="A14" s="80"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="39">
         <v>6600</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="180">
+      <c r="D14" s="75"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="37">
         <v>7600</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="158"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="180" t="s">
+      <c r="K14" s="80"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="82"/>
+      <c r="N14" s="90"/>
       <c r="O14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="180" t="s">
+      <c r="P14" s="80"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="65"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="179"/>
-      <c r="W14" s="180" t="s">
+      <c r="S14" s="75"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="64" t="s">
+      <c r="X14" s="75"/>
+      <c r="Y14" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="179"/>
-      <c r="AB14" s="180" t="s">
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="167" t="s">
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AG14" s="164" t="s">
+      <c r="AG14" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46" t="s">
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="46" t="s">
+      <c r="AJ14" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AK14" s="48" t="s">
+      <c r="AK14" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="154"/>
-      <c r="AM14" s="167" t="s">
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="167" t="s">
+      <c r="AN14" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46" t="s">
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="46" t="s">
+      <c r="AQ14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="117" t="s">
+      <c r="AR14" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AS14" s="154"/>
-      <c r="AT14" s="167" t="s">
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AU14" s="164" t="s">
+      <c r="AU14" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="AV14" s="46"/>
+      <c r="AV14" s="69"/>
       <c r="AW14" s="18" t="s">
         <v>112</v>
       </c>
@@ -3857,445 +3860,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="187" t="s">
+      <c r="A15" s="80"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="180" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="82"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="158"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="180">
+      <c r="K15" s="80"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="37">
         <v>8500</v>
       </c>
-      <c r="N15" s="82"/>
+      <c r="N15" s="90"/>
       <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="180">
+      <c r="P15" s="80"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="37">
         <v>9700</v>
       </c>
-      <c r="S15" s="65"/>
-      <c r="T15" s="64" t="s">
+      <c r="S15" s="75"/>
+      <c r="T15" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="154"/>
-      <c r="V15" s="179" t="s">
+      <c r="U15" s="57"/>
+      <c r="V15" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="W15" s="180" t="s">
+      <c r="W15" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X15" s="65" t="s">
+      <c r="X15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="179"/>
-      <c r="AB15" s="180">
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="37">
         <v>11700</v>
       </c>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="64" t="s">
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="164" t="s">
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="154"/>
-      <c r="AM15" s="167"/>
-      <c r="AN15" s="167"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="117"/>
-      <c r="AS15" s="154"/>
-      <c r="AT15" s="167"/>
-      <c r="AU15" s="164" t="s">
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="46" t="s">
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="AX15" s="46" t="s">
+      <c r="AX15" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="AY15" s="117" t="s">
+      <c r="AY15" s="43" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="187">
+      <c r="A16" s="80"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="39">
         <v>6500</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="180">
+      <c r="D16" s="75"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="37">
         <v>7500</v>
       </c>
-      <c r="I16" s="82"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="158"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="180" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="90"/>
       <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="180" t="s">
+      <c r="P16" s="80"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="65"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="179"/>
-      <c r="W16" s="180" t="s">
+      <c r="S16" s="75"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="179"/>
-      <c r="AB16" s="180" t="s">
+      <c r="X16" s="75"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="154"/>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="164">
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="31">
         <v>12700</v>
       </c>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46" t="s">
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="48" t="s">
+      <c r="AK16" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="AL16" s="154"/>
-      <c r="AM16" s="167"/>
-      <c r="AN16" s="164" t="s">
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46" t="s">
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AR16" s="117" t="s">
+      <c r="AR16" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AS16" s="154"/>
-      <c r="AT16" s="167"/>
-      <c r="AU16" s="164" t="s">
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="117"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="43"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="187" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="71" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="162"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="180" t="s">
+      <c r="F17" s="93"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="82"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="158"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="180">
+      <c r="K17" s="80"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="37">
         <v>8400</v>
       </c>
-      <c r="N17" s="82"/>
+      <c r="N17" s="90"/>
       <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="180" t="s">
+      <c r="P17" s="80"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="65"/>
+      <c r="S17" s="75"/>
       <c r="T17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="154"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="180">
+      <c r="U17" s="57"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="37">
         <v>10700</v>
       </c>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="64" t="s">
+      <c r="X17" s="75"/>
+      <c r="Y17" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="179"/>
-      <c r="AB17" s="180" t="s">
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AC17" s="65"/>
+      <c r="AC17" s="75"/>
       <c r="AD17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="167"/>
-      <c r="AG17" s="164" t="s">
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="154"/>
-      <c r="AM17" s="167"/>
-      <c r="AN17" s="164" t="s">
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="117"/>
-      <c r="AS17" s="154"/>
-      <c r="AT17" s="167"/>
-      <c r="AU17" s="164">
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="31">
         <v>14700</v>
       </c>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46" t="s">
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="AY17" s="117" t="s">
+      <c r="AY17" s="43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="187" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="180">
+      <c r="D18" s="75"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="37">
         <v>7400</v>
       </c>
-      <c r="I18" s="82"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="158"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="180" t="s">
+      <c r="K18" s="80"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="82"/>
+      <c r="N18" s="90"/>
       <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="65" t="s">
+      <c r="P18" s="80"/>
+      <c r="Q18" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="180" t="s">
+      <c r="R18" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="65" t="s">
+      <c r="S18" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="64" t="s">
+      <c r="T18" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="154"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="180" t="s">
+      <c r="U18" s="57"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="179" t="s">
+      <c r="X18" s="75"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="AB18" s="180" t="s">
+      <c r="AB18" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AC18" s="65" t="s">
+      <c r="AC18" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="64" t="s">
+      <c r="AD18" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="167"/>
-      <c r="AG18" s="164" t="s">
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
       <c r="AJ18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="167"/>
-      <c r="AN18" s="164">
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="31">
         <v>13700</v>
       </c>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46" t="s">
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="117" t="s">
+      <c r="AR18" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="167"/>
-      <c r="AU18" s="164" t="s">
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="117"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="43"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="187" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="180" t="s">
+      <c r="F19" s="93"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="82"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="158"/>
-      <c r="L19" s="188" t="s">
+      <c r="K19" s="80"/>
+      <c r="L19" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="180" t="s">
+      <c r="M19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="82" t="s">
+      <c r="N19" s="90" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="180" t="s">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="65"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="179"/>
-      <c r="W19" s="180" t="s">
+      <c r="S19" s="75"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="65"/>
+      <c r="X19" s="75"/>
       <c r="Y19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="179"/>
-      <c r="AB19" s="180" t="s">
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="167" t="s">
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AG19" s="164" t="s">
+      <c r="AG19" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="AH19" s="46" t="s">
+      <c r="AH19" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46" t="s">
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AK19" s="48" t="s">
+      <c r="AK19" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="AL19" s="154"/>
-      <c r="AM19" s="167"/>
-      <c r="AN19" s="164" t="s">
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="117"/>
-      <c r="AS19" s="154"/>
-      <c r="AT19" s="167"/>
-      <c r="AU19" s="164" t="s">
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="46"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
       <c r="AX19" s="18" t="s">
         <v>271</v>
       </c>
@@ -4304,170 +4307,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="187" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="65"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="82" t="s">
+      <c r="F20" s="93"/>
+      <c r="G20" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="180" t="s">
+      <c r="H20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="90" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="158"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="180">
+      <c r="K20" s="80"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="37">
         <v>8300</v>
       </c>
-      <c r="N20" s="82"/>
+      <c r="N20" s="90"/>
       <c r="O20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="180">
+      <c r="P20" s="80"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="37">
         <v>9600</v>
       </c>
-      <c r="S20" s="65"/>
+      <c r="S20" s="75"/>
       <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="154"/>
-      <c r="V20" s="179" t="s">
+      <c r="U20" s="57"/>
+      <c r="V20" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="180" t="s">
+      <c r="W20" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="65" t="s">
+      <c r="X20" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="179"/>
-      <c r="AB20" s="180">
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="37">
         <v>11600</v>
       </c>
-      <c r="AC20" s="65"/>
+      <c r="AC20" s="75"/>
       <c r="AD20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="167"/>
-      <c r="AG20" s="164" t="s">
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="154"/>
-      <c r="AM20" s="167"/>
-      <c r="AN20" s="164" t="s">
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
       <c r="AQ20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS20" s="154"/>
-      <c r="AT20" s="167" t="s">
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AU20" s="164" t="s">
+      <c r="AU20" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="AV20" s="46" t="s">
+      <c r="AV20" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="46" t="s">
+      <c r="AW20" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="46" t="s">
+      <c r="AX20" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="AY20" s="117" t="s">
+      <c r="AY20" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="158"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="187">
+      <c r="A21" s="80"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="39">
         <v>6400</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="180">
+      <c r="F21" s="93"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="37">
         <v>7320</v>
       </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="94" t="s">
+      <c r="I21" s="90"/>
+      <c r="J21" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="180" t="s">
+      <c r="K21" s="80"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="82"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="180" t="s">
+      <c r="P21" s="80"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="65"/>
+      <c r="S21" s="75"/>
       <c r="T21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="154"/>
-      <c r="V21" s="179"/>
-      <c r="W21" s="180" t="s">
+      <c r="U21" s="57"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="179"/>
-      <c r="AB21" s="180" t="s">
+      <c r="X21" s="75"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AC21" s="65"/>
+      <c r="AC21" s="75"/>
       <c r="AD21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="167"/>
-      <c r="AG21" s="164">
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="31">
         <v>12600</v>
       </c>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="50" t="s">
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="70" t="s">
         <v>142</v>
       </c>
       <c r="AJ21" s="18" t="s">
@@ -4476,119 +4479,119 @@
       <c r="AK21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL21" s="154"/>
-      <c r="AM21" s="167" t="s">
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AN21" s="164" t="s">
+      <c r="AN21" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="AO21" s="46" t="s">
+      <c r="AO21" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46" t="s">
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AR21" s="117" t="s">
+      <c r="AR21" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="AS21" s="154"/>
-      <c r="AT21" s="167"/>
-      <c r="AU21" s="164" t="s">
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="117"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="43"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="187">
+      <c r="C22" s="39">
         <v>6320</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="180">
+      <c r="F22" s="93"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="37">
         <v>7300</v>
       </c>
-      <c r="I22" s="82"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="180">
+      <c r="I22" s="90"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="37">
         <v>8100</v>
       </c>
-      <c r="N22" s="82"/>
-      <c r="O22" s="83" t="s">
+      <c r="N22" s="90"/>
+      <c r="O22" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="180">
+      <c r="P22" s="80"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="37">
         <v>9500</v>
       </c>
-      <c r="S22" s="65"/>
-      <c r="T22" s="64" t="s">
+      <c r="S22" s="75"/>
+      <c r="T22" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="154"/>
-      <c r="V22" s="179"/>
-      <c r="W22" s="180">
+      <c r="U22" s="57"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="37">
         <v>10600</v>
       </c>
-      <c r="X22" s="65"/>
+      <c r="X22" s="75"/>
       <c r="Y22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="179"/>
-      <c r="AB22" s="180">
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="37">
         <v>11500</v>
       </c>
-      <c r="AC22" s="65"/>
+      <c r="AC22" s="75"/>
       <c r="AD22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="167"/>
-      <c r="AG22" s="164" t="s">
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="50"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="70"/>
       <c r="AJ22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL22" s="154"/>
-      <c r="AM22" s="167"/>
-      <c r="AN22" s="164" t="s">
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="117"/>
-      <c r="AS22" s="154"/>
-      <c r="AT22" s="167"/>
-      <c r="AU22" s="164">
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="31">
         <v>14600</v>
       </c>
-      <c r="AV22" s="46"/>
-      <c r="AW22" s="46"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
       <c r="AX22" s="18" t="s">
         <v>181</v>
       </c>
@@ -4597,87 +4600,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="187">
+      <c r="A23" s="80"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="39">
         <v>6300</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="180" t="s">
+      <c r="D23" s="75"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="82"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="158"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="180" t="s">
+      <c r="K23" s="80"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="82"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="180" t="s">
+      <c r="N23" s="90"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="65"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="179"/>
-      <c r="W23" s="180" t="s">
+      <c r="S23" s="75"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="X23" s="65"/>
+      <c r="X23" s="75"/>
       <c r="Y23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="179"/>
-      <c r="AB23" s="180" t="s">
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="AC23" s="65"/>
+      <c r="AC23" s="75"/>
       <c r="AD23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="167"/>
-      <c r="AG23" s="164">
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="31">
         <v>12500</v>
       </c>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="50"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="70"/>
       <c r="AJ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL23" s="154"/>
-      <c r="AM23" s="167"/>
-      <c r="AN23" s="164">
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="31">
         <v>13600</v>
       </c>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
       <c r="AQ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS23" s="154"/>
-      <c r="AT23" s="167"/>
-      <c r="AU23" s="164" t="s">
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
       <c r="AX23" s="18" t="s">
         <v>271</v>
       </c>
@@ -4686,91 +4689,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="158"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="187">
+      <c r="A24" s="80"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="39">
         <v>6100</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="180">
+      <c r="D24" s="75"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="37">
         <v>7100</v>
       </c>
-      <c r="I24" s="82"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="158"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="180" t="s">
+      <c r="K24" s="80"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="82"/>
+      <c r="N24" s="90"/>
       <c r="O24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="180" t="s">
+      <c r="P24" s="80"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="65"/>
+      <c r="S24" s="75"/>
       <c r="T24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="154"/>
-      <c r="V24" s="179"/>
-      <c r="W24" s="180">
+      <c r="U24" s="57"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="37">
         <v>10500</v>
       </c>
-      <c r="X24" s="65"/>
+      <c r="X24" s="75"/>
       <c r="Y24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="179"/>
-      <c r="AB24" s="180">
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="37">
         <v>11400</v>
       </c>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="64" t="s">
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="167"/>
-      <c r="AG24" s="164" t="s">
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="50"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="70"/>
       <c r="AJ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="167"/>
-      <c r="AN24" s="164" t="s">
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
       <c r="AQ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="167"/>
-      <c r="AU24" s="164">
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="31">
         <v>14500</v>
       </c>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
       <c r="AX24" s="18" t="s">
         <v>181</v>
       </c>
@@ -4779,97 +4782,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="187" t="s">
+      <c r="A25" s="80"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="71" t="s">
+      <c r="D25" s="75"/>
+      <c r="E25" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="162"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="180" t="s">
+      <c r="F25" s="93"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="82"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="158"/>
-      <c r="L25" s="183" t="s">
+      <c r="K25" s="80"/>
+      <c r="L25" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="180" t="s">
+      <c r="M25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="82" t="s">
+      <c r="N25" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="83" t="s">
+      <c r="O25" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="180">
+      <c r="P25" s="80"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="37">
         <v>9400</v>
       </c>
-      <c r="S25" s="65"/>
-      <c r="T25" s="64" t="s">
+      <c r="S25" s="75"/>
+      <c r="T25" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="154"/>
-      <c r="V25" s="179"/>
-      <c r="W25" s="180" t="s">
+      <c r="U25" s="57"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="X25" s="65"/>
+      <c r="X25" s="75"/>
       <c r="Y25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="179"/>
-      <c r="AB25" s="180" t="s">
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="167"/>
-      <c r="AG25" s="49" t="s">
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="46" t="s">
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="48" t="s">
+      <c r="AK25" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="AL25" s="154"/>
-      <c r="AM25" s="150" t="s">
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="59" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="21">
         <v>13500</v>
       </c>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="46"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
       <c r="AQ25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS25" s="154"/>
-      <c r="AT25" s="167"/>
-      <c r="AU25" s="164" t="s">
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
       <c r="AX25" s="18" t="s">
         <v>271</v>
       </c>
@@ -4878,329 +4881,329 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="158"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="187" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="180" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="82"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="158"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="180" t="s">
+      <c r="K26" s="80"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="180" t="s">
+      <c r="N26" s="90"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="65"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="179"/>
-      <c r="W26" s="180">
+      <c r="S26" s="75"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="37">
         <v>10400</v>
       </c>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="64" t="s">
+      <c r="X26" s="75"/>
+      <c r="Y26" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="181"/>
-      <c r="AB26" s="182" t="s">
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AC26" s="66"/>
+      <c r="AC26" s="82"/>
       <c r="AD26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="167"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="154"/>
-      <c r="AM26" s="151"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="60"/>
       <c r="AN26" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="69"/>
       <c r="AQ26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS26" s="154"/>
-      <c r="AT26" s="167"/>
-      <c r="AU26" s="164" t="s">
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46" t="s">
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="46" t="s">
+      <c r="AX26" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="AY26" s="117" t="s">
+      <c r="AY26" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="187" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="180" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="82"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="158"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="180" t="s">
+      <c r="K27" s="80"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="90"/>
       <c r="O27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="180" t="s">
+      <c r="P27" s="80"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="65"/>
+      <c r="S27" s="75"/>
       <c r="T27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="154"/>
-      <c r="V27" s="179"/>
-      <c r="W27" s="180" t="s">
+      <c r="U27" s="57"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="71"/>
-      <c r="AA27" s="175"/>
-      <c r="AB27" s="176"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="167"/>
-      <c r="AG27" s="164">
+      <c r="X27" s="75"/>
+      <c r="Y27" s="99"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="35"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="31">
         <v>12400</v>
       </c>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="154"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="49" t="s">
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="60"/>
+      <c r="AN27" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46" t="s">
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="46" t="s">
+      <c r="AQ27" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="117" t="s">
+      <c r="AR27" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="AS27" s="154"/>
-      <c r="AT27" s="167"/>
-      <c r="AU27" s="164">
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="31">
         <v>14400</v>
       </c>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="46"/>
-      <c r="AX27" s="46"/>
-      <c r="AY27" s="117"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="43"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="158"/>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="82" t="s">
+      <c r="F28" s="93"/>
+      <c r="G28" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="180" t="s">
+      <c r="H28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="82"/>
-      <c r="J28" s="94" t="s">
+      <c r="I28" s="90"/>
+      <c r="J28" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="158"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="180" t="s">
+      <c r="K28" s="80"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="82"/>
+      <c r="N28" s="90"/>
       <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="65" t="s">
+      <c r="P28" s="80"/>
+      <c r="Q28" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="180" t="s">
+      <c r="R28" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="65" t="s">
+      <c r="S28" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="64" t="s">
+      <c r="T28" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="154"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="180" t="s">
+      <c r="U28" s="57"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="X28" s="65"/>
+      <c r="X28" s="75"/>
       <c r="Y28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="167"/>
-      <c r="AG28" s="164" t="s">
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="151"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="117"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="167"/>
-      <c r="AU28" s="164" t="s">
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="117"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="43"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="187" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="180" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="189"/>
-      <c r="M29" s="180" t="s">
+      <c r="I29" s="90"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="82"/>
+      <c r="N29" s="90"/>
       <c r="O29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="180" t="s">
+      <c r="P29" s="80"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="65"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="154"/>
-      <c r="V29" s="179" t="s">
+      <c r="S29" s="75"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="W29" s="180">
+      <c r="W29" s="37">
         <v>10320</v>
       </c>
-      <c r="X29" s="65" t="s">
+      <c r="X29" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="71" t="s">
+      <c r="Y29" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="167"/>
-      <c r="AG29" s="164" t="s">
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="50"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="70"/>
       <c r="AJ29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL29" s="154"/>
-      <c r="AM29" s="151"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="60"/>
       <c r="AN29" s="21">
         <v>13400</v>
       </c>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
       <c r="AQ29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS29" s="154"/>
-      <c r="AT29" s="167"/>
-      <c r="AU29" s="164" t="s">
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="46"/>
+      <c r="AV29" s="69"/>
+      <c r="AW29" s="69"/>
       <c r="AX29" s="18" t="s">
         <v>271</v>
       </c>
@@ -5209,266 +5212,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="187" t="s">
+      <c r="A30" s="80"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="162"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="180" t="s">
+      <c r="F30" s="93"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="82"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="158"/>
-      <c r="L30" s="82" t="s">
+      <c r="K30" s="80"/>
+      <c r="L30" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="180" t="s">
+      <c r="M30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="82" t="s">
+      <c r="N30" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="83" t="s">
+      <c r="O30" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="180">
+      <c r="P30" s="80"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="37">
         <v>9320</v>
       </c>
-      <c r="S30" s="65"/>
-      <c r="T30" s="64" t="s">
+      <c r="S30" s="75"/>
+      <c r="T30" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="154"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="180">
+      <c r="U30" s="57"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="37">
         <v>10300</v>
       </c>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="71"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="167" t="s">
+      <c r="X30" s="75"/>
+      <c r="Y30" s="99"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="AG30" s="164">
+      <c r="AG30" s="31">
         <v>12300</v>
       </c>
-      <c r="AH30" s="46" t="s">
+      <c r="AH30" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="50"/>
+      <c r="AI30" s="70"/>
       <c r="AJ30" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AL30" s="154"/>
-      <c r="AM30" s="151"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="60"/>
       <c r="AN30" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AO30" s="46"/>
-      <c r="AP30" s="46"/>
+      <c r="AO30" s="69"/>
+      <c r="AP30" s="69"/>
       <c r="AQ30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS30" s="154"/>
-      <c r="AT30" s="167" t="s">
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="AU30" s="164">
+      <c r="AU30" s="31">
         <v>14100</v>
       </c>
-      <c r="AV30" s="46" t="s">
+      <c r="AV30" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="50" t="s">
+      <c r="AW30" s="70" t="s">
         <v>142</v>
       </c>
       <c r="AX30" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="AY30" s="117" t="s">
+      <c r="AY30" s="43" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="187" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="162"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="180" t="s">
+      <c r="F31" s="93"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="82"/>
+      <c r="I31" s="90"/>
       <c r="J31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="158"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="180" t="s">
+      <c r="K31" s="80"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="82"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="180">
+      <c r="N31" s="90"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="37">
         <v>9300</v>
       </c>
-      <c r="S31" s="65"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="154"/>
-      <c r="V31" s="179"/>
-      <c r="W31" s="180" t="s">
+      <c r="S31" s="75"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="X31" s="65"/>
+      <c r="X31" s="75"/>
       <c r="Y31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="167"/>
-      <c r="AG31" s="164" t="s">
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="50"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="70"/>
       <c r="AJ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL31" s="154"/>
-      <c r="AM31" s="152"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="61"/>
       <c r="AN31" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="69"/>
       <c r="AQ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AS31" s="154"/>
-      <c r="AT31" s="167"/>
-      <c r="AU31" s="164" t="s">
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AV31" s="46"/>
-      <c r="AW31" s="50"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="70"/>
       <c r="AX31" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="AY31" s="117"/>
+      <c r="AY31" s="43"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="187" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="71" t="s">
+      <c r="D32" s="75"/>
+      <c r="E32" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="162"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="180" t="s">
+      <c r="F32" s="93"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="82"/>
+      <c r="I32" s="90"/>
       <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="180" t="s">
+      <c r="K32" s="80"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="82"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="180" t="s">
+      <c r="N32" s="90"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="65"/>
+      <c r="S32" s="75"/>
       <c r="T32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="154"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="180">
+      <c r="U32" s="57"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="37">
         <v>10100</v>
       </c>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="71" t="s">
+      <c r="X32" s="75"/>
+      <c r="Y32" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="167"/>
-      <c r="AG32" s="164">
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="31">
         <v>12100</v>
       </c>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="50"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="70"/>
       <c r="AJ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="48" t="s">
+      <c r="AK32" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="AL32" s="154"/>
-      <c r="AM32" s="170" t="s">
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="62" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="21">
         <v>13100</v>
       </c>
-      <c r="AO32" s="46" t="s">
+      <c r="AO32" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="50" t="s">
+      <c r="AP32" s="70" t="s">
         <v>142</v>
       </c>
       <c r="AQ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="117" t="s">
+      <c r="AR32" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="AS32" s="154"/>
-      <c r="AT32" s="167"/>
-      <c r="AU32" s="164" t="s">
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="AV32" s="46"/>
-      <c r="AW32" s="50"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="70"/>
       <c r="AX32" s="18" t="s">
         <v>271</v>
       </c>
@@ -5477,578 +5480,545 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="187" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="82" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="180" t="s">
+      <c r="H33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="82" t="s">
+      <c r="I33" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="94" t="s">
+      <c r="J33" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="159"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="182" t="s">
+      <c r="K33" s="81"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="95"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="180">
+      <c r="P33" s="80"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="37">
         <v>9100</v>
       </c>
-      <c r="S33" s="65"/>
-      <c r="T33" s="64" t="s">
+      <c r="S33" s="75"/>
+      <c r="T33" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="154"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="180" t="s">
+      <c r="U33" s="57"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="71"/>
-      <c r="AE33" s="154"/>
-      <c r="AF33" s="167"/>
-      <c r="AG33" s="164" t="s">
+      <c r="X33" s="75"/>
+      <c r="Y33" s="99"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="50"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="70"/>
       <c r="AJ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="154"/>
-      <c r="AM33" s="171"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="63"/>
       <c r="AN33" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="50"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="70"/>
       <c r="AQ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AR33" s="117"/>
-      <c r="AS33" s="154"/>
-      <c r="AT33" s="168" t="s">
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="AU33" s="165">
+      <c r="AU33" s="32">
         <v>300</v>
       </c>
-      <c r="AV33" s="168" t="s">
+      <c r="AV33" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="50"/>
+      <c r="AW33" s="70"/>
       <c r="AX33" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="AY33" s="173" t="s">
+      <c r="AY33" s="67" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="71" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="162"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="180" t="s">
+      <c r="F34" s="93"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="82"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="190"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="180" t="s">
+      <c r="I34" s="90"/>
+      <c r="J34" s="98"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="65"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="154"/>
-      <c r="V34" s="179"/>
-      <c r="W34" s="180" t="s">
+      <c r="S34" s="75"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X34" s="65"/>
+      <c r="X34" s="75"/>
       <c r="Y34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="154"/>
-      <c r="AF34" s="167"/>
-      <c r="AG34" s="164" t="s">
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="50"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="70"/>
       <c r="AJ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL34" s="155"/>
-      <c r="AM34" s="172"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="64"/>
       <c r="AN34" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AO34" s="47"/>
-      <c r="AP34" s="51"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="71"/>
       <c r="AQ34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="AS34" s="155"/>
-      <c r="AT34" s="169"/>
-      <c r="AU34" s="166" t="s">
+      <c r="AS34" s="58"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AV34" s="169"/>
-      <c r="AW34" s="51"/>
+      <c r="AV34" s="66"/>
+      <c r="AW34" s="71"/>
       <c r="AX34" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AY34" s="174"/>
+      <c r="AY34" s="68"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="158"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="187" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="182" t="s">
+      <c r="D35" s="75"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="95"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="186"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="190"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="180" t="s">
+      <c r="P35" s="80"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="65"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="154"/>
-      <c r="V35" s="179" t="s">
+      <c r="U35" s="57"/>
+      <c r="V35" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="W35" s="180" t="s">
+      <c r="W35" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="X35" s="65" t="s">
+      <c r="X35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="71" t="s">
+      <c r="Y35" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="AE35" s="154"/>
-      <c r="AF35" s="167" t="s">
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="AG35" s="164" t="s">
+      <c r="AG35" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AH35" s="46" t="s">
+      <c r="AH35" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="50"/>
+      <c r="AI35" s="70"/>
       <c r="AJ35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK35" s="44" t="s">
+      <c r="AK35" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="AL35" s="175"/>
-      <c r="AM35" s="176"/>
-      <c r="AN35" s="176"/>
-      <c r="AO35" s="176"/>
-      <c r="AP35" s="176"/>
-      <c r="AQ35" s="176"/>
-      <c r="AR35" s="176"/>
-      <c r="AS35" s="176"/>
-      <c r="AT35" s="176"/>
-      <c r="AU35" s="176"/>
-      <c r="AV35" s="176"/>
-      <c r="AW35" s="176"/>
-      <c r="AX35" s="176"/>
-      <c r="AY35" s="176"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AT35" s="35"/>
+      <c r="AU35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="35"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="158"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="187" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="71" t="s">
+      <c r="D36" s="75"/>
+      <c r="E36" s="99" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="186"/>
-      <c r="M36" s="190"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="68" t="s">
+      <c r="P36" s="80"/>
+      <c r="Q36" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="R36" s="180" t="s">
+      <c r="R36" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="65" t="s">
+      <c r="S36" s="75" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="154"/>
-      <c r="V36" s="179"/>
-      <c r="W36" s="180" t="s">
+      <c r="U36" s="57"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="71"/>
-      <c r="AE36" s="154"/>
-      <c r="AF36" s="167"/>
-      <c r="AG36" s="164" t="s">
+      <c r="X36" s="75"/>
+      <c r="Y36" s="99"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="50"/>
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="70"/>
       <c r="AJ36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="44"/>
-      <c r="AL36" s="175"/>
-      <c r="AM36" s="176"/>
-      <c r="AN36" s="176"/>
-      <c r="AO36" s="176"/>
-      <c r="AP36" s="176"/>
-      <c r="AQ36" s="176"/>
-      <c r="AR36" s="176"/>
-      <c r="AS36" s="176"/>
-      <c r="AT36" s="176"/>
-      <c r="AU36" s="176"/>
-      <c r="AV36" s="176"/>
-      <c r="AW36" s="176"/>
-      <c r="AX36" s="176"/>
-      <c r="AY36" s="176"/>
+      <c r="AK36" s="125"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="35"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="35"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="35"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="191" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="92"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="186"/>
-      <c r="L37" s="186"/>
-      <c r="M37" s="190"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="180" t="s">
+      <c r="P37" s="80"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="65"/>
+      <c r="S37" s="75"/>
       <c r="T37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="154"/>
-      <c r="V37" s="179"/>
-      <c r="W37" s="180" t="s">
+      <c r="U37" s="57"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="X37" s="65"/>
+      <c r="X37" s="75"/>
       <c r="Y37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="154"/>
-      <c r="AF37" s="167" t="s">
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AG37" s="164" t="s">
+      <c r="AG37" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AH37" s="46" t="s">
+      <c r="AH37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="50"/>
+      <c r="AI37" s="70"/>
       <c r="AJ37" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="175"/>
-      <c r="AM37" s="176"/>
-      <c r="AN37" s="176"/>
-      <c r="AO37" s="176"/>
-      <c r="AP37" s="176"/>
-      <c r="AQ37" s="176"/>
-      <c r="AR37" s="176"/>
-      <c r="AS37" s="176"/>
-      <c r="AT37" s="176"/>
-      <c r="AU37" s="176"/>
-      <c r="AV37" s="176"/>
-      <c r="AW37" s="176"/>
-      <c r="AX37" s="176"/>
-      <c r="AY37" s="176"/>
+      <c r="AK37" s="125"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="35"/>
+      <c r="AS37" s="35"/>
+      <c r="AT37" s="35"/>
+      <c r="AU37" s="35"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="35"/>
+      <c r="AY37" s="35"/>
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="186"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186"/>
-      <c r="L38" s="186"/>
-      <c r="M38" s="190"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="180" t="s">
+      <c r="C38" s="41"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="65"/>
+      <c r="S38" s="75"/>
       <c r="T38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="154"/>
-      <c r="V38" s="179"/>
-      <c r="W38" s="180" t="s">
+      <c r="U38" s="57"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="X38" s="65"/>
+      <c r="X38" s="75"/>
       <c r="Y38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE38" s="155"/>
-      <c r="AF38" s="177"/>
-      <c r="AG38" s="178" t="s">
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="51"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="71"/>
       <c r="AJ38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="175"/>
-      <c r="AM38" s="176"/>
-      <c r="AN38" s="176"/>
-      <c r="AO38" s="176"/>
-      <c r="AP38" s="176"/>
-      <c r="AQ38" s="176"/>
-      <c r="AR38" s="176"/>
-      <c r="AS38" s="176"/>
-      <c r="AT38" s="176"/>
-      <c r="AU38" s="176"/>
-      <c r="AV38" s="176"/>
-      <c r="AW38" s="176"/>
-      <c r="AX38" s="176"/>
-      <c r="AY38" s="176"/>
+      <c r="AK38" s="126"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="35"/>
+      <c r="AU38" s="35"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35"/>
+      <c r="AY38" s="35"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="158"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="180" t="s">
+      <c r="P39" s="80"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="65"/>
+      <c r="S39" s="75"/>
       <c r="T39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="154"/>
-      <c r="V39" s="179"/>
-      <c r="W39" s="180" t="s">
+      <c r="U39" s="57"/>
+      <c r="V39" s="102"/>
+      <c r="W39" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="X39" s="65"/>
+      <c r="X39" s="75"/>
       <c r="Y39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AF39" s="176"/>
-      <c r="AG39" s="176"/>
-      <c r="AH39" s="176"/>
-      <c r="AI39" s="176"/>
-      <c r="AJ39" s="176"/>
-      <c r="AK39" s="176"/>
-      <c r="AL39" s="175"/>
-      <c r="AM39" s="176"/>
-      <c r="AN39" s="176"/>
-      <c r="AO39" s="176"/>
-      <c r="AP39" s="176"/>
-      <c r="AQ39" s="176"/>
-      <c r="AR39" s="176"/>
-      <c r="AS39" s="176"/>
-      <c r="AT39" s="176"/>
-      <c r="AU39" s="176"/>
-      <c r="AV39" s="176"/>
-      <c r="AW39" s="176"/>
-      <c r="AX39" s="176"/>
-      <c r="AY39" s="176"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="158"/>
-      <c r="Q40" s="65" t="s">
+      <c r="P40" s="80"/>
+      <c r="Q40" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="R40" s="180" t="s">
+      <c r="R40" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="65" t="s">
+      <c r="S40" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="64" t="s">
+      <c r="T40" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="154"/>
-      <c r="V40" s="65" t="s">
+      <c r="U40" s="57"/>
+      <c r="V40" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="180" t="s">
+      <c r="W40" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="X40" s="65" t="s">
+      <c r="X40" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="71" t="s">
+      <c r="Y40" s="99" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="158"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="180" t="s">
+      <c r="P41" s="80"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="65"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="180" t="s">
+      <c r="S41" s="75"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="71"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="99"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="159"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="182" t="s">
+      <c r="P42" s="81"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="66"/>
+      <c r="S42" s="82"/>
       <c r="T42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="154"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="180" t="s">
+      <c r="U42" s="57"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="71"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="99"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="Q43" s="186"/>
-      <c r="R43" s="186"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="180" t="s">
+      <c r="U43" s="57"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="X43" s="65"/>
+      <c r="X43" s="75"/>
       <c r="Y43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="154"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="180" t="s">
+      <c r="U44" s="57"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="X44" s="65"/>
+      <c r="X44" s="75"/>
       <c r="Y44" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="154"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="180" t="s">
+      <c r="U45" s="57"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="X45" s="65"/>
+      <c r="X45" s="75"/>
       <c r="Y45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="154"/>
-      <c r="V46" s="160" t="s">
+      <c r="U46" s="57"/>
+      <c r="V46" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="160"/>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="161"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="108"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="154"/>
+      <c r="U47" s="57"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="180">
+      <c r="W47" s="37">
         <v>10505</v>
       </c>
       <c r="X47" s="2" t="s">
@@ -6059,136 +6029,372 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="154"/>
-      <c r="V48" s="179" t="s">
+      <c r="U48" s="57"/>
+      <c r="V48" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="W48" s="180">
+      <c r="W48" s="37">
         <v>10325</v>
       </c>
-      <c r="X48" s="65" t="s">
+      <c r="X48" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="67" t="s">
+      <c r="Y48" s="109" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="154"/>
-      <c r="V49" s="179"/>
-      <c r="W49" s="180">
+      <c r="U49" s="57"/>
+      <c r="V49" s="102"/>
+      <c r="W49" s="37">
         <v>10305</v>
       </c>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="67"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="109"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="154"/>
-      <c r="V50" s="179"/>
-      <c r="W50" s="180" t="s">
+      <c r="U50" s="57"/>
+      <c r="V50" s="102"/>
+      <c r="W50" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X50" s="65"/>
+      <c r="X50" s="75"/>
       <c r="Y50" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="154"/>
-      <c r="V51" s="179"/>
-      <c r="W51" s="180">
+      <c r="U51" s="57"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="37">
         <v>10105</v>
       </c>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="67" t="s">
+      <c r="X51" s="75"/>
+      <c r="Y51" s="109" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="154"/>
-      <c r="V52" s="179"/>
-      <c r="W52" s="180" t="s">
+      <c r="U52" s="57"/>
+      <c r="V52" s="102"/>
+      <c r="W52" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="67"/>
+      <c r="X52" s="75"/>
+      <c r="Y52" s="109"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="154"/>
-      <c r="V53" s="179"/>
-      <c r="W53" s="180" t="s">
+      <c r="U53" s="57"/>
+      <c r="V53" s="102"/>
+      <c r="W53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="65"/>
+      <c r="X53" s="75"/>
       <c r="Y53" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="154"/>
-      <c r="V54" s="183" t="s">
+      <c r="U54" s="57"/>
+      <c r="V54" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="W54" s="180" t="s">
+      <c r="W54" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="X54" s="65" t="s">
+      <c r="X54" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="67" t="s">
+      <c r="Y54" s="109" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="154"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="180" t="s">
+      <c r="U55" s="57"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="67"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="109"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="154"/>
-      <c r="V56" s="184"/>
-      <c r="W56" s="180" t="s">
+      <c r="U56" s="57"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="X56" s="65"/>
+      <c r="X56" s="75"/>
       <c r="Y56" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="154"/>
-      <c r="V57" s="184"/>
-      <c r="W57" s="180" t="s">
+      <c r="U57" s="57"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X57" s="65"/>
+      <c r="X57" s="75"/>
       <c r="Y57" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="155"/>
-      <c r="V58" s="185"/>
-      <c r="W58" s="182" t="s">
+      <c r="U58" s="58"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="X58" s="66"/>
+      <c r="X58" s="82"/>
       <c r="Y58" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="V59" s="175"/>
-      <c r="W59" s="176"/>
-      <c r="X59" s="175"/>
-      <c r="Y59" s="175"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AE8:AE38"/>
+    <mergeCell ref="AH4:AI6"/>
+    <mergeCell ref="AK35:AK38"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AJ25:AJ28"/>
+    <mergeCell ref="AK25:AK28"/>
+    <mergeCell ref="AI21:AI38"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
     <mergeCell ref="AE2:AY2"/>
     <mergeCell ref="AY30:AY31"/>
     <mergeCell ref="AL3:AR3"/>
@@ -6213,242 +6419,6 @@
     <mergeCell ref="AY26:AY28"/>
     <mergeCell ref="AW30:AW34"/>
     <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AE8:AE38"/>
-    <mergeCell ref="AH4:AI6"/>
-    <mergeCell ref="AK35:AK38"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AJ25:AJ28"/>
-    <mergeCell ref="AK25:AK28"/>
-    <mergeCell ref="AI21:AI38"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0D0667-472A-4CDA-B823-A54F2823EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984CBB6-135A-4C09-9327-3D8E82FDA989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="316">
   <si>
     <t>TDP</t>
   </si>
@@ -1102,6 +1102,12 @@
       </rPr>
       <t xml:space="preserve"> ).</t>
     </r>
+  </si>
+  <si>
+    <t>H310
+B365
+H370
+Z390</t>
   </si>
 </sst>
 </file>
@@ -1875,11 +1881,359 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1890,14 +2244,32 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1908,23 +2280,23 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1954,372 +2326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2647,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AY3"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,30 +2705,30 @@
       <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="103" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
       <c r="U2" s="106" t="s">
         <v>200</v>
       </c>
@@ -2735,384 +2741,384 @@
       <c r="AB2" s="106"/>
       <c r="AC2" s="106"/>
       <c r="AD2" s="106"/>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="156"/>
+      <c r="AL2" s="156"/>
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="156"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="156"/>
+      <c r="AQ2" s="156"/>
+      <c r="AR2" s="156"/>
+      <c r="AS2" s="156"/>
+      <c r="AT2" s="156"/>
+      <c r="AU2" s="156"/>
+      <c r="AV2" s="156"/>
+      <c r="AW2" s="156"/>
+      <c r="AX2" s="156"/>
+      <c r="AY2" s="156"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171" t="s">
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174" t="s">
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="177" t="s">
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="180" t="s">
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="183" t="s">
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="184"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="184"/>
-      <c r="AJ3" s="184"/>
-      <c r="AK3" s="184"/>
-      <c r="AL3" s="185" t="s">
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="157" t="s">
         <v>297</v>
       </c>
-      <c r="AM3" s="186"/>
-      <c r="AN3" s="186"/>
-      <c r="AO3" s="186"/>
-      <c r="AP3" s="186"/>
-      <c r="AQ3" s="186"/>
-      <c r="AR3" s="187"/>
-      <c r="AS3" s="188" t="s">
+      <c r="AM3" s="158"/>
+      <c r="AN3" s="158"/>
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="158"/>
+      <c r="AQ3" s="158"/>
+      <c r="AR3" s="159"/>
+      <c r="AS3" s="169" t="s">
         <v>298</v>
       </c>
-      <c r="AT3" s="189"/>
-      <c r="AU3" s="189"/>
-      <c r="AV3" s="189"/>
-      <c r="AW3" s="189"/>
-      <c r="AX3" s="189"/>
-      <c r="AY3" s="190"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="171"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="162" t="s">
+      <c r="O4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="161" t="s">
+      <c r="T4" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="104" t="s">
+      <c r="U4" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="105" t="s">
+      <c r="X4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="160" t="s">
+      <c r="Y4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="116" t="s">
+      <c r="Z4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="118" t="s">
+      <c r="AB4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="118" t="s">
+      <c r="AC4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="158" t="s">
+      <c r="AD4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="121" t="s">
+      <c r="AE4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="114" t="s">
+      <c r="AF4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="114" t="s">
+      <c r="AG4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="129" t="s">
+      <c r="AH4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="131" t="s">
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="44" t="s">
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="47" t="s">
+      <c r="AM4" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="47" t="s">
+      <c r="AN4" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="138" t="s">
+      <c r="AO4" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="139"/>
-      <c r="AQ4" s="140" t="s">
+      <c r="AP4" s="164"/>
+      <c r="AQ4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="141"/>
-      <c r="AS4" s="50" t="s">
+      <c r="AR4" s="140"/>
+      <c r="AS4" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AT4" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AU4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="148" t="s">
+      <c r="AV4" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="149"/>
-      <c r="AX4" s="150" t="s">
+      <c r="AW4" s="176"/>
+      <c r="AX4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="151"/>
+      <c r="AY4" s="150"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="144"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="152"/>
-      <c r="AW5" s="153"/>
-      <c r="AX5" s="154"/>
-      <c r="AY5" s="155"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="154"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="177"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="151"/>
+      <c r="AY5" s="152"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="115"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="137"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="136"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="144"/>
-      <c r="AR6" s="145"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="156"/>
-      <c r="AW6" s="157"/>
-      <c r="AX6" s="154"/>
-      <c r="AY6" s="155"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="161"/>
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="167"/>
+      <c r="AP6" s="168"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="173"/>
+      <c r="AT6" s="154"/>
+      <c r="AU6" s="154"/>
+      <c r="AV6" s="179"/>
+      <c r="AW6" s="180"/>
+      <c r="AX6" s="151"/>
+      <c r="AY6" s="152"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="115"/>
-      <c r="AG7" s="115"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
       <c r="AH7" s="20" t="s">
         <v>238</v>
       </c>
@@ -3125,9 +3131,9 @@
       <c r="AK7" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138"/>
       <c r="AO7" s="27" t="s">
         <v>238</v>
       </c>
@@ -3140,9 +3146,9 @@
       <c r="AR7" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
+      <c r="AS7" s="174"/>
+      <c r="AT7" s="155"/>
+      <c r="AU7" s="155"/>
       <c r="AV7" s="29" t="s">
         <v>238</v>
       </c>
@@ -3157,600 +3163,600 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="83" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="83" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="109" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="109" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="134" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="90" t="s">
+      <c r="N8" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="87" t="s">
+      <c r="O8" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="75" t="s">
+      <c r="P8" s="96" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q8" s="83" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="75" t="s">
+      <c r="S8" s="83" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="102" t="s">
+      <c r="V8" s="81" t="s">
         <v>104</v>
       </c>
       <c r="W8" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="X8" s="75" t="s">
+      <c r="X8" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="Y8" s="76" t="s">
+      <c r="Y8" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="79" t="s">
+      <c r="Z8" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="AA8" s="102" t="s">
+      <c r="AA8" s="81" t="s">
         <v>104</v>
       </c>
       <c r="AB8" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" s="75" t="s">
+      <c r="AC8" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="76" t="s">
+      <c r="AD8" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="AE8" s="124" t="s">
+      <c r="AE8" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="AF8" s="72" t="s">
+      <c r="AF8" s="60" t="s">
         <v>104</v>
       </c>
       <c r="AG8" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="AH8" s="69" t="s">
+      <c r="AH8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="69" t="s">
+      <c r="AI8" s="62" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AK8" s="128" t="s">
+      <c r="AK8" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" s="56" t="s">
+      <c r="AL8" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="AM8" s="72" t="s">
+      <c r="AM8" s="60" t="s">
         <v>104</v>
       </c>
       <c r="AN8" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="69" t="s">
+      <c r="AO8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="69" t="s">
+      <c r="AP8" s="62" t="s">
         <v>243</v>
       </c>
       <c r="AQ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AR8" s="43" t="s">
+      <c r="AR8" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="AS8" s="56" t="s">
+      <c r="AS8" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="AT8" s="72" t="s">
+      <c r="AT8" s="60" t="s">
         <v>104</v>
       </c>
       <c r="AU8" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="AV8" s="69" t="s">
+      <c r="AV8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="69" t="s">
+      <c r="AW8" s="62" t="s">
         <v>243</v>
       </c>
       <c r="AX8" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="AY8" s="43" t="s">
+      <c r="AY8" s="148" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="99" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="90"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="109"/>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="88"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="134"/>
       <c r="M9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="75"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="83"/>
       <c r="R9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="75"/>
-      <c r="T9" s="76" t="s">
+      <c r="S9" s="83"/>
+      <c r="T9" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="57"/>
-      <c r="V9" s="102"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="102"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="81"/>
       <c r="AB9" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="72"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="60"/>
       <c r="AG9" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69" t="s">
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="72"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="60"/>
       <c r="AN9" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69" t="s">
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="72"/>
+      <c r="AR9" s="148"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="60"/>
       <c r="AU9" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69" t="s">
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AY9" s="43"/>
+      <c r="AY9" s="148"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="39">
         <v>6700</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="90"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="37">
         <v>7700</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="88"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="37">
         <v>8700</v>
       </c>
-      <c r="N10" s="90"/>
+      <c r="N10" s="109"/>
       <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="75"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="83"/>
       <c r="R10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="102"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="37">
         <v>10910</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="102"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="81"/>
       <c r="AB10" s="37">
         <v>11900</v>
       </c>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76" t="s">
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="72"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="60"/>
       <c r="AG10" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="72"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="60"/>
       <c r="AN10" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="72"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="148"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="60"/>
       <c r="AU10" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="43"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="148"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="90"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="90"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="88"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="134"/>
       <c r="M11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="90"/>
+      <c r="N11" s="109"/>
       <c r="O11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="75"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="83"/>
       <c r="R11" s="37">
         <v>9900</v>
       </c>
-      <c r="S11" s="75"/>
+      <c r="S11" s="83"/>
       <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="57"/>
-      <c r="V11" s="102"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="37">
         <v>10900</v>
       </c>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="76" t="s">
+      <c r="X11" s="83"/>
+      <c r="Y11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="102"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="81"/>
       <c r="AB11" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="72"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="60"/>
       <c r="AG11" s="31">
         <v>12900</v>
       </c>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69" t="s">
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="128" t="s">
+      <c r="AK11" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="72"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="60"/>
       <c r="AN11" s="31">
         <v>13900</v>
       </c>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69" t="s">
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="43" t="s">
+      <c r="AR11" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="72"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="60"/>
       <c r="AU11" s="31">
         <v>14900</v>
       </c>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69" t="s">
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="AY11" s="43" t="s">
+      <c r="AY11" s="148" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="83" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="83" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="109" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="109" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="88" t="s">
+      <c r="K12" s="97"/>
+      <c r="L12" s="134" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="90" t="s">
+      <c r="N12" s="109" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="75"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="83"/>
       <c r="R12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="75"/>
+      <c r="S12" s="83"/>
       <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="57"/>
-      <c r="V12" s="102"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="81"/>
       <c r="W12" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="102"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="81"/>
       <c r="AB12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" s="75"/>
+      <c r="AC12" s="83"/>
       <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="72"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="60"/>
       <c r="AG12" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="72"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="60"/>
       <c r="AN12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="72"/>
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="148"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="60"/>
       <c r="AU12" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="43"/>
+      <c r="AV12" s="62"/>
+      <c r="AW12" s="62"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="148"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="99" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="90"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="88"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="37">
         <v>8600</v>
       </c>
-      <c r="N13" s="90"/>
+      <c r="N13" s="109"/>
       <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="75" t="s">
+      <c r="P13" s="97"/>
+      <c r="Q13" s="83" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="75" t="s">
+      <c r="S13" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="76" t="s">
+      <c r="T13" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="57"/>
-      <c r="V13" s="102"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="75"/>
+      <c r="X13" s="83"/>
       <c r="Y13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="102" t="s">
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="81" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="76" t="s">
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="72"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="60"/>
       <c r="AG13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
       <c r="AJ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="72"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="60"/>
       <c r="AN13" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
       <c r="AQ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="72"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="60"/>
       <c r="AU13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="62"/>
       <c r="AX13" s="18" t="s">
         <v>271</v>
       </c>
@@ -3759,96 +3765,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="39">
         <v>6600</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="90"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="37">
         <v>7600</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="88"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="134"/>
       <c r="M14" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="90"/>
+      <c r="N14" s="109"/>
       <c r="O14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="75"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="83"/>
       <c r="R14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="75"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="102"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="76" t="s">
+      <c r="X14" s="83"/>
+      <c r="Y14" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="102"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="81"/>
       <c r="AB14" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="72" t="s">
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="60" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69" t="s">
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="69" t="s">
+      <c r="AJ14" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AK14" s="128" t="s">
+      <c r="AK14" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="72" t="s">
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="72" t="s">
+      <c r="AN14" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69" t="s">
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="69" t="s">
+      <c r="AQ14" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="43" t="s">
+      <c r="AR14" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="72" t="s">
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="60" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="AV14" s="69"/>
+      <c r="AV14" s="62"/>
       <c r="AW14" s="18" t="s">
         <v>112</v>
       </c>
@@ -3860,445 +3866,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="90"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="88"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="134"/>
       <c r="M15" s="37">
         <v>8500</v>
       </c>
-      <c r="N15" s="90"/>
+      <c r="N15" s="109"/>
       <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="75"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="83"/>
       <c r="R15" s="37">
         <v>9700</v>
       </c>
-      <c r="S15" s="75"/>
-      <c r="T15" s="76" t="s">
+      <c r="S15" s="83"/>
+      <c r="T15" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="57"/>
-      <c r="V15" s="102" t="s">
+      <c r="U15" s="50"/>
+      <c r="V15" s="81" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X15" s="75" t="s">
+      <c r="X15" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="102"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="81"/>
       <c r="AB15" s="37">
         <v>11700</v>
       </c>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76" t="s">
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="72"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="60"/>
       <c r="AG15" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="72"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="60"/>
       <c r="AU15" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69" t="s">
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="AX15" s="69" t="s">
+      <c r="AX15" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="AY15" s="43" t="s">
+      <c r="AY15" s="148" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="39">
         <v>6500</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="90"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="37">
         <v>7500</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="88"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="134"/>
       <c r="M16" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="90"/>
+      <c r="N16" s="109"/>
       <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="75"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="83"/>
       <c r="R16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="75"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="102"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="102"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="81"/>
       <c r="AB16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="72"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="60"/>
       <c r="AG16" s="31">
         <v>12700</v>
       </c>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69" t="s">
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="128" t="s">
+      <c r="AK16" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="72"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="60"/>
       <c r="AN16" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69" t="s">
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AR16" s="43" t="s">
+      <c r="AR16" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="72"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="60"/>
       <c r="AU16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="43"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="148"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="99" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="90"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="80"/>
-      <c r="L17" s="88"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="37">
         <v>8400</v>
       </c>
-      <c r="N17" s="90"/>
+      <c r="N17" s="109"/>
       <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="75"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="83"/>
       <c r="R17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="75"/>
+      <c r="S17" s="83"/>
       <c r="T17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="57"/>
-      <c r="V17" s="102"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="81"/>
       <c r="W17" s="37">
         <v>10700</v>
       </c>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="76" t="s">
+      <c r="X17" s="83"/>
+      <c r="Y17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="102"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="81"/>
       <c r="AB17" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AC17" s="75"/>
+      <c r="AC17" s="83"/>
       <c r="AD17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="72"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="60"/>
       <c r="AG17" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="72"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="60"/>
       <c r="AN17" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="72"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="60"/>
       <c r="AU17" s="31">
         <v>14700</v>
       </c>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69" t="s">
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="AY17" s="43" t="s">
+      <c r="AY17" s="148" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="90"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="37">
         <v>7400</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="109"/>
       <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="80"/>
-      <c r="L18" s="88"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="90"/>
+      <c r="N18" s="109"/>
       <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="75" t="s">
+      <c r="P18" s="97"/>
+      <c r="Q18" s="83" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="75" t="s">
+      <c r="S18" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="76" t="s">
+      <c r="T18" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="57"/>
-      <c r="V18" s="102"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="81"/>
       <c r="W18" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="102" t="s">
+      <c r="X18" s="83"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="81" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AC18" s="75" t="s">
+      <c r="AC18" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="76" t="s">
+      <c r="AD18" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="72"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="60"/>
       <c r="AG18" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
       <c r="AJ18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="72"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="60"/>
       <c r="AN18" s="31">
         <v>13700</v>
       </c>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69" t="s">
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="43" t="s">
+      <c r="AR18" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="72"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="60"/>
       <c r="AU18" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="43"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="148"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="90"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="109"/>
       <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="80"/>
-      <c r="L19" s="88" t="s">
+      <c r="K19" s="97"/>
+      <c r="L19" s="134" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="90" t="s">
+      <c r="N19" s="109" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="75"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="83"/>
       <c r="R19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="102"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="81"/>
       <c r="W19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="75"/>
+      <c r="X19" s="83"/>
       <c r="Y19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="102"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="81"/>
       <c r="AB19" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="72" t="s">
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="60" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="AH19" s="69" t="s">
+      <c r="AH19" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69" t="s">
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AK19" s="128" t="s">
+      <c r="AK19" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="72"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="60"/>
       <c r="AN19" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="72"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="148"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="60"/>
       <c r="AU19" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
       <c r="AX19" s="18" t="s">
         <v>271</v>
       </c>
@@ -4307,170 +4313,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="90" t="s">
+      <c r="F20" s="121"/>
+      <c r="G20" s="109" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="109" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="88"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="37">
         <v>8300</v>
       </c>
-      <c r="N20" s="90"/>
+      <c r="N20" s="109"/>
       <c r="O20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="75"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="83"/>
       <c r="R20" s="37">
         <v>9600</v>
       </c>
-      <c r="S20" s="75"/>
+      <c r="S20" s="83"/>
       <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="57"/>
-      <c r="V20" s="102" t="s">
+      <c r="U20" s="50"/>
+      <c r="V20" s="81" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="75" t="s">
+      <c r="X20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="102"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="81"/>
       <c r="AB20" s="37">
         <v>11600</v>
       </c>
-      <c r="AC20" s="75"/>
+      <c r="AC20" s="83"/>
       <c r="AD20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="72"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="60"/>
       <c r="AG20" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="72"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="60"/>
       <c r="AN20" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
       <c r="AQ20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="72" t="s">
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="60" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="AV20" s="69" t="s">
+      <c r="AV20" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="69" t="s">
+      <c r="AW20" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="69" t="s">
+      <c r="AX20" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="AY20" s="43" t="s">
+      <c r="AY20" s="148" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="39">
         <v>6400</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="90"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="37">
         <v>7320</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="98" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="80"/>
-      <c r="L21" s="88"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="90"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="75"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="83"/>
       <c r="R21" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="75"/>
+      <c r="S21" s="83"/>
       <c r="T21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="57"/>
-      <c r="V21" s="102"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="81"/>
       <c r="W21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="102"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="81"/>
       <c r="AB21" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AC21" s="75"/>
+      <c r="AC21" s="83"/>
       <c r="AD21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="72"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="60"/>
       <c r="AG21" s="31">
         <v>12600</v>
       </c>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="70" t="s">
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="66" t="s">
         <v>142</v>
       </c>
       <c r="AJ21" s="18" t="s">
@@ -4479,119 +4485,119 @@
       <c r="AK21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="72" t="s">
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="60" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="AO21" s="69" t="s">
+      <c r="AO21" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69" t="s">
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AR21" s="43" t="s">
+      <c r="AR21" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="72"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="60"/>
       <c r="AU21" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="43"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="148"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="83" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="39">
         <v>6320</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="90"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="37">
         <v>7300</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="88"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="37">
         <v>8100</v>
       </c>
-      <c r="N22" s="90"/>
-      <c r="O22" s="87" t="s">
+      <c r="N22" s="109"/>
+      <c r="O22" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="75"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="83"/>
       <c r="R22" s="37">
         <v>9500</v>
       </c>
-      <c r="S22" s="75"/>
-      <c r="T22" s="76" t="s">
+      <c r="S22" s="83"/>
+      <c r="T22" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="57"/>
-      <c r="V22" s="102"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="81"/>
       <c r="W22" s="37">
         <v>10600</v>
       </c>
-      <c r="X22" s="75"/>
+      <c r="X22" s="83"/>
       <c r="Y22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="102"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="81"/>
       <c r="AB22" s="37">
         <v>11500</v>
       </c>
-      <c r="AC22" s="75"/>
+      <c r="AC22" s="83"/>
       <c r="AD22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="72"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="60"/>
       <c r="AG22" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="70"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="66"/>
       <c r="AJ22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="72"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="60"/>
       <c r="AN22" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="72"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="148"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="60"/>
       <c r="AU22" s="31">
         <v>14600</v>
       </c>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
       <c r="AX22" s="18" t="s">
         <v>181</v>
       </c>
@@ -4600,87 +4606,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="39">
         <v>6300</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="90"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="80"/>
-      <c r="L23" s="88"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="134"/>
       <c r="M23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="90"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="75"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="83"/>
       <c r="R23" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="75"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="102"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="81"/>
       <c r="W23" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="X23" s="75"/>
+      <c r="X23" s="83"/>
       <c r="Y23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="102"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="81"/>
       <c r="AB23" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="AC23" s="75"/>
+      <c r="AC23" s="83"/>
       <c r="AD23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="72"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="60"/>
       <c r="AG23" s="31">
         <v>12500</v>
       </c>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="70"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="66"/>
       <c r="AJ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="72"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="60"/>
       <c r="AN23" s="31">
         <v>13600</v>
       </c>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
       <c r="AQ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="72"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="60"/>
       <c r="AU23" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="AV23" s="69"/>
-      <c r="AW23" s="69"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
       <c r="AX23" s="18" t="s">
         <v>271</v>
       </c>
@@ -4689,91 +4695,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="39">
         <v>6100</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="37">
         <v>7100</v>
       </c>
-      <c r="I24" s="90"/>
+      <c r="I24" s="109"/>
       <c r="J24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="80"/>
-      <c r="L24" s="88"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="134"/>
       <c r="M24" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="90"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="75"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="83"/>
       <c r="R24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="75"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="57"/>
-      <c r="V24" s="102"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="81"/>
       <c r="W24" s="37">
         <v>10500</v>
       </c>
-      <c r="X24" s="75"/>
+      <c r="X24" s="83"/>
       <c r="Y24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="102"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="81"/>
       <c r="AB24" s="37">
         <v>11400</v>
       </c>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="76" t="s">
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="72"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="60"/>
       <c r="AG24" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="70"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="66"/>
       <c r="AJ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="72"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="60"/>
       <c r="AN24" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
       <c r="AQ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="72"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="60"/>
       <c r="AU24" s="31">
         <v>14500</v>
       </c>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
       <c r="AX24" s="18" t="s">
         <v>181</v>
       </c>
@@ -4782,97 +4788,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="99" t="s">
+      <c r="D25" s="83"/>
+      <c r="E25" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="93"/>
-      <c r="G25" s="90"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="90"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="80"/>
-      <c r="L25" s="84" t="s">
+      <c r="K25" s="97"/>
+      <c r="L25" s="92" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="90" t="s">
+      <c r="N25" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="87" t="s">
+      <c r="O25" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="75"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="83"/>
       <c r="R25" s="37">
         <v>9400</v>
       </c>
-      <c r="S25" s="75"/>
-      <c r="T25" s="76" t="s">
+      <c r="S25" s="83"/>
+      <c r="T25" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="57"/>
-      <c r="V25" s="102"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="81"/>
       <c r="W25" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="X25" s="75"/>
+      <c r="X25" s="83"/>
       <c r="Y25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="102"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="81"/>
       <c r="AB25" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="74" t="s">
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="69" t="s">
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="128" t="s">
+      <c r="AK25" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="59" t="s">
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="181" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="21">
         <v>13500</v>
       </c>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
       <c r="AQ25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="72"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="60"/>
       <c r="AU25" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
       <c r="AX25" s="18" t="s">
         <v>271</v>
       </c>
@@ -4881,329 +4887,329 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
-      <c r="B26" s="75"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="90"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="109"/>
       <c r="H26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="90"/>
+      <c r="I26" s="109"/>
       <c r="J26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="85"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="75"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="83"/>
       <c r="R26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="102"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="81"/>
       <c r="W26" s="37">
         <v>10400</v>
       </c>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="76" t="s">
+      <c r="X26" s="83"/>
+      <c r="Y26" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="120"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="82"/>
       <c r="AB26" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AC26" s="82"/>
+      <c r="AC26" s="84"/>
       <c r="AD26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="60"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="182"/>
       <c r="AN26" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
       <c r="AQ26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="72"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="60"/>
       <c r="AU26" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69" t="s">
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="69" t="s">
+      <c r="AX26" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="AY26" s="43" t="s">
+      <c r="AY26" s="148" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="90"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="109"/>
       <c r="H27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="90"/>
+      <c r="I27" s="109"/>
       <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="85"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="90"/>
+      <c r="N27" s="109"/>
       <c r="O27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="75"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="83"/>
       <c r="R27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="75"/>
+      <c r="S27" s="83"/>
       <c r="T27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="57"/>
-      <c r="V27" s="102"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="81"/>
       <c r="W27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="99"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="95"/>
       <c r="AA27" s="34"/>
       <c r="AB27" s="35"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="72"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="60"/>
       <c r="AG27" s="31">
         <v>12400</v>
       </c>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="74" t="s">
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="182"/>
+      <c r="AN27" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69" t="s">
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="69" t="s">
+      <c r="AQ27" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="43" t="s">
+      <c r="AR27" s="148" t="s">
         <v>261</v>
       </c>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="72"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="60"/>
       <c r="AU27" s="31">
         <v>14400</v>
       </c>
-      <c r="AV27" s="69"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="43"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="148"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="75" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="83" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="99" t="s">
+      <c r="E28" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="90" t="s">
+      <c r="F28" s="121"/>
+      <c r="G28" s="109" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="90"/>
-      <c r="J28" s="98" t="s">
+      <c r="I28" s="109"/>
+      <c r="J28" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="85"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="93"/>
       <c r="M28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="90"/>
+      <c r="N28" s="109"/>
       <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="75" t="s">
+      <c r="P28" s="97"/>
+      <c r="Q28" s="83" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="75" t="s">
+      <c r="S28" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="76" t="s">
+      <c r="T28" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="57"/>
-      <c r="V28" s="102"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="81"/>
       <c r="W28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="X28" s="75"/>
+      <c r="X28" s="83"/>
       <c r="Y28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="72"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="60"/>
       <c r="AG28" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="72"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="182"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="148"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="60"/>
       <c r="AU28" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="43"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="62"/>
+      <c r="AY28" s="148"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="90"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="109"/>
       <c r="H29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="90"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="86"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="133"/>
       <c r="M29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="90"/>
+      <c r="N29" s="109"/>
       <c r="O29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="75"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="83"/>
       <c r="R29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="75"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="102" t="s">
+      <c r="S29" s="83"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="81" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="37">
         <v>10320</v>
       </c>
-      <c r="X29" s="75" t="s">
+      <c r="X29" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="99" t="s">
+      <c r="Y29" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="72"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="60"/>
       <c r="AG29" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="70"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="66"/>
       <c r="AJ29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="60"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="182"/>
       <c r="AN29" s="21">
         <v>13400</v>
       </c>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
       <c r="AQ29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="72"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="60"/>
       <c r="AU29" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="69"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
       <c r="AX29" s="18" t="s">
         <v>271</v>
       </c>
@@ -5212,266 +5218,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="90"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="109"/>
       <c r="H30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="90"/>
+      <c r="I30" s="109"/>
       <c r="J30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="90" t="s">
+      <c r="K30" s="97"/>
+      <c r="L30" s="109" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="90" t="s">
+      <c r="N30" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="87" t="s">
+      <c r="O30" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="75"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="83"/>
       <c r="R30" s="37">
         <v>9320</v>
       </c>
-      <c r="S30" s="75"/>
-      <c r="T30" s="76" t="s">
+      <c r="S30" s="83"/>
+      <c r="T30" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="57"/>
-      <c r="V30" s="102"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="81"/>
       <c r="W30" s="37">
         <v>10300</v>
       </c>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="99"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="72" t="s">
+      <c r="X30" s="83"/>
+      <c r="Y30" s="95"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="60" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="31">
         <v>12300</v>
       </c>
-      <c r="AH30" s="69" t="s">
+      <c r="AH30" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="70"/>
+      <c r="AI30" s="66"/>
       <c r="AJ30" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="60"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="182"/>
       <c r="AN30" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
       <c r="AQ30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="72" t="s">
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="60" t="s">
         <v>85</v>
       </c>
       <c r="AU30" s="31">
         <v>14100</v>
       </c>
-      <c r="AV30" s="69" t="s">
+      <c r="AV30" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="70" t="s">
+      <c r="AW30" s="66" t="s">
         <v>142</v>
       </c>
       <c r="AX30" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="AY30" s="43" t="s">
+      <c r="AY30" s="148" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="93"/>
-      <c r="G31" s="90"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="109"/>
       <c r="H31" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="90"/>
+      <c r="I31" s="109"/>
       <c r="J31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="90"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="109"/>
       <c r="M31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="90"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="75"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="83"/>
       <c r="R31" s="37">
         <v>9300</v>
       </c>
-      <c r="S31" s="75"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="102"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="81"/>
       <c r="W31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="X31" s="75"/>
+      <c r="X31" s="83"/>
       <c r="Y31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="72"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="60"/>
       <c r="AG31" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="70"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="66"/>
       <c r="AJ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="61"/>
+      <c r="AL31" s="50"/>
+      <c r="AM31" s="183"/>
       <c r="AN31" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
       <c r="AQ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="72"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="60"/>
       <c r="AU31" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="70"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="66"/>
       <c r="AX31" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="AY31" s="43"/>
+      <c r="AY31" s="148"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="99" t="s">
+      <c r="D32" s="83"/>
+      <c r="E32" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="93"/>
-      <c r="G32" s="90"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="109"/>
       <c r="H32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="90"/>
+      <c r="I32" s="109"/>
       <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="90"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="109"/>
       <c r="M32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="90"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="75"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="83"/>
       <c r="R32" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="75"/>
+      <c r="S32" s="83"/>
       <c r="T32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="57"/>
-      <c r="V32" s="102"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="81"/>
       <c r="W32" s="37">
         <v>10100</v>
       </c>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="99" t="s">
+      <c r="X32" s="83"/>
+      <c r="Y32" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="72"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="60"/>
       <c r="AG32" s="31">
         <v>12100</v>
       </c>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="70"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="66"/>
       <c r="AJ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="128" t="s">
+      <c r="AK32" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="62" t="s">
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="184" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="21">
         <v>13100</v>
       </c>
-      <c r="AO32" s="69" t="s">
+      <c r="AO32" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="70" t="s">
+      <c r="AP32" s="66" t="s">
         <v>142</v>
       </c>
       <c r="AQ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="43" t="s">
+      <c r="AR32" s="148" t="s">
         <v>263</v>
       </c>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="72"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="60"/>
       <c r="AU32" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="70"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="66"/>
       <c r="AX32" s="18" t="s">
         <v>271</v>
       </c>
@@ -5480,218 +5486,218 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="90" t="s">
+      <c r="D33" s="83"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="109" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="90" t="s">
+      <c r="I33" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="91"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="130"/>
       <c r="M33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="91"/>
+      <c r="N33" s="130"/>
       <c r="O33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="75"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="83"/>
       <c r="R33" s="37">
         <v>9100</v>
       </c>
-      <c r="S33" s="75"/>
-      <c r="T33" s="76" t="s">
+      <c r="S33" s="83"/>
+      <c r="T33" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="57"/>
-      <c r="V33" s="102"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="81"/>
       <c r="W33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="99"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="72"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="95"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="60"/>
       <c r="AG33" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="70"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="66"/>
       <c r="AJ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="63"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="185"/>
       <c r="AN33" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="70"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="66"/>
       <c r="AQ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="65" t="s">
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="187" t="s">
         <v>303</v>
       </c>
       <c r="AU33" s="32">
         <v>300</v>
       </c>
-      <c r="AV33" s="65" t="s">
+      <c r="AV33" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="70"/>
+      <c r="AW33" s="66"/>
       <c r="AX33" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="AY33" s="67" t="s">
+      <c r="AY33" s="189" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="97"/>
+      <c r="B34" s="83" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="99" t="s">
+      <c r="D34" s="83"/>
+      <c r="E34" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="90"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="98"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="75"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="119"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="83"/>
       <c r="R34" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="75"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="102"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="81"/>
       <c r="W34" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X34" s="75"/>
+      <c r="X34" s="83"/>
       <c r="Y34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="72"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="70"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="66"/>
       <c r="AJ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="64"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="186"/>
       <c r="AN34" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AO34" s="73"/>
-      <c r="AP34" s="71"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="67"/>
       <c r="AQ34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="66"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="188"/>
       <c r="AU34" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="71"/>
+      <c r="AV34" s="188"/>
+      <c r="AW34" s="67"/>
       <c r="AX34" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AY34" s="68"/>
+      <c r="AY34" s="190"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="91"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="130"/>
       <c r="H35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="91"/>
+      <c r="I35" s="130"/>
       <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="75"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="83"/>
       <c r="R35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="75"/>
+      <c r="S35" s="83"/>
       <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="57"/>
-      <c r="V35" s="102" t="s">
+      <c r="U35" s="50"/>
+      <c r="V35" s="81" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="X35" s="75" t="s">
+      <c r="X35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="99" t="s">
+      <c r="Y35" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="72" t="s">
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="60" t="s">
         <v>100</v>
       </c>
       <c r="AG35" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AH35" s="69" t="s">
+      <c r="AH35" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="70"/>
+      <c r="AI35" s="66"/>
       <c r="AJ35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK35" s="125" t="s">
+      <c r="AK35" s="58" t="s">
         <v>142</v>
       </c>
       <c r="AL35" s="34"/>
@@ -5710,47 +5716,47 @@
       <c r="AY35" s="35"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="99" t="s">
+      <c r="D36" s="83"/>
+      <c r="E36" s="95" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="110" t="s">
+      <c r="P36" s="97"/>
+      <c r="Q36" s="88" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="75" t="s">
+      <c r="S36" s="83" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="57"/>
-      <c r="V36" s="102"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="81"/>
       <c r="W36" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="99"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="72"/>
+      <c r="X36" s="83"/>
+      <c r="Y36" s="95"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="60"/>
       <c r="AG36" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="70"/>
+      <c r="AH36" s="62"/>
+      <c r="AI36" s="66"/>
       <c r="AJ36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="125"/>
+      <c r="AK36" s="58"/>
       <c r="AL36" s="34"/>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
@@ -5767,47 +5773,47 @@
       <c r="AY36" s="35"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="100"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="131"/>
       <c r="F37" s="3"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="111"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="89"/>
       <c r="R37" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="75"/>
+      <c r="S37" s="83"/>
       <c r="T37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="57"/>
-      <c r="V37" s="102"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="81"/>
       <c r="W37" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="X37" s="75"/>
+      <c r="X37" s="83"/>
       <c r="Y37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="72" t="s">
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="60" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AH37" s="69" t="s">
+      <c r="AH37" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="70"/>
+      <c r="AI37" s="66"/>
       <c r="AJ37" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK37" s="125"/>
+      <c r="AK37" s="58"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
@@ -5825,35 +5831,35 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="41"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="111"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="89"/>
       <c r="R38" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="75"/>
+      <c r="S38" s="83"/>
       <c r="T38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="57"/>
-      <c r="V38" s="102"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="81"/>
       <c r="W38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="X38" s="75"/>
+      <c r="X38" s="83"/>
       <c r="Y38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="127"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="61"/>
       <c r="AG38" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AH38" s="73"/>
-      <c r="AI38" s="71"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="67"/>
       <c r="AJ38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="126"/>
+      <c r="AK38" s="59"/>
       <c r="AL38" s="34"/>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
@@ -5870,21 +5876,21 @@
       <c r="AY38" s="35"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="80"/>
-      <c r="Q39" s="112"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="90"/>
       <c r="R39" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="75"/>
+      <c r="S39" s="83"/>
       <c r="T39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="57"/>
-      <c r="V39" s="102"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="81"/>
       <c r="W39" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="X39" s="75"/>
+      <c r="X39" s="83"/>
       <c r="Y39" s="6" t="s">
         <v>9</v>
       </c>
@@ -5910,111 +5916,111 @@
       <c r="AY39" s="35"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="80"/>
-      <c r="Q40" s="75" t="s">
+      <c r="P40" s="97"/>
+      <c r="Q40" s="83" t="s">
         <v>34</v>
       </c>
       <c r="R40" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="75" t="s">
+      <c r="S40" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="76" t="s">
+      <c r="T40" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="57"/>
-      <c r="V40" s="75" t="s">
+      <c r="U40" s="50"/>
+      <c r="V40" s="83" t="s">
         <v>34</v>
       </c>
       <c r="W40" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="X40" s="75" t="s">
+      <c r="X40" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="99" t="s">
+      <c r="Y40" s="95" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="80"/>
-      <c r="Q41" s="75"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="83"/>
       <c r="R41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="75"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="83"/>
       <c r="W41" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="99"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="95"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="81"/>
-      <c r="Q42" s="82"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="84"/>
       <c r="R42" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="82"/>
+      <c r="S42" s="84"/>
       <c r="T42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="57"/>
-      <c r="V42" s="75"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="83"/>
       <c r="W42" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="X42" s="75"/>
-      <c r="Y42" s="99"/>
+      <c r="X42" s="83"/>
+      <c r="Y42" s="95"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="57"/>
-      <c r="V43" s="75"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="83"/>
       <c r="W43" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="X43" s="75"/>
+      <c r="X43" s="83"/>
       <c r="Y43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="57"/>
-      <c r="V44" s="75"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="83"/>
       <c r="W44" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="X44" s="75"/>
+      <c r="X44" s="83"/>
       <c r="Y44" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="57"/>
-      <c r="V45" s="75"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="83"/>
       <c r="W45" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="X45" s="75"/>
+      <c r="X45" s="83"/>
       <c r="Y45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="57"/>
-      <c r="V46" s="107" t="s">
+      <c r="U46" s="50"/>
+      <c r="V46" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="107"/>
-      <c r="X46" s="107"/>
-      <c r="Y46" s="108"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="86"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="57"/>
+      <c r="U47" s="50"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6029,124 +6035,124 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="57"/>
-      <c r="V48" s="102" t="s">
+      <c r="U48" s="50"/>
+      <c r="V48" s="81" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="37">
         <v>10325</v>
       </c>
-      <c r="X48" s="75" t="s">
+      <c r="X48" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="109" t="s">
+      <c r="Y48" s="87" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="57"/>
-      <c r="V49" s="102"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="81"/>
       <c r="W49" s="37">
         <v>10305</v>
       </c>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="109"/>
+      <c r="X49" s="83"/>
+      <c r="Y49" s="87"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="57"/>
-      <c r="V50" s="102"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="81"/>
       <c r="W50" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X50" s="75"/>
+      <c r="X50" s="83"/>
       <c r="Y50" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="57"/>
-      <c r="V51" s="102"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="81"/>
       <c r="W51" s="37">
         <v>10105</v>
       </c>
-      <c r="X51" s="75"/>
-      <c r="Y51" s="109" t="s">
+      <c r="X51" s="83"/>
+      <c r="Y51" s="87" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="57"/>
-      <c r="V52" s="102"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="81"/>
       <c r="W52" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="109"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="87"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="57"/>
-      <c r="V53" s="102"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="81"/>
       <c r="W53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="75"/>
+      <c r="X53" s="83"/>
       <c r="Y53" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="57"/>
-      <c r="V54" s="84" t="s">
+      <c r="U54" s="50"/>
+      <c r="V54" s="92" t="s">
         <v>100</v>
       </c>
       <c r="W54" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="X54" s="75" t="s">
+      <c r="X54" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="109" t="s">
+      <c r="Y54" s="87" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="57"/>
-      <c r="V55" s="85"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="93"/>
       <c r="W55" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="X55" s="75"/>
-      <c r="Y55" s="109"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="87"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="57"/>
-      <c r="V56" s="85"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="93"/>
       <c r="W56" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="X56" s="75"/>
+      <c r="X56" s="83"/>
       <c r="Y56" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="57"/>
-      <c r="V57" s="85"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="93"/>
       <c r="W57" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X57" s="75"/>
+      <c r="X57" s="83"/>
       <c r="Y57" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="58"/>
-      <c r="V58" s="113"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="94"/>
       <c r="W58" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="X58" s="82"/>
+      <c r="X58" s="84"/>
       <c r="Y58" s="17" t="s">
         <v>182</v>
       </c>
@@ -6159,6 +6165,242 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE2:AY2"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AO4:AP6"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AV4:AW6"/>
+    <mergeCell ref="AL8:AL34"/>
+    <mergeCell ref="AS8:AS34"/>
+    <mergeCell ref="AM25:AM31"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AV33:AV34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AW26:AW29"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="AE3:AK3"/>
@@ -6183,242 +6425,6 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AK8:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AE2:AY2"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AO4:AP6"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AV4:AW6"/>
-    <mergeCell ref="AL8:AL34"/>
-    <mergeCell ref="AS8:AS34"/>
-    <mergeCell ref="AM25:AM31"/>
-    <mergeCell ref="AM32:AM34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AV33:AV34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AW26:AW29"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AY26:AY28"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AX17:AX18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984CBB6-135A-4C09-9327-3D8E82FDA989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DF144-B9A1-4C47-8212-D1E087D15EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -1762,7 +1762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1881,6 +1881,372 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1888,12 +2254,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1905,428 +2265,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2653,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="W16" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,169 +2708,169 @@
       <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="99" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="106" t="s">
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="156" t="s">
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="156"/>
-      <c r="AK2" s="156"/>
-      <c r="AL2" s="156"/>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="156"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="156"/>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="156"/>
-      <c r="AS2" s="156"/>
-      <c r="AT2" s="156"/>
-      <c r="AU2" s="156"/>
-      <c r="AV2" s="156"/>
-      <c r="AW2" s="156"/>
-      <c r="AX2" s="156"/>
-      <c r="AY2" s="156"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="125" t="s">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="112" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="144" t="s">
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="100" t="s">
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="71" t="s">
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="47" t="s">
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="167" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="157" t="s">
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="AM3" s="158"/>
-      <c r="AN3" s="158"/>
-      <c r="AO3" s="158"/>
-      <c r="AP3" s="158"/>
-      <c r="AQ3" s="158"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="169" t="s">
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="AT3" s="170"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="170"/>
-      <c r="AW3" s="170"/>
-      <c r="AX3" s="170"/>
-      <c r="AY3" s="171"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="55"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="128" t="s">
+      <c r="F4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="106" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="107" t="s">
@@ -2879,246 +2882,246 @@
       <c r="N4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="147" t="s">
+      <c r="P4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="111" t="s">
+      <c r="R4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="143" t="s">
+      <c r="T4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="103" t="s">
+      <c r="U4" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="104" t="s">
+      <c r="W4" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="104" t="s">
+      <c r="X4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="105" t="s">
+      <c r="Y4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="74" t="s">
+      <c r="Z4" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="78" t="s">
+      <c r="AD4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="42" t="s">
+      <c r="AE4" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="45" t="s">
+      <c r="AF4" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AG4" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="68" t="s">
+      <c r="AI4" s="187"/>
+      <c r="AJ4" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="160" t="s">
+      <c r="AK4" s="149"/>
+      <c r="AL4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="136" t="s">
+      <c r="AM4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="136" t="s">
+      <c r="AN4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="163" t="s">
+      <c r="AO4" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="139" t="s">
+      <c r="AP4" s="181"/>
+      <c r="AQ4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="140"/>
-      <c r="AS4" s="172" t="s">
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="153" t="s">
+      <c r="AT4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="153" t="s">
+      <c r="AU4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="175" t="s">
+      <c r="AV4" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="149" t="s">
+      <c r="AW4" s="175"/>
+      <c r="AX4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="150"/>
+      <c r="AY4" s="79"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="135"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="106"/>
       <c r="L5" s="107"/>
       <c r="M5" s="107"/>
       <c r="N5" s="107"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="166"/>
-      <c r="AQ5" s="141"/>
-      <c r="AR5" s="142"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="154"/>
-      <c r="AU5" s="154"/>
-      <c r="AV5" s="177"/>
-      <c r="AW5" s="178"/>
-      <c r="AX5" s="151"/>
-      <c r="AY5" s="152"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="153"/>
+      <c r="AG5" s="153"/>
+      <c r="AH5" s="188"/>
+      <c r="AI5" s="189"/>
+      <c r="AJ5" s="150"/>
+      <c r="AK5" s="151"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="182"/>
+      <c r="AP5" s="183"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="176"/>
+      <c r="AW5" s="177"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="81"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="135"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="106"/>
       <c r="L6" s="107"/>
       <c r="M6" s="107"/>
       <c r="N6" s="107"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="137"/>
-      <c r="AN6" s="137"/>
-      <c r="AO6" s="167"/>
-      <c r="AP6" s="168"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="173"/>
-      <c r="AT6" s="154"/>
-      <c r="AU6" s="154"/>
-      <c r="AV6" s="179"/>
-      <c r="AW6" s="180"/>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="152"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="157"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="153"/>
+      <c r="AH6" s="190"/>
+      <c r="AI6" s="191"/>
+      <c r="AJ6" s="150"/>
+      <c r="AK6" s="151"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="184"/>
+      <c r="AP6" s="185"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="178"/>
+      <c r="AW6" s="179"/>
+      <c r="AX6" s="80"/>
+      <c r="AY6" s="81"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="135"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="107"/>
       <c r="M7" s="107"/>
       <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="153"/>
+      <c r="AG7" s="153"/>
       <c r="AH7" s="20" t="s">
         <v>238</v>
       </c>
@@ -3131,9 +3134,9 @@
       <c r="AK7" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AL7" s="162"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
       <c r="AO7" s="27" t="s">
         <v>238</v>
       </c>
@@ -3146,9 +3149,9 @@
       <c r="AR7" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AS7" s="174"/>
-      <c r="AT7" s="155"/>
-      <c r="AU7" s="155"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
       <c r="AV7" s="29" t="s">
         <v>238</v>
       </c>
@@ -3163,16 +3166,16 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="89" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -3181,582 +3184,582 @@
       <c r="F8" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="108" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="108" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="134" t="s">
+      <c r="L8" s="105" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="109" t="s">
+      <c r="N8" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="110" t="s">
+      <c r="O8" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="96" t="s">
+      <c r="P8" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="89" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="83" t="s">
+      <c r="S8" s="89" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="91" t="s">
+      <c r="U8" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="81" t="s">
+      <c r="V8" s="140" t="s">
         <v>104</v>
       </c>
       <c r="W8" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="X8" s="83" t="s">
+      <c r="X8" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="Y8" s="80" t="s">
+      <c r="Y8" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="96" t="s">
+      <c r="Z8" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="AA8" s="81" t="s">
+      <c r="AA8" s="140" t="s">
         <v>104</v>
       </c>
       <c r="AB8" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" s="83" t="s">
+      <c r="AC8" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="80" t="s">
+      <c r="AD8" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="AE8" s="49" t="s">
+      <c r="AE8" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="AF8" s="60" t="s">
+      <c r="AF8" s="82" t="s">
         <v>104</v>
       </c>
       <c r="AG8" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="AH8" s="62" t="s">
+      <c r="AH8" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="62" t="s">
+      <c r="AI8" s="75" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AK8" s="64" t="s">
+      <c r="AK8" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" s="91" t="s">
+      <c r="AL8" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="AM8" s="60" t="s">
+      <c r="AM8" s="82" t="s">
         <v>104</v>
       </c>
       <c r="AN8" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="62" t="s">
+      <c r="AO8" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="62" t="s">
+      <c r="AP8" s="75" t="s">
         <v>243</v>
       </c>
       <c r="AQ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AR8" s="148" t="s">
+      <c r="AR8" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AS8" s="91" t="s">
+      <c r="AS8" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="AT8" s="60" t="s">
+      <c r="AT8" s="82" t="s">
         <v>104</v>
       </c>
       <c r="AU8" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="AV8" s="62" t="s">
+      <c r="AV8" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="62" t="s">
+      <c r="AW8" s="75" t="s">
         <v>243</v>
       </c>
       <c r="AX8" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="AY8" s="148" t="s">
+      <c r="AY8" s="43" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="95" t="s">
+      <c r="D9" s="89"/>
+      <c r="E9" s="119" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="121"/>
-      <c r="G9" s="109"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="109"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="134"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="83"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="89"/>
       <c r="R9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="83"/>
-      <c r="T9" s="80" t="s">
+      <c r="S9" s="89"/>
+      <c r="T9" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="81"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="140"/>
       <c r="W9" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="81"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="140"/>
       <c r="AB9" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="60"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="82"/>
       <c r="AG9" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62" t="s">
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="60"/>
+      <c r="AK9" s="173"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="82"/>
       <c r="AN9" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62" t="s">
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="60"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="82"/>
       <c r="AU9" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62" t="s">
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AY9" s="148"/>
+      <c r="AY9" s="43"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="39">
         <v>6700</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="95"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="121"/>
-      <c r="G10" s="109"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="37">
         <v>7700</v>
       </c>
-      <c r="I10" s="109"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="134"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="37">
         <v>8700</v>
       </c>
-      <c r="N10" s="109"/>
+      <c r="N10" s="108"/>
       <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="83"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="89"/>
       <c r="R10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="83"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="81"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="140"/>
       <c r="W10" s="37">
         <v>10910</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="81"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="140"/>
       <c r="AB10" s="37">
         <v>11900</v>
       </c>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="80" t="s">
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="60"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="82"/>
       <c r="AG10" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="60"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="173"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="82"/>
       <c r="AN10" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="60"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="82"/>
       <c r="AU10" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="148"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="43"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="121"/>
-      <c r="G11" s="109"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="109"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="134"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="109"/>
+      <c r="N11" s="108"/>
       <c r="O11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="83"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="89"/>
       <c r="R11" s="37">
         <v>9900</v>
       </c>
-      <c r="S11" s="83"/>
+      <c r="S11" s="89"/>
       <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="50"/>
-      <c r="V11" s="81"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="140"/>
       <c r="W11" s="37">
         <v>10900</v>
       </c>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="80" t="s">
+      <c r="X11" s="89"/>
+      <c r="Y11" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="81"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="140"/>
       <c r="AB11" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="60"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="82"/>
       <c r="AG11" s="31">
         <v>12900</v>
       </c>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62" t="s">
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="64" t="s">
+      <c r="AK11" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="60"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="82"/>
       <c r="AN11" s="31">
         <v>13900</v>
       </c>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62" t="s">
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="148" t="s">
+      <c r="AR11" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="60"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="82"/>
       <c r="AU11" s="31">
         <v>14900</v>
       </c>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62" t="s">
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="AY11" s="148" t="s">
+      <c r="AY11" s="43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="89" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="121"/>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="108" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="108" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="134" t="s">
+      <c r="K12" s="98"/>
+      <c r="L12" s="105" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="109" t="s">
+      <c r="N12" s="108" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="83"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="89"/>
       <c r="R12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="83"/>
+      <c r="S12" s="89"/>
       <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="50"/>
-      <c r="V12" s="81"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="140"/>
       <c r="W12" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="81"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="140"/>
       <c r="AB12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" s="83"/>
+      <c r="AC12" s="89"/>
       <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="60"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="82"/>
       <c r="AG12" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="60"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="173"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="82"/>
       <c r="AN12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="148"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="60"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="82"/>
       <c r="AU12" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="148"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="43"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="95" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="119" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="121"/>
-      <c r="G13" s="109"/>
+      <c r="G13" s="108"/>
       <c r="H13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="134"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="105"/>
       <c r="M13" s="37">
         <v>8600</v>
       </c>
-      <c r="N13" s="109"/>
+      <c r="N13" s="108"/>
       <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="83" t="s">
+      <c r="P13" s="98"/>
+      <c r="Q13" s="89" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="83" t="s">
+      <c r="S13" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="50"/>
-      <c r="V13" s="81"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="140"/>
       <c r="W13" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="83"/>
+      <c r="X13" s="89"/>
       <c r="Y13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="81" t="s">
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="140" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="80" t="s">
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="60"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="82"/>
       <c r="AG13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
       <c r="AJ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="60"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="82"/>
       <c r="AN13" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
+      <c r="AO13" s="75"/>
+      <c r="AP13" s="75"/>
       <c r="AQ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="60"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="82"/>
       <c r="AU13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="75"/>
       <c r="AX13" s="18" t="s">
         <v>271</v>
       </c>
@@ -3765,96 +3768,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="39">
         <v>6600</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="95"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="121"/>
-      <c r="G14" s="109"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="37">
         <v>7600</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="134"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="109"/>
+      <c r="N14" s="108"/>
       <c r="O14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="83"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="89"/>
       <c r="R14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="83"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="81"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="140"/>
       <c r="W14" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="80" t="s">
+      <c r="X14" s="89"/>
+      <c r="Y14" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="81"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="140"/>
       <c r="AB14" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="60" t="s">
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="82" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62" t="s">
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="62" t="s">
+      <c r="AJ14" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AK14" s="64" t="s">
+      <c r="AK14" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="60" t="s">
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="60" t="s">
+      <c r="AN14" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62" t="s">
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="62" t="s">
+      <c r="AQ14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="148" t="s">
+      <c r="AR14" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="60" t="s">
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="82" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="AV14" s="62"/>
+      <c r="AV14" s="75"/>
       <c r="AW14" s="18" t="s">
         <v>112</v>
       </c>
@@ -3866,445 +3869,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="95"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="119"/>
       <c r="F15" s="121"/>
-      <c r="G15" s="109"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="109"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="134"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="37">
         <v>8500</v>
       </c>
-      <c r="N15" s="109"/>
+      <c r="N15" s="108"/>
       <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="83"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="89"/>
       <c r="R15" s="37">
         <v>9700</v>
       </c>
-      <c r="S15" s="83"/>
-      <c r="T15" s="80" t="s">
+      <c r="S15" s="89"/>
+      <c r="T15" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="81" t="s">
+      <c r="U15" s="63"/>
+      <c r="V15" s="140" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X15" s="83" t="s">
+      <c r="X15" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="81"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="140"/>
       <c r="AB15" s="37">
         <v>11700</v>
       </c>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="80" t="s">
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="60"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="82"/>
       <c r="AG15" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="60"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="173"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="82"/>
       <c r="AU15" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62" t="s">
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="AX15" s="62" t="s">
+      <c r="AX15" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="AY15" s="148" t="s">
+      <c r="AY15" s="43" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="39">
         <v>6500</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="95"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="121"/>
-      <c r="G16" s="109"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="37">
         <v>7500</v>
       </c>
-      <c r="I16" s="109"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="97"/>
-      <c r="L16" s="134"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="109"/>
+      <c r="N16" s="108"/>
       <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="83"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="89"/>
       <c r="R16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="83"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="81"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="140"/>
       <c r="W16" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="81"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="140"/>
       <c r="AB16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="60"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="82"/>
       <c r="AG16" s="31">
         <v>12700</v>
       </c>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62" t="s">
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="64" t="s">
+      <c r="AK16" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="60"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="82"/>
       <c r="AN16" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62" t="s">
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AR16" s="148" t="s">
+      <c r="AR16" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="60"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="82"/>
       <c r="AU16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="148"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="43"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="95" t="s">
+      <c r="D17" s="89"/>
+      <c r="E17" s="119" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="121"/>
-      <c r="G17" s="109"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="109"/>
+      <c r="I17" s="108"/>
       <c r="J17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="134"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="37">
         <v>8400</v>
       </c>
-      <c r="N17" s="109"/>
+      <c r="N17" s="108"/>
       <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="83"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="89"/>
       <c r="R17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="83"/>
+      <c r="S17" s="89"/>
       <c r="T17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="50"/>
-      <c r="V17" s="81"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="140"/>
       <c r="W17" s="37">
         <v>10700</v>
       </c>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="80" t="s">
+      <c r="X17" s="89"/>
+      <c r="Y17" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="81"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="140"/>
       <c r="AB17" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AC17" s="83"/>
+      <c r="AC17" s="89"/>
       <c r="AD17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="60"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="82"/>
       <c r="AG17" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="60"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="173"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="82"/>
       <c r="AN17" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="148"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="60"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="75"/>
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="82"/>
       <c r="AU17" s="31">
         <v>14700</v>
       </c>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62" t="s">
+      <c r="AV17" s="75"/>
+      <c r="AW17" s="75"/>
+      <c r="AX17" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="AY17" s="148" t="s">
+      <c r="AY17" s="43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="95"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="121"/>
-      <c r="G18" s="109"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="37">
         <v>7400</v>
       </c>
-      <c r="I18" s="109"/>
+      <c r="I18" s="108"/>
       <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="134"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="109"/>
+      <c r="N18" s="108"/>
       <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="83" t="s">
+      <c r="P18" s="98"/>
+      <c r="Q18" s="89" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="83" t="s">
+      <c r="S18" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="80" t="s">
+      <c r="T18" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="81"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="140"/>
       <c r="W18" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="81" t="s">
+      <c r="X18" s="89"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="140" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AC18" s="83" t="s">
+      <c r="AC18" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="80" t="s">
+      <c r="AD18" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="60"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="82"/>
       <c r="AG18" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
       <c r="AJ18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="60"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="82"/>
       <c r="AN18" s="31">
         <v>13700</v>
       </c>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62" t="s">
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="148" t="s">
+      <c r="AR18" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="60"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="82"/>
       <c r="AU18" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="148"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="43"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="121"/>
-      <c r="G19" s="109"/>
+      <c r="G19" s="108"/>
       <c r="H19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="109"/>
+      <c r="I19" s="108"/>
       <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="134" t="s">
+      <c r="K19" s="98"/>
+      <c r="L19" s="105" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="108" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="83"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="89"/>
       <c r="R19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="83"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="81"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="140"/>
       <c r="W19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="83"/>
+      <c r="X19" s="89"/>
       <c r="Y19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="81"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="140"/>
       <c r="AB19" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="60" t="s">
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="82" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="AH19" s="62" t="s">
+      <c r="AH19" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62" t="s">
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AK19" s="64" t="s">
+      <c r="AK19" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="60"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="82"/>
       <c r="AN19" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="148"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="60"/>
+      <c r="AO19" s="75"/>
+      <c r="AP19" s="75"/>
+      <c r="AQ19" s="75"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="82"/>
       <c r="AU19" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="75"/>
       <c r="AX19" s="18" t="s">
         <v>271</v>
       </c>
@@ -4313,170 +4316,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="121"/>
-      <c r="G20" s="109" t="s">
+      <c r="G20" s="108" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="109" t="s">
+      <c r="I20" s="108" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="134"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="37">
         <v>8300</v>
       </c>
-      <c r="N20" s="109"/>
+      <c r="N20" s="108"/>
       <c r="O20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="83"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="89"/>
       <c r="R20" s="37">
         <v>9600</v>
       </c>
-      <c r="S20" s="83"/>
+      <c r="S20" s="89"/>
       <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="50"/>
-      <c r="V20" s="81" t="s">
+      <c r="U20" s="63"/>
+      <c r="V20" s="140" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="83" t="s">
+      <c r="X20" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="81"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="140"/>
       <c r="AB20" s="37">
         <v>11600</v>
       </c>
-      <c r="AC20" s="83"/>
+      <c r="AC20" s="89"/>
       <c r="AD20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="60"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="82"/>
       <c r="AG20" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="60"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="173"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="82"/>
       <c r="AN20" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
+      <c r="AO20" s="75"/>
+      <c r="AP20" s="75"/>
       <c r="AQ20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="60" t="s">
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="82" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="AV20" s="62" t="s">
+      <c r="AV20" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="62" t="s">
+      <c r="AW20" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="62" t="s">
+      <c r="AX20" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="AY20" s="148" t="s">
+      <c r="AY20" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="39">
         <v>6400</v>
       </c>
-      <c r="D21" s="83"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="121"/>
-      <c r="G21" s="109"/>
+      <c r="G21" s="108"/>
       <c r="H21" s="37">
         <v>7320</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="119" t="s">
+      <c r="I21" s="108"/>
+      <c r="J21" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="134"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="105"/>
       <c r="M21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="109"/>
+      <c r="N21" s="108"/>
       <c r="O21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="83"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="89"/>
       <c r="R21" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="83"/>
+      <c r="S21" s="89"/>
       <c r="T21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="50"/>
-      <c r="V21" s="81"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="140"/>
       <c r="W21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="81"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="140"/>
       <c r="AB21" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AC21" s="83"/>
+      <c r="AC21" s="89"/>
       <c r="AD21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="60"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="82"/>
       <c r="AG21" s="31">
         <v>12600</v>
       </c>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="66" t="s">
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="76" t="s">
         <v>142</v>
       </c>
       <c r="AJ21" s="18" t="s">
@@ -4485,119 +4488,119 @@
       <c r="AK21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="60" t="s">
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="82" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="AO21" s="62" t="s">
+      <c r="AO21" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62" t="s">
+      <c r="AP21" s="75"/>
+      <c r="AQ21" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="AR21" s="148" t="s">
+      <c r="AR21" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="60"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="82"/>
       <c r="AU21" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="148"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="43"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="39">
         <v>6320</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="119" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="121"/>
-      <c r="G22" s="109"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="37">
         <v>7300</v>
       </c>
-      <c r="I22" s="109"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="134"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="105"/>
       <c r="M22" s="37">
         <v>8100</v>
       </c>
-      <c r="N22" s="109"/>
-      <c r="O22" s="110" t="s">
+      <c r="N22" s="108"/>
+      <c r="O22" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="83"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="89"/>
       <c r="R22" s="37">
         <v>9500</v>
       </c>
-      <c r="S22" s="83"/>
-      <c r="T22" s="80" t="s">
+      <c r="S22" s="89"/>
+      <c r="T22" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="50"/>
-      <c r="V22" s="81"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="140"/>
       <c r="W22" s="37">
         <v>10600</v>
       </c>
-      <c r="X22" s="83"/>
+      <c r="X22" s="89"/>
       <c r="Y22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="81"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="140"/>
       <c r="AB22" s="37">
         <v>11500</v>
       </c>
-      <c r="AC22" s="83"/>
+      <c r="AC22" s="89"/>
       <c r="AD22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="60"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="82"/>
       <c r="AG22" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="66"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="76"/>
       <c r="AJ22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="60"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="82"/>
       <c r="AN22" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="60"/>
+      <c r="AO22" s="75"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="82"/>
       <c r="AU22" s="31">
         <v>14600</v>
       </c>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="75"/>
       <c r="AX22" s="18" t="s">
         <v>181</v>
       </c>
@@ -4606,87 +4609,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="39">
         <v>6300</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="95"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="121"/>
-      <c r="G23" s="109"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="109"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="134"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="105"/>
       <c r="M23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="83"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="89"/>
       <c r="R23" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="83"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="81"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="140"/>
       <c r="W23" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="X23" s="83"/>
+      <c r="X23" s="89"/>
       <c r="Y23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="81"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="140"/>
       <c r="AB23" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="AC23" s="83"/>
+      <c r="AC23" s="89"/>
       <c r="AD23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="60"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="82"/>
       <c r="AG23" s="31">
         <v>12500</v>
       </c>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="66"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="76"/>
       <c r="AJ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="60"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="82"/>
       <c r="AN23" s="31">
         <v>13600</v>
       </c>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="75"/>
       <c r="AQ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="60"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="82"/>
       <c r="AU23" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
       <c r="AX23" s="18" t="s">
         <v>271</v>
       </c>
@@ -4695,91 +4698,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="39">
         <v>6100</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="95"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="119"/>
       <c r="F24" s="121"/>
-      <c r="G24" s="109"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="37">
         <v>7100</v>
       </c>
-      <c r="I24" s="109"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="134"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="105"/>
       <c r="M24" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="109"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="83"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="89"/>
       <c r="R24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="83"/>
+      <c r="S24" s="89"/>
       <c r="T24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="50"/>
-      <c r="V24" s="81"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="140"/>
       <c r="W24" s="37">
         <v>10500</v>
       </c>
-      <c r="X24" s="83"/>
+      <c r="X24" s="89"/>
       <c r="Y24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="81"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="140"/>
       <c r="AB24" s="37">
         <v>11400</v>
       </c>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="80" t="s">
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="60"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="82"/>
       <c r="AG24" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="66"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="76"/>
       <c r="AJ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="60"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="82"/>
       <c r="AN24" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
       <c r="AQ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="60"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="82"/>
       <c r="AU24" s="31">
         <v>14500</v>
       </c>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="75"/>
       <c r="AX24" s="18" t="s">
         <v>181</v>
       </c>
@@ -4788,97 +4791,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="95" t="s">
+      <c r="D25" s="89"/>
+      <c r="E25" s="119" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="121"/>
-      <c r="G25" s="109"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="109"/>
+      <c r="I25" s="108"/>
       <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="92" t="s">
+      <c r="K25" s="98"/>
+      <c r="L25" s="101" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="109" t="s">
+      <c r="N25" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="110" t="s">
+      <c r="O25" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="83"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="89"/>
       <c r="R25" s="37">
         <v>9400</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="80" t="s">
+      <c r="S25" s="89"/>
+      <c r="T25" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="50"/>
-      <c r="V25" s="81"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="140"/>
       <c r="W25" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="X25" s="83"/>
+      <c r="X25" s="89"/>
       <c r="Y25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="81"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="140"/>
       <c r="AB25" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="65" t="s">
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="62" t="s">
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="64" t="s">
+      <c r="AK25" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="181" t="s">
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="65" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="21">
         <v>13500</v>
       </c>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
+      <c r="AO25" s="75"/>
+      <c r="AP25" s="75"/>
       <c r="AQ25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="60"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="82"/>
       <c r="AU25" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
       <c r="AX25" s="18" t="s">
         <v>271</v>
       </c>
@@ -4887,329 +4890,329 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="95"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="121"/>
-      <c r="G26" s="109"/>
+      <c r="G26" s="108"/>
       <c r="H26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="109"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="93"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="102"/>
       <c r="M26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="83"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="89"/>
       <c r="R26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="83"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="81"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="140"/>
       <c r="W26" s="37">
         <v>10400</v>
       </c>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="80" t="s">
+      <c r="X26" s="89"/>
+      <c r="Y26" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="82"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="163"/>
       <c r="AB26" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AC26" s="84"/>
+      <c r="AC26" s="100"/>
       <c r="AD26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="182"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="84"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="173"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="66"/>
       <c r="AN26" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
+      <c r="AO26" s="75"/>
+      <c r="AP26" s="75"/>
       <c r="AQ26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS26" s="50"/>
-      <c r="AT26" s="60"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="82"/>
       <c r="AU26" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62" t="s">
+      <c r="AV26" s="75"/>
+      <c r="AW26" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="62" t="s">
+      <c r="AX26" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="AY26" s="148" t="s">
+      <c r="AY26" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="121"/>
-      <c r="G27" s="109"/>
+      <c r="G27" s="108"/>
       <c r="H27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="109"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="93"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="102"/>
       <c r="M27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="109"/>
+      <c r="N27" s="108"/>
       <c r="O27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="83"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="89"/>
       <c r="R27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="83"/>
+      <c r="S27" s="89"/>
       <c r="T27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="50"/>
-      <c r="V27" s="81"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="140"/>
       <c r="W27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="95"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="119"/>
       <c r="AA27" s="34"/>
       <c r="AB27" s="35"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="60"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="82"/>
       <c r="AG27" s="31">
         <v>12400</v>
       </c>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="50"/>
-      <c r="AM27" s="182"/>
-      <c r="AN27" s="65" t="s">
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="173"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62" t="s">
+      <c r="AO27" s="75"/>
+      <c r="AP27" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="62" t="s">
+      <c r="AQ27" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="148" t="s">
+      <c r="AR27" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="AS27" s="50"/>
-      <c r="AT27" s="60"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="82"/>
       <c r="AU27" s="31">
         <v>14400</v>
       </c>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="148"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="75"/>
+      <c r="AY27" s="43"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="83" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="119" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="121"/>
-      <c r="G28" s="109" t="s">
+      <c r="G28" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="109"/>
-      <c r="J28" s="119" t="s">
+      <c r="I28" s="108"/>
+      <c r="J28" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="93"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="109"/>
+      <c r="N28" s="108"/>
       <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="83" t="s">
+      <c r="P28" s="98"/>
+      <c r="Q28" s="89" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="80" t="s">
+      <c r="T28" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="50"/>
-      <c r="V28" s="81"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="140"/>
       <c r="W28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="X28" s="83"/>
+      <c r="X28" s="89"/>
       <c r="Y28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="60"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="82"/>
       <c r="AG28" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="182"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="148"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="60"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="173"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="75"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="75"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="82"/>
       <c r="AU28" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="148"/>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="75"/>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="43"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="95"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="121"/>
-      <c r="G29" s="109"/>
+      <c r="G29" s="108"/>
       <c r="H29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="109"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="133"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="103"/>
       <c r="M29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="109"/>
+      <c r="N29" s="108"/>
       <c r="O29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="83"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="89"/>
       <c r="R29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="83"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="81" t="s">
+      <c r="S29" s="89"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="140" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="37">
         <v>10320</v>
       </c>
-      <c r="X29" s="83" t="s">
+      <c r="X29" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="95" t="s">
+      <c r="Y29" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="60"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="82"/>
       <c r="AG29" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="66"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="76"/>
       <c r="AJ29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="182"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="66"/>
       <c r="AN29" s="21">
         <v>13400</v>
       </c>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="75"/>
       <c r="AQ29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="60"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="82"/>
       <c r="AU29" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="75"/>
       <c r="AX29" s="18" t="s">
         <v>271</v>
       </c>
@@ -5218,266 +5221,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="83"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="121"/>
-      <c r="G30" s="109"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="109"/>
+      <c r="I30" s="108"/>
       <c r="J30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="109" t="s">
+      <c r="K30" s="98"/>
+      <c r="L30" s="108" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="109" t="s">
+      <c r="N30" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="110" t="s">
+      <c r="O30" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="83"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="89"/>
       <c r="R30" s="37">
         <v>9320</v>
       </c>
-      <c r="S30" s="83"/>
-      <c r="T30" s="80" t="s">
+      <c r="S30" s="89"/>
+      <c r="T30" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="50"/>
-      <c r="V30" s="81"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="140"/>
       <c r="W30" s="37">
         <v>10300</v>
       </c>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="95"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="60" t="s">
+      <c r="X30" s="89"/>
+      <c r="Y30" s="119"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="82" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="31">
         <v>12300</v>
       </c>
-      <c r="AH30" s="62" t="s">
+      <c r="AH30" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="66"/>
+      <c r="AI30" s="76"/>
       <c r="AJ30" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="182"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="66"/>
       <c r="AN30" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
+      <c r="AO30" s="75"/>
+      <c r="AP30" s="75"/>
       <c r="AQ30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="60" t="s">
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="82" t="s">
         <v>85</v>
       </c>
       <c r="AU30" s="31">
         <v>14100</v>
       </c>
-      <c r="AV30" s="62" t="s">
+      <c r="AV30" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="66" t="s">
+      <c r="AW30" s="76" t="s">
         <v>142</v>
       </c>
       <c r="AX30" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="AY30" s="148" t="s">
+      <c r="AY30" s="43" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="83"/>
+      <c r="D31" s="89"/>
       <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="121"/>
-      <c r="G31" s="109"/>
+      <c r="G31" s="108"/>
       <c r="H31" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="109"/>
+      <c r="I31" s="108"/>
       <c r="J31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="109"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="108"/>
       <c r="M31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="109"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="83"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="37">
         <v>9300</v>
       </c>
-      <c r="S31" s="83"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="81"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="140"/>
       <c r="W31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="X31" s="83"/>
+      <c r="X31" s="89"/>
       <c r="Y31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="60"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="82"/>
       <c r="AG31" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="66"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="76"/>
       <c r="AJ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="183"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="67"/>
       <c r="AN31" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
+      <c r="AO31" s="75"/>
+      <c r="AP31" s="75"/>
       <c r="AQ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="60"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="82"/>
       <c r="AU31" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="66"/>
+      <c r="AV31" s="75"/>
+      <c r="AW31" s="76"/>
       <c r="AX31" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="AY31" s="148"/>
+      <c r="AY31" s="43"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="95" t="s">
+      <c r="D32" s="89"/>
+      <c r="E32" s="119" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="121"/>
-      <c r="G32" s="109"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="109"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="97"/>
-      <c r="L32" s="109"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="108"/>
       <c r="M32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="109"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="83"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="89"/>
       <c r="R32" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="83"/>
+      <c r="S32" s="89"/>
       <c r="T32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="50"/>
-      <c r="V32" s="81"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="140"/>
       <c r="W32" s="37">
         <v>10100</v>
       </c>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="95" t="s">
+      <c r="X32" s="89"/>
+      <c r="Y32" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="60"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="82"/>
       <c r="AG32" s="31">
         <v>12100</v>
       </c>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="66"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="76"/>
       <c r="AJ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="64" t="s">
+      <c r="AK32" s="173" t="s">
         <v>226</v>
       </c>
-      <c r="AL32" s="50"/>
-      <c r="AM32" s="184" t="s">
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="68" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="21">
         <v>13100</v>
       </c>
-      <c r="AO32" s="62" t="s">
+      <c r="AO32" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="66" t="s">
+      <c r="AP32" s="76" t="s">
         <v>142</v>
       </c>
       <c r="AQ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="148" t="s">
+      <c r="AR32" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="AS32" s="50"/>
-      <c r="AT32" s="60"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="82"/>
       <c r="AU32" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="66"/>
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="76"/>
       <c r="AX32" s="18" t="s">
         <v>271</v>
       </c>
@@ -5486,218 +5489,218 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="95"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="121"/>
-      <c r="G33" s="109" t="s">
+      <c r="G33" s="108" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="109" t="s">
+      <c r="I33" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="119" t="s">
+      <c r="J33" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="130"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="109"/>
       <c r="M33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="130"/>
+      <c r="N33" s="109"/>
       <c r="O33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="83"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="89"/>
       <c r="R33" s="37">
         <v>9100</v>
       </c>
-      <c r="S33" s="83"/>
-      <c r="T33" s="80" t="s">
+      <c r="S33" s="89"/>
+      <c r="T33" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="50"/>
-      <c r="V33" s="81"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="140"/>
       <c r="W33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="95"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="60"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="119"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="82"/>
       <c r="AG33" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="66"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="76"/>
       <c r="AJ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="185"/>
+      <c r="AK33" s="173"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="69"/>
       <c r="AN33" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="66"/>
+      <c r="AO33" s="75"/>
+      <c r="AP33" s="76"/>
       <c r="AQ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AR33" s="148"/>
-      <c r="AS33" s="50"/>
-      <c r="AT33" s="187" t="s">
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="71" t="s">
         <v>303</v>
       </c>
       <c r="AU33" s="32">
         <v>300</v>
       </c>
-      <c r="AV33" s="187" t="s">
+      <c r="AV33" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="66"/>
+      <c r="AW33" s="76"/>
       <c r="AX33" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="AY33" s="189" t="s">
+      <c r="AY33" s="73" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
-      <c r="B34" s="83" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="95" t="s">
+      <c r="D34" s="89"/>
+      <c r="E34" s="119" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="121"/>
-      <c r="G34" s="109"/>
+      <c r="G34" s="108"/>
       <c r="H34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="109"/>
-      <c r="J34" s="119"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="83"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="117"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="89"/>
       <c r="R34" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="83"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="81"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="140"/>
       <c r="W34" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X34" s="83"/>
+      <c r="X34" s="89"/>
       <c r="Y34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="60"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="82"/>
       <c r="AG34" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="66"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="76"/>
       <c r="AJ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="186"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="70"/>
       <c r="AN34" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="67"/>
+      <c r="AO34" s="83"/>
+      <c r="AP34" s="77"/>
       <c r="AQ34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="188"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="72"/>
       <c r="AU34" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AV34" s="188"/>
-      <c r="AW34" s="67"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="77"/>
       <c r="AX34" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AY34" s="190"/>
+      <c r="AY34" s="74"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="97"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="95"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="122"/>
-      <c r="G35" s="130"/>
+      <c r="G35" s="109"/>
       <c r="H35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="130"/>
+      <c r="I35" s="109"/>
       <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="83"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="89"/>
       <c r="R35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="83"/>
+      <c r="S35" s="89"/>
       <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="50"/>
-      <c r="V35" s="81" t="s">
+      <c r="U35" s="63"/>
+      <c r="V35" s="140" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="X35" s="83" t="s">
+      <c r="X35" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="95" t="s">
+      <c r="Y35" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="60" t="s">
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="82" t="s">
         <v>100</v>
       </c>
       <c r="AG35" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AH35" s="62" t="s">
+      <c r="AH35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="66"/>
+      <c r="AI35" s="76"/>
       <c r="AJ35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK35" s="58" t="s">
+      <c r="AK35" s="170" t="s">
         <v>142</v>
       </c>
       <c r="AL35" s="34"/>
@@ -5716,47 +5719,47 @@
       <c r="AY35" s="35"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="83"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="95" t="s">
+      <c r="D36" s="89"/>
+      <c r="E36" s="119" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="88" t="s">
+      <c r="P36" s="98"/>
+      <c r="Q36" s="144" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="83" t="s">
+      <c r="S36" s="89" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="50"/>
-      <c r="V36" s="81"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="140"/>
       <c r="W36" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="95"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="60"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="119"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="82"/>
       <c r="AG36" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="66"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="76"/>
       <c r="AJ36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="58"/>
+      <c r="AK36" s="170"/>
       <c r="AL36" s="34"/>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
@@ -5773,47 +5776,47 @@
       <c r="AY36" s="35"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
-      <c r="B37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="131"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="123"/>
       <c r="F37" s="3"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="89"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="145"/>
       <c r="R37" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="83"/>
+      <c r="S37" s="89"/>
       <c r="T37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="50"/>
-      <c r="V37" s="81"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="140"/>
       <c r="W37" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="X37" s="83"/>
+      <c r="X37" s="89"/>
       <c r="Y37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="60" t="s">
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="82" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AH37" s="62" t="s">
+      <c r="AH37" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="66"/>
+      <c r="AI37" s="76"/>
       <c r="AJ37" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK37" s="58"/>
+      <c r="AK37" s="170"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
@@ -5831,35 +5834,35 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="41"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="89"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="145"/>
       <c r="R38" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="83"/>
+      <c r="S38" s="89"/>
       <c r="T38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="50"/>
-      <c r="V38" s="81"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="140"/>
       <c r="W38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="X38" s="83"/>
+      <c r="X38" s="89"/>
       <c r="Y38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="61"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="172"/>
       <c r="AG38" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AH38" s="63"/>
-      <c r="AI38" s="67"/>
+      <c r="AH38" s="83"/>
+      <c r="AI38" s="77"/>
       <c r="AJ38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="59"/>
+      <c r="AK38" s="171"/>
       <c r="AL38" s="34"/>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
@@ -5876,21 +5879,21 @@
       <c r="AY38" s="35"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="97"/>
-      <c r="Q39" s="90"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="146"/>
       <c r="R39" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="83"/>
+      <c r="S39" s="89"/>
       <c r="T39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="50"/>
-      <c r="V39" s="81"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="140"/>
       <c r="W39" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="X39" s="83"/>
+      <c r="X39" s="89"/>
       <c r="Y39" s="6" t="s">
         <v>9</v>
       </c>
@@ -5916,111 +5919,111 @@
       <c r="AY39" s="35"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="97"/>
-      <c r="Q40" s="83" t="s">
+      <c r="P40" s="98"/>
+      <c r="Q40" s="89" t="s">
         <v>34</v>
       </c>
       <c r="R40" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="83" t="s">
+      <c r="S40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="80" t="s">
+      <c r="T40" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="50"/>
-      <c r="V40" s="83" t="s">
+      <c r="U40" s="63"/>
+      <c r="V40" s="89" t="s">
         <v>34</v>
       </c>
       <c r="W40" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="X40" s="83" t="s">
+      <c r="X40" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="95" t="s">
+      <c r="Y40" s="119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="97"/>
-      <c r="Q41" s="83"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="89"/>
       <c r="R41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="83"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="83"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="89"/>
       <c r="W41" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="95"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="119"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="98"/>
-      <c r="Q42" s="84"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="100"/>
       <c r="R42" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="84"/>
+      <c r="S42" s="100"/>
       <c r="T42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="50"/>
-      <c r="V42" s="83"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="89"/>
       <c r="W42" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="X42" s="83"/>
-      <c r="Y42" s="95"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="119"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="50"/>
-      <c r="V43" s="83"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="89"/>
       <c r="W43" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="X43" s="83"/>
+      <c r="X43" s="89"/>
       <c r="Y43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="50"/>
-      <c r="V44" s="83"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="89"/>
       <c r="W44" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="X44" s="83"/>
+      <c r="X44" s="89"/>
       <c r="Y44" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="50"/>
-      <c r="V45" s="83"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="89"/>
       <c r="W45" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="X45" s="83"/>
+      <c r="X45" s="89"/>
       <c r="Y45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="50"/>
-      <c r="V46" s="85" t="s">
+      <c r="U46" s="63"/>
+      <c r="V46" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="86"/>
+      <c r="W46" s="141"/>
+      <c r="X46" s="141"/>
+      <c r="Y46" s="142"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="50"/>
+      <c r="U47" s="63"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6035,124 +6038,124 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="50"/>
-      <c r="V48" s="81" t="s">
+      <c r="U48" s="63"/>
+      <c r="V48" s="140" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="37">
         <v>10325</v>
       </c>
-      <c r="X48" s="83" t="s">
+      <c r="X48" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="87" t="s">
+      <c r="Y48" s="143" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="50"/>
-      <c r="V49" s="81"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="140"/>
       <c r="W49" s="37">
         <v>10305</v>
       </c>
-      <c r="X49" s="83"/>
-      <c r="Y49" s="87"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="143"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="50"/>
-      <c r="V50" s="81"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="140"/>
       <c r="W50" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X50" s="83"/>
+      <c r="X50" s="89"/>
       <c r="Y50" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="50"/>
-      <c r="V51" s="81"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="140"/>
       <c r="W51" s="37">
         <v>10105</v>
       </c>
-      <c r="X51" s="83"/>
-      <c r="Y51" s="87" t="s">
+      <c r="X51" s="89"/>
+      <c r="Y51" s="143" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="50"/>
-      <c r="V52" s="81"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="140"/>
       <c r="W52" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="X52" s="83"/>
-      <c r="Y52" s="87"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="143"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="50"/>
-      <c r="V53" s="81"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="140"/>
       <c r="W53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="83"/>
+      <c r="X53" s="89"/>
       <c r="Y53" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="50"/>
-      <c r="V54" s="92" t="s">
+      <c r="U54" s="63"/>
+      <c r="V54" s="101" t="s">
         <v>100</v>
       </c>
       <c r="W54" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="X54" s="83" t="s">
+      <c r="X54" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="87" t="s">
+      <c r="Y54" s="143" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="50"/>
-      <c r="V55" s="93"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="102"/>
       <c r="W55" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="X55" s="83"/>
-      <c r="Y55" s="87"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="143"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="50"/>
-      <c r="V56" s="93"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="102"/>
       <c r="W56" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="X56" s="83"/>
+      <c r="X56" s="89"/>
       <c r="Y56" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="50"/>
-      <c r="V57" s="93"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="102"/>
       <c r="W57" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X57" s="83"/>
+      <c r="X57" s="89"/>
       <c r="Y57" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="51"/>
-      <c r="V58" s="94"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="147"/>
       <c r="W58" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="X58" s="84"/>
+      <c r="X58" s="100"/>
       <c r="Y58" s="17" t="s">
         <v>182</v>
       </c>
@@ -6165,6 +6168,242 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AE8:AE38"/>
+    <mergeCell ref="AH4:AI6"/>
+    <mergeCell ref="AK35:AK38"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AJ25:AJ28"/>
+    <mergeCell ref="AK25:AK28"/>
+    <mergeCell ref="AI21:AI38"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
     <mergeCell ref="AE2:AY2"/>
     <mergeCell ref="AY30:AY31"/>
     <mergeCell ref="AL3:AR3"/>
@@ -6189,242 +6428,6 @@
     <mergeCell ref="AY26:AY28"/>
     <mergeCell ref="AW30:AW34"/>
     <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AE8:AE38"/>
-    <mergeCell ref="AH4:AI6"/>
-    <mergeCell ref="AK35:AK38"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AJ25:AJ28"/>
-    <mergeCell ref="AK25:AK28"/>
-    <mergeCell ref="AI21:AI38"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DF144-B9A1-4C47-8212-D1E087D15EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD761F3-A2CB-4E41-944B-C72843C0E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -1200,6 +1200,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1881,12 +1882,279 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,15 +2173,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,24 +2191,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1980,13 +2221,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,340 +2275,61 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2656,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W16" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4:AC7"/>
+    <sheetView tabSelected="1" topLeftCell="W4" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,74 +2709,74 @@
       <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="132" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="139" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="42" t="s">
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="132" t="s">
         <v>304</v>
       </c>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="132"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="132"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="132"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="112" t="s">
         <v>73</v>
       </c>
@@ -2783,76 +2784,76 @@
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
       <c r="J3" s="114"/>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="92" t="s">
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="133" t="s">
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="154" t="s">
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="167" t="s">
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="44" t="s">
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="133" t="s">
         <v>297</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="53" t="s">
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="55"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="140"/>
+      <c r="AX3" s="140"/>
+      <c r="AY3" s="141"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="155" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="115" t="s">
@@ -2867,261 +2868,261 @@
       <c r="I4" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="124" t="s">
+      <c r="O4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="91" t="s">
+      <c r="T4" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="136" t="s">
+      <c r="U4" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="137" t="s">
+      <c r="V4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="137" t="s">
+      <c r="W4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="137" t="s">
+      <c r="X4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="138" t="s">
+      <c r="Y4" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="157" t="s">
+      <c r="Z4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="159" t="s">
+      <c r="AA4" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="159" t="s">
+      <c r="AB4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="159" t="s">
+      <c r="AC4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="161" t="s">
+      <c r="AD4" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="164" t="s">
+      <c r="AE4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="152" t="s">
+      <c r="AF4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="152" t="s">
+      <c r="AG4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="186" t="s">
+      <c r="AH4" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="187"/>
-      <c r="AJ4" s="148" t="s">
+      <c r="AI4" s="162"/>
+      <c r="AJ4" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="180" t="s">
+      <c r="AO4" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="181"/>
-      <c r="AQ4" s="85" t="s">
+      <c r="AP4" s="166"/>
+      <c r="AQ4" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="56" t="s">
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="59" t="s">
+      <c r="AT4" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="59" t="s">
+      <c r="AU4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="174" t="s">
+      <c r="AV4" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="78" t="s">
+      <c r="AW4" s="170"/>
+      <c r="AX4" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="79"/>
+      <c r="AY4" s="172"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="128"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="155"/>
       <c r="F5" s="115"/>
       <c r="G5" s="116"/>
       <c r="H5" s="116"/>
       <c r="I5" s="116"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="189"/>
-      <c r="AJ5" s="150"/>
-      <c r="AK5" s="151"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="182"/>
-      <c r="AP5" s="183"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="60"/>
-      <c r="AU5" s="60"/>
-      <c r="AV5" s="176"/>
-      <c r="AW5" s="177"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="81"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="174"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="176"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="177"/>
+      <c r="AP5" s="178"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="180"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="182"/>
+      <c r="AX5" s="183"/>
+      <c r="AY5" s="184"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="128"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="155"/>
       <c r="F6" s="115"/>
       <c r="G6" s="116"/>
       <c r="H6" s="116"/>
       <c r="I6" s="116"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="137"/>
-      <c r="W6" s="137"/>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="190"/>
-      <c r="AI6" s="191"/>
-      <c r="AJ6" s="150"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="184"/>
-      <c r="AP6" s="185"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="88"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="178"/>
-      <c r="AW6" s="179"/>
-      <c r="AX6" s="80"/>
-      <c r="AY6" s="81"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="160"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="185"/>
+      <c r="AI6" s="186"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="176"/>
+      <c r="AL6" s="137"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="187"/>
+      <c r="AP6" s="188"/>
+      <c r="AQ6" s="179"/>
+      <c r="AR6" s="180"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="130"/>
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="189"/>
+      <c r="AW6" s="190"/>
+      <c r="AX6" s="183"/>
+      <c r="AY6" s="184"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="128"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="155"/>
       <c r="F7" s="115"/>
       <c r="G7" s="116"/>
       <c r="H7" s="116"/>
       <c r="I7" s="116"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="153"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
       <c r="AH7" s="20" t="s">
         <v>238</v>
       </c>
@@ -3134,9 +3135,9 @@
       <c r="AK7" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="123"/>
       <c r="AO7" s="27" t="s">
         <v>238</v>
       </c>
@@ -3149,9 +3150,9 @@
       <c r="AR7" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
+      <c r="AS7" s="144"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="131"/>
       <c r="AV7" s="29" t="s">
         <v>238</v>
       </c>
@@ -3166,600 +3167,600 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="72" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="72" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="96" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="96" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="119" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="97" t="s">
+      <c r="P8" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="Q8" s="89" t="s">
+      <c r="Q8" s="72" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="72" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="140" t="s">
+      <c r="V8" s="70" t="s">
         <v>104</v>
       </c>
       <c r="W8" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="X8" s="89" t="s">
+      <c r="X8" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="Y8" s="90" t="s">
+      <c r="Y8" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="97" t="s">
+      <c r="Z8" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="AA8" s="140" t="s">
+      <c r="AA8" s="70" t="s">
         <v>104</v>
       </c>
       <c r="AB8" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" s="89" t="s">
+      <c r="AC8" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="90" t="s">
+      <c r="AD8" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AE8" s="169" t="s">
+      <c r="AE8" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="AF8" s="82" t="s">
+      <c r="AF8" s="54" t="s">
         <v>104</v>
       </c>
       <c r="AG8" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="AH8" s="75" t="s">
+      <c r="AH8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="75" t="s">
+      <c r="AI8" s="56" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AK8" s="173" t="s">
+      <c r="AK8" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" s="62" t="s">
+      <c r="AL8" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="AM8" s="82" t="s">
+      <c r="AM8" s="54" t="s">
         <v>104</v>
       </c>
       <c r="AN8" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="75" t="s">
+      <c r="AO8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="75" t="s">
+      <c r="AP8" s="56" t="s">
         <v>243</v>
       </c>
       <c r="AQ8" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AR8" s="43" t="s">
+      <c r="AR8" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="AS8" s="62" t="s">
+      <c r="AS8" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="AT8" s="82" t="s">
+      <c r="AT8" s="54" t="s">
         <v>104</v>
       </c>
       <c r="AU8" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="AV8" s="75" t="s">
+      <c r="AV8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="75" t="s">
+      <c r="AW8" s="56" t="s">
         <v>243</v>
       </c>
       <c r="AX8" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="AY8" s="43" t="s">
+      <c r="AY8" s="128" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="119" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="108"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="108"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="105"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="108"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="89"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="72"/>
       <c r="R9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="89"/>
-      <c r="T9" s="90" t="s">
+      <c r="S9" s="72"/>
+      <c r="T9" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="140"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="140"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="70"/>
       <c r="AB9" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="82"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="54"/>
       <c r="AG9" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75" t="s">
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AK9" s="173"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="82"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="54"/>
       <c r="AN9" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75" t="s">
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="63"/>
-      <c r="AT9" s="82"/>
+      <c r="AR9" s="128"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="54"/>
       <c r="AU9" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75" t="s">
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AY9" s="43"/>
+      <c r="AY9" s="128"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="39">
         <v>6700</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="108"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="37">
         <v>7700</v>
       </c>
-      <c r="I10" s="108"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="98"/>
-      <c r="L10" s="105"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="37">
         <v>8700</v>
       </c>
-      <c r="N10" s="108"/>
+      <c r="N10" s="96"/>
       <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="89"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="72"/>
       <c r="R10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="89"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="140"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="37">
         <v>10910</v>
       </c>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="140"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="70"/>
       <c r="AB10" s="37">
         <v>11900</v>
       </c>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="90" t="s">
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="82"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="54"/>
       <c r="AG10" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="173"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="82"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="54"/>
       <c r="AN10" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="63"/>
-      <c r="AT10" s="82"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="54"/>
       <c r="AU10" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="43"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="128"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="108"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="108"/>
+      <c r="I11" s="96"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="105"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="108"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="89"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="72"/>
       <c r="R11" s="37">
         <v>9900</v>
       </c>
-      <c r="S11" s="89"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="63"/>
-      <c r="V11" s="140"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="37">
         <v>10900</v>
       </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90" t="s">
+      <c r="X11" s="72"/>
+      <c r="Y11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="140"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="70"/>
       <c r="AB11" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="82"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="54"/>
       <c r="AG11" s="31">
         <v>12900</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75" t="s">
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="173" t="s">
+      <c r="AK11" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="82"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="54"/>
       <c r="AN11" s="31">
         <v>13900</v>
       </c>
-      <c r="AO11" s="75"/>
-      <c r="AP11" s="75"/>
-      <c r="AQ11" s="75" t="s">
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="43" t="s">
+      <c r="AR11" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="AS11" s="63"/>
-      <c r="AT11" s="82"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="54"/>
       <c r="AU11" s="31">
         <v>14900</v>
       </c>
-      <c r="AV11" s="75"/>
-      <c r="AW11" s="75"/>
-      <c r="AX11" s="75" t="s">
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="AY11" s="43" t="s">
+      <c r="AY11" s="128" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="72" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="108" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="96" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="108" t="s">
+      <c r="I12" s="96" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="105" t="s">
+      <c r="K12" s="86"/>
+      <c r="L12" s="119" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="108" t="s">
+      <c r="N12" s="96" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="89"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="72"/>
       <c r="R12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="89"/>
+      <c r="S12" s="72"/>
       <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="63"/>
-      <c r="V12" s="140"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="70"/>
       <c r="W12" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="140"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="AC12" s="89"/>
+      <c r="AC12" s="72"/>
       <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="82"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="54"/>
       <c r="AG12" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="173"/>
-      <c r="AL12" s="63"/>
-      <c r="AM12" s="82"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="54"/>
       <c r="AN12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="82"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="128"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="54"/>
       <c r="AU12" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="43"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="128"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="119" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="108"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="108"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="105"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="37">
         <v>8600</v>
       </c>
-      <c r="N13" s="108"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="89" t="s">
+      <c r="P13" s="86"/>
+      <c r="Q13" s="72" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="89" t="s">
+      <c r="S13" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="90" t="s">
+      <c r="T13" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="63"/>
-      <c r="V13" s="140"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="89"/>
+      <c r="X13" s="72"/>
       <c r="Y13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="140" t="s">
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="70" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="90" t="s">
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="82"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="54"/>
       <c r="AG13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
       <c r="AJ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AL13" s="63"/>
-      <c r="AM13" s="82"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="54"/>
       <c r="AN13" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="AO13" s="75"/>
-      <c r="AP13" s="75"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
       <c r="AQ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS13" s="63"/>
-      <c r="AT13" s="82"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="54"/>
       <c r="AU13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="AV13" s="75"/>
-      <c r="AW13" s="75"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
       <c r="AX13" s="18" t="s">
         <v>271</v>
       </c>
@@ -3768,96 +3769,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="39">
         <v>6600</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="108"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="37">
         <v>7600</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="105"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="108"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="89"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="72"/>
       <c r="R14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="89"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="140"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90" t="s">
+      <c r="X14" s="72"/>
+      <c r="Y14" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="140"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="70"/>
       <c r="AB14" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="82" t="s">
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="54" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75" t="s">
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="75" t="s">
+      <c r="AJ14" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AK14" s="173" t="s">
+      <c r="AK14" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="82" t="s">
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="82" t="s">
+      <c r="AN14" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75" t="s">
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="75" t="s">
+      <c r="AQ14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="43" t="s">
+      <c r="AR14" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="AS14" s="63"/>
-      <c r="AT14" s="82" t="s">
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="54" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="AV14" s="75"/>
+      <c r="AV14" s="56"/>
       <c r="AW14" s="18" t="s">
         <v>112</v>
       </c>
@@ -3869,445 +3870,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="108"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="108"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="105"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="37">
         <v>8500</v>
       </c>
-      <c r="N15" s="108"/>
+      <c r="N15" s="96"/>
       <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="89"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="72"/>
       <c r="R15" s="37">
         <v>9700</v>
       </c>
-      <c r="S15" s="89"/>
-      <c r="T15" s="90" t="s">
+      <c r="S15" s="72"/>
+      <c r="T15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="140" t="s">
+      <c r="U15" s="50"/>
+      <c r="V15" s="70" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X15" s="89" t="s">
+      <c r="X15" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="140"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="70"/>
       <c r="AB15" s="37">
         <v>11700</v>
       </c>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="90" t="s">
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="82"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="54"/>
       <c r="AG15" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="75"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="82"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="128"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="54"/>
       <c r="AU15" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AV15" s="75"/>
-      <c r="AW15" s="75" t="s">
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="AX15" s="75" t="s">
+      <c r="AX15" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="AY15" s="43" t="s">
+      <c r="AY15" s="128" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="39">
         <v>6500</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="108"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="37">
         <v>7500</v>
       </c>
-      <c r="I16" s="108"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="105"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="108"/>
+      <c r="N16" s="96"/>
       <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="89"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="72"/>
       <c r="R16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="89"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="140"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="70"/>
       <c r="W16" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="140"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="70"/>
       <c r="AB16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="82"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="54"/>
       <c r="AG16" s="31">
         <v>12700</v>
       </c>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75" t="s">
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="173" t="s">
+      <c r="AK16" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="82"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="54"/>
       <c r="AN16" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="75" t="s">
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AR16" s="43" t="s">
+      <c r="AR16" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="82"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="54"/>
       <c r="AU16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="AV16" s="75"/>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="75"/>
-      <c r="AY16" s="43"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="128"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="119" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="108"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="108"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="105"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="37">
         <v>8400</v>
       </c>
-      <c r="N17" s="108"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="89"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="72"/>
       <c r="R17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="89"/>
+      <c r="S17" s="72"/>
       <c r="T17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="63"/>
-      <c r="V17" s="140"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="37">
         <v>10700</v>
       </c>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90" t="s">
+      <c r="X17" s="72"/>
+      <c r="Y17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="140"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="70"/>
       <c r="AB17" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AC17" s="89"/>
+      <c r="AC17" s="72"/>
       <c r="AD17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="82"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="54"/>
       <c r="AG17" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="173"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="82"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="54"/>
       <c r="AN17" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="75"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="82"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="128"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="54"/>
       <c r="AU17" s="31">
         <v>14700</v>
       </c>
-      <c r="AV17" s="75"/>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="75" t="s">
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="AY17" s="43" t="s">
+      <c r="AY17" s="128" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="108"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="37">
         <v>7400</v>
       </c>
-      <c r="I18" s="108"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="105"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="108"/>
+      <c r="N18" s="96"/>
       <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="89" t="s">
+      <c r="P18" s="86"/>
+      <c r="Q18" s="72" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="89" t="s">
+      <c r="S18" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="90" t="s">
+      <c r="T18" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="63"/>
-      <c r="V18" s="140"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="70"/>
       <c r="W18" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="140" t="s">
+      <c r="X18" s="72"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="70" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AC18" s="89" t="s">
+      <c r="AC18" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="90" t="s">
+      <c r="AD18" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="82"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="54"/>
       <c r="AG18" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
       <c r="AJ18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="82"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="54"/>
       <c r="AN18" s="31">
         <v>13700</v>
       </c>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="75" t="s">
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="43" t="s">
+      <c r="AR18" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="82"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="54"/>
       <c r="AU18" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="AV18" s="75"/>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="75"/>
-      <c r="AY18" s="43"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="128"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="108"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="108"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="105" t="s">
+      <c r="K19" s="86"/>
+      <c r="L19" s="119" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="108" t="s">
+      <c r="N19" s="96" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="89"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="72"/>
       <c r="R19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="89"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="140"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="70"/>
       <c r="W19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="89"/>
+      <c r="X19" s="72"/>
       <c r="Y19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="140"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="70"/>
       <c r="AB19" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="82" t="s">
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="AH19" s="75" t="s">
+      <c r="AH19" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75" t="s">
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AK19" s="173" t="s">
+      <c r="AK19" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="82"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="54"/>
       <c r="AN19" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="AO19" s="75"/>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="75"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="82"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="54"/>
       <c r="AU19" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="AV19" s="75"/>
-      <c r="AW19" s="75"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
       <c r="AX19" s="18" t="s">
         <v>271</v>
       </c>
@@ -4316,170 +4317,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="108" t="s">
+      <c r="F20" s="106"/>
+      <c r="G20" s="96" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="108" t="s">
+      <c r="I20" s="96" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="98"/>
-      <c r="L20" s="105"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="119"/>
       <c r="M20" s="37">
         <v>8300</v>
       </c>
-      <c r="N20" s="108"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="89"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="72"/>
       <c r="R20" s="37">
         <v>9600</v>
       </c>
-      <c r="S20" s="89"/>
+      <c r="S20" s="72"/>
       <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="63"/>
-      <c r="V20" s="140" t="s">
+      <c r="U20" s="50"/>
+      <c r="V20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="89" t="s">
+      <c r="X20" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="90" t="s">
+      <c r="Y20" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="140"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="70"/>
       <c r="AB20" s="37">
         <v>11600</v>
       </c>
-      <c r="AC20" s="89"/>
+      <c r="AC20" s="72"/>
       <c r="AD20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="82"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="54"/>
       <c r="AG20" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="173"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="82"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="54"/>
       <c r="AN20" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="AO20" s="75"/>
-      <c r="AP20" s="75"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
       <c r="AQ20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="82" t="s">
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="54" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="AV20" s="75" t="s">
+      <c r="AV20" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="75" t="s">
+      <c r="AW20" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="75" t="s">
+      <c r="AX20" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="AY20" s="43" t="s">
+      <c r="AY20" s="128" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="39">
         <v>6400</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="121"/>
-      <c r="G21" s="108"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="37">
         <v>7320</v>
       </c>
-      <c r="I21" s="108"/>
-      <c r="J21" s="117" t="s">
+      <c r="I21" s="96"/>
+      <c r="J21" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="105"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="108"/>
+      <c r="N21" s="96"/>
       <c r="O21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="89"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="72"/>
       <c r="R21" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="89"/>
+      <c r="S21" s="72"/>
       <c r="T21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="63"/>
-      <c r="V21" s="140"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="70"/>
       <c r="W21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="140"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="70"/>
       <c r="AB21" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AC21" s="89"/>
+      <c r="AC21" s="72"/>
       <c r="AD21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="82"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="54"/>
       <c r="AG21" s="31">
         <v>12600</v>
       </c>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="76" t="s">
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="60" t="s">
         <v>142</v>
       </c>
       <c r="AJ21" s="18" t="s">
@@ -4488,119 +4489,119 @@
       <c r="AK21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="82" t="s">
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="54" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="AO21" s="75" t="s">
+      <c r="AO21" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="75"/>
-      <c r="AQ21" s="75" t="s">
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AR21" s="43" t="s">
+      <c r="AR21" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="AS21" s="63"/>
-      <c r="AT21" s="82"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="54"/>
       <c r="AU21" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="75"/>
-      <c r="AW21" s="75"/>
-      <c r="AX21" s="75"/>
-      <c r="AY21" s="43"/>
+      <c r="AV21" s="56"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="56"/>
+      <c r="AY21" s="128"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="89" t="s">
+      <c r="A22" s="86"/>
+      <c r="B22" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="39">
         <v>6320</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="108"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="37">
         <v>7300</v>
       </c>
-      <c r="I22" s="108"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="105"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="37">
         <v>8100</v>
       </c>
-      <c r="N22" s="108"/>
-      <c r="O22" s="104" t="s">
+      <c r="N22" s="96"/>
+      <c r="O22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="89"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="37">
         <v>9500</v>
       </c>
-      <c r="S22" s="89"/>
-      <c r="T22" s="90" t="s">
+      <c r="S22" s="72"/>
+      <c r="T22" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="63"/>
-      <c r="V22" s="140"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="70"/>
       <c r="W22" s="37">
         <v>10600</v>
       </c>
-      <c r="X22" s="89"/>
+      <c r="X22" s="72"/>
       <c r="Y22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="140"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="70"/>
       <c r="AB22" s="37">
         <v>11500</v>
       </c>
-      <c r="AC22" s="89"/>
+      <c r="AC22" s="72"/>
       <c r="AD22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="82"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="54"/>
       <c r="AG22" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="76"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="60"/>
       <c r="AJ22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="82"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="54"/>
       <c r="AN22" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="AO22" s="75"/>
-      <c r="AP22" s="75"/>
-      <c r="AQ22" s="75"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="63"/>
-      <c r="AT22" s="82"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="128"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="54"/>
       <c r="AU22" s="31">
         <v>14600</v>
       </c>
-      <c r="AV22" s="75"/>
-      <c r="AW22" s="75"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
       <c r="AX22" s="18" t="s">
         <v>181</v>
       </c>
@@ -4609,87 +4610,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="39">
         <v>6300</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="108"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="108"/>
+      <c r="I23" s="96"/>
       <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="105"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="119"/>
       <c r="M23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="108"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="89"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="72"/>
       <c r="R23" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="89"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="140"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="70"/>
       <c r="W23" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="X23" s="89"/>
+      <c r="X23" s="72"/>
       <c r="Y23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="140"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="AC23" s="89"/>
+      <c r="AC23" s="72"/>
       <c r="AD23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="82"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="54"/>
       <c r="AG23" s="31">
         <v>12500</v>
       </c>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="76"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="60"/>
       <c r="AJ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="82"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="54"/>
       <c r="AN23" s="31">
         <v>13600</v>
       </c>
-      <c r="AO23" s="75"/>
-      <c r="AP23" s="75"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
       <c r="AQ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="82"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="54"/>
       <c r="AU23" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
       <c r="AX23" s="18" t="s">
         <v>271</v>
       </c>
@@ -4698,91 +4699,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="89"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="39">
         <v>6100</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="108"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="37">
         <v>7100</v>
       </c>
-      <c r="I24" s="108"/>
+      <c r="I24" s="96"/>
       <c r="J24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="98"/>
-      <c r="L24" s="105"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="119"/>
       <c r="M24" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="108"/>
+      <c r="N24" s="96"/>
       <c r="O24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="89"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="72"/>
       <c r="R24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="89"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="63"/>
-      <c r="V24" s="140"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="70"/>
       <c r="W24" s="37">
         <v>10500</v>
       </c>
-      <c r="X24" s="89"/>
+      <c r="X24" s="72"/>
       <c r="Y24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="140"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="70"/>
       <c r="AB24" s="37">
         <v>11400</v>
       </c>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="90" t="s">
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="82"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="54"/>
       <c r="AG24" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="76"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="60"/>
       <c r="AJ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="82"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="54"/>
       <c r="AN24" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="AO24" s="75"/>
-      <c r="AP24" s="75"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="56"/>
       <c r="AQ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="82"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="54"/>
       <c r="AU24" s="31">
         <v>14500</v>
       </c>
-      <c r="AV24" s="75"/>
-      <c r="AW24" s="75"/>
+      <c r="AV24" s="56"/>
+      <c r="AW24" s="56"/>
       <c r="AX24" s="18" t="s">
         <v>181</v>
       </c>
@@ -4791,97 +4792,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="72"/>
+      <c r="E25" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="108"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="108"/>
+      <c r="I25" s="96"/>
       <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="101" t="s">
+      <c r="K25" s="86"/>
+      <c r="L25" s="81" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="108" t="s">
+      <c r="N25" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="104" t="s">
+      <c r="O25" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="89"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="72"/>
       <c r="R25" s="37">
         <v>9400</v>
       </c>
-      <c r="S25" s="89"/>
-      <c r="T25" s="90" t="s">
+      <c r="S25" s="72"/>
+      <c r="T25" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="63"/>
-      <c r="V25" s="140"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="70"/>
       <c r="W25" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="X25" s="89"/>
+      <c r="X25" s="72"/>
       <c r="Y25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="140"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="70"/>
       <c r="AB25" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="84" t="s">
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="75" t="s">
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="173" t="s">
+      <c r="AK25" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="65" t="s">
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="145" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="21">
         <v>13500</v>
       </c>
-      <c r="AO25" s="75"/>
-      <c r="AP25" s="75"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
       <c r="AQ25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="82"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="54"/>
       <c r="AU25" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="AV25" s="75"/>
-      <c r="AW25" s="75"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
       <c r="AX25" s="18" t="s">
         <v>271</v>
       </c>
@@ -4890,329 +4891,329 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="108"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="108"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="102"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="108"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="89"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="72"/>
       <c r="R26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="89"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="140"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="70"/>
       <c r="W26" s="37">
         <v>10400</v>
       </c>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="90" t="s">
+      <c r="X26" s="72"/>
+      <c r="Y26" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="163"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="71"/>
       <c r="AB26" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AC26" s="100"/>
+      <c r="AC26" s="73"/>
       <c r="AD26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="173"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="66"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="146"/>
       <c r="AN26" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="AO26" s="75"/>
-      <c r="AP26" s="75"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
       <c r="AQ26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="82"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="54"/>
       <c r="AU26" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="AV26" s="75"/>
-      <c r="AW26" s="75" t="s">
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="75" t="s">
+      <c r="AX26" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="AY26" s="43" t="s">
+      <c r="AY26" s="128" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="89"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="121"/>
-      <c r="G27" s="108"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="108"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="98"/>
-      <c r="L27" s="102"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="108"/>
+      <c r="N27" s="96"/>
       <c r="O27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="89"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="72"/>
       <c r="R27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="89"/>
+      <c r="S27" s="72"/>
       <c r="T27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="63"/>
-      <c r="V27" s="140"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="70"/>
       <c r="W27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="119"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="84"/>
       <c r="AA27" s="34"/>
       <c r="AB27" s="35"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="82"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="54"/>
       <c r="AG27" s="31">
         <v>12400</v>
       </c>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="76"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="173"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="84" t="s">
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="146"/>
+      <c r="AN27" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="AO27" s="75"/>
-      <c r="AP27" s="75" t="s">
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="75" t="s">
+      <c r="AQ27" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="43" t="s">
+      <c r="AR27" s="128" t="s">
         <v>261</v>
       </c>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="82"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="54"/>
       <c r="AU27" s="31">
         <v>14400</v>
       </c>
-      <c r="AV27" s="75"/>
-      <c r="AW27" s="75"/>
-      <c r="AX27" s="75"/>
-      <c r="AY27" s="43"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="128"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="89" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="121"/>
-      <c r="G28" s="108" t="s">
+      <c r="F28" s="106"/>
+      <c r="G28" s="96" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="117" t="s">
+      <c r="I28" s="96"/>
+      <c r="J28" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="98"/>
-      <c r="L28" s="102"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="108"/>
+      <c r="N28" s="96"/>
       <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="89" t="s">
+      <c r="P28" s="86"/>
+      <c r="Q28" s="72" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="89" t="s">
+      <c r="S28" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="90" t="s">
+      <c r="T28" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="63"/>
-      <c r="V28" s="140"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="70"/>
       <c r="W28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="X28" s="89"/>
+      <c r="X28" s="72"/>
       <c r="Y28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="82"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="54"/>
       <c r="AG28" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="75"/>
-      <c r="AP28" s="75"/>
-      <c r="AQ28" s="75"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="82"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="146"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="128"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="54"/>
       <c r="AU28" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="AV28" s="75"/>
-      <c r="AW28" s="75"/>
-      <c r="AX28" s="75"/>
-      <c r="AY28" s="43"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="128"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="108"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="108"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="103"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="118"/>
       <c r="M29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="108"/>
+      <c r="N29" s="96"/>
       <c r="O29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="89"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="72"/>
       <c r="R29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="89"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="140" t="s">
+      <c r="S29" s="72"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="70" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="37">
         <v>10320</v>
       </c>
-      <c r="X29" s="89" t="s">
+      <c r="X29" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="119" t="s">
+      <c r="Y29" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="82"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="54"/>
       <c r="AG29" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="76"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="60"/>
       <c r="AJ29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="66"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="146"/>
       <c r="AN29" s="21">
         <v>13400</v>
       </c>
-      <c r="AO29" s="75"/>
-      <c r="AP29" s="75"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
       <c r="AQ29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="82"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="54"/>
       <c r="AU29" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="AV29" s="75"/>
-      <c r="AW29" s="75"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
       <c r="AX29" s="18" t="s">
         <v>271</v>
       </c>
@@ -5221,266 +5222,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="89"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="121"/>
-      <c r="G30" s="108"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="108"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="108" t="s">
+      <c r="K30" s="86"/>
+      <c r="L30" s="96" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="108" t="s">
+      <c r="N30" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="104" t="s">
+      <c r="O30" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="89"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="72"/>
       <c r="R30" s="37">
         <v>9320</v>
       </c>
-      <c r="S30" s="89"/>
-      <c r="T30" s="90" t="s">
+      <c r="S30" s="72"/>
+      <c r="T30" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="63"/>
-      <c r="V30" s="140"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="70"/>
       <c r="W30" s="37">
         <v>10300</v>
       </c>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="119"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="82" t="s">
+      <c r="X30" s="72"/>
+      <c r="Y30" s="84"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="54" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="31">
         <v>12300</v>
       </c>
-      <c r="AH30" s="75" t="s">
+      <c r="AH30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="76"/>
+      <c r="AI30" s="60"/>
       <c r="AJ30" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="66"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="146"/>
       <c r="AN30" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="AO30" s="75"/>
-      <c r="AP30" s="75"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
       <c r="AQ30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AS30" s="63"/>
-      <c r="AT30" s="82" t="s">
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="54" t="s">
         <v>85</v>
       </c>
       <c r="AU30" s="31">
         <v>14100</v>
       </c>
-      <c r="AV30" s="75" t="s">
+      <c r="AV30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="76" t="s">
+      <c r="AW30" s="60" t="s">
         <v>142</v>
       </c>
       <c r="AX30" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="AY30" s="43" t="s">
+      <c r="AY30" s="128" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="89"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="121"/>
-      <c r="G31" s="108"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="96"/>
       <c r="H31" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="108"/>
+      <c r="I31" s="96"/>
       <c r="J31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="98"/>
-      <c r="L31" s="108"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="96"/>
       <c r="M31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="108"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="89"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="72"/>
       <c r="R31" s="37">
         <v>9300</v>
       </c>
-      <c r="S31" s="89"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="140"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="70"/>
       <c r="W31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="X31" s="89"/>
+      <c r="X31" s="72"/>
       <c r="Y31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="82"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="54"/>
       <c r="AG31" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="76"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="60"/>
       <c r="AJ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="67"/>
+      <c r="AL31" s="50"/>
+      <c r="AM31" s="147"/>
       <c r="AN31" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="AO31" s="75"/>
-      <c r="AP31" s="75"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
       <c r="AQ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="82"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="54"/>
       <c r="AU31" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="AV31" s="75"/>
-      <c r="AW31" s="76"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="60"/>
       <c r="AX31" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="AY31" s="43"/>
+      <c r="AY31" s="128"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="119" t="s">
+      <c r="D32" s="72"/>
+      <c r="E32" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="108"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="108"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="98"/>
-      <c r="L32" s="108"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="96"/>
       <c r="M32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="108"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="89"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="72"/>
       <c r="R32" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="89"/>
+      <c r="S32" s="72"/>
       <c r="T32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="63"/>
-      <c r="V32" s="140"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="70"/>
       <c r="W32" s="37">
         <v>10100</v>
       </c>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="119" t="s">
+      <c r="X32" s="72"/>
+      <c r="Y32" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="82"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="54"/>
       <c r="AG32" s="31">
         <v>12100</v>
       </c>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="76"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="60"/>
       <c r="AJ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="173" t="s">
+      <c r="AK32" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="68" t="s">
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="148" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="21">
         <v>13100</v>
       </c>
-      <c r="AO32" s="75" t="s">
+      <c r="AO32" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="76" t="s">
+      <c r="AP32" s="60" t="s">
         <v>142</v>
       </c>
       <c r="AQ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="43" t="s">
+      <c r="AR32" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="82"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="54"/>
       <c r="AU32" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="AV32" s="75"/>
-      <c r="AW32" s="76"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="60"/>
       <c r="AX32" s="18" t="s">
         <v>271</v>
       </c>
@@ -5489,218 +5490,218 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="108" t="s">
+      <c r="D33" s="72"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="96" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="108" t="s">
+      <c r="I33" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="117" t="s">
+      <c r="J33" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="109"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="108"/>
       <c r="M33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="109"/>
+      <c r="N33" s="108"/>
       <c r="O33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="89"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="72"/>
       <c r="R33" s="37">
         <v>9100</v>
       </c>
-      <c r="S33" s="89"/>
-      <c r="T33" s="90" t="s">
+      <c r="S33" s="72"/>
+      <c r="T33" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="63"/>
-      <c r="V33" s="140"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="70"/>
       <c r="W33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="119"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="82"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="84"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="54"/>
       <c r="AG33" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="76"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="60"/>
       <c r="AJ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AK33" s="173"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="69"/>
+      <c r="AK33" s="58"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="149"/>
       <c r="AN33" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="AO33" s="75"/>
-      <c r="AP33" s="76"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="60"/>
       <c r="AQ33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="71" t="s">
+      <c r="AR33" s="128"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="151" t="s">
         <v>303</v>
       </c>
       <c r="AU33" s="32">
         <v>300</v>
       </c>
-      <c r="AV33" s="71" t="s">
+      <c r="AV33" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="76"/>
+      <c r="AW33" s="60"/>
       <c r="AX33" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="AY33" s="73" t="s">
+      <c r="AY33" s="153" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
-      <c r="B34" s="89" t="s">
+      <c r="A34" s="86"/>
+      <c r="B34" s="72" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="119" t="s">
+      <c r="D34" s="72"/>
+      <c r="E34" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="121"/>
-      <c r="G34" s="108"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="96"/>
       <c r="H34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="108"/>
-      <c r="J34" s="117"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="89"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="109"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="72"/>
       <c r="R34" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="89"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="140"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="70"/>
       <c r="W34" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X34" s="89"/>
+      <c r="X34" s="72"/>
       <c r="Y34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="82"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="54"/>
       <c r="AG34" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="76"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="60"/>
       <c r="AJ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="70"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="150"/>
       <c r="AN34" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AO34" s="83"/>
-      <c r="AP34" s="77"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="61"/>
       <c r="AQ34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="72"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="152"/>
       <c r="AU34" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="77"/>
+      <c r="AV34" s="152"/>
+      <c r="AW34" s="61"/>
       <c r="AX34" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AY34" s="74"/>
+      <c r="AY34" s="154"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="109"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="109"/>
+      <c r="I35" s="108"/>
       <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="89"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="72"/>
       <c r="R35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="89"/>
+      <c r="S35" s="72"/>
       <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="63"/>
-      <c r="V35" s="140" t="s">
+      <c r="U35" s="50"/>
+      <c r="V35" s="70" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="X35" s="89" t="s">
+      <c r="X35" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="119" t="s">
+      <c r="Y35" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="82" t="s">
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="54" t="s">
         <v>100</v>
       </c>
       <c r="AG35" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="AH35" s="75" t="s">
+      <c r="AH35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="76"/>
+      <c r="AI35" s="60"/>
       <c r="AJ35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK35" s="170" t="s">
+      <c r="AK35" s="52" t="s">
         <v>142</v>
       </c>
       <c r="AL35" s="34"/>
@@ -5719,47 +5720,47 @@
       <c r="AY35" s="35"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="98"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="119" t="s">
+      <c r="D36" s="72"/>
+      <c r="E36" s="84" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="144" t="s">
+      <c r="P36" s="86"/>
+      <c r="Q36" s="77" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="89" t="s">
+      <c r="S36" s="72" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="63"/>
-      <c r="V36" s="140"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="70"/>
       <c r="W36" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="119"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="82"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="84"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="54"/>
       <c r="AG36" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="AH36" s="75"/>
-      <c r="AI36" s="76"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="60"/>
       <c r="AJ36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="170"/>
+      <c r="AK36" s="52"/>
       <c r="AL36" s="34"/>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
@@ -5776,47 +5777,47 @@
       <c r="AY36" s="35"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="123"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="3"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="145"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="78"/>
       <c r="R37" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="89"/>
+      <c r="S37" s="72"/>
       <c r="T37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="63"/>
-      <c r="V37" s="140"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="70"/>
       <c r="W37" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="X37" s="89"/>
+      <c r="X37" s="72"/>
       <c r="Y37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="82" t="s">
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="54" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="AH37" s="75" t="s">
+      <c r="AH37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="76"/>
+      <c r="AI37" s="60"/>
       <c r="AJ37" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AK37" s="170"/>
+      <c r="AK37" s="52"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
@@ -5834,35 +5835,35 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="41"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="145"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="78"/>
       <c r="R38" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="89"/>
+      <c r="S38" s="72"/>
       <c r="T38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="63"/>
-      <c r="V38" s="140"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="70"/>
       <c r="W38" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="X38" s="89"/>
+      <c r="X38" s="72"/>
       <c r="Y38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="172"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="55"/>
       <c r="AG38" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AH38" s="83"/>
-      <c r="AI38" s="77"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="61"/>
       <c r="AJ38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="171"/>
+      <c r="AK38" s="53"/>
       <c r="AL38" s="34"/>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
@@ -5879,21 +5880,21 @@
       <c r="AY38" s="35"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="98"/>
-      <c r="Q39" s="146"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="79"/>
       <c r="R39" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="89"/>
+      <c r="S39" s="72"/>
       <c r="T39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="63"/>
-      <c r="V39" s="140"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="70"/>
       <c r="W39" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="X39" s="89"/>
+      <c r="X39" s="72"/>
       <c r="Y39" s="6" t="s">
         <v>9</v>
       </c>
@@ -5919,111 +5920,111 @@
       <c r="AY39" s="35"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="98"/>
-      <c r="Q40" s="89" t="s">
+      <c r="P40" s="86"/>
+      <c r="Q40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="R40" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="89" t="s">
+      <c r="S40" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="90" t="s">
+      <c r="T40" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="63"/>
-      <c r="V40" s="89" t="s">
+      <c r="U40" s="50"/>
+      <c r="V40" s="72" t="s">
         <v>34</v>
       </c>
       <c r="W40" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="X40" s="89" t="s">
+      <c r="X40" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="119" t="s">
+      <c r="Y40" s="84" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="98"/>
-      <c r="Q41" s="89"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="72"/>
       <c r="R41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="89"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="89"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="72"/>
       <c r="W41" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="119"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="84"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="99"/>
-      <c r="Q42" s="100"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="73"/>
       <c r="R42" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="100"/>
+      <c r="S42" s="73"/>
       <c r="T42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="63"/>
-      <c r="V42" s="89"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="72"/>
       <c r="W42" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="119"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="84"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="63"/>
-      <c r="V43" s="89"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="72"/>
       <c r="W43" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="X43" s="89"/>
+      <c r="X43" s="72"/>
       <c r="Y43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="63"/>
-      <c r="V44" s="89"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="72"/>
       <c r="W44" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="X44" s="89"/>
+      <c r="X44" s="72"/>
       <c r="Y44" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="63"/>
-      <c r="V45" s="89"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="72"/>
       <c r="W45" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="X45" s="89"/>
+      <c r="X45" s="72"/>
       <c r="Y45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="63"/>
-      <c r="V46" s="141" t="s">
+      <c r="U46" s="50"/>
+      <c r="V46" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="141"/>
-      <c r="X46" s="141"/>
-      <c r="Y46" s="142"/>
+      <c r="W46" s="74"/>
+      <c r="X46" s="74"/>
+      <c r="Y46" s="75"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="63"/>
+      <c r="U47" s="50"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6038,124 +6039,124 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="63"/>
-      <c r="V48" s="140" t="s">
+      <c r="U48" s="50"/>
+      <c r="V48" s="70" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="37">
         <v>10325</v>
       </c>
-      <c r="X48" s="89" t="s">
+      <c r="X48" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="143" t="s">
+      <c r="Y48" s="76" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="63"/>
-      <c r="V49" s="140"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="70"/>
       <c r="W49" s="37">
         <v>10305</v>
       </c>
-      <c r="X49" s="89"/>
-      <c r="Y49" s="143"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="76"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="63"/>
-      <c r="V50" s="140"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="70"/>
       <c r="W50" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X50" s="89"/>
+      <c r="X50" s="72"/>
       <c r="Y50" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="63"/>
-      <c r="V51" s="140"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="70"/>
       <c r="W51" s="37">
         <v>10105</v>
       </c>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="143" t="s">
+      <c r="X51" s="72"/>
+      <c r="Y51" s="76" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="63"/>
-      <c r="V52" s="140"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="70"/>
       <c r="W52" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="143"/>
+      <c r="X52" s="72"/>
+      <c r="Y52" s="76"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="63"/>
-      <c r="V53" s="140"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="70"/>
       <c r="W53" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="89"/>
+      <c r="X53" s="72"/>
       <c r="Y53" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="63"/>
-      <c r="V54" s="101" t="s">
+      <c r="U54" s="50"/>
+      <c r="V54" s="81" t="s">
         <v>100</v>
       </c>
       <c r="W54" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="X54" s="89" t="s">
+      <c r="X54" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="143" t="s">
+      <c r="Y54" s="76" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="63"/>
-      <c r="V55" s="102"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="82"/>
       <c r="W55" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="143"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="63"/>
-      <c r="V56" s="102"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="82"/>
       <c r="W56" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="X56" s="89"/>
+      <c r="X56" s="72"/>
       <c r="Y56" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="63"/>
-      <c r="V57" s="102"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="82"/>
       <c r="W57" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X57" s="89"/>
+      <c r="X57" s="72"/>
       <c r="Y57" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="64"/>
-      <c r="V58" s="147"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="83"/>
       <c r="W58" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="X58" s="100"/>
+      <c r="X58" s="73"/>
       <c r="Y58" s="17" t="s">
         <v>182</v>
       </c>
@@ -6168,6 +6169,242 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE2:AY2"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AO4:AP6"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AV4:AW6"/>
+    <mergeCell ref="AL8:AL34"/>
+    <mergeCell ref="AS8:AS34"/>
+    <mergeCell ref="AM25:AM31"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AV33:AV34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AW26:AW29"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="AE3:AK3"/>
@@ -6192,242 +6429,6 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AK8:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AE2:AY2"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AO4:AP6"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AV4:AW6"/>
-    <mergeCell ref="AL8:AL34"/>
-    <mergeCell ref="AS8:AS34"/>
-    <mergeCell ref="AM25:AM31"/>
-    <mergeCell ref="AM32:AM34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AV33:AV34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AW26:AW29"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AY26:AY28"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AX17:AX18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD761F3-A2CB-4E41-944B-C72843C0E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88B2D4-58BB-4BA5-8837-3253D7BB4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t>Socket: LGA 1151 revision 2</t>
-  </si>
-  <si>
-    <t>Intel CPU Retail Desktop Processor - Chipset compatibilità</t>
   </si>
   <si>
     <t>Base</t>
@@ -1108,6 +1105,9 @@
 B365
 H370
 Z390</t>
+  </si>
+  <si>
+    <t>Intel CPU Retail Desktop  - Chipset compatibilità</t>
   </si>
 </sst>
 </file>
@@ -1882,6 +1882,408 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1889,12 +2291,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,11 +2302,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1918,418 +2326,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2657,9 +2657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W4" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2681,7 +2679,7 @@
   <sheetData>
     <row r="1" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="H1" s="5"/>
       <c r="M1" s="5"/>
@@ -2709,3000 +2707,3000 @@
       <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="88" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="132"/>
-      <c r="AQ2" s="132"/>
-      <c r="AR2" s="132"/>
-      <c r="AS2" s="132"/>
-      <c r="AT2" s="132"/>
-      <c r="AU2" s="132"/>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="132"/>
-      <c r="AX2" s="132"/>
-      <c r="AY2" s="132"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="151" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="112" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="99" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="124" t="s">
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="133" t="s">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="145" t="s">
+        <v>178</v>
+      </c>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="179" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="139" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT3" s="140"/>
-      <c r="AU3" s="140"/>
-      <c r="AV3" s="140"/>
-      <c r="AW3" s="140"/>
-      <c r="AX3" s="140"/>
-      <c r="AY3" s="141"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="I4" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="157" t="s">
+      <c r="O4" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="158" t="s">
+      <c r="T4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="93" t="s">
+      <c r="X4" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="159" t="s">
+      <c r="Y4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="67" t="s">
+      <c r="AA4" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="67" t="s">
+      <c r="AB4" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="67" t="s">
+      <c r="AC4" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="160" t="s">
+      <c r="AD4" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="42" t="s">
+      <c r="AE4" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="45" t="s">
+      <c r="AF4" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AG4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="161" t="s">
+      <c r="AH4" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="163" t="s">
+      <c r="AI4" s="183"/>
+      <c r="AJ4" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="136" t="s">
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="121" t="s">
+      <c r="AM4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="121" t="s">
+      <c r="AN4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="165" t="s">
+      <c r="AO4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="166"/>
-      <c r="AQ4" s="167" t="s">
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="168"/>
-      <c r="AS4" s="142" t="s">
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="129" t="s">
+      <c r="AT4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="129" t="s">
+      <c r="AU4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="169" t="s">
+      <c r="AV4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="170"/>
-      <c r="AX4" s="171" t="s">
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="172"/>
+      <c r="AY4" s="91"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="176"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="177"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="179"/>
-      <c r="AR5" s="180"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="182"/>
-      <c r="AX5" s="183"/>
-      <c r="AY5" s="184"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="93"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="185"/>
-      <c r="AI6" s="186"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="176"/>
-      <c r="AL6" s="137"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="187"/>
-      <c r="AP6" s="188"/>
-      <c r="AQ6" s="179"/>
-      <c r="AR6" s="180"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="189"/>
-      <c r="AW6" s="190"/>
-      <c r="AX6" s="183"/>
-      <c r="AY6" s="184"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="173"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="186"/>
+      <c r="AI6" s="187"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="93"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="172"/>
+      <c r="AB7" s="172"/>
+      <c r="AC7" s="172"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
       <c r="AH7" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="AI7" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="AJ7" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="123"/>
+        <v>200</v>
+      </c>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
       <c r="AO7" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP7" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="AP7" s="27" t="s">
-        <v>239</v>
-      </c>
       <c r="AQ7" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS7" s="144"/>
-      <c r="AT7" s="131"/>
-      <c r="AU7" s="131"/>
+        <v>200</v>
+      </c>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
       <c r="AV7" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW7" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="AW7" s="29" t="s">
-        <v>239</v>
-      </c>
       <c r="AX7" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AY7" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="101" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="120" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="120" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="119" t="s">
+      <c r="L8" s="117" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="96" t="s">
+      <c r="N8" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="97" t="s">
+      <c r="O8" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q8" s="72" t="s">
+      <c r="P8" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q8" s="101" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="72" t="s">
+      <c r="S8" s="101" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="80" t="s">
+      <c r="U8" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="V8" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="X8" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y8" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z8" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA8" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC8" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE8" s="181" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF8" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG8" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH8" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI8" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ8" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK8" s="191" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL8" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM8" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN8" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="V8" s="70" t="s">
+      <c r="AO8" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP8" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ8" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR8" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS8" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT8" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="W8" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="X8" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y8" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z8" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA8" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC8" s="72" t="s">
+      <c r="AU8" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE8" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF8" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH8" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI8" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ8" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK8" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL8" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM8" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN8" s="31" t="s">
+      <c r="AW8" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP8" s="56" t="s">
+      <c r="AX8" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY8" s="43" t="s">
         <v>243</v>
-      </c>
-      <c r="AQ8" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR8" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS8" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="AT8" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU8" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV8" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW8" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX8" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="AY8" s="128" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="96"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="96"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="119"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="72"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="101"/>
       <c r="R9" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="72"/>
-      <c r="T9" s="69" t="s">
+      <c r="S9" s="101"/>
+      <c r="T9" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="70"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="152"/>
       <c r="W9" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="70"/>
+        <v>140</v>
+      </c>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="152"/>
       <c r="AB9" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="54"/>
+        <v>184</v>
+      </c>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="94"/>
       <c r="AG9" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="54"/>
+        <v>204</v>
+      </c>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK9" s="191"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="94"/>
       <c r="AN9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR9" s="128"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="54"/>
+        <v>244</v>
+      </c>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="94"/>
       <c r="AU9" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="56"/>
-      <c r="AX9" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY9" s="128"/>
+        <v>265</v>
+      </c>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY9" s="43"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="39">
         <v>6700</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="96"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="37">
         <v>7700</v>
       </c>
-      <c r="I10" s="96"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="119"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="37">
         <v>8700</v>
       </c>
-      <c r="N10" s="96"/>
+      <c r="N10" s="120"/>
       <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="72"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="101"/>
       <c r="R10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="70"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="152"/>
       <c r="W10" s="37">
         <v>10910</v>
       </c>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="70"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="152"/>
       <c r="AB10" s="37">
         <v>11900</v>
       </c>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="69" t="s">
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="54"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="94"/>
       <c r="AG10" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="54"/>
+        <v>205</v>
+      </c>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="191"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="94"/>
       <c r="AN10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="54"/>
+        <v>245</v>
+      </c>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="94"/>
       <c r="AU10" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
-      <c r="AY10" s="128"/>
+        <v>266</v>
+      </c>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="43"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="96"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="96"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="119"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="117"/>
       <c r="M11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="96"/>
+      <c r="N11" s="120"/>
       <c r="O11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="72"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="101"/>
       <c r="R11" s="37">
         <v>9900</v>
       </c>
-      <c r="S11" s="72"/>
+      <c r="S11" s="101"/>
       <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="50"/>
-      <c r="V11" s="70"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="152"/>
       <c r="W11" s="37">
         <v>10900</v>
       </c>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="69" t="s">
+      <c r="X11" s="101"/>
+      <c r="Y11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="70"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="152"/>
       <c r="AB11" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="54"/>
+        <v>185</v>
+      </c>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="94"/>
       <c r="AG11" s="31">
         <v>12900</v>
       </c>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56" t="s">
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="54"/>
+      <c r="AK11" s="191" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="94"/>
       <c r="AN11" s="31">
         <v>13900</v>
       </c>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56" t="s">
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="128" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="54"/>
+      <c r="AR11" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="94"/>
       <c r="AU11" s="31">
         <v>14900</v>
       </c>
-      <c r="AV11" s="56"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY11" s="128" t="s">
-        <v>268</v>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY11" s="43" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="101" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="141"/>
+      <c r="G12" s="120" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="96" t="s">
+      <c r="I12" s="120" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="119" t="s">
+      <c r="K12" s="110"/>
+      <c r="L12" s="117" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="120" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="72"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="101"/>
       <c r="R12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="72"/>
+      <c r="S12" s="101"/>
       <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="50"/>
-      <c r="V12" s="70"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="152"/>
       <c r="W12" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="70"/>
+        <v>142</v>
+      </c>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="152"/>
       <c r="AB12" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC12" s="72"/>
+        <v>186</v>
+      </c>
+      <c r="AC12" s="101"/>
       <c r="AD12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="54"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="94"/>
       <c r="AG12" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="54"/>
+        <v>207</v>
+      </c>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="191"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="94"/>
       <c r="AN12" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="128"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="54"/>
+        <v>247</v>
+      </c>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="94"/>
       <c r="AU12" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="128"/>
+        <v>268</v>
+      </c>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="43"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="96"/>
+      <c r="I13" s="120"/>
       <c r="J13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="119"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="37">
         <v>8600</v>
       </c>
-      <c r="N13" s="96"/>
+      <c r="N13" s="120"/>
       <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="72" t="s">
+      <c r="P13" s="110"/>
+      <c r="Q13" s="101" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="72" t="s">
+      <c r="S13" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="69" t="s">
+      <c r="T13" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="50"/>
-      <c r="V13" s="70"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="152"/>
       <c r="W13" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" s="72"/>
+        <v>143</v>
+      </c>
+      <c r="X13" s="101"/>
       <c r="Y13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="70" t="s">
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="152" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="54"/>
+        <v>187</v>
+      </c>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="94"/>
       <c r="AG13" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
+        <v>208</v>
+      </c>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
       <c r="AJ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="54"/>
+        <v>209</v>
+      </c>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="94"/>
       <c r="AN13" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
+        <v>248</v>
+      </c>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
       <c r="AQ13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="54"/>
+        <v>209</v>
+      </c>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="94"/>
       <c r="AU13" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="AV13" s="56"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="18" t="s">
+      <c r="AY13" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="AY13" s="24" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="39">
         <v>6600</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="96"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="37">
         <v>7600</v>
       </c>
-      <c r="I14" s="96"/>
+      <c r="I14" s="120"/>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="119"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="96"/>
+      <c r="N14" s="120"/>
       <c r="O14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="72"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="101"/>
       <c r="R14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="70"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="152"/>
       <c r="W14" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="70"/>
+        <v>144</v>
+      </c>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="152"/>
       <c r="AB14" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="94" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK14" s="191" t="s">
         <v>211</v>
       </c>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ14" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK14" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="54" t="s">
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56" t="s">
+      <c r="AN14" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="56" t="s">
+      <c r="AQ14" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="128" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="54" t="s">
+      <c r="AR14" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="94" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV14" s="56"/>
+        <v>272</v>
+      </c>
+      <c r="AV14" s="87"/>
       <c r="AW14" s="18" t="s">
         <v>112</v>
       </c>
       <c r="AX14" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AY14" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="96"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="96"/>
+      <c r="I15" s="120"/>
       <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="119"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="37">
         <v>8500</v>
       </c>
-      <c r="N15" s="96"/>
+      <c r="N15" s="120"/>
       <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="72"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="101"/>
       <c r="R15" s="37">
         <v>9700</v>
       </c>
-      <c r="S15" s="72"/>
-      <c r="T15" s="69" t="s">
+      <c r="S15" s="101"/>
+      <c r="T15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="70" t="s">
+      <c r="U15" s="75"/>
+      <c r="V15" s="152" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="X15" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="70"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="152"/>
       <c r="AB15" s="37">
         <v>11700</v>
       </c>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="69" t="s">
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="54"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="94"/>
       <c r="AG15" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="128"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="54"/>
+        <v>212</v>
+      </c>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="191"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="94"/>
       <c r="AU15" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56" t="s">
+      <c r="AX15" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="AX15" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="AY15" s="128" t="s">
-        <v>244</v>
+      <c r="AY15" s="43" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="39">
         <v>6500</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="96"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="37">
         <v>7500</v>
       </c>
-      <c r="I16" s="96"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="86"/>
-      <c r="L16" s="119"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="117"/>
       <c r="M16" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="96"/>
+      <c r="N16" s="120"/>
       <c r="O16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="72"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="101"/>
       <c r="R16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="72"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="70"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="152"/>
       <c r="W16" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="70"/>
+        <v>146</v>
+      </c>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="152"/>
       <c r="AB16" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="54"/>
+        <v>189</v>
+      </c>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="94"/>
       <c r="AG16" s="31">
         <v>12700</v>
       </c>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56" t="s">
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="54"/>
+      <c r="AK16" s="191" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="94"/>
       <c r="AN16" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR16" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="54"/>
+        <v>250</v>
+      </c>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR16" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="94"/>
       <c r="AU16" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="128"/>
+        <v>276</v>
+      </c>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="43"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="84" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="96"/>
+      <c r="I17" s="120"/>
       <c r="J17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="119"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="117"/>
       <c r="M17" s="37">
         <v>8400</v>
       </c>
-      <c r="N17" s="96"/>
+      <c r="N17" s="120"/>
       <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="72"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="101"/>
       <c r="R17" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="72"/>
+      <c r="S17" s="101"/>
       <c r="T17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="50"/>
-      <c r="V17" s="70"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="152"/>
       <c r="W17" s="37">
         <v>10700</v>
       </c>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="69" t="s">
+      <c r="X17" s="101"/>
+      <c r="Y17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="70"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="152"/>
       <c r="AB17" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC17" s="72"/>
+        <v>190</v>
+      </c>
+      <c r="AC17" s="101"/>
       <c r="AD17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="54"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="94"/>
       <c r="AG17" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="54"/>
+        <v>214</v>
+      </c>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="191"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="94"/>
       <c r="AN17" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="128"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="54"/>
+        <v>251</v>
+      </c>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="94"/>
       <c r="AU17" s="31">
         <v>14700</v>
       </c>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY17" s="128" t="s">
-        <v>268</v>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY17" s="43" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="96"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="120"/>
       <c r="H18" s="37">
         <v>7400</v>
       </c>
-      <c r="I18" s="96"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="86"/>
-      <c r="L18" s="119"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="96"/>
+      <c r="N18" s="120"/>
       <c r="O18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="72" t="s">
+      <c r="P18" s="110"/>
+      <c r="Q18" s="101" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="72" t="s">
+      <c r="S18" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="69" t="s">
+      <c r="T18" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="70"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="152"/>
       <c r="W18" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="152" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC18" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC18" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="54"/>
+      <c r="AD18" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="94"/>
       <c r="AG18" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
+        <v>215</v>
+      </c>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
       <c r="AJ18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="54"/>
+        <v>216</v>
+      </c>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="94"/>
       <c r="AN18" s="31">
         <v>13700</v>
       </c>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56" t="s">
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="128" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="54"/>
+      <c r="AR18" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="94"/>
       <c r="AU18" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="128"/>
+        <v>277</v>
+      </c>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="43"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="120"/>
       <c r="H19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="96"/>
+      <c r="I19" s="120"/>
       <c r="J19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="86"/>
-      <c r="L19" s="119" t="s">
+      <c r="K19" s="110"/>
+      <c r="L19" s="117" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="96" t="s">
+      <c r="N19" s="120" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="72"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="101"/>
       <c r="R19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="72"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="70"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="152"/>
       <c r="W19" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="X19" s="72"/>
+        <v>148</v>
+      </c>
+      <c r="X19" s="101"/>
       <c r="Y19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="70"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="152"/>
       <c r="AB19" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH19" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH19" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK19" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="54"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK19" s="191" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="94"/>
       <c r="AN19" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="54"/>
+        <v>252</v>
+      </c>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="94"/>
       <c r="AU19" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
+        <v>278</v>
+      </c>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
       <c r="AX19" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY19" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="AY19" s="24" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="72"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="96" t="s">
+      <c r="F20" s="141"/>
+      <c r="G20" s="120" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="96" t="s">
+      <c r="I20" s="120" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="119"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="117"/>
       <c r="M20" s="37">
         <v>8300</v>
       </c>
-      <c r="N20" s="96"/>
+      <c r="N20" s="120"/>
       <c r="O20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="72"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="101"/>
       <c r="R20" s="37">
         <v>9600</v>
       </c>
-      <c r="S20" s="72"/>
+      <c r="S20" s="101"/>
       <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="50"/>
-      <c r="V20" s="70" t="s">
+      <c r="U20" s="75"/>
+      <c r="V20" s="152" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="X20" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="X20" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="70"/>
+      <c r="Y20" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="152"/>
       <c r="AB20" s="37">
         <v>11600</v>
       </c>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="101"/>
       <c r="AD20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="54"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="94"/>
       <c r="AG20" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="54"/>
+        <v>218</v>
+      </c>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="191"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="94"/>
       <c r="AN20" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
+        <v>253</v>
+      </c>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
       <c r="AQ20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV20" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW20" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX20" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY20" s="43" t="s">
         <v>280</v>
-      </c>
-      <c r="AV20" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW20" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX20" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="AY20" s="128" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="39">
         <v>6400</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="96"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="37">
         <v>7320</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="109" t="s">
+      <c r="I21" s="120"/>
+      <c r="J21" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="119"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="117"/>
       <c r="M21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="96"/>
+      <c r="N21" s="120"/>
       <c r="O21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="72"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="101"/>
       <c r="R21" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="72"/>
+      <c r="S21" s="101"/>
       <c r="T21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="50"/>
-      <c r="V21" s="70"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="152"/>
       <c r="W21" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="70"/>
+        <v>150</v>
+      </c>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="152"/>
       <c r="AB21" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC21" s="72"/>
+        <v>193</v>
+      </c>
+      <c r="AC21" s="101"/>
       <c r="AD21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="54"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="94"/>
       <c r="AG21" s="31">
         <v>12600</v>
       </c>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="60" t="s">
-        <v>142</v>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="88" t="s">
+        <v>141</v>
       </c>
       <c r="AJ21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AK21" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO21" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR21" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="AO21" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR21" s="128" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="54"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="94"/>
       <c r="AU21" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV21" s="56"/>
-      <c r="AW21" s="56"/>
-      <c r="AX21" s="56"/>
-      <c r="AY21" s="128"/>
+        <v>281</v>
+      </c>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="43"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="110"/>
+      <c r="B22" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="39">
         <v>6320</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="96"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="37">
         <v>7300</v>
       </c>
-      <c r="I22" s="96"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="117"/>
       <c r="M22" s="37">
         <v>8100</v>
       </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="97" t="s">
+      <c r="N22" s="120"/>
+      <c r="O22" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="72"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="101"/>
       <c r="R22" s="37">
         <v>9500</v>
       </c>
-      <c r="S22" s="72"/>
-      <c r="T22" s="69" t="s">
+      <c r="S22" s="101"/>
+      <c r="T22" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="50"/>
-      <c r="V22" s="70"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="152"/>
       <c r="W22" s="37">
         <v>10600</v>
       </c>
-      <c r="X22" s="72"/>
+      <c r="X22" s="101"/>
       <c r="Y22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="70"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="152"/>
       <c r="AB22" s="37">
         <v>11500</v>
       </c>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="101"/>
       <c r="AD22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="54"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="94"/>
       <c r="AG22" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="60"/>
+        <v>220</v>
+      </c>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="88"/>
       <c r="AJ22" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="54"/>
+        <v>221</v>
+      </c>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="94"/>
       <c r="AN22" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="128"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="54"/>
+        <v>256</v>
+      </c>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="94"/>
       <c r="AU22" s="31">
         <v>14600</v>
       </c>
-      <c r="AV22" s="56"/>
-      <c r="AW22" s="56"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
       <c r="AX22" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AY22" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="39">
         <v>6300</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="96"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="96"/>
+      <c r="I23" s="120"/>
       <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="119"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="117"/>
       <c r="M23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="72"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="101"/>
       <c r="R23" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="72"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="70"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="152"/>
       <c r="W23" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="X23" s="72"/>
+        <v>151</v>
+      </c>
+      <c r="X23" s="101"/>
       <c r="Y23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="70"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="152"/>
       <c r="AB23" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC23" s="72"/>
+        <v>194</v>
+      </c>
+      <c r="AC23" s="101"/>
       <c r="AD23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="54"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="94"/>
       <c r="AG23" s="31">
         <v>12500</v>
       </c>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="60"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="88"/>
       <c r="AJ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="54"/>
+        <v>219</v>
+      </c>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="94"/>
       <c r="AN23" s="31">
         <v>13600</v>
       </c>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
       <c r="AQ23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="54"/>
+        <v>257</v>
+      </c>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="94"/>
       <c r="AU23" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
+      <c r="AX23" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY23" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY23" s="24" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="39">
         <v>6100</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="96"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="37">
         <v>7100</v>
       </c>
-      <c r="I24" s="96"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="86"/>
-      <c r="L24" s="119"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="117"/>
       <c r="M24" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="96"/>
+      <c r="N24" s="120"/>
       <c r="O24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="72"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="101"/>
       <c r="R24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="72"/>
+      <c r="S24" s="101"/>
       <c r="T24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="50"/>
-      <c r="V24" s="70"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="152"/>
       <c r="W24" s="37">
         <v>10500</v>
       </c>
-      <c r="X24" s="72"/>
+      <c r="X24" s="101"/>
       <c r="Y24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="70"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="152"/>
       <c r="AB24" s="37">
         <v>11400</v>
       </c>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="69" t="s">
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="54"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="94"/>
       <c r="AG24" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="60"/>
+        <v>222</v>
+      </c>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="88"/>
       <c r="AJ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="54"/>
+        <v>221</v>
+      </c>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="94"/>
       <c r="AN24" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="56"/>
+        <v>258</v>
+      </c>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
       <c r="AQ24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="54"/>
+        <v>259</v>
+      </c>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="94"/>
       <c r="AU24" s="31">
         <v>14500</v>
       </c>
-      <c r="AV24" s="56"/>
-      <c r="AW24" s="56"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
       <c r="AX24" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AY24" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="84" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="96"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="120"/>
       <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="81" t="s">
+      <c r="K25" s="110"/>
+      <c r="L25" s="113" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="96" t="s">
+      <c r="N25" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="97" t="s">
+      <c r="O25" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="72"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="101"/>
       <c r="R25" s="37">
         <v>9400</v>
       </c>
-      <c r="S25" s="72"/>
-      <c r="T25" s="69" t="s">
+      <c r="S25" s="101"/>
+      <c r="T25" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="50"/>
-      <c r="V25" s="70"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="152"/>
       <c r="W25" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="X25" s="72"/>
+        <v>152</v>
+      </c>
+      <c r="X25" s="101"/>
       <c r="Y25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="70"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="152"/>
       <c r="AB25" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="145" t="s">
+      <c r="AK25" s="191" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="77" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="21">
         <v>13500</v>
       </c>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
       <c r="AQ25" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="54"/>
+        <v>257</v>
+      </c>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="94"/>
       <c r="AU25" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
+        <v>285</v>
+      </c>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
       <c r="AX25" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AY25" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="96"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="96"/>
+      <c r="I26" s="120"/>
       <c r="J26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="82"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="114"/>
       <c r="M26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="72"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="101"/>
       <c r="R26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="72"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="70"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="152"/>
       <c r="W26" s="37">
         <v>10400</v>
       </c>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="69" t="s">
+      <c r="X26" s="101"/>
+      <c r="Y26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="71"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="175"/>
       <c r="AB26" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC26" s="73"/>
+        <v>196</v>
+      </c>
+      <c r="AC26" s="112"/>
       <c r="AD26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="146"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="191"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="78"/>
       <c r="AN26" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
+        <v>307</v>
+      </c>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
       <c r="AQ26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS26" s="50"/>
-      <c r="AT26" s="54"/>
+        <v>259</v>
+      </c>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="94"/>
       <c r="AU26" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX26" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY26" s="43" t="s">
         <v>287</v>
-      </c>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX26" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY26" s="128" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="72"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="72"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="96"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="120"/>
       <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="82"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="114"/>
       <c r="M27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="96"/>
+      <c r="N27" s="120"/>
       <c r="O27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="72"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="101"/>
       <c r="R27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="72"/>
+      <c r="S27" s="101"/>
       <c r="T27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="50"/>
-      <c r="V27" s="70"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="152"/>
       <c r="W27" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="84"/>
+        <v>153</v>
+      </c>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="124"/>
       <c r="AA27" s="34"/>
       <c r="AB27" s="35"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="54"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="94"/>
       <c r="AG27" s="31">
         <v>12400</v>
       </c>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="50"/>
-      <c r="AM27" s="146"/>
-      <c r="AN27" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56" t="s">
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="191"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="56" t="s">
+      <c r="AQ27" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="128" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS27" s="50"/>
-      <c r="AT27" s="54"/>
+      <c r="AR27" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="94"/>
       <c r="AU27" s="31">
         <v>14400</v>
       </c>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="128"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="43"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="72" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="96" t="s">
+      <c r="F28" s="141"/>
+      <c r="G28" s="120" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="109" t="s">
+      <c r="I28" s="120"/>
+      <c r="J28" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="82"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="114"/>
       <c r="M28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="96"/>
+      <c r="N28" s="120"/>
       <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="72" t="s">
+      <c r="P28" s="110"/>
+      <c r="Q28" s="101" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="72" t="s">
+      <c r="S28" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="69" t="s">
+      <c r="T28" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="50"/>
-      <c r="V28" s="70"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="152"/>
       <c r="W28" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="X28" s="72"/>
+        <v>154</v>
+      </c>
+      <c r="X28" s="101"/>
       <c r="Y28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="54"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="94"/>
       <c r="AG28" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="146"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="128"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="54"/>
+        <v>223</v>
+      </c>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="191"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="96"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="94"/>
       <c r="AU28" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="128"/>
+        <v>288</v>
+      </c>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="43"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="96"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="118"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="115"/>
       <c r="M29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="96"/>
+      <c r="N29" s="120"/>
       <c r="O29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="72"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="101"/>
       <c r="R29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="72"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="70" t="s">
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="152" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="37">
         <v>10320</v>
       </c>
-      <c r="X29" s="72" t="s">
+      <c r="X29" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="84" t="s">
+      <c r="Y29" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="54"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="94"/>
       <c r="AG29" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="60"/>
+        <v>224</v>
+      </c>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="88"/>
       <c r="AJ29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="146"/>
+        <v>221</v>
+      </c>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="78"/>
       <c r="AN29" s="21">
         <v>13400</v>
       </c>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
       <c r="AQ29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="54"/>
+        <v>260</v>
+      </c>
+      <c r="AS29" s="75"/>
+      <c r="AT29" s="94"/>
       <c r="AU29" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY29" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY29" s="24" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="106"/>
-      <c r="G30" s="96"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="96"/>
+      <c r="I30" s="120"/>
       <c r="J30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="96" t="s">
+      <c r="K30" s="110"/>
+      <c r="L30" s="120" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="96" t="s">
+      <c r="N30" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="97" t="s">
+      <c r="O30" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="72"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="101"/>
       <c r="R30" s="37">
         <v>9320</v>
       </c>
-      <c r="S30" s="72"/>
-      <c r="T30" s="69" t="s">
+      <c r="S30" s="101"/>
+      <c r="T30" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="50"/>
-      <c r="V30" s="70"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="152"/>
       <c r="W30" s="37">
         <v>10300</v>
       </c>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="84"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="54" t="s">
+      <c r="X30" s="101"/>
+      <c r="Y30" s="124"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="94" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="31">
         <v>12300</v>
       </c>
-      <c r="AH30" s="56" t="s">
+      <c r="AH30" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="60"/>
+      <c r="AI30" s="88"/>
       <c r="AJ30" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="146"/>
+        <v>225</v>
+      </c>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="78"/>
       <c r="AN30" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
+        <v>308</v>
+      </c>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
       <c r="AQ30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS30" s="75"/>
+      <c r="AT30" s="94" t="s">
         <v>85</v>
       </c>
       <c r="AU30" s="31">
         <v>14100</v>
       </c>
-      <c r="AV30" s="56" t="s">
+      <c r="AV30" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="60" t="s">
-        <v>142</v>
+      <c r="AW30" s="88" t="s">
+        <v>141</v>
       </c>
       <c r="AX30" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY30" s="43" t="s">
         <v>292</v>
-      </c>
-      <c r="AY30" s="128" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="106"/>
-      <c r="G31" s="96"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="96"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="96"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="120"/>
       <c r="M31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="72"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="101"/>
       <c r="R31" s="37">
         <v>9300</v>
       </c>
-      <c r="S31" s="72"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="70"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="152"/>
       <c r="W31" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="X31" s="72"/>
+        <v>155</v>
+      </c>
+      <c r="X31" s="101"/>
       <c r="Y31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="54"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="94"/>
       <c r="AG31" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="60"/>
+        <v>226</v>
+      </c>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="88"/>
       <c r="AJ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="147"/>
+        <v>227</v>
+      </c>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="79"/>
       <c r="AN31" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
+        <v>306</v>
+      </c>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="87"/>
       <c r="AQ31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="54"/>
+        <v>261</v>
+      </c>
+      <c r="AS31" s="75"/>
+      <c r="AT31" s="94"/>
       <c r="AU31" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="60"/>
+        <v>293</v>
+      </c>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="88"/>
       <c r="AX31" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY31" s="128"/>
+        <v>182</v>
+      </c>
+      <c r="AY31" s="43"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="84" t="s">
+      <c r="D32" s="101"/>
+      <c r="E32" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="96"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="120"/>
       <c r="H32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="96"/>
+      <c r="I32" s="120"/>
       <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="96"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="120"/>
       <c r="M32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="72"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="101"/>
       <c r="R32" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="72"/>
+      <c r="S32" s="101"/>
       <c r="T32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="50"/>
-      <c r="V32" s="70"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="152"/>
       <c r="W32" s="37">
         <v>10100</v>
       </c>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="84" t="s">
+      <c r="X32" s="101"/>
+      <c r="Y32" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="54"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="94"/>
       <c r="AG32" s="31">
         <v>12100</v>
       </c>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="60"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="88"/>
       <c r="AJ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL32" s="50"/>
-      <c r="AM32" s="148" t="s">
+      <c r="AK32" s="191" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="80" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="21">
         <v>13100</v>
       </c>
-      <c r="AO32" s="56" t="s">
+      <c r="AO32" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="60" t="s">
-        <v>142</v>
+      <c r="AP32" s="88" t="s">
+        <v>141</v>
       </c>
       <c r="AQ32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="128" t="s">
-        <v>263</v>
-      </c>
-      <c r="AS32" s="50"/>
-      <c r="AT32" s="54"/>
+      <c r="AR32" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="AS32" s="75"/>
+      <c r="AT32" s="94"/>
       <c r="AU32" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="88"/>
+      <c r="AX32" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY32" s="24" t="s">
         <v>295</v>
-      </c>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="60"/>
-      <c r="AX32" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY32" s="24" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="96" t="s">
+      <c r="D33" s="101"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="120" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="96" t="s">
+      <c r="I33" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="109" t="s">
+      <c r="J33" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="87"/>
-      <c r="L33" s="108"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="121"/>
       <c r="M33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="108"/>
+      <c r="N33" s="121"/>
       <c r="O33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="72"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="101"/>
       <c r="R33" s="37">
         <v>9100</v>
       </c>
-      <c r="S33" s="72"/>
-      <c r="T33" s="69" t="s">
+      <c r="S33" s="101"/>
+      <c r="T33" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="50"/>
-      <c r="V33" s="70"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="152"/>
       <c r="W33" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="84"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="54"/>
+        <v>156</v>
+      </c>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="124"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="94"/>
       <c r="AG33" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="60"/>
+        <v>228</v>
+      </c>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="88"/>
       <c r="AJ33" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="149"/>
+        <v>159</v>
+      </c>
+      <c r="AK33" s="191"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="81"/>
       <c r="AN33" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="60"/>
+        <v>305</v>
+      </c>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="88"/>
       <c r="AQ33" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR33" s="128"/>
-      <c r="AS33" s="50"/>
-      <c r="AT33" s="151" t="s">
-        <v>303</v>
+        <v>159</v>
+      </c>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="75"/>
+      <c r="AT33" s="83" t="s">
+        <v>302</v>
       </c>
       <c r="AU33" s="32">
         <v>300</v>
       </c>
-      <c r="AV33" s="151" t="s">
+      <c r="AV33" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="60"/>
+      <c r="AW33" s="88"/>
       <c r="AX33" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY33" s="85" t="s">
         <v>301</v>
-      </c>
-      <c r="AY33" s="153" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="72" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="101" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="101"/>
+      <c r="E34" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="96"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="96"/>
-      <c r="J34" s="109"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="72"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="122"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="101"/>
       <c r="R34" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="72"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="152"/>
       <c r="W34" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="X34" s="72"/>
+        <v>157</v>
+      </c>
+      <c r="X34" s="101"/>
       <c r="Y34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="54"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="94"/>
       <c r="AG34" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="60"/>
+        <v>229</v>
+      </c>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="88"/>
       <c r="AJ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="150"/>
+        <v>227</v>
+      </c>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="82"/>
       <c r="AN34" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="61"/>
+        <v>304</v>
+      </c>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="89"/>
       <c r="AQ34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="152"/>
+        <v>227</v>
+      </c>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="84"/>
       <c r="AU34" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV34" s="152"/>
-      <c r="AW34" s="61"/>
+        <v>299</v>
+      </c>
+      <c r="AV34" s="84"/>
+      <c r="AW34" s="89"/>
       <c r="AX34" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY34" s="154"/>
+        <v>270</v>
+      </c>
+      <c r="AY34" s="86"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="108"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="121"/>
       <c r="H35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="108"/>
+      <c r="I35" s="121"/>
       <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="72"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="101"/>
       <c r="R35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="72"/>
+      <c r="S35" s="101"/>
       <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="50"/>
-      <c r="V35" s="70" t="s">
+      <c r="U35" s="75"/>
+      <c r="V35" s="152" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="X35" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="X35" s="72" t="s">
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG35" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH35" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG35" s="31" t="s">
+      <c r="AI35" s="88"/>
+      <c r="AJ35" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="AH35" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK35" s="52" t="s">
-        <v>142</v>
+      <c r="AK35" s="188" t="s">
+        <v>141</v>
       </c>
       <c r="AL35" s="34"/>
       <c r="AM35" s="35"/>
@@ -5720,47 +5718,47 @@
       <c r="AY35" s="35"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="84" t="s">
+      <c r="D36" s="101"/>
+      <c r="E36" s="124" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="77" t="s">
+      <c r="P36" s="110"/>
+      <c r="Q36" s="156" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="72" t="s">
+      <c r="S36" s="101" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="50"/>
-      <c r="V36" s="70"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="152"/>
       <c r="W36" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="84"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="54"/>
+        <v>160</v>
+      </c>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="124"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="94"/>
       <c r="AG36" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="60"/>
+        <v>232</v>
+      </c>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="88"/>
       <c r="AJ36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="52"/>
+      <c r="AK36" s="188"/>
       <c r="AL36" s="34"/>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
@@ -5777,47 +5775,47 @@
       <c r="AY36" s="35"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
-      <c r="B37" s="73"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="110"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="3"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="78"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="157"/>
       <c r="R37" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="72"/>
+      <c r="S37" s="101"/>
       <c r="T37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="50"/>
-      <c r="V37" s="70"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="152"/>
       <c r="W37" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="X37" s="72"/>
+        <v>161</v>
+      </c>
+      <c r="X37" s="101"/>
       <c r="Y37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="54" t="s">
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="94" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH37" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH37" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="60"/>
+      <c r="AI37" s="88"/>
       <c r="AJ37" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK37" s="52"/>
+        <v>231</v>
+      </c>
+      <c r="AK37" s="188"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
@@ -5835,35 +5833,35 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="41"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="78"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="157"/>
       <c r="R38" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="72"/>
+      <c r="S38" s="101"/>
       <c r="T38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="50"/>
-      <c r="V38" s="70"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="152"/>
       <c r="W38" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="X38" s="72"/>
+        <v>162</v>
+      </c>
+      <c r="X38" s="101"/>
       <c r="Y38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="55"/>
+        <v>159</v>
+      </c>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="190"/>
       <c r="AG38" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH38" s="57"/>
-      <c r="AI38" s="61"/>
+        <v>234</v>
+      </c>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="89"/>
       <c r="AJ38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="53"/>
+      <c r="AK38" s="189"/>
       <c r="AL38" s="34"/>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
@@ -5880,21 +5878,21 @@
       <c r="AY38" s="35"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="86"/>
-      <c r="Q39" s="79"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="158"/>
       <c r="R39" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="72"/>
+      <c r="S39" s="101"/>
       <c r="T39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="50"/>
-      <c r="V39" s="70"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="152"/>
       <c r="W39" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="X39" s="72"/>
+        <v>163</v>
+      </c>
+      <c r="X39" s="101"/>
       <c r="Y39" s="6" t="s">
         <v>9</v>
       </c>
@@ -5920,111 +5918,111 @@
       <c r="AY39" s="35"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="86"/>
-      <c r="Q40" s="72" t="s">
+      <c r="P40" s="110"/>
+      <c r="Q40" s="101" t="s">
         <v>34</v>
       </c>
       <c r="R40" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="72" t="s">
+      <c r="S40" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="69" t="s">
+      <c r="T40" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="50"/>
-      <c r="V40" s="72" t="s">
+      <c r="U40" s="75"/>
+      <c r="V40" s="101" t="s">
         <v>34</v>
       </c>
       <c r="W40" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="X40" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="X40" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="84" t="s">
-        <v>160</v>
+      <c r="Y40" s="124" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="86"/>
-      <c r="Q41" s="72"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="101"/>
       <c r="R41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="72"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="72"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="102"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="101"/>
       <c r="W41" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="84"/>
+        <v>165</v>
+      </c>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="124"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="87"/>
-      <c r="Q42" s="73"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="112"/>
       <c r="R42" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="73"/>
+      <c r="S42" s="112"/>
       <c r="T42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="50"/>
-      <c r="V42" s="72"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="101"/>
       <c r="W42" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="84"/>
+        <v>166</v>
+      </c>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="124"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="50"/>
-      <c r="V43" s="72"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="101"/>
       <c r="W43" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="X43" s="72"/>
+        <v>167</v>
+      </c>
+      <c r="X43" s="101"/>
       <c r="Y43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="50"/>
-      <c r="V44" s="72"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="101"/>
       <c r="W44" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="X44" s="72"/>
+        <v>168</v>
+      </c>
+      <c r="X44" s="101"/>
       <c r="Y44" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="50"/>
-      <c r="V45" s="72"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="101"/>
       <c r="W45" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="X45" s="72"/>
+        <v>169</v>
+      </c>
+      <c r="X45" s="101"/>
       <c r="Y45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="50"/>
-      <c r="V46" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="75"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="W46" s="153"/>
+      <c r="X46" s="153"/>
+      <c r="Y46" s="154"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="50"/>
+      <c r="U47" s="75"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6035,130 +6033,130 @@
         <v>76</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="50"/>
-      <c r="V48" s="70" t="s">
+      <c r="U48" s="75"/>
+      <c r="V48" s="152" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="37">
         <v>10325</v>
       </c>
-      <c r="X48" s="72" t="s">
+      <c r="X48" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="76" t="s">
-        <v>181</v>
+      <c r="Y48" s="155" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="50"/>
-      <c r="V49" s="70"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="152"/>
       <c r="W49" s="37">
         <v>10305</v>
       </c>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="76"/>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="155"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="50"/>
-      <c r="V50" s="70"/>
+      <c r="U50" s="75"/>
+      <c r="V50" s="152"/>
       <c r="W50" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="X50" s="72"/>
+        <v>170</v>
+      </c>
+      <c r="X50" s="101"/>
       <c r="Y50" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="50"/>
-      <c r="V51" s="70"/>
+      <c r="U51" s="75"/>
+      <c r="V51" s="152"/>
       <c r="W51" s="37">
         <v>10105</v>
       </c>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="76" t="s">
-        <v>181</v>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="155" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="50"/>
-      <c r="V52" s="70"/>
+      <c r="U52" s="75"/>
+      <c r="V52" s="152"/>
       <c r="W52" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="76"/>
+        <v>171</v>
+      </c>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="155"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="50"/>
-      <c r="V53" s="70"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="152"/>
       <c r="W53" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="X53" s="72"/>
+        <v>172</v>
+      </c>
+      <c r="X53" s="101"/>
       <c r="Y53" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="50"/>
-      <c r="V54" s="81" t="s">
+      <c r="U54" s="75"/>
+      <c r="V54" s="113" t="s">
         <v>100</v>
       </c>
       <c r="W54" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="X54" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="X54" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="76" t="s">
-        <v>183</v>
+      <c r="Y54" s="155" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="50"/>
-      <c r="V55" s="82"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="114"/>
       <c r="W55" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="76"/>
+        <v>174</v>
+      </c>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="155"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="50"/>
-      <c r="V56" s="82"/>
+      <c r="U56" s="75"/>
+      <c r="V56" s="114"/>
       <c r="W56" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="X56" s="72"/>
+        <v>175</v>
+      </c>
+      <c r="X56" s="101"/>
       <c r="Y56" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="50"/>
-      <c r="V57" s="82"/>
+      <c r="U57" s="75"/>
+      <c r="V57" s="114"/>
       <c r="W57" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="X57" s="72"/>
+        <v>176</v>
+      </c>
+      <c r="X57" s="101"/>
       <c r="Y57" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="51"/>
-      <c r="V58" s="83"/>
+      <c r="U58" s="76"/>
+      <c r="V58" s="159"/>
       <c r="W58" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="X58" s="73"/>
+        <v>177</v>
+      </c>
+      <c r="X58" s="112"/>
       <c r="Y58" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="21:25" x14ac:dyDescent="0.25">
@@ -6169,6 +6167,242 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AE8:AE38"/>
+    <mergeCell ref="AH4:AI6"/>
+    <mergeCell ref="AK35:AK38"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AJ25:AJ28"/>
+    <mergeCell ref="AK25:AK28"/>
+    <mergeCell ref="AI21:AI38"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
     <mergeCell ref="AE2:AY2"/>
     <mergeCell ref="AY30:AY31"/>
     <mergeCell ref="AL3:AR3"/>
@@ -6193,242 +6427,6 @@
     <mergeCell ref="AY26:AY28"/>
     <mergeCell ref="AW30:AW34"/>
     <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AE8:AE38"/>
-    <mergeCell ref="AH4:AI6"/>
-    <mergeCell ref="AK35:AK38"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AJ25:AJ28"/>
-    <mergeCell ref="AK25:AK28"/>
-    <mergeCell ref="AI21:AI38"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>
@@ -6744,22 +6742,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88B2D4-58BB-4BA5-8837-3253D7BB4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D1FB77-5D72-4FBE-9F04-3D550B797054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1758,12 +1758,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1771,9 +1791,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1882,10 +1899,349 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,15 +2262,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1951,15 +2298,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1977,15 +2315,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2017,320 +2346,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2657,7 +2680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AY2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2671,3502 +2696,3738 @@
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="23" max="23" width="9.140625" style="14"/>
-    <col min="28" max="28" width="9.140625" style="14"/>
-    <col min="31" max="37" width="9.140625" style="14"/>
-    <col min="39" max="51" width="9.140625" style="14"/>
+    <col min="23" max="23" width="9.140625" style="13"/>
+    <col min="28" max="28" width="9.140625" style="13"/>
+    <col min="31" max="37" width="9.140625" style="13"/>
+    <col min="39" max="51" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="W1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
+      <c r="H1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="W1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="144" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="151" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="42" t="s">
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="192"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="192"/>
+      <c r="AJ2" s="192"/>
+      <c r="AK2" s="192"/>
+      <c r="AL2" s="192"/>
+      <c r="AM2" s="192"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="192"/>
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="192"/>
+      <c r="AV2" s="192"/>
+      <c r="AW2" s="192"/>
+      <c r="AX2" s="192"/>
+      <c r="AY2" s="192"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="128" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="134" t="s">
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="104" t="s">
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="145" t="s">
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="166" t="s">
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="179" t="s">
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="44" t="s">
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="156" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="59" t="s">
+      <c r="AM3" s="157"/>
+      <c r="AN3" s="157"/>
+      <c r="AO3" s="157"/>
+      <c r="AP3" s="157"/>
+      <c r="AQ3" s="157"/>
+      <c r="AR3" s="158"/>
+      <c r="AS3" s="168" t="s">
         <v>297</v>
       </c>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="61"/>
+      <c r="AT3" s="169"/>
+      <c r="AU3" s="169"/>
+      <c r="AV3" s="169"/>
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="170"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="132" t="s">
+      <c r="I4" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="119" t="s">
+      <c r="L4" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="119" t="s">
+      <c r="M4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="119" t="s">
+      <c r="N4" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="133" t="s">
+      <c r="O4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="103" t="s">
+      <c r="T4" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="148" t="s">
+      <c r="U4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="149" t="s">
+      <c r="V4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="149" t="s">
+      <c r="W4" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="149" t="s">
+      <c r="X4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="150" t="s">
+      <c r="Y4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="169" t="s">
+      <c r="Z4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="171" t="s">
+      <c r="AA4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="171" t="s">
+      <c r="AB4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="171" t="s">
+      <c r="AC4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="173" t="s">
+      <c r="AD4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="176" t="s">
+      <c r="AE4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="164" t="s">
+      <c r="AF4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="164" t="s">
+      <c r="AG4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="182" t="s">
+      <c r="AH4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="183"/>
-      <c r="AJ4" s="160" t="s">
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AO4" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="97" t="s">
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="62" t="s">
+      <c r="AR4" s="140"/>
+      <c r="AS4" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="65" t="s">
+      <c r="AT4" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="65" t="s">
+      <c r="AU4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="68" t="s">
+      <c r="AV4" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="90" t="s">
+      <c r="AW4" s="175"/>
+      <c r="AX4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="91"/>
+      <c r="AY4" s="150"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="177"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="185"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="93"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="164"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="172"/>
+      <c r="AT5" s="154"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="176"/>
+      <c r="AW5" s="177"/>
+      <c r="AX5" s="151"/>
+      <c r="AY5" s="152"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="173"/>
-      <c r="AE6" s="177"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="186"/>
-      <c r="AI6" s="187"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="93"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="160"/>
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="166"/>
+      <c r="AP6" s="167"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="172"/>
+      <c r="AT6" s="154"/>
+      <c r="AU6" s="154"/>
+      <c r="AV6" s="178"/>
+      <c r="AW6" s="179"/>
+      <c r="AX6" s="151"/>
+      <c r="AY6" s="152"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="20" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="AI7" s="20" t="s">
+      <c r="AI7" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="AJ7" s="20" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AK7" s="23" t="s">
+      <c r="AK7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="27" t="s">
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="AP7" s="27" t="s">
+      <c r="AP7" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="AQ7" s="27" t="s">
+      <c r="AQ7" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="AR7" s="28" t="s">
+      <c r="AR7" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="29" t="s">
+      <c r="AS7" s="173"/>
+      <c r="AT7" s="155"/>
+      <c r="AU7" s="155"/>
+      <c r="AV7" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="AW7" s="29" t="s">
+      <c r="AW7" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="AX7" s="29" t="s">
+      <c r="AX7" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AY7" s="30" t="s">
+      <c r="AY7" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="G8" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="I8" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="117" t="s">
+      <c r="L8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="116" t="s">
+      <c r="O8" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="109" t="s">
+      <c r="P8" s="96" t="s">
         <v>314</v>
       </c>
-      <c r="Q8" s="101" t="s">
+      <c r="Q8" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="101" t="s">
+      <c r="S8" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="U8" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="V8" s="152" t="s">
+      <c r="V8" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="W8" s="37" t="s">
+      <c r="W8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="X8" s="101" t="s">
+      <c r="X8" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="102" t="s">
+      <c r="Y8" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" s="109" t="s">
+      <c r="Z8" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="AA8" s="152" t="s">
+      <c r="AA8" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="37" t="s">
+      <c r="AB8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="AC8" s="101" t="s">
+      <c r="AC8" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="102" t="s">
+      <c r="AD8" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="181" t="s">
+      <c r="AE8" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="AF8" s="94" t="s">
+      <c r="AF8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="31" t="s">
+      <c r="AG8" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="AH8" s="87" t="s">
+      <c r="AH8" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="87" t="s">
+      <c r="AI8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AJ8" s="18" t="s">
+      <c r="AJ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AK8" s="191" t="s">
+      <c r="AK8" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AL8" s="74" t="s">
+      <c r="AL8" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="AM8" s="94" t="s">
+      <c r="AM8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AN8" s="31" t="s">
+      <c r="AN8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="AO8" s="87" t="s">
+      <c r="AO8" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="87" t="s">
+      <c r="AP8" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="AQ8" s="18" t="s">
+      <c r="AQ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AR8" s="43" t="s">
+      <c r="AR8" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="AS8" s="74" t="s">
+      <c r="AS8" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="AT8" s="94" t="s">
+      <c r="AT8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AU8" s="31" t="s">
+      <c r="AU8" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="AV8" s="87" t="s">
+      <c r="AV8" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="87" t="s">
+      <c r="AW8" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="AX8" s="18" t="s">
+      <c r="AX8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="AY8" s="43" t="s">
+      <c r="AY8" s="148" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="124" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="141"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="37" t="s">
+      <c r="F9" s="129"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="118"/>
+      <c r="J9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="37" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="37" t="s">
+      <c r="N9" s="118"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="102" t="s">
+      <c r="S9" s="83"/>
+      <c r="T9" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="37" t="s">
+      <c r="U9" s="49"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="37" t="s">
+      <c r="X9" s="83"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="31" t="s">
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87" t="s">
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AK9" s="191"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="31" t="s">
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87" t="s">
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="31" t="s">
+      <c r="AR9" s="148"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87" t="s">
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AY9" s="43"/>
+      <c r="AY9" s="148"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="39">
+      <c r="A10" s="97"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="38">
         <v>6700</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="37">
+      <c r="D10" s="83"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="36">
         <v>7700</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="118"/>
+      <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="37">
+      <c r="K10" s="97"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="36">
         <v>8700</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="9" t="s">
+      <c r="N10" s="118"/>
+      <c r="O10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="37" t="s">
+      <c r="P10" s="97"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="101"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="37">
+      <c r="S10" s="83"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="36">
         <v>10910</v>
       </c>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="37">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="36">
         <v>11900</v>
       </c>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="102" t="s">
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="31" t="s">
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="191"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="31" t="s">
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="94"/>
-      <c r="AU10" s="31" t="s">
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="148"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="43"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="148"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="39" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="37" t="s">
+      <c r="F11" s="129"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="118"/>
+      <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="37" t="s">
+      <c r="K11" s="97"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="118"/>
+      <c r="O11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="37">
+      <c r="P11" s="97"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="36">
         <v>9900</v>
       </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="11" t="s">
+      <c r="S11" s="83"/>
+      <c r="T11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="37">
+      <c r="U11" s="49"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="36">
         <v>10900</v>
       </c>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="102" t="s">
+      <c r="X11" s="83"/>
+      <c r="Y11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="37" t="s">
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="31">
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="30">
         <v>12900</v>
       </c>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87" t="s">
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="191" t="s">
+      <c r="AK11" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="31">
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="30">
         <v>13900</v>
       </c>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87" t="s">
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="43" t="s">
+      <c r="AR11" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="AS11" s="75"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="31">
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="30">
         <v>14900</v>
       </c>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87" t="s">
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AY11" s="43" t="s">
+      <c r="AY11" s="148" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="120" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="120" t="s">
+      <c r="I12" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="117" t="s">
+      <c r="K12" s="97"/>
+      <c r="L12" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="120" t="s">
+      <c r="N12" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="37" t="s">
+      <c r="P12" s="97"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="101"/>
-      <c r="T12" s="11" t="s">
+      <c r="S12" s="83"/>
+      <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="75"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="37" t="s">
+      <c r="U12" s="49"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="37" t="s">
+      <c r="X12" s="83"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="11" t="s">
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="31" t="s">
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="191"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="31" t="s">
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="31" t="s">
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="148"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="43"/>
+      <c r="AV12" s="61"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="148"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="39" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="124" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="37" t="s">
+      <c r="F13" s="129"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="120"/>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="118"/>
+      <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="110"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="37">
+      <c r="K13" s="97"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="36">
         <v>8600</v>
       </c>
-      <c r="N13" s="120"/>
-      <c r="O13" s="9" t="s">
+      <c r="N13" s="118"/>
+      <c r="O13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="101" t="s">
+      <c r="P13" s="97"/>
+      <c r="Q13" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="101" t="s">
+      <c r="S13" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="102" t="s">
+      <c r="T13" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="75"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="37" t="s">
+      <c r="U13" s="49"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="11" t="s">
+      <c r="X13" s="83"/>
+      <c r="Y13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="152" t="s">
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AB13" s="37" t="s">
+      <c r="AB13" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="102" t="s">
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="31" t="s">
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="18" t="s">
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK13" s="22" t="s">
+      <c r="AK13" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="31" t="s">
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="18" t="s">
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR13" s="24" t="s">
+      <c r="AR13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="31" t="s">
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="18" t="s">
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AY13" s="24" t="s">
+      <c r="AY13" s="23" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="39">
+      <c r="A14" s="97"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="38">
         <v>6600</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="37">
+      <c r="D14" s="83"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="36">
         <v>7600</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="118"/>
+      <c r="J14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="110"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="37" t="s">
+      <c r="K14" s="97"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="120"/>
-      <c r="O14" s="9" t="s">
+      <c r="N14" s="118"/>
+      <c r="O14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="37" t="s">
+      <c r="P14" s="97"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="37" t="s">
+      <c r="S14" s="83"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102" t="s">
+      <c r="X14" s="83"/>
+      <c r="Y14" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="37" t="s">
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="94" t="s">
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AG14" s="31" t="s">
+      <c r="AG14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87" t="s">
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="87" t="s">
+      <c r="AJ14" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AK14" s="191" t="s">
+      <c r="AK14" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="94" t="s">
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="94" t="s">
+      <c r="AN14" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87" t="s">
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="87" t="s">
+      <c r="AQ14" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="43" t="s">
+      <c r="AR14" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="94" t="s">
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AU14" s="31" t="s">
+      <c r="AU14" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="18" t="s">
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AX14" s="18" t="s">
+      <c r="AX14" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AY14" s="24" t="s">
+      <c r="AY14" s="23" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="37" t="s">
+      <c r="D15" s="83"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="120"/>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="118"/>
+      <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="110"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="37">
+      <c r="K15" s="97"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="36">
         <v>8500</v>
       </c>
-      <c r="N15" s="120"/>
-      <c r="O15" s="9" t="s">
+      <c r="N15" s="118"/>
+      <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="37">
+      <c r="P15" s="97"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="36">
         <v>9700</v>
       </c>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102" t="s">
+      <c r="S15" s="83"/>
+      <c r="T15" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="75"/>
-      <c r="V15" s="152" t="s">
+      <c r="U15" s="49"/>
+      <c r="V15" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="W15" s="37" t="s">
+      <c r="W15" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="X15" s="101" t="s">
+      <c r="X15" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="152"/>
-      <c r="AB15" s="37">
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="36">
         <v>11700</v>
       </c>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="102" t="s">
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="31" t="s">
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="191"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="75"/>
-      <c r="AT15" s="94"/>
-      <c r="AU15" s="31" t="s">
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87" t="s">
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="AX15" s="87" t="s">
+      <c r="AX15" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="AY15" s="43" t="s">
+      <c r="AY15" s="148" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="39">
+      <c r="A16" s="97"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="38">
         <v>6500</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="37">
+      <c r="D16" s="83"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="36">
         <v>7500</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="118"/>
+      <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="37" t="s">
+      <c r="K16" s="97"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="120"/>
-      <c r="O16" s="9" t="s">
+      <c r="N16" s="118"/>
+      <c r="O16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="37" t="s">
+      <c r="P16" s="97"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="37" t="s">
+      <c r="S16" s="83"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="37" t="s">
+      <c r="X16" s="83"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="31">
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="30">
         <v>12700</v>
       </c>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87" t="s">
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="191" t="s">
+      <c r="AK16" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="31" t="s">
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87" t="s">
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AR16" s="43" t="s">
+      <c r="AR16" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="AS16" s="75"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="31" t="s">
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="43"/>
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="148"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="124" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="37" t="s">
+      <c r="F17" s="129"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="118"/>
+      <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="110"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="37">
+      <c r="K17" s="97"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="36">
         <v>8400</v>
       </c>
-      <c r="N17" s="120"/>
-      <c r="O17" s="9" t="s">
+      <c r="N17" s="118"/>
+      <c r="O17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="37" t="s">
+      <c r="P17" s="97"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="101"/>
-      <c r="T17" s="11" t="s">
+      <c r="S17" s="83"/>
+      <c r="T17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="75"/>
-      <c r="V17" s="152"/>
-      <c r="W17" s="37">
+      <c r="U17" s="49"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="36">
         <v>10700</v>
       </c>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="102" t="s">
+      <c r="X17" s="83"/>
+      <c r="Y17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="152"/>
-      <c r="AB17" s="37" t="s">
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="11" t="s">
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="31" t="s">
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="191"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="31" t="s">
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="31">
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="30">
         <v>14700</v>
       </c>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87" t="s">
+      <c r="AV17" s="61"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AY17" s="43" t="s">
+      <c r="AY17" s="148" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="37">
+      <c r="D18" s="83"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="36">
         <v>7400</v>
       </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="118"/>
+      <c r="J18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="110"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="37" t="s">
+      <c r="K18" s="97"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="9" t="s">
+      <c r="N18" s="118"/>
+      <c r="O18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="101" t="s">
+      <c r="P18" s="97"/>
+      <c r="Q18" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="101" t="s">
+      <c r="S18" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="102" t="s">
+      <c r="T18" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="152"/>
-      <c r="W18" s="37" t="s">
+      <c r="U18" s="49"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="152" t="s">
+      <c r="X18" s="83"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AB18" s="37" t="s">
+      <c r="AB18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="AC18" s="101" t="s">
+      <c r="AC18" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="102" t="s">
+      <c r="AD18" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="31" t="s">
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="18" t="s">
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK18" s="22" t="s">
+      <c r="AK18" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="31">
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="30">
         <v>13700</v>
       </c>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87" t="s">
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="43" t="s">
+      <c r="AR18" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="31" t="s">
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="43"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="148"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="39" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="83"/>
+      <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="37" t="s">
+      <c r="F19" s="129"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="120"/>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="118"/>
+      <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="110"/>
-      <c r="L19" s="117" t="s">
+      <c r="K19" s="97"/>
+      <c r="L19" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="120" t="s">
+      <c r="N19" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="37" t="s">
+      <c r="P19" s="97"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="101"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="152"/>
-      <c r="W19" s="37" t="s">
+      <c r="S19" s="83"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="11" t="s">
+      <c r="X19" s="83"/>
+      <c r="Y19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="152"/>
-      <c r="AB19" s="37" t="s">
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="94" t="s">
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AG19" s="31" t="s">
+      <c r="AG19" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH19" s="87" t="s">
+      <c r="AH19" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87" t="s">
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AK19" s="191" t="s">
+      <c r="AK19" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="31" t="s">
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="75"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="31" t="s">
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="148"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="59"/>
+      <c r="AU19" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="18" t="s">
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AY19" s="24" t="s">
+      <c r="AY19" s="23" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="83"/>
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="120" t="s">
+      <c r="F20" s="129"/>
+      <c r="G20" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="120" t="s">
+      <c r="I20" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="37">
+      <c r="K20" s="97"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="36">
         <v>8300</v>
       </c>
-      <c r="N20" s="120"/>
-      <c r="O20" s="9" t="s">
+      <c r="N20" s="118"/>
+      <c r="O20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="37">
+      <c r="P20" s="97"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="36">
         <v>9600</v>
       </c>
-      <c r="S20" s="101"/>
-      <c r="T20" s="11" t="s">
+      <c r="S20" s="83"/>
+      <c r="T20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="75"/>
-      <c r="V20" s="152" t="s">
+      <c r="U20" s="49"/>
+      <c r="V20" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="37" t="s">
+      <c r="W20" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="X20" s="101" t="s">
+      <c r="X20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="102" t="s">
+      <c r="Y20" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="152"/>
-      <c r="AB20" s="37">
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="36">
         <v>11600</v>
       </c>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="11" t="s">
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="31" t="s">
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="191"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="31" t="s">
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="18" t="s">
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR20" s="24" t="s">
+      <c r="AR20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS20" s="75"/>
-      <c r="AT20" s="94" t="s">
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AU20" s="31" t="s">
+      <c r="AU20" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="AV20" s="87" t="s">
+      <c r="AV20" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="87" t="s">
+      <c r="AW20" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="87" t="s">
+      <c r="AX20" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="AY20" s="43" t="s">
+      <c r="AY20" s="148" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="39">
+      <c r="A21" s="97"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="38">
         <v>6400</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="83"/>
+      <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="141"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="37">
+      <c r="F21" s="129"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="36">
         <v>7320</v>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="122" t="s">
+      <c r="I21" s="118"/>
+      <c r="J21" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="110"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="37" t="s">
+      <c r="K21" s="97"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="120"/>
-      <c r="O21" s="9" t="s">
+      <c r="N21" s="118"/>
+      <c r="O21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="37" t="s">
+      <c r="P21" s="97"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="101"/>
-      <c r="T21" s="11" t="s">
+      <c r="S21" s="83"/>
+      <c r="T21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="75"/>
-      <c r="V21" s="152"/>
-      <c r="W21" s="37" t="s">
+      <c r="U21" s="49"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="37" t="s">
+      <c r="X21" s="83"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="11" t="s">
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="31">
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="30">
         <v>12600</v>
       </c>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="88" t="s">
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="AJ21" s="18" t="s">
+      <c r="AJ21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AK21" s="22" t="s">
+      <c r="AK21" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="94" t="s">
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AN21" s="31" t="s">
+      <c r="AN21" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="AO21" s="87" t="s">
+      <c r="AO21" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87" t="s">
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AR21" s="43" t="s">
+      <c r="AR21" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="AS21" s="75"/>
-      <c r="AT21" s="94"/>
-      <c r="AU21" s="31" t="s">
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="43"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="148"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="38">
         <v>6320</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="141"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="37">
+      <c r="F22" s="129"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="36">
         <v>7300</v>
       </c>
-      <c r="I22" s="120"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="37">
+      <c r="I22" s="118"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="36">
         <v>8100</v>
       </c>
-      <c r="N22" s="120"/>
-      <c r="O22" s="116" t="s">
+      <c r="N22" s="118"/>
+      <c r="O22" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="37">
+      <c r="P22" s="97"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="36">
         <v>9500</v>
       </c>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102" t="s">
+      <c r="S22" s="83"/>
+      <c r="T22" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="152"/>
-      <c r="W22" s="37">
+      <c r="U22" s="49"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="36">
         <v>10600</v>
       </c>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="11" t="s">
+      <c r="X22" s="83"/>
+      <c r="Y22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="37">
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="36">
         <v>11500</v>
       </c>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="11" t="s">
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="31" t="s">
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="18" t="s">
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK22" s="22" t="s">
+      <c r="AK22" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="94"/>
-      <c r="AN22" s="31" t="s">
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="75"/>
-      <c r="AT22" s="94"/>
-      <c r="AU22" s="31">
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="148"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="30">
         <v>14600</v>
       </c>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="18" t="s">
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AY22" s="24" t="s">
+      <c r="AY22" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="39">
+      <c r="A23" s="97"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="38">
         <v>6300</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="37" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="120"/>
-      <c r="J23" s="7" t="s">
+      <c r="I23" s="118"/>
+      <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="110"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="37" t="s">
+      <c r="K23" s="97"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="120"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="37" t="s">
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="152"/>
-      <c r="W23" s="37" t="s">
+      <c r="S23" s="83"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="11" t="s">
+      <c r="X23" s="83"/>
+      <c r="Y23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="152"/>
-      <c r="AB23" s="37" t="s">
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="11" t="s">
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="31">
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="30">
         <v>12500</v>
       </c>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="18" t="s">
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AK23" s="22" t="s">
+      <c r="AK23" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="94"/>
-      <c r="AN23" s="31">
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="30">
         <v>13600</v>
       </c>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="18" t="s">
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AR23" s="24" t="s">
+      <c r="AR23" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="94"/>
-      <c r="AU23" s="31" t="s">
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="59"/>
+      <c r="AU23" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
-      <c r="AX23" s="18" t="s">
+      <c r="AV23" s="61"/>
+      <c r="AW23" s="61"/>
+      <c r="AX23" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AY23" s="24" t="s">
+      <c r="AY23" s="23" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="39">
+      <c r="A24" s="97"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="38">
         <v>6100</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="37">
+      <c r="D24" s="83"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="36">
         <v>7100</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="118"/>
+      <c r="J24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="110"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="37" t="s">
+      <c r="K24" s="97"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="9" t="s">
+      <c r="N24" s="118"/>
+      <c r="O24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="37" t="s">
+      <c r="P24" s="97"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="101"/>
-      <c r="T24" s="11" t="s">
+      <c r="S24" s="83"/>
+      <c r="T24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="75"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="37">
+      <c r="U24" s="49"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="36">
         <v>10500</v>
       </c>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="11" t="s">
+      <c r="X24" s="83"/>
+      <c r="Y24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="37">
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="36">
         <v>11400</v>
       </c>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="102" t="s">
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="31" t="s">
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="18" t="s">
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="22" t="s">
+      <c r="AK24" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="94"/>
-      <c r="AN24" s="31" t="s">
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="18" t="s">
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR24" s="24" t="s">
+      <c r="AR24" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS24" s="75"/>
-      <c r="AT24" s="94"/>
-      <c r="AU24" s="31">
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="59"/>
+      <c r="AU24" s="30">
         <v>14500</v>
       </c>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="18" t="s">
+      <c r="AV24" s="61"/>
+      <c r="AW24" s="61"/>
+      <c r="AX24" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AY24" s="24" t="s">
+      <c r="AY24" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="39" t="s">
+      <c r="A25" s="97"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="124" t="s">
+      <c r="D25" s="83"/>
+      <c r="E25" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="37" t="s">
+      <c r="F25" s="129"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="120"/>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="118"/>
+      <c r="J25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="113" t="s">
+      <c r="K25" s="97"/>
+      <c r="L25" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="120" t="s">
+      <c r="N25" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="116" t="s">
+      <c r="O25" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="37">
+      <c r="P25" s="97"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="36">
         <v>9400</v>
       </c>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102" t="s">
+      <c r="S25" s="83"/>
+      <c r="T25" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="75"/>
-      <c r="V25" s="152"/>
-      <c r="W25" s="37" t="s">
+      <c r="U25" s="49"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="11" t="s">
+      <c r="X25" s="83"/>
+      <c r="Y25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="37" t="s">
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="96" t="s">
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="87" t="s">
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="191" t="s">
+      <c r="AK25" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="77" t="s">
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="AN25" s="21">
+      <c r="AN25" s="20">
         <v>13500</v>
       </c>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="18" t="s">
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AR25" s="24" t="s">
+      <c r="AR25" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS25" s="75"/>
-      <c r="AT25" s="94"/>
-      <c r="AU25" s="31" t="s">
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="59"/>
+      <c r="AU25" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="18" t="s">
+      <c r="AV25" s="61"/>
+      <c r="AW25" s="61"/>
+      <c r="AX25" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AY25" s="24" t="s">
+      <c r="AY25" s="23" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="39" t="s">
+      <c r="A26" s="97"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="37" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="120"/>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="118"/>
+      <c r="J26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="110"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="37" t="s">
+      <c r="K26" s="97"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="120"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="37" t="s">
+      <c r="N26" s="118"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="37">
+      <c r="S26" s="83"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="36">
         <v>10400</v>
       </c>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="102" t="s">
+      <c r="X26" s="83"/>
+      <c r="Y26" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="175"/>
-      <c r="AB26" s="38" t="s">
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="12" t="s">
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="191"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="21" t="s">
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="181"/>
+      <c r="AN26" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="18" t="s">
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR26" s="24" t="s">
+      <c r="AR26" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="31" t="s">
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87" t="s">
+      <c r="AV26" s="61"/>
+      <c r="AW26" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="87" t="s">
+      <c r="AX26" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AY26" s="43" t="s">
+      <c r="AY26" s="148" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="39" t="s">
+      <c r="A27" s="97"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="141"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="37" t="s">
+      <c r="F27" s="129"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="120"/>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="118"/>
+      <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="110"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="37" t="s">
+      <c r="K27" s="97"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="120"/>
-      <c r="O27" s="9" t="s">
+      <c r="N27" s="118"/>
+      <c r="O27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="37" t="s">
+      <c r="P27" s="97"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="101"/>
-      <c r="T27" s="11" t="s">
+      <c r="S27" s="83"/>
+      <c r="T27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="75"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="37" t="s">
+      <c r="U27" s="49"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="124"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="35"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="31">
+      <c r="X27" s="83"/>
+      <c r="Y27" s="95"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="34"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="30">
         <v>12400</v>
       </c>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="191"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="96" t="s">
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="181"/>
+      <c r="AN27" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87" t="s">
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="87" t="s">
+      <c r="AQ27" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="43" t="s">
+      <c r="AR27" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="AS27" s="75"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="31">
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="30">
         <v>14400</v>
       </c>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="43"/>
+      <c r="AV27" s="61"/>
+      <c r="AW27" s="61"/>
+      <c r="AX27" s="61"/>
+      <c r="AY27" s="148"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="101" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="141"/>
-      <c r="G28" s="120" t="s">
+      <c r="F28" s="129"/>
+      <c r="G28" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="120"/>
-      <c r="J28" s="122" t="s">
+      <c r="I28" s="118"/>
+      <c r="J28" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="37" t="s">
+      <c r="K28" s="97"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="120"/>
-      <c r="O28" s="9" t="s">
+      <c r="N28" s="118"/>
+      <c r="O28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="101" t="s">
+      <c r="P28" s="97"/>
+      <c r="Q28" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="101" t="s">
+      <c r="S28" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="102" t="s">
+      <c r="T28" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="75"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="37" t="s">
+      <c r="U28" s="49"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="6" t="s">
+      <c r="X28" s="83"/>
+      <c r="Y28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="31" t="s">
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="191"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="96"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="75"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="31" t="s">
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="181"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="148"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="43"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
+      <c r="AY28" s="148"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="39" t="s">
+      <c r="A29" s="97"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="37" t="s">
+      <c r="D29" s="83"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="120"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="37" t="s">
+      <c r="I29" s="118"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="120"/>
-      <c r="O29" s="9" t="s">
+      <c r="N29" s="118"/>
+      <c r="O29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="37" t="s">
+      <c r="P29" s="97"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="101"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="152" t="s">
+      <c r="S29" s="83"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="W29" s="37">
+      <c r="W29" s="36">
         <v>10320</v>
       </c>
-      <c r="X29" s="101" t="s">
+      <c r="X29" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="124" t="s">
+      <c r="Y29" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="31" t="s">
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="18" t="s">
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK29" s="22" t="s">
+      <c r="AK29" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="21">
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="181"/>
+      <c r="AN29" s="20">
         <v>13400</v>
       </c>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="18" t="s">
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AR29" s="24" t="s">
+      <c r="AR29" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS29" s="75"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="31" t="s">
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="18" t="s">
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AY29" s="24" t="s">
+      <c r="AY29" s="23" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="39" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="83"/>
+      <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="141"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="37" t="s">
+      <c r="F30" s="129"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="118"/>
+      <c r="J30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="120" t="s">
+      <c r="K30" s="97"/>
+      <c r="L30" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="120" t="s">
+      <c r="N30" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="116" t="s">
+      <c r="O30" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="37">
+      <c r="P30" s="97"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="36">
         <v>9320</v>
       </c>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102" t="s">
+      <c r="S30" s="83"/>
+      <c r="T30" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="75"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="37">
+      <c r="U30" s="49"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="36">
         <v>10300</v>
       </c>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="124"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="94" t="s">
+      <c r="X30" s="83"/>
+      <c r="Y30" s="95"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AG30" s="31">
+      <c r="AG30" s="30">
         <v>12300</v>
       </c>
-      <c r="AH30" s="87" t="s">
+      <c r="AH30" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="18" t="s">
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AK30" s="22" t="s">
+      <c r="AK30" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="21" t="s">
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="181"/>
+      <c r="AN30" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="18" t="s">
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AR30" s="24" t="s">
+      <c r="AR30" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="94" t="s">
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AU30" s="31">
+      <c r="AU30" s="30">
         <v>14100</v>
       </c>
-      <c r="AV30" s="87" t="s">
+      <c r="AV30" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="88" t="s">
+      <c r="AW30" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="AX30" s="18" t="s">
+      <c r="AX30" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="AY30" s="43" t="s">
+      <c r="AY30" s="148" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="39" t="s">
+      <c r="A31" s="97"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="83"/>
+      <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="37" t="s">
+      <c r="F31" s="129"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="120"/>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="118"/>
+      <c r="J31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="110"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="37" t="s">
+      <c r="K31" s="97"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="120"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="37">
+      <c r="N31" s="118"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="36">
         <v>9300</v>
       </c>
-      <c r="S31" s="101"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="37" t="s">
+      <c r="S31" s="83"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="6" t="s">
+      <c r="X31" s="83"/>
+      <c r="Y31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="31" t="s">
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="18" t="s">
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK31" s="22" t="s">
+      <c r="AK31" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="21" t="s">
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="182"/>
+      <c r="AN31" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="18" t="s">
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR31" s="24" t="s">
+      <c r="AR31" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="AS31" s="75"/>
-      <c r="AT31" s="94"/>
-      <c r="AU31" s="31" t="s">
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="88"/>
-      <c r="AX31" s="18" t="s">
+      <c r="AV31" s="61"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AY31" s="43"/>
+      <c r="AY31" s="148"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="39" t="s">
+      <c r="A32" s="97"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="124" t="s">
+      <c r="D32" s="83"/>
+      <c r="E32" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="141"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="37" t="s">
+      <c r="F32" s="129"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="120"/>
-      <c r="J32" s="7" t="s">
+      <c r="I32" s="118"/>
+      <c r="J32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="110"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="37" t="s">
+      <c r="K32" s="97"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="120"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="37" t="s">
+      <c r="N32" s="118"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="101"/>
-      <c r="T32" s="11" t="s">
+      <c r="S32" s="83"/>
+      <c r="T32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="75"/>
-      <c r="V32" s="152"/>
-      <c r="W32" s="37">
+      <c r="U32" s="49"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="36">
         <v>10100</v>
       </c>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="124" t="s">
+      <c r="X32" s="83"/>
+      <c r="Y32" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="31">
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="30">
         <v>12100</v>
       </c>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="18" t="s">
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="191" t="s">
+      <c r="AK32" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="80" t="s">
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="AN32" s="21">
+      <c r="AN32" s="20">
         <v>13100</v>
       </c>
-      <c r="AO32" s="87" t="s">
+      <c r="AO32" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="88" t="s">
+      <c r="AP32" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="AQ32" s="18" t="s">
+      <c r="AQ32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="43" t="s">
+      <c r="AR32" s="148" t="s">
         <v>262</v>
       </c>
-      <c r="AS32" s="75"/>
-      <c r="AT32" s="94"/>
-      <c r="AU32" s="31" t="s">
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="88"/>
-      <c r="AX32" s="18" t="s">
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AY32" s="24" t="s">
+      <c r="AY32" s="23" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="39" t="s">
+      <c r="A33" s="97"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="120" t="s">
+      <c r="D33" s="83"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="120" t="s">
+      <c r="I33" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="122" t="s">
+      <c r="J33" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="111"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="38" t="s">
+      <c r="K33" s="98"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="121"/>
-      <c r="O33" s="10" t="s">
+      <c r="N33" s="131"/>
+      <c r="O33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="37">
+      <c r="P33" s="97"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="36">
         <v>9100</v>
       </c>
-      <c r="S33" s="101"/>
-      <c r="T33" s="102" t="s">
+      <c r="S33" s="83"/>
+      <c r="T33" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="75"/>
-      <c r="V33" s="152"/>
-      <c r="W33" s="37" t="s">
+      <c r="U33" s="49"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="124"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="31" t="s">
+      <c r="X33" s="83"/>
+      <c r="Y33" s="95"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="88"/>
-      <c r="AJ33" s="18" t="s">
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AK33" s="191"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="21" t="s">
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="184"/>
+      <c r="AN33" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="88"/>
-      <c r="AQ33" s="18" t="s">
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="75"/>
-      <c r="AT33" s="83" t="s">
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="186" t="s">
         <v>302</v>
       </c>
-      <c r="AU33" s="32">
+      <c r="AU33" s="31">
         <v>300</v>
       </c>
-      <c r="AV33" s="83" t="s">
+      <c r="AV33" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="88"/>
-      <c r="AX33" s="18" t="s">
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="AY33" s="85" t="s">
+      <c r="AY33" s="188" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="110"/>
-      <c r="B34" s="101" t="s">
+      <c r="A34" s="97"/>
+      <c r="B34" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="124" t="s">
+      <c r="D34" s="83"/>
+      <c r="E34" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="141"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="37" t="s">
+      <c r="F34" s="129"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="120"/>
-      <c r="J34" s="122"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="37" t="s">
+      <c r="I34" s="118"/>
+      <c r="J34" s="99"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="152"/>
-      <c r="W34" s="37" t="s">
+      <c r="S34" s="83"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="6" t="s">
+      <c r="X34" s="83"/>
+      <c r="Y34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="31" t="s">
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="88"/>
-      <c r="AJ34" s="18" t="s">
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK34" s="22" t="s">
+      <c r="AK34" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="AL34" s="76"/>
-      <c r="AM34" s="82"/>
-      <c r="AN34" s="25" t="s">
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="185"/>
+      <c r="AN34" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="89"/>
-      <c r="AQ34" s="19" t="s">
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR34" s="26" t="s">
+      <c r="AR34" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AS34" s="76"/>
-      <c r="AT34" s="84"/>
-      <c r="AU34" s="33" t="s">
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="187"/>
+      <c r="AU34" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AV34" s="84"/>
-      <c r="AW34" s="89"/>
-      <c r="AX34" s="19" t="s">
+      <c r="AV34" s="187"/>
+      <c r="AW34" s="66"/>
+      <c r="AX34" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="AY34" s="86"/>
+      <c r="AY34" s="189"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="39" t="s">
+      <c r="A35" s="97"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="38" t="s">
+      <c r="D35" s="83"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="121"/>
-      <c r="J35" s="8" t="s">
+      <c r="I35" s="131"/>
+      <c r="J35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="37" t="s">
+      <c r="P35" s="97"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="101"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="83"/>
+      <c r="T35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="75"/>
-      <c r="V35" s="152" t="s">
+      <c r="U35" s="49"/>
+      <c r="V35" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="W35" s="37" t="s">
+      <c r="W35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="X35" s="101" t="s">
+      <c r="X35" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="124" t="s">
+      <c r="Y35" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="94" t="s">
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="AG35" s="31" t="s">
+      <c r="AG35" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="AH35" s="87" t="s">
+      <c r="AH35" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="88"/>
-      <c r="AJ35" s="18" t="s">
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AK35" s="188" t="s">
+      <c r="AK35" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AV35" s="34"/>
+      <c r="AW35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="AY35" s="34"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="39" t="s">
+      <c r="A36" s="97"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="124" t="s">
+      <c r="D36" s="83"/>
+      <c r="E36" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="156" t="s">
+      <c r="F36" s="190"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="R36" s="37" t="s">
+      <c r="R36" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="101" t="s">
+      <c r="S36" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="75"/>
-      <c r="V36" s="152"/>
-      <c r="W36" s="37" t="s">
+      <c r="U36" s="49"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="124"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="94"/>
-      <c r="AG36" s="31" t="s">
+      <c r="X36" s="83"/>
+      <c r="Y36" s="95"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="88"/>
-      <c r="AJ36" s="18" t="s">
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="188"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AV36" s="34"/>
+      <c r="AW36" s="34"/>
+      <c r="AX36" s="34"/>
+      <c r="AY36" s="34"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="3"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="37" t="s">
+      <c r="D37" s="84"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="191"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="101"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="83"/>
+      <c r="T37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="75"/>
-      <c r="V37" s="152"/>
-      <c r="W37" s="37" t="s">
+      <c r="U37" s="49"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="6" t="s">
+      <c r="X37" s="83"/>
+      <c r="Y37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="75"/>
-      <c r="AF37" s="94" t="s">
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AG37" s="31" t="s">
+      <c r="AG37" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="AH37" s="87" t="s">
+      <c r="AH37" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="88"/>
-      <c r="AJ37" s="18" t="s">
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AK37" s="188"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AV37" s="34"/>
+      <c r="AW37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="41"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="37" t="s">
+      <c r="C38" s="40"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="101"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="83"/>
+      <c r="T38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="75"/>
-      <c r="V38" s="152"/>
-      <c r="W38" s="37" t="s">
+      <c r="U38" s="49"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="6" t="s">
+      <c r="X38" s="83"/>
+      <c r="Y38" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="190"/>
-      <c r="AG38" s="36" t="s">
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="89"/>
-      <c r="AJ38" s="19" t="s">
+      <c r="AH38" s="62"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="189"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
-      <c r="AY38" s="35"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="34"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AV38" s="34"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="110"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="37" t="s">
+      <c r="P39" s="97"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="101"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="83"/>
+      <c r="T39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="75"/>
-      <c r="V39" s="152"/>
-      <c r="W39" s="37" t="s">
+      <c r="U39" s="49"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="6" t="s">
+      <c r="X39" s="83"/>
+      <c r="Y39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="35"/>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="34"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="110"/>
-      <c r="Q40" s="101" t="s">
+      <c r="P40" s="97"/>
+      <c r="Q40" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="R40" s="37" t="s">
+      <c r="R40" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="101" t="s">
+      <c r="S40" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="102" t="s">
+      <c r="T40" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="75"/>
-      <c r="V40" s="101" t="s">
+      <c r="U40" s="49"/>
+      <c r="V40" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="37" t="s">
+      <c r="W40" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="X40" s="101" t="s">
+      <c r="X40" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="124" t="s">
+      <c r="Y40" s="95" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="110"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="37" t="s">
+      <c r="P41" s="97"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="101"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="37" t="s">
+      <c r="S41" s="83"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="124"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="95"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="111"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="38" t="s">
+      <c r="P42" s="98"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="112"/>
-      <c r="T42" s="12" t="s">
+      <c r="S42" s="84"/>
+      <c r="T42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="75"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="37" t="s">
+      <c r="U42" s="49"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="124"/>
+      <c r="X42" s="83"/>
+      <c r="Y42" s="95"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="75"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="37" t="s">
+      <c r="U43" s="49"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="6" t="s">
+      <c r="X43" s="83"/>
+      <c r="Y43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="75"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="37" t="s">
+      <c r="U44" s="49"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="6" t="s">
+      <c r="X44" s="83"/>
+      <c r="Y44" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="75"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="37" t="s">
+      <c r="U45" s="49"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="6" t="s">
+      <c r="X45" s="83"/>
+      <c r="Y45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="75"/>
-      <c r="V46" s="153" t="s">
+      <c r="U46" s="49"/>
+      <c r="V46" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="W46" s="153"/>
-      <c r="X46" s="153"/>
-      <c r="Y46" s="154"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="86"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="75"/>
+      <c r="U47" s="49"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="37">
+      <c r="W47" s="36">
         <v>10505</v>
       </c>
       <c r="X47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y47" s="6" t="s">
+      <c r="Y47" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="75"/>
-      <c r="V48" s="152" t="s">
+      <c r="U48" s="49"/>
+      <c r="V48" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="W48" s="37">
+      <c r="W48" s="36">
         <v>10325</v>
       </c>
-      <c r="X48" s="101" t="s">
+      <c r="X48" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="155" t="s">
+      <c r="Y48" s="87" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="75"/>
-      <c r="V49" s="152"/>
-      <c r="W49" s="37">
+      <c r="U49" s="49"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="36">
         <v>10305</v>
       </c>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="155"/>
+      <c r="X49" s="83"/>
+      <c r="Y49" s="87"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="75"/>
-      <c r="V50" s="152"/>
-      <c r="W50" s="37" t="s">
+      <c r="U50" s="49"/>
+      <c r="V50" s="81"/>
+      <c r="W50" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="16" t="s">
+      <c r="X50" s="83"/>
+      <c r="Y50" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="75"/>
-      <c r="V51" s="152"/>
-      <c r="W51" s="37">
+      <c r="U51" s="49"/>
+      <c r="V51" s="81"/>
+      <c r="W51" s="36">
         <v>10105</v>
       </c>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="155" t="s">
+      <c r="X51" s="83"/>
+      <c r="Y51" s="87" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="75"/>
-      <c r="V52" s="152"/>
-      <c r="W52" s="37" t="s">
+      <c r="U52" s="49"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="155"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="87"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="75"/>
-      <c r="V53" s="152"/>
-      <c r="W53" s="37" t="s">
+      <c r="U53" s="49"/>
+      <c r="V53" s="81"/>
+      <c r="W53" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="16" t="s">
+      <c r="X53" s="83"/>
+      <c r="Y53" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="75"/>
-      <c r="V54" s="113" t="s">
+      <c r="U54" s="49"/>
+      <c r="V54" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="W54" s="37" t="s">
+      <c r="W54" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="X54" s="101" t="s">
+      <c r="X54" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="155" t="s">
+      <c r="Y54" s="87" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="75"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="37" t="s">
+      <c r="U55" s="49"/>
+      <c r="V55" s="93"/>
+      <c r="W55" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="X55" s="101"/>
-      <c r="Y55" s="155"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="87"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="75"/>
-      <c r="V56" s="114"/>
-      <c r="W56" s="37" t="s">
+      <c r="U56" s="49"/>
+      <c r="V56" s="93"/>
+      <c r="W56" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="X56" s="101"/>
-      <c r="Y56" s="16" t="s">
+      <c r="X56" s="83"/>
+      <c r="Y56" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="75"/>
-      <c r="V57" s="114"/>
-      <c r="W57" s="37" t="s">
+      <c r="U57" s="49"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="15" t="s">
+      <c r="X57" s="83"/>
+      <c r="Y57" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="76"/>
-      <c r="V58" s="159"/>
-      <c r="W58" s="38" t="s">
+      <c r="U58" s="50"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X58" s="112"/>
-      <c r="Y58" s="17" t="s">
+      <c r="X58" s="84"/>
+      <c r="Y58" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="V59" s="34"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE2:AY2"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AO4:AP6"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AV4:AW6"/>
+    <mergeCell ref="AL8:AL34"/>
+    <mergeCell ref="AS8:AS34"/>
+    <mergeCell ref="AM25:AM31"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AV33:AV34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AW26:AW29"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="AE3:AK3"/>
@@ -6191,242 +6452,6 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AK8:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AE2:AY2"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AO4:AP6"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AV4:AW6"/>
-    <mergeCell ref="AL8:AL34"/>
-    <mergeCell ref="AS8:AS34"/>
-    <mergeCell ref="AM25:AM31"/>
-    <mergeCell ref="AM32:AM34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AV33:AV34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AW26:AW29"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AY26:AY28"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AX17:AX18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D1FB77-5D72-4FBE-9F04-3D550B797054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F946F-6E30-4DD7-9BB7-9653282BAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1750,15 +1750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1776,6 +1767,43 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1783,7 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1899,6 +1927,402 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1906,12 +2330,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,437 +2341,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2680,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AY2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +2754,7 @@
     <col min="39" max="51" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>315</v>
       </c>
@@ -2732,420 +2784,420 @@
       <c r="AY1" s="12"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="101" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="108" t="s">
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="192" t="s">
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="189" t="s">
         <v>303</v>
       </c>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="192"/>
-      <c r="AH2" s="192"/>
-      <c r="AI2" s="192"/>
-      <c r="AJ2" s="192"/>
-      <c r="AK2" s="192"/>
-      <c r="AL2" s="192"/>
-      <c r="AM2" s="192"/>
-      <c r="AN2" s="192"/>
-      <c r="AO2" s="192"/>
-      <c r="AP2" s="192"/>
-      <c r="AQ2" s="192"/>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="192"/>
-      <c r="AT2" s="192"/>
-      <c r="AU2" s="192"/>
-      <c r="AV2" s="192"/>
-      <c r="AW2" s="192"/>
-      <c r="AX2" s="192"/>
-      <c r="AY2" s="192"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="190"/>
+      <c r="AL2" s="190"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="190"/>
+      <c r="AP2" s="190"/>
+      <c r="AQ2" s="190"/>
+      <c r="AR2" s="190"/>
+      <c r="AS2" s="190"/>
+      <c r="AT2" s="190"/>
+      <c r="AU2" s="190"/>
+      <c r="AV2" s="190"/>
+      <c r="AW2" s="190"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="191"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="111" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="121" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="144" t="s">
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="102" t="s">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="71" t="s">
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="46" t="s">
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="176" t="s">
         <v>236</v>
       </c>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="156" t="s">
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="177"/>
+      <c r="AJ3" s="177"/>
+      <c r="AK3" s="177"/>
+      <c r="AL3" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="157"/>
-      <c r="AN3" s="157"/>
-      <c r="AO3" s="157"/>
-      <c r="AP3" s="157"/>
-      <c r="AQ3" s="157"/>
-      <c r="AR3" s="158"/>
-      <c r="AS3" s="168" t="s">
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="169"/>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="170"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="115" t="s">
+      <c r="I4" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="143" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="116" t="s">
+      <c r="L4" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="147" t="s">
+      <c r="P4" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="120" t="s">
+      <c r="Q4" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="120" t="s">
+      <c r="R4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="120" t="s">
+      <c r="S4" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="143" t="s">
+      <c r="T4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="105" t="s">
+      <c r="U4" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="106" t="s">
+      <c r="X4" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="107" t="s">
+      <c r="Y4" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="74" t="s">
+      <c r="Z4" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="78" t="s">
+      <c r="AD4" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="41" t="s">
+      <c r="AE4" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="44" t="s">
+      <c r="AF4" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="44" t="s">
+      <c r="AG4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="67" t="s">
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="159" t="s">
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="136" t="s">
+      <c r="AM4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="136" t="s">
+      <c r="AN4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="162" t="s">
+      <c r="AO4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="139" t="s">
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="140"/>
-      <c r="AS4" s="171" t="s">
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="153" t="s">
+      <c r="AT4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="153" t="s">
+      <c r="AU4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="174" t="s">
+      <c r="AV4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="149" t="s">
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="150"/>
+      <c r="AY4" s="91"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="110"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="143"/>
       <c r="K5" s="135"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="141"/>
-      <c r="AR5" s="142"/>
-      <c r="AS5" s="172"/>
-      <c r="AT5" s="154"/>
-      <c r="AU5" s="154"/>
-      <c r="AV5" s="176"/>
-      <c r="AW5" s="177"/>
-      <c r="AX5" s="151"/>
-      <c r="AY5" s="152"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="182"/>
+      <c r="AJ5" s="159"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="93"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="110"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="143"/>
       <c r="K6" s="135"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="160"/>
-      <c r="AM6" s="137"/>
-      <c r="AN6" s="137"/>
-      <c r="AO6" s="166"/>
-      <c r="AP6" s="167"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="172"/>
-      <c r="AT6" s="154"/>
-      <c r="AU6" s="154"/>
-      <c r="AV6" s="178"/>
-      <c r="AW6" s="179"/>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="152"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="170"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="159"/>
+      <c r="AK6" s="160"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="93"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="110"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="143"/>
       <c r="K7" s="135"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="175"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
       <c r="AH7" s="19" t="s">
         <v>237</v>
       </c>
@@ -3158,9 +3210,9 @@
       <c r="AK7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="AL7" s="161"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
       <c r="AO7" s="26" t="s">
         <v>237</v>
       </c>
@@ -3173,9 +3225,9 @@
       <c r="AR7" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AS7" s="173"/>
-      <c r="AT7" s="155"/>
-      <c r="AU7" s="155"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
       <c r="AV7" s="28" t="s">
         <v>237</v>
       </c>
@@ -3190,600 +3242,600 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="101" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="113" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="113" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="134" t="s">
+      <c r="L8" s="119" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="118" t="s">
+      <c r="N8" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="119" t="s">
+      <c r="O8" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="96" t="s">
+      <c r="P8" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="101" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="83" t="s">
+      <c r="S8" s="101" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="91" t="s">
+      <c r="U8" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="V8" s="81" t="s">
+      <c r="V8" s="149" t="s">
         <v>104</v>
       </c>
       <c r="W8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="X8" s="83" t="s">
+      <c r="X8" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="80" t="s">
+      <c r="Y8" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" s="96" t="s">
+      <c r="Z8" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="AA8" s="81" t="s">
+      <c r="AA8" s="149" t="s">
         <v>104</v>
       </c>
       <c r="AB8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="AC8" s="83" t="s">
+      <c r="AC8" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="80" t="s">
+      <c r="AD8" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="48" t="s">
+      <c r="AE8" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="AF8" s="59" t="s">
+      <c r="AF8" s="94" t="s">
         <v>104</v>
       </c>
       <c r="AG8" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="AH8" s="61" t="s">
+      <c r="AH8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="61" t="s">
+      <c r="AI8" s="87" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AK8" s="63" t="s">
+      <c r="AK8" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="AL8" s="91" t="s">
+      <c r="AL8" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="AM8" s="59" t="s">
+      <c r="AM8" s="94" t="s">
         <v>104</v>
       </c>
       <c r="AN8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="AO8" s="61" t="s">
+      <c r="AO8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="61" t="s">
+      <c r="AP8" s="87" t="s">
         <v>242</v>
       </c>
       <c r="AQ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AR8" s="148" t="s">
+      <c r="AR8" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="AS8" s="91" t="s">
+      <c r="AS8" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="AT8" s="59" t="s">
+      <c r="AT8" s="94" t="s">
         <v>104</v>
       </c>
       <c r="AU8" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="AV8" s="61" t="s">
+      <c r="AV8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="61" t="s">
+      <c r="AW8" s="87" t="s">
         <v>242</v>
       </c>
       <c r="AX8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="AY8" s="148" t="s">
+      <c r="AY8" s="43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="95" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="118"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="118"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="134"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="118"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="83"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="101"/>
       <c r="R9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="83"/>
-      <c r="T9" s="80" t="s">
+      <c r="S9" s="101"/>
+      <c r="T9" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="49"/>
-      <c r="V9" s="81"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="149"/>
       <c r="W9" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="81"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="149"/>
       <c r="AB9" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="59"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="94"/>
       <c r="AG9" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61" t="s">
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="59"/>
+      <c r="AK9" s="188"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="94"/>
       <c r="AN9" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61" t="s">
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="59"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="94"/>
       <c r="AU9" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61" t="s">
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AY9" s="148"/>
+      <c r="AY9" s="43"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="38">
         <v>6700</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="118"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="113"/>
       <c r="H10" s="36">
         <v>7700</v>
       </c>
-      <c r="I10" s="118"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="134"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="36">
         <v>8700</v>
       </c>
-      <c r="N10" s="118"/>
+      <c r="N10" s="113"/>
       <c r="O10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="83"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="101"/>
       <c r="R10" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="83"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="81"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="149"/>
       <c r="W10" s="36">
         <v>10910</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="81"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="149"/>
       <c r="AB10" s="36">
         <v>11900</v>
       </c>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="80" t="s">
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="59"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="94"/>
       <c r="AG10" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="59"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="188"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="94"/>
       <c r="AN10" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="59"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="94"/>
       <c r="AU10" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="148"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="43"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="129"/>
-      <c r="G11" s="118"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="118"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="134"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="118"/>
+      <c r="N11" s="113"/>
       <c r="O11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="83"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="101"/>
       <c r="R11" s="36">
         <v>9900</v>
       </c>
-      <c r="S11" s="83"/>
+      <c r="S11" s="101"/>
       <c r="T11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="49"/>
-      <c r="V11" s="81"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="149"/>
       <c r="W11" s="36">
         <v>10900</v>
       </c>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="80" t="s">
+      <c r="X11" s="101"/>
+      <c r="Y11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="81"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="149"/>
       <c r="AB11" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="59"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="94"/>
       <c r="AG11" s="30">
         <v>12900</v>
       </c>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61" t="s">
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="63" t="s">
+      <c r="AK11" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="59"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="94"/>
       <c r="AN11" s="30">
         <v>13900</v>
       </c>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61" t="s">
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="148" t="s">
+      <c r="AR11" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="59"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="94"/>
       <c r="AU11" s="30">
         <v>14900</v>
       </c>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61" t="s">
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="AY11" s="148" t="s">
+      <c r="AY11" s="43" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="101" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="118" t="s">
+      <c r="F12" s="120"/>
+      <c r="G12" s="113" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="113" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="134" t="s">
+      <c r="K12" s="110"/>
+      <c r="L12" s="119" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="118" t="s">
+      <c r="N12" s="113" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="83"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="101"/>
       <c r="R12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="83"/>
+      <c r="S12" s="101"/>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="49"/>
-      <c r="V12" s="81"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="149"/>
       <c r="W12" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="81"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="149"/>
       <c r="AB12" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="AC12" s="83"/>
+      <c r="AC12" s="101"/>
       <c r="AD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="59"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="94"/>
       <c r="AG12" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="59"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="188"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="94"/>
       <c r="AN12" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="148"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="59"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="94"/>
       <c r="AU12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="148"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="43"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="95" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="129"/>
-      <c r="G13" s="118"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="118"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="134"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="36">
         <v>8600</v>
       </c>
-      <c r="N13" s="118"/>
+      <c r="N13" s="113"/>
       <c r="O13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="83" t="s">
+      <c r="P13" s="110"/>
+      <c r="Q13" s="101" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="83" t="s">
+      <c r="S13" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="49"/>
-      <c r="V13" s="81"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="149"/>
       <c r="W13" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="X13" s="83"/>
+      <c r="X13" s="101"/>
       <c r="Y13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="81" t="s">
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="149" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="80" t="s">
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="59"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="94"/>
       <c r="AG13" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
       <c r="AJ13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="59"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="94"/>
       <c r="AN13" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
       <c r="AQ13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="59"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="94"/>
       <c r="AU13" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="61"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
       <c r="AX13" s="17" t="s">
         <v>270</v>
       </c>
@@ -3792,96 +3844,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="38">
         <v>6600</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="118"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="36">
         <v>7600</v>
       </c>
-      <c r="I14" s="118"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="134"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="118"/>
+      <c r="N14" s="113"/>
       <c r="O14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="83"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="101"/>
       <c r="R14" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="83"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="81"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="149"/>
       <c r="W14" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="80" t="s">
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="81"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="149"/>
       <c r="AB14" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="59" t="s">
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="94" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61" t="s">
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="61" t="s">
+      <c r="AJ14" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AK14" s="63" t="s">
+      <c r="AK14" s="188" t="s">
         <v>211</v>
       </c>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="59" t="s">
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="59" t="s">
+      <c r="AN14" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61" t="s">
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="61" t="s">
+      <c r="AQ14" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="148" t="s">
+      <c r="AR14" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="59" t="s">
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="94" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="AV14" s="61"/>
+      <c r="AV14" s="87"/>
       <c r="AW14" s="17" t="s">
         <v>112</v>
       </c>
@@ -3893,445 +3945,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="118"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="118"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="134"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="36">
         <v>8500</v>
       </c>
-      <c r="N15" s="118"/>
+      <c r="N15" s="113"/>
       <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="83"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="101"/>
       <c r="R15" s="36">
         <v>9700</v>
       </c>
-      <c r="S15" s="83"/>
-      <c r="T15" s="80" t="s">
+      <c r="S15" s="101"/>
+      <c r="T15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="49"/>
-      <c r="V15" s="81" t="s">
+      <c r="U15" s="75"/>
+      <c r="V15" s="149" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="X15" s="83" t="s">
+      <c r="X15" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="81"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="149"/>
       <c r="AB15" s="36">
         <v>11700</v>
       </c>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="80" t="s">
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="59"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="94"/>
       <c r="AG15" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="61"/>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="59"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="188"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="94"/>
       <c r="AU15" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="AV15" s="61"/>
-      <c r="AW15" s="61" t="s">
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="AX15" s="61" t="s">
+      <c r="AX15" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="AY15" s="148" t="s">
+      <c r="AY15" s="43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="38">
         <v>6500</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="118"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="36">
         <v>7500</v>
       </c>
-      <c r="I16" s="118"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="97"/>
-      <c r="L16" s="134"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="118"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="83"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="101"/>
       <c r="R16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="83"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="81"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="149"/>
       <c r="W16" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="81"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="149"/>
       <c r="AB16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="59"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="94"/>
       <c r="AG16" s="30">
         <v>12700</v>
       </c>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="61" t="s">
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="63" t="s">
+      <c r="AK16" s="188" t="s">
         <v>213</v>
       </c>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="59"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="94"/>
       <c r="AN16" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="AO16" s="61"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61" t="s">
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AR16" s="148" t="s">
+      <c r="AR16" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="59"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="94"/>
       <c r="AU16" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="AV16" s="61"/>
-      <c r="AW16" s="61"/>
-      <c r="AX16" s="61"/>
-      <c r="AY16" s="148"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="43"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="95" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="118"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="118"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="134"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="36">
         <v>8400</v>
       </c>
-      <c r="N17" s="118"/>
+      <c r="N17" s="113"/>
       <c r="O17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="83"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="101"/>
       <c r="R17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="83"/>
+      <c r="S17" s="101"/>
       <c r="T17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="49"/>
-      <c r="V17" s="81"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="149"/>
       <c r="W17" s="36">
         <v>10700</v>
       </c>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="80" t="s">
+      <c r="X17" s="101"/>
+      <c r="Y17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="81"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="149"/>
       <c r="AB17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC17" s="83"/>
+      <c r="AC17" s="101"/>
       <c r="AD17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="59"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="94"/>
       <c r="AG17" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="59"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="188"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="94"/>
       <c r="AN17" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="148"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="59"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="94"/>
       <c r="AU17" s="30">
         <v>14700</v>
       </c>
-      <c r="AV17" s="61"/>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="61" t="s">
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="AY17" s="148" t="s">
+      <c r="AY17" s="43" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="118"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="36">
         <v>7400</v>
       </c>
-      <c r="I18" s="118"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="134"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="118"/>
+      <c r="N18" s="113"/>
       <c r="O18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="83" t="s">
+      <c r="P18" s="110"/>
+      <c r="Q18" s="101" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="83" t="s">
+      <c r="S18" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="80" t="s">
+      <c r="T18" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="49"/>
-      <c r="V18" s="81"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="149"/>
       <c r="W18" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="81" t="s">
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="149" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="AC18" s="83" t="s">
+      <c r="AC18" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="80" t="s">
+      <c r="AD18" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="59"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="94"/>
       <c r="AG18" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
       <c r="AJ18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="59"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="94"/>
       <c r="AN18" s="30">
         <v>13700</v>
       </c>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61" t="s">
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="148" t="s">
+      <c r="AR18" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="59"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="94"/>
       <c r="AU18" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="148"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="43"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="118"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="118"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="134" t="s">
+      <c r="K19" s="110"/>
+      <c r="L19" s="119" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="118" t="s">
+      <c r="N19" s="113" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="83"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="101"/>
       <c r="R19" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="83"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="81"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="149"/>
       <c r="W19" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="X19" s="83"/>
+      <c r="X19" s="101"/>
       <c r="Y19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="81"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="149"/>
       <c r="AB19" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="59" t="s">
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH19" s="61" t="s">
+      <c r="AH19" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61" t="s">
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AK19" s="63" t="s">
+      <c r="AK19" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="59"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="94"/>
       <c r="AN19" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="148"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="59"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="94"/>
       <c r="AU19" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="61"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
       <c r="AX19" s="17" t="s">
         <v>270</v>
       </c>
@@ -4340,170 +4392,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="129"/>
-      <c r="G20" s="118" t="s">
+      <c r="F20" s="120"/>
+      <c r="G20" s="113" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="118" t="s">
+      <c r="I20" s="113" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="134"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="119"/>
       <c r="M20" s="36">
         <v>8300</v>
       </c>
-      <c r="N20" s="118"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="83"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="101"/>
       <c r="R20" s="36">
         <v>9600</v>
       </c>
-      <c r="S20" s="83"/>
+      <c r="S20" s="101"/>
       <c r="T20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="49"/>
-      <c r="V20" s="81" t="s">
+      <c r="U20" s="75"/>
+      <c r="V20" s="149" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="X20" s="83" t="s">
+      <c r="X20" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="81"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="149"/>
       <c r="AB20" s="36">
         <v>11600</v>
       </c>
-      <c r="AC20" s="83"/>
+      <c r="AC20" s="101"/>
       <c r="AD20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="59"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="94"/>
       <c r="AG20" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="59"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="188"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="94"/>
       <c r="AN20" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
       <c r="AQ20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="59" t="s">
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="AV20" s="61" t="s">
+      <c r="AV20" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="61" t="s">
+      <c r="AW20" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="61" t="s">
+      <c r="AX20" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="AY20" s="148" t="s">
+      <c r="AY20" s="43" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="38">
         <v>6400</v>
       </c>
-      <c r="D21" s="83"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="118"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="36">
         <v>7320</v>
       </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="99" t="s">
+      <c r="I21" s="113"/>
+      <c r="J21" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="134"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="118"/>
+      <c r="N21" s="113"/>
       <c r="O21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="83"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="101"/>
       <c r="R21" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="83"/>
+      <c r="S21" s="101"/>
       <c r="T21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="49"/>
-      <c r="V21" s="81"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="149"/>
       <c r="W21" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="81"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="149"/>
       <c r="AB21" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AC21" s="83"/>
+      <c r="AC21" s="101"/>
       <c r="AD21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="59"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="94"/>
       <c r="AG21" s="30">
         <v>12600</v>
       </c>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="65" t="s">
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="88" t="s">
         <v>141</v>
       </c>
       <c r="AJ21" s="17" t="s">
@@ -4512,119 +4564,119 @@
       <c r="AK21" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="59" t="s">
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="AO21" s="61" t="s">
+      <c r="AO21" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61" t="s">
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AR21" s="148" t="s">
+      <c r="AR21" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="59"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="94"/>
       <c r="AU21" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="148"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="43"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="110"/>
+      <c r="B22" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="38">
         <v>6320</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="118"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="36">
         <v>7300</v>
       </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="134"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="36">
         <v>8100</v>
       </c>
-      <c r="N22" s="118"/>
-      <c r="O22" s="119" t="s">
+      <c r="N22" s="113"/>
+      <c r="O22" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="83"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="101"/>
       <c r="R22" s="36">
         <v>9500</v>
       </c>
-      <c r="S22" s="83"/>
-      <c r="T22" s="80" t="s">
+      <c r="S22" s="101"/>
+      <c r="T22" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="49"/>
-      <c r="V22" s="81"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="149"/>
       <c r="W22" s="36">
         <v>10600</v>
       </c>
-      <c r="X22" s="83"/>
+      <c r="X22" s="101"/>
       <c r="Y22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="81"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="149"/>
       <c r="AB22" s="36">
         <v>11500</v>
       </c>
-      <c r="AC22" s="83"/>
+      <c r="AC22" s="101"/>
       <c r="AD22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="59"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="94"/>
       <c r="AG22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="65"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="88"/>
       <c r="AJ22" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="59"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="94"/>
       <c r="AN22" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="59"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="94"/>
       <c r="AU22" s="30">
         <v>14600</v>
       </c>
-      <c r="AV22" s="61"/>
-      <c r="AW22" s="61"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
       <c r="AX22" s="17" t="s">
         <v>180</v>
       </c>
@@ -4633,87 +4685,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="38">
         <v>6300</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="118"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="118"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="134"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="119"/>
       <c r="M23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="83"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="101"/>
       <c r="R23" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="83"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="81"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="149"/>
       <c r="W23" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X23" s="83"/>
+      <c r="X23" s="101"/>
       <c r="Y23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="81"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="149"/>
       <c r="AB23" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC23" s="83"/>
+      <c r="AC23" s="101"/>
       <c r="AD23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="59"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="94"/>
       <c r="AG23" s="30">
         <v>12500</v>
       </c>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="65"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="88"/>
       <c r="AJ23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="59"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="94"/>
       <c r="AN23" s="30">
         <v>13600</v>
       </c>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
       <c r="AQ23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="59"/>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="94"/>
       <c r="AU23" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="AV23" s="61"/>
-      <c r="AW23" s="61"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
       <c r="AX23" s="17" t="s">
         <v>270</v>
       </c>
@@ -4722,91 +4774,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="38">
         <v>6100</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="118"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="36">
         <v>7100</v>
       </c>
-      <c r="I24" s="118"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="134"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="119"/>
       <c r="M24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="118"/>
+      <c r="N24" s="113"/>
       <c r="O24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="83"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="101"/>
       <c r="R24" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="83"/>
+      <c r="S24" s="101"/>
       <c r="T24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="49"/>
-      <c r="V24" s="81"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="149"/>
       <c r="W24" s="36">
         <v>10500</v>
       </c>
-      <c r="X24" s="83"/>
+      <c r="X24" s="101"/>
       <c r="Y24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="81"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="149"/>
       <c r="AB24" s="36">
         <v>11400</v>
       </c>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="80" t="s">
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="59"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="94"/>
       <c r="AG24" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="65"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="88"/>
       <c r="AJ24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="59"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="94"/>
       <c r="AN24" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
       <c r="AQ24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="59"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="94"/>
       <c r="AU24" s="30">
         <v>14500</v>
       </c>
-      <c r="AV24" s="61"/>
-      <c r="AW24" s="61"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
       <c r="AX24" s="17" t="s">
         <v>180</v>
       </c>
@@ -4815,97 +4867,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="95" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="118"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="118"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="92" t="s">
+      <c r="K25" s="110"/>
+      <c r="L25" s="115" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="118" t="s">
+      <c r="N25" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="119" t="s">
+      <c r="O25" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="83"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="101"/>
       <c r="R25" s="36">
         <v>9400</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="80" t="s">
+      <c r="S25" s="101"/>
+      <c r="T25" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="49"/>
-      <c r="V25" s="81"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="149"/>
       <c r="W25" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="X25" s="83"/>
+      <c r="X25" s="101"/>
       <c r="Y25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="81"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="149"/>
       <c r="AB25" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="64" t="s">
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="61" t="s">
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="63" t="s">
+      <c r="AK25" s="188" t="s">
         <v>219</v>
       </c>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="180" t="s">
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="77" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="20">
         <v>13500</v>
       </c>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
       <c r="AQ25" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="59"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="94"/>
       <c r="AU25" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="AV25" s="61"/>
-      <c r="AW25" s="61"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
       <c r="AX25" s="17" t="s">
         <v>270</v>
       </c>
@@ -4914,329 +4966,329 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="118"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="118"/>
+      <c r="I26" s="113"/>
       <c r="J26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="93"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="116"/>
       <c r="M26" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="83"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="101"/>
       <c r="R26" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="83"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="81"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="149"/>
       <c r="W26" s="36">
         <v>10400</v>
       </c>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="80" t="s">
+      <c r="X26" s="101"/>
+      <c r="Y26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="82"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="172"/>
       <c r="AB26" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC26" s="84"/>
+      <c r="AC26" s="112"/>
       <c r="AD26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="181"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="188"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="78"/>
       <c r="AN26" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
       <c r="AQ26" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="59"/>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="94"/>
       <c r="AU26" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="AV26" s="61"/>
-      <c r="AW26" s="61" t="s">
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="61" t="s">
+      <c r="AX26" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="AY26" s="148" t="s">
+      <c r="AY26" s="43" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="118"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="118"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="93"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="118"/>
+      <c r="N27" s="113"/>
       <c r="O27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="83"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="101"/>
       <c r="R27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="83"/>
+      <c r="S27" s="101"/>
       <c r="T27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="49"/>
-      <c r="V27" s="81"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="149"/>
       <c r="W27" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="95"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="123"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="34"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="59"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="94"/>
       <c r="AG27" s="30">
         <v>12400</v>
       </c>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="181"/>
-      <c r="AN27" s="64" t="s">
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="188"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61" t="s">
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="61" t="s">
+      <c r="AQ27" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="148" t="s">
+      <c r="AR27" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="59"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="94"/>
       <c r="AU27" s="30">
         <v>14400</v>
       </c>
-      <c r="AV27" s="61"/>
-      <c r="AW27" s="61"/>
-      <c r="AX27" s="61"/>
-      <c r="AY27" s="148"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="43"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="83" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="118" t="s">
+      <c r="F28" s="120"/>
+      <c r="G28" s="113" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="118"/>
-      <c r="J28" s="99" t="s">
+      <c r="I28" s="113"/>
+      <c r="J28" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="93"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="116"/>
       <c r="M28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="118"/>
+      <c r="N28" s="113"/>
       <c r="O28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="83" t="s">
+      <c r="P28" s="110"/>
+      <c r="Q28" s="101" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="80" t="s">
+      <c r="T28" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="49"/>
-      <c r="V28" s="81"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="149"/>
       <c r="W28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="X28" s="83"/>
+      <c r="X28" s="101"/>
       <c r="Y28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="59"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="94"/>
       <c r="AG28" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="181"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="148"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="59"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="188"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="96"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="94"/>
       <c r="AU28" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="AV28" s="61"/>
-      <c r="AW28" s="61"/>
-      <c r="AX28" s="61"/>
-      <c r="AY28" s="148"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="43"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="118"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="118"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="133"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="117"/>
       <c r="M29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="118"/>
+      <c r="N29" s="113"/>
       <c r="O29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="83"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="101"/>
       <c r="R29" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="83"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="81" t="s">
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="149" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="36">
         <v>10320</v>
       </c>
-      <c r="X29" s="83" t="s">
+      <c r="X29" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="95" t="s">
+      <c r="Y29" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="59"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="94"/>
       <c r="AG29" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="65"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="88"/>
       <c r="AJ29" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="181"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="78"/>
       <c r="AN29" s="20">
         <v>13400</v>
       </c>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="61"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
       <c r="AQ29" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="59"/>
+      <c r="AS29" s="75"/>
+      <c r="AT29" s="94"/>
       <c r="AU29" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="AV29" s="61"/>
-      <c r="AW29" s="61"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
       <c r="AX29" s="17" t="s">
         <v>270</v>
       </c>
@@ -5245,266 +5297,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="83"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="129"/>
-      <c r="G30" s="118"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="118"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="118" t="s">
+      <c r="K30" s="110"/>
+      <c r="L30" s="113" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="118" t="s">
+      <c r="N30" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="119" t="s">
+      <c r="O30" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="83"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="101"/>
       <c r="R30" s="36">
         <v>9320</v>
       </c>
-      <c r="S30" s="83"/>
-      <c r="T30" s="80" t="s">
+      <c r="S30" s="101"/>
+      <c r="T30" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="49"/>
-      <c r="V30" s="81"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="149"/>
       <c r="W30" s="36">
         <v>10300</v>
       </c>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="95"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="59" t="s">
+      <c r="X30" s="101"/>
+      <c r="Y30" s="123"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="94" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="30">
         <v>12300</v>
       </c>
-      <c r="AH30" s="61" t="s">
+      <c r="AH30" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="65"/>
+      <c r="AI30" s="88"/>
       <c r="AJ30" s="17" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="181"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="78"/>
       <c r="AN30" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="AO30" s="61"/>
-      <c r="AP30" s="61"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
       <c r="AQ30" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="59" t="s">
+      <c r="AS30" s="75"/>
+      <c r="AT30" s="94" t="s">
         <v>85</v>
       </c>
       <c r="AU30" s="30">
         <v>14100</v>
       </c>
-      <c r="AV30" s="61" t="s">
+      <c r="AV30" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="65" t="s">
+      <c r="AW30" s="88" t="s">
         <v>141</v>
       </c>
       <c r="AX30" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="AY30" s="148" t="s">
+      <c r="AY30" s="43" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="83"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="129"/>
-      <c r="G31" s="118"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="118"/>
+      <c r="I31" s="113"/>
       <c r="J31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="118"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="113"/>
       <c r="M31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="118"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="83"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="101"/>
       <c r="R31" s="36">
         <v>9300</v>
       </c>
-      <c r="S31" s="83"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="81"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="149"/>
       <c r="W31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="X31" s="83"/>
+      <c r="X31" s="101"/>
       <c r="Y31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="59"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="94"/>
       <c r="AG31" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="65"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="88"/>
       <c r="AJ31" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="182"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="79"/>
       <c r="AN31" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="AO31" s="61"/>
-      <c r="AP31" s="61"/>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="87"/>
       <c r="AQ31" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="59"/>
+      <c r="AS31" s="75"/>
+      <c r="AT31" s="94"/>
       <c r="AU31" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="AV31" s="61"/>
-      <c r="AW31" s="65"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="88"/>
       <c r="AX31" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AY31" s="148"/>
+      <c r="AY31" s="43"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="95" t="s">
+      <c r="D32" s="101"/>
+      <c r="E32" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="129"/>
-      <c r="G32" s="118"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="118"/>
+      <c r="I32" s="113"/>
       <c r="J32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="97"/>
-      <c r="L32" s="118"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="113"/>
       <c r="M32" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="118"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="83"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="101"/>
       <c r="R32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="83"/>
+      <c r="S32" s="101"/>
       <c r="T32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="49"/>
-      <c r="V32" s="81"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="149"/>
       <c r="W32" s="36">
         <v>10100</v>
       </c>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="95" t="s">
+      <c r="X32" s="101"/>
+      <c r="Y32" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="59"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="94"/>
       <c r="AG32" s="30">
         <v>12100</v>
       </c>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="65"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="88"/>
       <c r="AJ32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="63" t="s">
+      <c r="AK32" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="183" t="s">
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="80" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="20">
         <v>13100</v>
       </c>
-      <c r="AO32" s="61" t="s">
+      <c r="AO32" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="65" t="s">
+      <c r="AP32" s="88" t="s">
         <v>141</v>
       </c>
       <c r="AQ32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="148" t="s">
+      <c r="AR32" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="59"/>
+      <c r="AS32" s="75"/>
+      <c r="AT32" s="94"/>
       <c r="AU32" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="AV32" s="61"/>
-      <c r="AW32" s="65"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="88"/>
       <c r="AX32" s="17" t="s">
         <v>270</v>
       </c>
@@ -5513,218 +5565,218 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="118" t="s">
+      <c r="D33" s="101"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="113" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="118" t="s">
+      <c r="I33" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="99" t="s">
+      <c r="J33" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="131"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="114"/>
       <c r="M33" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="131"/>
+      <c r="N33" s="114"/>
       <c r="O33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="83"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="101"/>
       <c r="R33" s="36">
         <v>9100</v>
       </c>
-      <c r="S33" s="83"/>
-      <c r="T33" s="80" t="s">
+      <c r="S33" s="101"/>
+      <c r="T33" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="49"/>
-      <c r="V33" s="81"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="149"/>
       <c r="W33" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="95"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="59"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="123"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="94"/>
       <c r="AG33" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="65"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="88"/>
       <c r="AJ33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="184"/>
+      <c r="AK33" s="188"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="81"/>
       <c r="AN33" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="65"/>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="88"/>
       <c r="AQ33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AR33" s="148"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="186" t="s">
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="75"/>
+      <c r="AT33" s="83" t="s">
         <v>302</v>
       </c>
       <c r="AU33" s="31">
         <v>300</v>
       </c>
-      <c r="AV33" s="186" t="s">
+      <c r="AV33" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="65"/>
+      <c r="AW33" s="88"/>
       <c r="AX33" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="AY33" s="188" t="s">
+      <c r="AY33" s="85" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
-      <c r="B34" s="83" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="101" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="95" t="s">
+      <c r="D34" s="101"/>
+      <c r="E34" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="129"/>
-      <c r="G34" s="118"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="118"/>
-      <c r="J34" s="99"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="83"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="122"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="101"/>
       <c r="R34" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="83"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="81"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="149"/>
       <c r="W34" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="X34" s="83"/>
+      <c r="X34" s="101"/>
       <c r="Y34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="59"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="94"/>
       <c r="AG34" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="65"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="88"/>
       <c r="AJ34" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="185"/>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="82"/>
       <c r="AN34" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="66"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="89"/>
       <c r="AQ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AS34" s="50"/>
-      <c r="AT34" s="187"/>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="84"/>
       <c r="AU34" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AV34" s="187"/>
-      <c r="AW34" s="66"/>
+      <c r="AV34" s="84"/>
+      <c r="AW34" s="89"/>
       <c r="AX34" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="AY34" s="189"/>
+      <c r="AY34" s="86"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="97"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="131"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="131"/>
+      <c r="I35" s="114"/>
       <c r="J35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="83"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="101"/>
       <c r="R35" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="83"/>
+      <c r="S35" s="101"/>
       <c r="T35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="49"/>
-      <c r="V35" s="81" t="s">
+      <c r="U35" s="75"/>
+      <c r="V35" s="149" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="X35" s="83" t="s">
+      <c r="X35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="95" t="s">
+      <c r="Y35" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="59" t="s">
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="94" t="s">
         <v>100</v>
       </c>
       <c r="AG35" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="AH35" s="61" t="s">
+      <c r="AH35" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="65"/>
+      <c r="AI35" s="88"/>
       <c r="AJ35" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AK35" s="57" t="s">
+      <c r="AK35" s="185" t="s">
         <v>141</v>
       </c>
       <c r="AL35" s="33"/>
@@ -5743,47 +5795,47 @@
       <c r="AY35" s="34"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="83"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="95" t="s">
+      <c r="D36" s="101"/>
+      <c r="E36" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="190"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="88" t="s">
+      <c r="F36" s="41"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="153" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="83" t="s">
+      <c r="S36" s="101" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="49"/>
-      <c r="V36" s="81"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="149"/>
       <c r="W36" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="95"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="59"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="123"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="94"/>
       <c r="AG36" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="65"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="88"/>
       <c r="AJ36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="57"/>
+      <c r="AK36" s="185"/>
       <c r="AL36" s="33"/>
       <c r="AM36" s="34"/>
       <c r="AN36" s="34"/>
@@ -5800,47 +5852,47 @@
       <c r="AY36" s="34"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
-      <c r="B37" s="84"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="191"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="89"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="42"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="154"/>
       <c r="R37" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="83"/>
+      <c r="S37" s="101"/>
       <c r="T37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="49"/>
-      <c r="V37" s="81"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="149"/>
       <c r="W37" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="X37" s="83"/>
+      <c r="X37" s="101"/>
       <c r="Y37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="59" t="s">
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="94" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="AH37" s="61" t="s">
+      <c r="AH37" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="65"/>
+      <c r="AI37" s="88"/>
       <c r="AJ37" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AK37" s="57"/>
+      <c r="AK37" s="185"/>
       <c r="AL37" s="33"/>
       <c r="AM37" s="34"/>
       <c r="AN37" s="34"/>
@@ -5858,35 +5910,35 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="40"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="89"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="154"/>
       <c r="R38" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="83"/>
+      <c r="S38" s="101"/>
       <c r="T38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="49"/>
-      <c r="V38" s="81"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="149"/>
       <c r="W38" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="X38" s="83"/>
+      <c r="X38" s="101"/>
       <c r="Y38" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="60"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="187"/>
       <c r="AG38" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="66"/>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="89"/>
       <c r="AJ38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="58"/>
+      <c r="AK38" s="186"/>
       <c r="AL38" s="33"/>
       <c r="AM38" s="34"/>
       <c r="AN38" s="34"/>
@@ -5903,21 +5955,21 @@
       <c r="AY38" s="34"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="97"/>
-      <c r="Q39" s="90"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="155"/>
       <c r="R39" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="83"/>
+      <c r="S39" s="101"/>
       <c r="T39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="49"/>
-      <c r="V39" s="81"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="149"/>
       <c r="W39" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="X39" s="83"/>
+      <c r="X39" s="101"/>
       <c r="Y39" s="5" t="s">
         <v>9</v>
       </c>
@@ -5943,111 +5995,111 @@
       <c r="AY39" s="34"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="97"/>
-      <c r="Q40" s="83" t="s">
+      <c r="P40" s="110"/>
+      <c r="Q40" s="101" t="s">
         <v>34</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="83" t="s">
+      <c r="S40" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="80" t="s">
+      <c r="T40" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="49"/>
-      <c r="V40" s="83" t="s">
+      <c r="U40" s="75"/>
+      <c r="V40" s="101" t="s">
         <v>34</v>
       </c>
       <c r="W40" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="X40" s="83" t="s">
+      <c r="X40" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="95" t="s">
+      <c r="Y40" s="123" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="97"/>
-      <c r="Q41" s="83"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="101"/>
       <c r="R41" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="83"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="83"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="102"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="101"/>
       <c r="W41" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="95"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="123"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="98"/>
-      <c r="Q42" s="84"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="112"/>
       <c r="R42" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="84"/>
+      <c r="S42" s="112"/>
       <c r="T42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="49"/>
-      <c r="V42" s="83"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="101"/>
       <c r="W42" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="X42" s="83"/>
-      <c r="Y42" s="95"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="123"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="49"/>
-      <c r="V43" s="83"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="101"/>
       <c r="W43" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="X43" s="83"/>
+      <c r="X43" s="101"/>
       <c r="Y43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="49"/>
-      <c r="V44" s="83"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="101"/>
       <c r="W44" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="X44" s="83"/>
+      <c r="X44" s="101"/>
       <c r="Y44" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="49"/>
-      <c r="V45" s="83"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="101"/>
       <c r="W45" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="X45" s="83"/>
+      <c r="X45" s="101"/>
       <c r="Y45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="49"/>
-      <c r="V46" s="85" t="s">
+      <c r="U46" s="75"/>
+      <c r="V46" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="86"/>
+      <c r="W46" s="150"/>
+      <c r="X46" s="150"/>
+      <c r="Y46" s="151"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="49"/>
+      <c r="U47" s="75"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6062,124 +6114,124 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="49"/>
-      <c r="V48" s="81" t="s">
+      <c r="U48" s="75"/>
+      <c r="V48" s="149" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="36">
         <v>10325</v>
       </c>
-      <c r="X48" s="83" t="s">
+      <c r="X48" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="87" t="s">
+      <c r="Y48" s="152" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="49"/>
-      <c r="V49" s="81"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="149"/>
       <c r="W49" s="36">
         <v>10305</v>
       </c>
-      <c r="X49" s="83"/>
-      <c r="Y49" s="87"/>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="152"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="49"/>
-      <c r="V50" s="81"/>
+      <c r="U50" s="75"/>
+      <c r="V50" s="149"/>
       <c r="W50" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="X50" s="83"/>
+      <c r="X50" s="101"/>
       <c r="Y50" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="49"/>
-      <c r="V51" s="81"/>
+      <c r="U51" s="75"/>
+      <c r="V51" s="149"/>
       <c r="W51" s="36">
         <v>10105</v>
       </c>
-      <c r="X51" s="83"/>
-      <c r="Y51" s="87" t="s">
+      <c r="X51" s="101"/>
+      <c r="Y51" s="152" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="49"/>
-      <c r="V52" s="81"/>
+      <c r="U52" s="75"/>
+      <c r="V52" s="149"/>
       <c r="W52" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X52" s="83"/>
-      <c r="Y52" s="87"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="152"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="49"/>
-      <c r="V53" s="81"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="149"/>
       <c r="W53" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="X53" s="83"/>
+      <c r="X53" s="101"/>
       <c r="Y53" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="49"/>
-      <c r="V54" s="92" t="s">
+      <c r="U54" s="75"/>
+      <c r="V54" s="115" t="s">
         <v>100</v>
       </c>
       <c r="W54" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="X54" s="83" t="s">
+      <c r="X54" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="87" t="s">
+      <c r="Y54" s="152" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="49"/>
-      <c r="V55" s="93"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="116"/>
       <c r="W55" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="X55" s="83"/>
-      <c r="Y55" s="87"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="152"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="49"/>
-      <c r="V56" s="93"/>
+      <c r="U56" s="75"/>
+      <c r="V56" s="116"/>
       <c r="W56" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="X56" s="83"/>
+      <c r="X56" s="101"/>
       <c r="Y56" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="49"/>
-      <c r="V57" s="93"/>
+      <c r="U57" s="75"/>
+      <c r="V57" s="116"/>
       <c r="W57" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="X57" s="83"/>
+      <c r="X57" s="101"/>
       <c r="Y57" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="50"/>
-      <c r="V58" s="94"/>
+      <c r="U58" s="76"/>
+      <c r="V58" s="156"/>
       <c r="W58" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X58" s="84"/>
+      <c r="X58" s="112"/>
       <c r="Y58" s="16" t="s">
         <v>181</v>
       </c>
@@ -6192,6 +6244,242 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AE8:AE38"/>
+    <mergeCell ref="AH4:AI6"/>
+    <mergeCell ref="AK35:AK38"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AJ25:AJ28"/>
+    <mergeCell ref="AK25:AK28"/>
+    <mergeCell ref="AI21:AI38"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
     <mergeCell ref="AE2:AY2"/>
     <mergeCell ref="AY30:AY31"/>
     <mergeCell ref="AL3:AR3"/>
@@ -6216,242 +6504,6 @@
     <mergeCell ref="AY26:AY28"/>
     <mergeCell ref="AW30:AW34"/>
     <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AE8:AE38"/>
-    <mergeCell ref="AH4:AI6"/>
-    <mergeCell ref="AK35:AK38"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AJ25:AJ28"/>
-    <mergeCell ref="AK25:AK28"/>
-    <mergeCell ref="AI21:AI38"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F946F-6E30-4DD7-9BB7-9653282BAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F2A370-B8E7-48B5-86DC-56F1CF395735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" activeTab="1" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -1054,6 +1054,15 @@
     </r>
   </si>
   <si>
+    <t>H310
+B365
+H370
+Z390</t>
+  </si>
+  <si>
+    <t>Intel CPU Retail Desktop  - Chipset compatibilità</t>
+  </si>
+  <si>
     <r>
       <t>–</t>
     </r>
@@ -1076,38 +1085,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : CPU con possibilità di overclocking ( su  scheda madre con chipset appositi tipo </t>
+      <t xml:space="preserve"> : CPU con possibilità di overclocking (solo su apposita scheda madre)</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Z..90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ).</t>
-    </r>
-  </si>
-  <si>
-    <t>H310
-B365
-H370
-Z390</t>
-  </si>
-  <si>
-    <t>Intel CPU Retail Desktop  - Chipset compatibilità</t>
   </si>
 </sst>
 </file>
@@ -1933,8 +1912,377 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1954,15 +2302,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1999,15 +2338,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2025,15 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2064,348 +2385,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2732,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
   <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2735,7 @@
   <sheetData>
     <row r="1" spans="1:51" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="4"/>
       <c r="M1" s="4"/>
@@ -2784,420 +2763,420 @@
       <c r="AY1" s="12"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="195" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="192" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="189" t="s">
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="164" t="s">
         <v>303</v>
       </c>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="190"/>
-      <c r="AL2" s="190"/>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="190"/>
-      <c r="AP2" s="190"/>
-      <c r="AQ2" s="190"/>
-      <c r="AR2" s="190"/>
-      <c r="AS2" s="190"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="190"/>
-      <c r="AV2" s="190"/>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="191"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165"/>
+      <c r="AV2" s="165"/>
+      <c r="AW2" s="165"/>
+      <c r="AX2" s="165"/>
+      <c r="AY2" s="166"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="144" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="126" t="s">
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="104" t="s">
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="137" t="s">
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="163" t="s">
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="176" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="AF3" s="177"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="177"/>
-      <c r="AK3" s="177"/>
-      <c r="AL3" s="44" t="s">
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="167" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="59" t="s">
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="169"/>
+      <c r="AS3" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="61"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
+      <c r="AX3" s="180"/>
+      <c r="AY3" s="181"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="H4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="143" t="s">
+      <c r="J4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="124" t="s">
+      <c r="L4" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="124" t="s">
+      <c r="N4" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="125" t="s">
+      <c r="O4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="103" t="s">
+      <c r="T4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="140" t="s">
+      <c r="U4" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="141" t="s">
+      <c r="V4" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="141" t="s">
+      <c r="W4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="141" t="s">
+      <c r="X4" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="142" t="s">
+      <c r="Y4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="166" t="s">
+      <c r="Z4" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="168" t="s">
+      <c r="AA4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="168" t="s">
+      <c r="AB4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="168" t="s">
+      <c r="AC4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="170" t="s">
+      <c r="AD4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="173" t="s">
+      <c r="AE4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="161" t="s">
+      <c r="AF4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="161" t="s">
+      <c r="AG4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="179" t="s">
+      <c r="AH4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="157" t="s">
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AO4" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="97" t="s">
+      <c r="AP4" s="174"/>
+      <c r="AQ4" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="62" t="s">
+      <c r="AR4" s="148"/>
+      <c r="AS4" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="65" t="s">
+      <c r="AT4" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="65" t="s">
+      <c r="AU4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="68" t="s">
+      <c r="AV4" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="90" t="s">
+      <c r="AW4" s="186"/>
+      <c r="AX4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="91"/>
+      <c r="AY4" s="158"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="182"/>
-      <c r="AJ5" s="159"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="93"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="176"/>
+      <c r="AQ5" s="149"/>
+      <c r="AR5" s="150"/>
+      <c r="AS5" s="183"/>
+      <c r="AT5" s="162"/>
+      <c r="AU5" s="162"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="188"/>
+      <c r="AX5" s="159"/>
+      <c r="AY5" s="160"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="168"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="170"/>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="183"/>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="160"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="93"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="171"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="178"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="150"/>
+      <c r="AS6" s="183"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="162"/>
+      <c r="AV6" s="189"/>
+      <c r="AW6" s="190"/>
+      <c r="AX6" s="159"/>
+      <c r="AY6" s="160"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="169"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
       <c r="AH7" s="19" t="s">
         <v>237</v>
       </c>
@@ -3210,9 +3189,9 @@
       <c r="AK7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
+      <c r="AL7" s="172"/>
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="146"/>
       <c r="AO7" s="26" t="s">
         <v>237</v>
       </c>
@@ -3225,9 +3204,9 @@
       <c r="AR7" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="163"/>
       <c r="AV7" s="28" t="s">
         <v>237</v>
       </c>
@@ -3242,600 +3221,600 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="85" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="125" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="125" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="119" t="s">
+      <c r="L8" s="143" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="113" t="s">
+      <c r="N8" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="118" t="s">
+      <c r="O8" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="109" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q8" s="101" t="s">
+      <c r="P8" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q8" s="85" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="101" t="s">
+      <c r="S8" s="85" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="U8" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="V8" s="149" t="s">
+      <c r="V8" s="83" t="s">
         <v>104</v>
       </c>
       <c r="W8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="X8" s="101" t="s">
+      <c r="X8" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="102" t="s">
+      <c r="Y8" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" s="109" t="s">
+      <c r="Z8" s="98" t="s">
         <v>198</v>
       </c>
-      <c r="AA8" s="149" t="s">
+      <c r="AA8" s="83" t="s">
         <v>104</v>
       </c>
       <c r="AB8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="AC8" s="101" t="s">
+      <c r="AC8" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="102" t="s">
+      <c r="AD8" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="178" t="s">
+      <c r="AE8" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="AF8" s="94" t="s">
+      <c r="AF8" s="61" t="s">
         <v>104</v>
       </c>
       <c r="AG8" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="AH8" s="87" t="s">
+      <c r="AH8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="87" t="s">
+      <c r="AI8" s="63" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AK8" s="188" t="s">
+      <c r="AK8" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="AL8" s="74" t="s">
+      <c r="AL8" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="AM8" s="94" t="s">
+      <c r="AM8" s="61" t="s">
         <v>104</v>
       </c>
       <c r="AN8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="AO8" s="87" t="s">
+      <c r="AO8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="87" t="s">
+      <c r="AP8" s="63" t="s">
         <v>242</v>
       </c>
       <c r="AQ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AR8" s="43" t="s">
+      <c r="AR8" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="AS8" s="74" t="s">
+      <c r="AS8" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="AT8" s="94" t="s">
+      <c r="AT8" s="61" t="s">
         <v>104</v>
       </c>
       <c r="AU8" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="AV8" s="87" t="s">
+      <c r="AV8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="87" t="s">
+      <c r="AW8" s="63" t="s">
         <v>242</v>
       </c>
       <c r="AX8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="AY8" s="43" t="s">
+      <c r="AY8" s="156" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="123" t="s">
+      <c r="D9" s="85"/>
+      <c r="E9" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="113"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="113"/>
+      <c r="I9" s="125"/>
       <c r="J9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="119"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="101"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="85"/>
       <c r="R9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="102" t="s">
+      <c r="S9" s="85"/>
+      <c r="T9" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="149"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="149"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="83"/>
       <c r="AB9" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="94"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="61"/>
       <c r="AG9" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87" t="s">
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AK9" s="188"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="94"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="61"/>
       <c r="AN9" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87" t="s">
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="94"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="61"/>
       <c r="AU9" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87" t="s">
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AY9" s="43"/>
+      <c r="AY9" s="156"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="38">
         <v>6700</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="113"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="36">
         <v>7700</v>
       </c>
-      <c r="I10" s="113"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="119"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="36">
         <v>8700</v>
       </c>
-      <c r="N10" s="113"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="101"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="85"/>
       <c r="R10" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="101"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="149"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="36">
         <v>10910</v>
       </c>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="149"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="83"/>
       <c r="AB10" s="36">
         <v>11900</v>
       </c>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="102" t="s">
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="94"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="61"/>
       <c r="AG10" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="188"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="94"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="61"/>
       <c r="AN10" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="94"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="61"/>
       <c r="AU10" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="43"/>
+      <c r="AV10" s="63"/>
+      <c r="AW10" s="63"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="156"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="113"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="113"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="119"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="143"/>
       <c r="M11" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="113"/>
+      <c r="N11" s="125"/>
       <c r="O11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="101"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="85"/>
       <c r="R11" s="36">
         <v>9900</v>
       </c>
-      <c r="S11" s="101"/>
+      <c r="S11" s="85"/>
       <c r="T11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="149"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="36">
         <v>10900</v>
       </c>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="102" t="s">
+      <c r="X11" s="85"/>
+      <c r="Y11" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="149"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="83"/>
       <c r="AB11" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="94"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="61"/>
       <c r="AG11" s="30">
         <v>12900</v>
       </c>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87" t="s">
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="188" t="s">
+      <c r="AK11" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="94"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="61"/>
       <c r="AN11" s="30">
         <v>13900</v>
       </c>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87" t="s">
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="43" t="s">
+      <c r="AR11" s="156" t="s">
         <v>246</v>
       </c>
-      <c r="AS11" s="75"/>
-      <c r="AT11" s="94"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="61"/>
       <c r="AU11" s="30">
         <v>14900</v>
       </c>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87" t="s">
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AY11" s="43" t="s">
+      <c r="AY11" s="156" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="85" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="85" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="113" t="s">
+      <c r="F12" s="138"/>
+      <c r="G12" s="125" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="125" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="119" t="s">
+      <c r="K12" s="99"/>
+      <c r="L12" s="143" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="113" t="s">
+      <c r="N12" s="125" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="101"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="85"/>
       <c r="R12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="101"/>
+      <c r="S12" s="85"/>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="75"/>
-      <c r="V12" s="149"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="83"/>
       <c r="W12" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="149"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="83"/>
       <c r="AB12" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="AC12" s="101"/>
+      <c r="AC12" s="85"/>
       <c r="AD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="94"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="61"/>
       <c r="AG12" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="188"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="94"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="61"/>
       <c r="AN12" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="94"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="63"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="156"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="61"/>
       <c r="AU12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="43"/>
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="156"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="123" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="113"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="113"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="110"/>
-      <c r="L13" s="119"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="143"/>
       <c r="M13" s="36">
         <v>8600</v>
       </c>
-      <c r="N13" s="113"/>
+      <c r="N13" s="125"/>
       <c r="O13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="101" t="s">
+      <c r="P13" s="99"/>
+      <c r="Q13" s="85" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="101" t="s">
+      <c r="S13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="102" t="s">
+      <c r="T13" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="75"/>
-      <c r="V13" s="149"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="X13" s="101"/>
+      <c r="X13" s="85"/>
       <c r="Y13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="149" t="s">
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="83" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="102" t="s">
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="94"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="61"/>
       <c r="AG13" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
       <c r="AJ13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="94"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="61"/>
       <c r="AN13" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="63"/>
       <c r="AQ13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="94"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="61"/>
       <c r="AU13" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="63"/>
       <c r="AX13" s="17" t="s">
         <v>270</v>
       </c>
@@ -3844,96 +3823,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="38">
         <v>6600</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="113"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="36">
         <v>7600</v>
       </c>
-      <c r="I14" s="113"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="110"/>
-      <c r="L14" s="119"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="143"/>
       <c r="M14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="113"/>
+      <c r="N14" s="125"/>
       <c r="O14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="101"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="85"/>
       <c r="R14" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="149"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102" t="s">
+      <c r="X14" s="85"/>
+      <c r="Y14" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="149"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="83"/>
       <c r="AB14" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="94" t="s">
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="61" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87" t="s">
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="87" t="s">
+      <c r="AJ14" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AK14" s="188" t="s">
+      <c r="AK14" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="94" t="s">
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="94" t="s">
+      <c r="AN14" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87" t="s">
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="87" t="s">
+      <c r="AQ14" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="43" t="s">
+      <c r="AR14" s="156" t="s">
         <v>246</v>
       </c>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="94" t="s">
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="61" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="AV14" s="87"/>
+      <c r="AV14" s="63"/>
       <c r="AW14" s="17" t="s">
         <v>112</v>
       </c>
@@ -3945,445 +3924,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="113"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="113"/>
+      <c r="I15" s="125"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="110"/>
-      <c r="L15" s="119"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="36">
         <v>8500</v>
       </c>
-      <c r="N15" s="113"/>
+      <c r="N15" s="125"/>
       <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="101"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="85"/>
       <c r="R15" s="36">
         <v>9700</v>
       </c>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102" t="s">
+      <c r="S15" s="85"/>
+      <c r="T15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="75"/>
-      <c r="V15" s="149" t="s">
+      <c r="U15" s="51"/>
+      <c r="V15" s="83" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="X15" s="101" t="s">
+      <c r="X15" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="149"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="83"/>
       <c r="AB15" s="36">
         <v>11700</v>
       </c>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="102" t="s">
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="94"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="61"/>
       <c r="AG15" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="188"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="75"/>
-      <c r="AT15" s="94"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="156"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="61"/>
       <c r="AU15" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87" t="s">
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="AX15" s="87" t="s">
+      <c r="AX15" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="AY15" s="43" t="s">
+      <c r="AY15" s="156" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="38">
         <v>6500</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="113"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="36">
         <v>7500</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="119"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="143"/>
       <c r="M16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="113"/>
+      <c r="N16" s="125"/>
       <c r="O16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="101"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="85"/>
       <c r="R16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="149"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="149"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="83"/>
       <c r="AB16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="94"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="61"/>
       <c r="AG16" s="30">
         <v>12700</v>
       </c>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87" t="s">
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="188" t="s">
+      <c r="AK16" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="94"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="61"/>
       <c r="AN16" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87" t="s">
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AR16" s="43" t="s">
+      <c r="AR16" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="AS16" s="75"/>
-      <c r="AT16" s="94"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="61"/>
       <c r="AU16" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="43"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="156"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="123" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="113"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="113"/>
+      <c r="I17" s="125"/>
       <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="110"/>
-      <c r="L17" s="119"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="143"/>
       <c r="M17" s="36">
         <v>8400</v>
       </c>
-      <c r="N17" s="113"/>
+      <c r="N17" s="125"/>
       <c r="O17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="101"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="85"/>
       <c r="R17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="101"/>
+      <c r="S17" s="85"/>
       <c r="T17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="75"/>
-      <c r="V17" s="149"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="83"/>
       <c r="W17" s="36">
         <v>10700</v>
       </c>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="102" t="s">
+      <c r="X17" s="85"/>
+      <c r="Y17" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="149"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="83"/>
       <c r="AB17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC17" s="101"/>
+      <c r="AC17" s="85"/>
       <c r="AD17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="94"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="61"/>
       <c r="AG17" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="188"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="94"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="61"/>
       <c r="AN17" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="94"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="156"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="61"/>
       <c r="AU17" s="30">
         <v>14700</v>
       </c>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87" t="s">
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AY17" s="43" t="s">
+      <c r="AY17" s="156" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="113"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="36">
         <v>7400</v>
       </c>
-      <c r="I18" s="113"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="110"/>
-      <c r="L18" s="119"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="143"/>
       <c r="M18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="113"/>
+      <c r="N18" s="125"/>
       <c r="O18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="101" t="s">
+      <c r="P18" s="99"/>
+      <c r="Q18" s="85" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="101" t="s">
+      <c r="S18" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="102" t="s">
+      <c r="T18" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="149"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="83"/>
       <c r="W18" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="149" t="s">
+      <c r="X18" s="85"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="83" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="AC18" s="101" t="s">
+      <c r="AC18" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="102" t="s">
+      <c r="AD18" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="94"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="61"/>
       <c r="AG18" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
       <c r="AJ18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="94"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="61"/>
       <c r="AN18" s="30">
         <v>13700</v>
       </c>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87" t="s">
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="43" t="s">
+      <c r="AR18" s="156" t="s">
         <v>246</v>
       </c>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="94"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="61"/>
       <c r="AU18" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="43"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="156"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="101"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="113"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="113"/>
+      <c r="I19" s="125"/>
       <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="110"/>
-      <c r="L19" s="119" t="s">
+      <c r="K19" s="99"/>
+      <c r="L19" s="143" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="113" t="s">
+      <c r="N19" s="125" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="101"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="85"/>
       <c r="R19" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="101"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="149"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="83"/>
       <c r="W19" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="X19" s="101"/>
+      <c r="X19" s="85"/>
       <c r="Y19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="149"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="83"/>
       <c r="AB19" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="94" t="s">
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="61" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH19" s="87" t="s">
+      <c r="AH19" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87" t="s">
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AK19" s="188" t="s">
+      <c r="AK19" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="94"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="61"/>
       <c r="AN19" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="75"/>
-      <c r="AT19" s="94"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="61"/>
       <c r="AU19" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
       <c r="AX19" s="17" t="s">
         <v>270</v>
       </c>
@@ -4392,170 +4371,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="101"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="113" t="s">
+      <c r="F20" s="138"/>
+      <c r="G20" s="125" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="113" t="s">
+      <c r="I20" s="125" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="119"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="143"/>
       <c r="M20" s="36">
         <v>8300</v>
       </c>
-      <c r="N20" s="113"/>
+      <c r="N20" s="125"/>
       <c r="O20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="101"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="85"/>
       <c r="R20" s="36">
         <v>9600</v>
       </c>
-      <c r="S20" s="101"/>
+      <c r="S20" s="85"/>
       <c r="T20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="75"/>
-      <c r="V20" s="149" t="s">
+      <c r="U20" s="51"/>
+      <c r="V20" s="83" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="X20" s="101" t="s">
+      <c r="X20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="102" t="s">
+      <c r="Y20" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="149"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="83"/>
       <c r="AB20" s="36">
         <v>11600</v>
       </c>
-      <c r="AC20" s="101"/>
+      <c r="AC20" s="85"/>
       <c r="AD20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="94"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="61"/>
       <c r="AG20" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="188"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="94"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="61"/>
       <c r="AN20" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
       <c r="AQ20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS20" s="75"/>
-      <c r="AT20" s="94" t="s">
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="61" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="AV20" s="87" t="s">
+      <c r="AV20" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="87" t="s">
+      <c r="AW20" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="87" t="s">
+      <c r="AX20" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="AY20" s="43" t="s">
+      <c r="AY20" s="156" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="38">
         <v>6400</v>
       </c>
-      <c r="D21" s="101"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="120"/>
-      <c r="G21" s="113"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="36">
         <v>7320</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="122" t="s">
+      <c r="I21" s="125"/>
+      <c r="J21" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="110"/>
-      <c r="L21" s="119"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="143"/>
       <c r="M21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="113"/>
+      <c r="N21" s="125"/>
       <c r="O21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="101"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="85"/>
       <c r="R21" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="101"/>
+      <c r="S21" s="85"/>
       <c r="T21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="75"/>
-      <c r="V21" s="149"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="83"/>
       <c r="W21" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="149"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="83"/>
       <c r="AB21" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AC21" s="101"/>
+      <c r="AC21" s="85"/>
       <c r="AD21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="94"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="61"/>
       <c r="AG21" s="30">
         <v>12600</v>
       </c>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="88" t="s">
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="67" t="s">
         <v>141</v>
       </c>
       <c r="AJ21" s="17" t="s">
@@ -4564,119 +4543,119 @@
       <c r="AK21" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="94" t="s">
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="61" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="AO21" s="87" t="s">
+      <c r="AO21" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87" t="s">
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AR21" s="43" t="s">
+      <c r="AR21" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="AS21" s="75"/>
-      <c r="AT21" s="94"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="61"/>
       <c r="AU21" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="43"/>
+      <c r="AV21" s="63"/>
+      <c r="AW21" s="63"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="156"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="99"/>
+      <c r="B22" s="85" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="38">
         <v>6320</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="113"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="125"/>
       <c r="H22" s="36">
         <v>7300</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="119"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="143"/>
       <c r="M22" s="36">
         <v>8100</v>
       </c>
-      <c r="N22" s="113"/>
-      <c r="O22" s="118" t="s">
+      <c r="N22" s="125"/>
+      <c r="O22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="101"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="85"/>
       <c r="R22" s="36">
         <v>9500</v>
       </c>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102" t="s">
+      <c r="S22" s="85"/>
+      <c r="T22" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="149"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="83"/>
       <c r="W22" s="36">
         <v>10600</v>
       </c>
-      <c r="X22" s="101"/>
+      <c r="X22" s="85"/>
       <c r="Y22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="149"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="83"/>
       <c r="AB22" s="36">
         <v>11500</v>
       </c>
-      <c r="AC22" s="101"/>
+      <c r="AC22" s="85"/>
       <c r="AD22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="94"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="61"/>
       <c r="AG22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="88"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="67"/>
       <c r="AJ22" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="94"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="61"/>
       <c r="AN22" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="75"/>
-      <c r="AT22" s="94"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
+      <c r="AR22" s="156"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="61"/>
       <c r="AU22" s="30">
         <v>14600</v>
       </c>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="63"/>
       <c r="AX22" s="17" t="s">
         <v>180</v>
       </c>
@@ -4685,87 +4664,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="38">
         <v>6300</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="113"/>
+      <c r="I23" s="125"/>
       <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="110"/>
-      <c r="L23" s="119"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="143"/>
       <c r="M23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="113"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="101"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="85"/>
       <c r="R23" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="149"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="83"/>
       <c r="W23" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X23" s="101"/>
+      <c r="X23" s="85"/>
       <c r="Y23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="149"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="83"/>
       <c r="AB23" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC23" s="101"/>
+      <c r="AC23" s="85"/>
       <c r="AD23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="94"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="61"/>
       <c r="AG23" s="30">
         <v>12500</v>
       </c>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="88"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="67"/>
       <c r="AJ23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="94"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="61"/>
       <c r="AN23" s="30">
         <v>13600</v>
       </c>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="63"/>
       <c r="AQ23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="94"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="61"/>
       <c r="AU23" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
+      <c r="AV23" s="63"/>
+      <c r="AW23" s="63"/>
       <c r="AX23" s="17" t="s">
         <v>270</v>
       </c>
@@ -4774,91 +4753,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="38">
         <v>6100</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="36">
         <v>7100</v>
       </c>
-      <c r="I24" s="113"/>
+      <c r="I24" s="125"/>
       <c r="J24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="110"/>
-      <c r="L24" s="119"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="143"/>
       <c r="M24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="113"/>
+      <c r="N24" s="125"/>
       <c r="O24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="101"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="85"/>
       <c r="R24" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="101"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="75"/>
-      <c r="V24" s="149"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="83"/>
       <c r="W24" s="36">
         <v>10500</v>
       </c>
-      <c r="X24" s="101"/>
+      <c r="X24" s="85"/>
       <c r="Y24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="149"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="83"/>
       <c r="AB24" s="36">
         <v>11400</v>
       </c>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="102" t="s">
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="94"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="61"/>
       <c r="AG24" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="88"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="67"/>
       <c r="AJ24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="94"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="61"/>
       <c r="AN24" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="63"/>
       <c r="AQ24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS24" s="75"/>
-      <c r="AT24" s="94"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="61"/>
       <c r="AU24" s="30">
         <v>14500</v>
       </c>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
+      <c r="AV24" s="63"/>
+      <c r="AW24" s="63"/>
       <c r="AX24" s="17" t="s">
         <v>180</v>
       </c>
@@ -4867,97 +4846,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="123" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="113"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="113"/>
+      <c r="I25" s="125"/>
       <c r="J25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="115" t="s">
+      <c r="K25" s="99"/>
+      <c r="L25" s="94" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="113" t="s">
+      <c r="N25" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="118" t="s">
+      <c r="O25" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="101"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="85"/>
       <c r="R25" s="36">
         <v>9400</v>
       </c>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102" t="s">
+      <c r="S25" s="85"/>
+      <c r="T25" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="75"/>
-      <c r="V25" s="149"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="83"/>
       <c r="W25" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="X25" s="101"/>
+      <c r="X25" s="85"/>
       <c r="Y25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="149"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="83"/>
       <c r="AB25" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="96" t="s">
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="87" t="s">
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="188" t="s">
+      <c r="AK25" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="77" t="s">
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="191" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="20">
         <v>13500</v>
       </c>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
       <c r="AQ25" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS25" s="75"/>
-      <c r="AT25" s="94"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="61"/>
       <c r="AU25" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
       <c r="AX25" s="17" t="s">
         <v>270</v>
       </c>
@@ -4966,329 +4945,329 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="113"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="125"/>
       <c r="H26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="113"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="110"/>
-      <c r="L26" s="116"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="113"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="101"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="85"/>
       <c r="R26" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="149"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="83"/>
       <c r="W26" s="36">
         <v>10400</v>
       </c>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="102" t="s">
+      <c r="X26" s="85"/>
+      <c r="Y26" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="172"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="84"/>
       <c r="AB26" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC26" s="112"/>
+      <c r="AC26" s="86"/>
       <c r="AD26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="188"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="78"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="192"/>
       <c r="AN26" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
       <c r="AQ26" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="94"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="61"/>
       <c r="AU26" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87" t="s">
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="87" t="s">
+      <c r="AX26" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AY26" s="43" t="s">
+      <c r="AY26" s="156" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="101"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="101"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="120"/>
-      <c r="G27" s="113"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="125"/>
       <c r="H27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="113"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="110"/>
-      <c r="L27" s="116"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="113"/>
+      <c r="N27" s="125"/>
       <c r="O27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="101"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="85"/>
       <c r="R27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="101"/>
+      <c r="S27" s="85"/>
       <c r="T27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="75"/>
-      <c r="V27" s="149"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="83"/>
       <c r="W27" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="123"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="97"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="34"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="94"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="61"/>
       <c r="AG27" s="30">
         <v>12400</v>
       </c>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="188"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="96" t="s">
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="192"/>
+      <c r="AN27" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87" t="s">
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="87" t="s">
+      <c r="AQ27" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="43" t="s">
+      <c r="AR27" s="156" t="s">
         <v>260</v>
       </c>
-      <c r="AS27" s="75"/>
-      <c r="AT27" s="94"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="61"/>
       <c r="AU27" s="30">
         <v>14400</v>
       </c>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="43"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="156"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="101" t="s">
+      <c r="A28" s="99"/>
+      <c r="B28" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="123" t="s">
+      <c r="E28" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="120"/>
-      <c r="G28" s="113" t="s">
+      <c r="F28" s="138"/>
+      <c r="G28" s="125" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="113"/>
-      <c r="J28" s="122" t="s">
+      <c r="I28" s="125"/>
+      <c r="J28" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="116"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="113"/>
+      <c r="N28" s="125"/>
       <c r="O28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="101" t="s">
+      <c r="P28" s="99"/>
+      <c r="Q28" s="85" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="101" t="s">
+      <c r="S28" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="102" t="s">
+      <c r="T28" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="75"/>
-      <c r="V28" s="149"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="83"/>
       <c r="W28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="X28" s="101"/>
+      <c r="X28" s="85"/>
       <c r="Y28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="94"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="61"/>
       <c r="AG28" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="188"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="96"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="75"/>
-      <c r="AT28" s="94"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="192"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="61"/>
       <c r="AU28" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="43"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="156"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="101"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="125"/>
       <c r="H29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="142"/>
       <c r="M29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="113"/>
+      <c r="N29" s="125"/>
       <c r="O29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="101"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="85"/>
       <c r="R29" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="101"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="149" t="s">
+      <c r="S29" s="85"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="83" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="36">
         <v>10320</v>
       </c>
-      <c r="X29" s="101" t="s">
+      <c r="X29" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="123" t="s">
+      <c r="Y29" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="94"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="61"/>
       <c r="AG29" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="88"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="67"/>
       <c r="AJ29" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="78"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="192"/>
       <c r="AN29" s="20">
         <v>13400</v>
       </c>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
       <c r="AQ29" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS29" s="75"/>
-      <c r="AT29" s="94"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="61"/>
       <c r="AU29" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
       <c r="AX29" s="17" t="s">
         <v>270</v>
       </c>
@@ -5297,266 +5276,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="101"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="120"/>
-      <c r="G30" s="113"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="125"/>
       <c r="H30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="113"/>
+      <c r="I30" s="125"/>
       <c r="J30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="113" t="s">
+      <c r="K30" s="99"/>
+      <c r="L30" s="125" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="113" t="s">
+      <c r="N30" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="118" t="s">
+      <c r="O30" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="101"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="85"/>
       <c r="R30" s="36">
         <v>9320</v>
       </c>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102" t="s">
+      <c r="S30" s="85"/>
+      <c r="T30" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="75"/>
-      <c r="V30" s="149"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="83"/>
       <c r="W30" s="36">
         <v>10300</v>
       </c>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="123"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="94" t="s">
+      <c r="X30" s="85"/>
+      <c r="Y30" s="97"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="61" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="30">
         <v>12300</v>
       </c>
-      <c r="AH30" s="87" t="s">
+      <c r="AH30" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="88"/>
+      <c r="AI30" s="67"/>
       <c r="AJ30" s="17" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="78"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="192"/>
       <c r="AN30" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
       <c r="AQ30" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR30" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="94" t="s">
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="61" t="s">
         <v>85</v>
       </c>
       <c r="AU30" s="30">
         <v>14100</v>
       </c>
-      <c r="AV30" s="87" t="s">
+      <c r="AV30" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AW30" s="88" t="s">
+      <c r="AW30" s="67" t="s">
         <v>141</v>
       </c>
       <c r="AX30" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="AY30" s="43" t="s">
+      <c r="AY30" s="156" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="101"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="101"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="120"/>
-      <c r="G31" s="113"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="125"/>
       <c r="H31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="113"/>
+      <c r="I31" s="125"/>
       <c r="J31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="110"/>
-      <c r="L31" s="113"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="125"/>
       <c r="M31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="113"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="101"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="85"/>
       <c r="R31" s="36">
         <v>9300</v>
       </c>
-      <c r="S31" s="101"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="149"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="83"/>
       <c r="W31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="X31" s="101"/>
+      <c r="X31" s="85"/>
       <c r="Y31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="94"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="61"/>
       <c r="AG31" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="88"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="67"/>
       <c r="AJ31" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="79"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="193"/>
       <c r="AN31" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
       <c r="AQ31" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR31" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="AS31" s="75"/>
-      <c r="AT31" s="94"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="61"/>
       <c r="AU31" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="88"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="67"/>
       <c r="AX31" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AY31" s="43"/>
+      <c r="AY31" s="156"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="101"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="123" t="s">
+      <c r="D32" s="85"/>
+      <c r="E32" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="113"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="125"/>
       <c r="H32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="113"/>
+      <c r="I32" s="125"/>
       <c r="J32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="110"/>
-      <c r="L32" s="113"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="125"/>
       <c r="M32" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="N32" s="113"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="101"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="85"/>
       <c r="R32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="101"/>
+      <c r="S32" s="85"/>
       <c r="T32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="75"/>
-      <c r="V32" s="149"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="83"/>
       <c r="W32" s="36">
         <v>10100</v>
       </c>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="123" t="s">
+      <c r="X32" s="85"/>
+      <c r="Y32" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="94"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="61"/>
       <c r="AG32" s="30">
         <v>12100</v>
       </c>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="88"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="67"/>
       <c r="AJ32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="188" t="s">
+      <c r="AK32" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="80" t="s">
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="194" t="s">
         <v>85</v>
       </c>
       <c r="AN32" s="20">
         <v>13100</v>
       </c>
-      <c r="AO32" s="87" t="s">
+      <c r="AO32" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="88" t="s">
+      <c r="AP32" s="67" t="s">
         <v>141</v>
       </c>
       <c r="AQ32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="43" t="s">
+      <c r="AR32" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="AS32" s="75"/>
-      <c r="AT32" s="94"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="61"/>
       <c r="AU32" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="88"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="67"/>
       <c r="AX32" s="17" t="s">
         <v>270</v>
       </c>
@@ -5565,218 +5544,218 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
-      <c r="B33" s="101"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="113" t="s">
+      <c r="D33" s="85"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="125" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="113" t="s">
+      <c r="I33" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="122" t="s">
+      <c r="J33" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="111"/>
-      <c r="L33" s="114"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="140"/>
       <c r="M33" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="114"/>
+      <c r="N33" s="140"/>
       <c r="O33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="101"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="85"/>
       <c r="R33" s="36">
         <v>9100</v>
       </c>
-      <c r="S33" s="101"/>
-      <c r="T33" s="102" t="s">
+      <c r="S33" s="85"/>
+      <c r="T33" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="75"/>
-      <c r="V33" s="149"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="83"/>
       <c r="W33" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="123"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="94"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="97"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="61"/>
       <c r="AG33" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="88"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="67"/>
       <c r="AJ33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AK33" s="188"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="81"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="195"/>
       <c r="AN33" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="88"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="67"/>
       <c r="AQ33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="75"/>
-      <c r="AT33" s="83" t="s">
+      <c r="AR33" s="156"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="197" t="s">
         <v>302</v>
       </c>
       <c r="AU33" s="31">
         <v>300</v>
       </c>
-      <c r="AV33" s="83" t="s">
+      <c r="AV33" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="AW33" s="88"/>
+      <c r="AW33" s="67"/>
       <c r="AX33" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="AY33" s="85" t="s">
+      <c r="AY33" s="199" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="110"/>
-      <c r="B34" s="101" t="s">
+      <c r="A34" s="99"/>
+      <c r="B34" s="85" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="123" t="s">
+      <c r="D34" s="85"/>
+      <c r="E34" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="120"/>
-      <c r="G34" s="113"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="122"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="101"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="141"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="85"/>
       <c r="R34" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="149"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="83"/>
       <c r="W34" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="X34" s="101"/>
+      <c r="X34" s="85"/>
       <c r="Y34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="94"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="61"/>
       <c r="AG34" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="88"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="67"/>
       <c r="AJ34" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK34" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="AL34" s="76"/>
-      <c r="AM34" s="82"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="196"/>
       <c r="AN34" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="89"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="68"/>
       <c r="AQ34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AR34" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="AS34" s="76"/>
-      <c r="AT34" s="84"/>
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="198"/>
       <c r="AU34" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AV34" s="84"/>
-      <c r="AW34" s="89"/>
+      <c r="AV34" s="198"/>
+      <c r="AW34" s="68"/>
       <c r="AX34" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="AY34" s="86"/>
+      <c r="AY34" s="200"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="114"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="140"/>
       <c r="H35" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="114"/>
+      <c r="I35" s="140"/>
       <c r="J35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="101"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="85"/>
       <c r="R35" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="101"/>
+      <c r="S35" s="85"/>
       <c r="T35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="75"/>
-      <c r="V35" s="149" t="s">
+      <c r="U35" s="51"/>
+      <c r="V35" s="83" t="s">
         <v>100</v>
       </c>
       <c r="W35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="X35" s="101" t="s">
+      <c r="X35" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="123" t="s">
+      <c r="Y35" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="94" t="s">
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="61" t="s">
         <v>100</v>
       </c>
       <c r="AG35" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="AH35" s="87" t="s">
+      <c r="AH35" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AI35" s="88"/>
+      <c r="AI35" s="67"/>
       <c r="AJ35" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AK35" s="185" t="s">
+      <c r="AK35" s="59" t="s">
         <v>141</v>
       </c>
       <c r="AL35" s="33"/>
@@ -5795,47 +5774,47 @@
       <c r="AY35" s="34"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="101"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="123" t="s">
+      <c r="D36" s="85"/>
+      <c r="E36" s="97" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="41"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="153" t="s">
+      <c r="P36" s="99"/>
+      <c r="Q36" s="90" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="101" t="s">
+      <c r="S36" s="85" t="s">
         <v>20</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="75"/>
-      <c r="V36" s="149"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="83"/>
       <c r="W36" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="123"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="94"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="97"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="61"/>
       <c r="AG36" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="88"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="67"/>
       <c r="AJ36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AK36" s="185"/>
+      <c r="AK36" s="59"/>
       <c r="AL36" s="33"/>
       <c r="AM36" s="34"/>
       <c r="AN36" s="34"/>
@@ -5852,47 +5831,47 @@
       <c r="AY36" s="34"/>
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="136"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="42"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="154"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="91"/>
       <c r="R37" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="101"/>
+      <c r="S37" s="85"/>
       <c r="T37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="75"/>
-      <c r="V37" s="149"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="83"/>
       <c r="W37" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="X37" s="101"/>
+      <c r="X37" s="85"/>
       <c r="Y37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE37" s="75"/>
-      <c r="AF37" s="94" t="s">
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="61" t="s">
         <v>34</v>
       </c>
       <c r="AG37" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="AH37" s="87" t="s">
+      <c r="AH37" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AI37" s="88"/>
+      <c r="AI37" s="67"/>
       <c r="AJ37" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AK37" s="185"/>
+      <c r="AK37" s="59"/>
       <c r="AL37" s="33"/>
       <c r="AM37" s="34"/>
       <c r="AN37" s="34"/>
@@ -5910,35 +5889,35 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="40"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="154"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="91"/>
       <c r="R38" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="S38" s="101"/>
+      <c r="S38" s="85"/>
       <c r="T38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="75"/>
-      <c r="V38" s="149"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="83"/>
       <c r="W38" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="X38" s="101"/>
+      <c r="X38" s="85"/>
       <c r="Y38" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="187"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="62"/>
       <c r="AG38" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="89"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="68"/>
       <c r="AJ38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK38" s="186"/>
+      <c r="AK38" s="60"/>
       <c r="AL38" s="33"/>
       <c r="AM38" s="34"/>
       <c r="AN38" s="34"/>
@@ -5955,21 +5934,21 @@
       <c r="AY38" s="34"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P39" s="110"/>
-      <c r="Q39" s="155"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="92"/>
       <c r="R39" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="101"/>
+      <c r="S39" s="85"/>
       <c r="T39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="75"/>
-      <c r="V39" s="149"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="83"/>
       <c r="W39" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="X39" s="101"/>
+      <c r="X39" s="85"/>
       <c r="Y39" s="5" t="s">
         <v>9</v>
       </c>
@@ -5995,111 +5974,111 @@
       <c r="AY39" s="34"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P40" s="110"/>
-      <c r="Q40" s="101" t="s">
+      <c r="P40" s="99"/>
+      <c r="Q40" s="85" t="s">
         <v>34</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="101" t="s">
+      <c r="S40" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="102" t="s">
+      <c r="T40" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="75"/>
-      <c r="V40" s="101" t="s">
+      <c r="U40" s="51"/>
+      <c r="V40" s="85" t="s">
         <v>34</v>
       </c>
       <c r="W40" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="X40" s="101" t="s">
+      <c r="X40" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="123" t="s">
+      <c r="Y40" s="97" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="P41" s="110"/>
-      <c r="Q41" s="101"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="85"/>
       <c r="R41" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="S41" s="101"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="101"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="85"/>
       <c r="W41" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="123"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="97"/>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P42" s="111"/>
-      <c r="Q42" s="112"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="86"/>
       <c r="R42" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="S42" s="112"/>
+      <c r="S42" s="86"/>
       <c r="T42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="75"/>
-      <c r="V42" s="101"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="85"/>
       <c r="W42" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="123"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="97"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U43" s="75"/>
-      <c r="V43" s="101"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="85"/>
       <c r="W43" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="X43" s="101"/>
+      <c r="X43" s="85"/>
       <c r="Y43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U44" s="75"/>
-      <c r="V44" s="101"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="85"/>
       <c r="W44" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="X44" s="101"/>
+      <c r="X44" s="85"/>
       <c r="Y44" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U45" s="75"/>
-      <c r="V45" s="101"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="85"/>
       <c r="W45" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="X45" s="101"/>
+      <c r="X45" s="85"/>
       <c r="Y45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U46" s="75"/>
-      <c r="V46" s="150" t="s">
+      <c r="U46" s="51"/>
+      <c r="V46" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="W46" s="150"/>
-      <c r="X46" s="150"/>
-      <c r="Y46" s="151"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="88"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U47" s="75"/>
+      <c r="U47" s="51"/>
       <c r="V47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6114,124 +6093,124 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="U48" s="75"/>
-      <c r="V48" s="149" t="s">
+      <c r="U48" s="51"/>
+      <c r="V48" s="83" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="36">
         <v>10325</v>
       </c>
-      <c r="X48" s="101" t="s">
+      <c r="X48" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="152" t="s">
+      <c r="Y48" s="89" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="49" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U49" s="75"/>
-      <c r="V49" s="149"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="83"/>
       <c r="W49" s="36">
         <v>10305</v>
       </c>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="152"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="89"/>
     </row>
     <row r="50" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U50" s="75"/>
-      <c r="V50" s="149"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="83"/>
       <c r="W50" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="X50" s="101"/>
+      <c r="X50" s="85"/>
       <c r="Y50" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U51" s="75"/>
-      <c r="V51" s="149"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="83"/>
       <c r="W51" s="36">
         <v>10105</v>
       </c>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="152" t="s">
+      <c r="X51" s="85"/>
+      <c r="Y51" s="89" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U52" s="75"/>
-      <c r="V52" s="149"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="83"/>
       <c r="W52" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="152"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="89"/>
     </row>
     <row r="53" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U53" s="75"/>
-      <c r="V53" s="149"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="83"/>
       <c r="W53" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="X53" s="101"/>
+      <c r="X53" s="85"/>
       <c r="Y53" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="54" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U54" s="75"/>
-      <c r="V54" s="115" t="s">
+      <c r="U54" s="51"/>
+      <c r="V54" s="94" t="s">
         <v>100</v>
       </c>
       <c r="W54" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="X54" s="101" t="s">
+      <c r="X54" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Y54" s="152" t="s">
+      <c r="Y54" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U55" s="75"/>
-      <c r="V55" s="116"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="95"/>
       <c r="W55" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="X55" s="101"/>
-      <c r="Y55" s="152"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="89"/>
     </row>
     <row r="56" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U56" s="75"/>
-      <c r="V56" s="116"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="95"/>
       <c r="W56" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="X56" s="101"/>
+      <c r="X56" s="85"/>
       <c r="Y56" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="57" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U57" s="75"/>
-      <c r="V57" s="116"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="95"/>
       <c r="W57" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="X57" s="101"/>
+      <c r="X57" s="85"/>
       <c r="Y57" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="58" spans="21:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U58" s="76"/>
-      <c r="V58" s="156"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="96"/>
       <c r="W58" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="X58" s="112"/>
+      <c r="X58" s="86"/>
       <c r="Y58" s="16" t="s">
         <v>181</v>
       </c>
@@ -6244,6 +6223,242 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="AE2:AY2"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AO4:AP6"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AV4:AW6"/>
+    <mergeCell ref="AL8:AL34"/>
+    <mergeCell ref="AS8:AS34"/>
+    <mergeCell ref="AM25:AM31"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AV33:AV34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AW26:AW29"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="AX4:AY6"/>
+    <mergeCell ref="AT8:AT13"/>
+    <mergeCell ref="AV8:AV19"/>
+    <mergeCell ref="AW8:AW13"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AY17:AY18"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AT14:AT19"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AT20:AT29"/>
+    <mergeCell ref="AV20:AV29"/>
+    <mergeCell ref="AW20:AW25"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AQ21:AQ22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="AM14:AM20"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AP26"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="AO21:AO31"/>
+    <mergeCell ref="AM8:AM13"/>
+    <mergeCell ref="AO8:AO20"/>
+    <mergeCell ref="AP8:AP13"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP31"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AQ4:AR6"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="P8:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="Q28:Q35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="K8:K33"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="F8:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I20:I32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A37"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="AH19:AH29"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="V20:V28"/>
+    <mergeCell ref="X20:X28"/>
+    <mergeCell ref="V29:V34"/>
+    <mergeCell ref="X29:X34"/>
+    <mergeCell ref="X35:X39"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AC8:AC17"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="X8:X14"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="V48:V53"/>
+    <mergeCell ref="X48:X53"/>
+    <mergeCell ref="X54:X58"/>
+    <mergeCell ref="U8:U58"/>
+    <mergeCell ref="V54:V58"/>
+    <mergeCell ref="V40:V45"/>
+    <mergeCell ref="X40:X45"/>
+    <mergeCell ref="Y40:Y42"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z8:Z26"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="S28:S35"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="AJ4:AK6"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AH8:AH18"/>
+    <mergeCell ref="AI8:AI13"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="AI14:AI20"/>
+    <mergeCell ref="AF19:AF29"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="AF8:AF13"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AA8:AA12"/>
     <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="AE3:AK3"/>
@@ -6268,242 +6483,6 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AK8:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AJ4:AK6"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AH8:AH18"/>
-    <mergeCell ref="AI8:AI13"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="AI14:AI20"/>
-    <mergeCell ref="AF19:AF29"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AA18:AA26"/>
-    <mergeCell ref="AC18:AC26"/>
-    <mergeCell ref="AF8:AF13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AA8:AA12"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="V48:V53"/>
-    <mergeCell ref="X48:X53"/>
-    <mergeCell ref="X54:X58"/>
-    <mergeCell ref="U8:U58"/>
-    <mergeCell ref="V54:V58"/>
-    <mergeCell ref="V40:V45"/>
-    <mergeCell ref="X40:X45"/>
-    <mergeCell ref="Y40:Y42"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z8:Z26"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="S28:S35"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="AH19:AH29"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="V20:V28"/>
-    <mergeCell ref="X20:X28"/>
-    <mergeCell ref="V29:V34"/>
-    <mergeCell ref="X29:X34"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AC8:AC17"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="X8:X14"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="S8:S12"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A8:A37"/>
-    <mergeCell ref="S13:S17"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="F8:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="I20:I32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="K8:K33"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AQ4:AR6"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="P8:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="S40:S42"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="Q18:Q27"/>
-    <mergeCell ref="Q28:Q35"/>
-    <mergeCell ref="AM14:AM20"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AP14:AP26"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="AO21:AO31"/>
-    <mergeCell ref="AM8:AM13"/>
-    <mergeCell ref="AO8:AO20"/>
-    <mergeCell ref="AP8:AP13"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AP27:AP31"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AQ21:AQ22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="AX4:AY6"/>
-    <mergeCell ref="AT8:AT13"/>
-    <mergeCell ref="AV8:AV19"/>
-    <mergeCell ref="AW8:AW13"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AY17:AY18"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AT14:AT19"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AT20:AT29"/>
-    <mergeCell ref="AV20:AV29"/>
-    <mergeCell ref="AW20:AW25"/>
-    <mergeCell ref="AE2:AY2"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AO4:AP6"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AV4:AW6"/>
-    <mergeCell ref="AL8:AL34"/>
-    <mergeCell ref="AS8:AS34"/>
-    <mergeCell ref="AM25:AM31"/>
-    <mergeCell ref="AM32:AM34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AV33:AV34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AW26:AW29"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AY26:AY28"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AX17:AX18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Thermal design power" display="https://en.wikipedia.org/wiki/Thermal_design_power" xr:uid="{2469E85F-64C9-4E26-8E62-BCAC2AEDB2CC}"/>
@@ -6811,15 +6790,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833B0480-670F-4F52-A0B7-EE27BB2F4DF6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/Intel-cpu-chipset.xlsx
+++ b/Intel-cpu-chipset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\GitHub\CPU_Chipset_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F2A370-B8E7-48B5-86DC-56F1CF395735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F388676-3FC7-467E-B794-020B066C44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" activeTab="1" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="233" xr2:uid="{24DDAE1D-0B55-4ED7-9C4F-B9A09316B1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,8 +1285,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1736,26 +1760,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1790,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1905,13 +1909,423 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,12 +2333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,454 +2344,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2709,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF214EF0-5F68-48AF-9897-525496C555A7}">
-  <dimension ref="A1:AY59"/>
+  <dimension ref="A1:AY60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AS35" sqref="AS35:AY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,420 +2798,420 @@
       <c r="AY1" s="12"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="102" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="111" t="s">
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="164" t="s">
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
-      <c r="AT2" s="165"/>
-      <c r="AU2" s="165"/>
-      <c r="AV2" s="165"/>
-      <c r="AW2" s="165"/>
-      <c r="AX2" s="165"/>
-      <c r="AY2" s="166"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="42"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="118" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="128" t="s">
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="152" t="s">
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="105" t="s">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="73" t="s">
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="48" t="s">
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="182" t="s">
         <v>236</v>
       </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="167" t="s">
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="179" t="s">
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="180"/>
-      <c r="AX3" s="180"/>
-      <c r="AY3" s="181"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="137" t="s">
+      <c r="K4" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="123" t="s">
+      <c r="M4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="123" t="s">
+      <c r="N4" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="124" t="s">
+      <c r="O4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="155" t="s">
+      <c r="P4" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="127" t="s">
+      <c r="Q4" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="127" t="s">
+      <c r="R4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="127" t="s">
+      <c r="S4" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="151" t="s">
+      <c r="T4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="108" t="s">
+      <c r="U4" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="109" t="s">
+      <c r="V4" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="109" t="s">
+      <c r="W4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="109" t="s">
+      <c r="X4" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="78" t="s">
+      <c r="AA4" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="78" t="s">
+      <c r="AB4" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="78" t="s">
+      <c r="AC4" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="80" t="s">
+      <c r="AD4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="43" t="s">
+      <c r="AE4" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="46" t="s">
+      <c r="AF4" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AG4" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AH4" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="69" t="s">
+      <c r="AI4" s="186"/>
+      <c r="AJ4" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="170" t="s">
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="144" t="s">
+      <c r="AM4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="144" t="s">
+      <c r="AN4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="173" t="s">
+      <c r="AO4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="174"/>
-      <c r="AQ4" s="147" t="s">
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="148"/>
-      <c r="AS4" s="182" t="s">
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="161" t="s">
+      <c r="AT4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="AU4" s="161" t="s">
+      <c r="AU4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="185" t="s">
+      <c r="AV4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="157" t="s">
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="AY4" s="158"/>
+      <c r="AY4" s="91"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="145"/>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="176"/>
-      <c r="AQ5" s="149"/>
-      <c r="AR5" s="150"/>
-      <c r="AS5" s="183"/>
-      <c r="AT5" s="162"/>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="188"/>
-      <c r="AX5" s="159"/>
-      <c r="AY5" s="160"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="176"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="188"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="93"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="171"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="145"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="150"/>
-      <c r="AS6" s="183"/>
-      <c r="AT6" s="162"/>
-      <c r="AU6" s="162"/>
-      <c r="AV6" s="189"/>
-      <c r="AW6" s="190"/>
-      <c r="AX6" s="159"/>
-      <c r="AY6" s="160"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="174"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="180"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="168"/>
+      <c r="AH6" s="189"/>
+      <c r="AI6" s="190"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="93"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="175"/>
+      <c r="AB7" s="175"/>
+      <c r="AC7" s="175"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
       <c r="AH7" s="19" t="s">
         <v>237</v>
       </c>
@@ -3189,9 +3224,9 @@
       <c r="AK7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="AL7" s="172"/>
-      <c r="AM7" s="146"/>
-      <c r="AN7" s="146"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
       <c r="AO7" s="26" t="s">
         <v>237</v>
       </c>
@@ -3204,9 +3239,9 @@
       <c r="AR7" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AS7" s="184"/>
-      <c r="AT7" s="163"/>
-      <c r="AU7" s="163"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
       <c r="AV7" s="28" t="s">
         <v>237</v>
       </c>
@@ -3221,600 +3256,600 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="113" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="113" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="98" t="s">
+      <c r="K8" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="143" t="s">
+      <c r="L8" s="119" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="125" t="s">
+      <c r="N8" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="126" t="s">
+      <c r="O8" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="Q8" s="85" t="s">
+      <c r="Q8" s="101" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="85" t="s">
+      <c r="S8" s="101" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="93" t="s">
+      <c r="U8" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="V8" s="83" t="s">
+      <c r="V8" s="155" t="s">
         <v>104</v>
       </c>
       <c r="W8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="X8" s="85" t="s">
+      <c r="X8" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="82" t="s">
+      <c r="Y8" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" s="98" t="s">
+      <c r="Z8" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="AA8" s="83" t="s">
+      <c r="AA8" s="155" t="s">
         <v>104</v>
       </c>
       <c r="AB8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="AC8" s="85" t="s">
+      <c r="AC8" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="82" t="s">
+      <c r="AD8" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="50" t="s">
+      <c r="AE8" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="AF8" s="61" t="s">
+      <c r="AF8" s="94" t="s">
         <v>104</v>
       </c>
       <c r="AG8" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="AH8" s="63" t="s">
+      <c r="AH8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="63" t="s">
+      <c r="AI8" s="87" t="s">
         <v>112</v>
       </c>
       <c r="AJ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AK8" s="65" t="s">
+      <c r="AK8" s="194" t="s">
         <v>203</v>
       </c>
-      <c r="AL8" s="93" t="s">
+      <c r="AL8" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="AM8" s="61" t="s">
+      <c r="AM8" s="94" t="s">
         <v>104</v>
       </c>
       <c r="AN8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="AO8" s="63" t="s">
+      <c r="AO8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AP8" s="63" t="s">
+      <c r="AP8" s="87" t="s">
         <v>242</v>
       </c>
       <c r="AQ8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AR8" s="156" t="s">
+      <c r="AR8" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="AS8" s="93" t="s">
+      <c r="AS8" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="AT8" s="61" t="s">
+      <c r="AT8" s="94" t="s">
         <v>104</v>
       </c>
       <c r="AU8" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="AV8" s="63" t="s">
+      <c r="AV8" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="63" t="s">
+      <c r="AW8" s="87" t="s">
         <v>242</v>
       </c>
       <c r="AX8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="AY8" s="156" t="s">
+      <c r="AY8" s="43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="97" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="G9" s="125"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="125"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="143"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="85"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="101"/>
       <c r="R9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="85"/>
-      <c r="T9" s="82" t="s">
+      <c r="S9" s="101"/>
+      <c r="T9" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="51"/>
-      <c r="V9" s="83"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="155"/>
       <c r="W9" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="83"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="155"/>
       <c r="AB9" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="61"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="94"/>
       <c r="AG9" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63" t="s">
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="61"/>
+      <c r="AK9" s="194"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="94"/>
       <c r="AN9" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="63" t="s">
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="61"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="94"/>
       <c r="AU9" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="63" t="s">
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AY9" s="156"/>
+      <c r="AY9" s="43"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="38">
         <v>6700</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="125"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="113"/>
       <c r="H10" s="36">
         <v>7700</v>
       </c>
-      <c r="I10" s="125"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="143"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="36">
         <v>8700</v>
       </c>
-      <c r="N10" s="125"/>
+      <c r="N10" s="113"/>
       <c r="O10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="85"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="101"/>
       <c r="R10" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="83"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="155"/>
       <c r="W10" s="36">
         <v>10910</v>
       </c>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="83"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="155"/>
       <c r="AB10" s="36">
         <v>11900</v>
       </c>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="82" t="s">
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="61"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="94"/>
       <c r="AG10" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="61"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="194"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="94"/>
       <c r="AN10" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="AO10" s="63"/>
-      <c r="AP10" s="63"/>
-      <c r="AQ10" s="63"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="61"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="94"/>
       <c r="AU10" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="AV10" s="63"/>
-      <c r="AW10" s="63"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="156"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="43"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="125"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="125"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="143"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="125"/>
+      <c r="N11" s="113"/>
       <c r="O11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="85"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="101"/>
       <c r="R11" s="36">
         <v>9900</v>
       </c>
-      <c r="S11" s="85"/>
+      <c r="S11" s="101"/>
       <c r="T11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="51"/>
-      <c r="V11" s="83"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="155"/>
       <c r="W11" s="36">
         <v>10900</v>
       </c>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="82" t="s">
+      <c r="X11" s="101"/>
+      <c r="Y11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="83"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="155"/>
       <c r="AB11" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="61"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="94"/>
       <c r="AG11" s="30">
         <v>12900</v>
       </c>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63" t="s">
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="65" t="s">
+      <c r="AK11" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="61"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="94"/>
       <c r="AN11" s="30">
         <v>13900</v>
       </c>
-      <c r="AO11" s="63"/>
-      <c r="AP11" s="63"/>
-      <c r="AQ11" s="63" t="s">
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR11" s="156" t="s">
+      <c r="AR11" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="61"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="94"/>
       <c r="AU11" s="30">
         <v>14900</v>
       </c>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="63"/>
-      <c r="AX11" s="63" t="s">
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="AY11" s="156" t="s">
+      <c r="AY11" s="43" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="101" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="138"/>
-      <c r="G12" s="125" t="s">
+      <c r="F12" s="196"/>
+      <c r="G12" s="113" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="113" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="143" t="s">
+      <c r="K12" s="110"/>
+      <c r="L12" s="119" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="125" t="s">
+      <c r="N12" s="113" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="85"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="101"/>
       <c r="R12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="85"/>
+      <c r="S12" s="101"/>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="83"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="155"/>
       <c r="W12" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="83"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="155"/>
       <c r="AB12" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="AC12" s="85"/>
+      <c r="AC12" s="101"/>
       <c r="AD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="61"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="94"/>
       <c r="AG12" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="61"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="194"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="94"/>
       <c r="AN12" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="156"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="61"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="94"/>
       <c r="AU12" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="AV12" s="63"/>
-      <c r="AW12" s="63"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="156"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="43"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="97" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="125"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="125"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="143"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="36">
         <v>8600</v>
       </c>
-      <c r="N13" s="125"/>
+      <c r="N13" s="113"/>
       <c r="O13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="85" t="s">
+      <c r="P13" s="110"/>
+      <c r="Q13" s="101" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="82" t="s">
+      <c r="T13" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="83"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="155"/>
       <c r="W13" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="X13" s="85"/>
+      <c r="X13" s="101"/>
       <c r="Y13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="83" t="s">
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="155" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="82" t="s">
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="61"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="94"/>
       <c r="AG13" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
       <c r="AJ13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK13" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="61"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="94"/>
       <c r="AN13" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="AO13" s="63"/>
-      <c r="AP13" s="63"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
       <c r="AQ13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="61"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="94"/>
       <c r="AU13" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="63"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
       <c r="AX13" s="17" t="s">
         <v>270</v>
       </c>
@@ -3823,96 +3858,96 @@
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="38">
         <v>6600</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="125"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="36">
         <v>7600</v>
       </c>
-      <c r="I14" s="125"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="143"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="125"/>
+      <c r="N14" s="113"/>
       <c r="O14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="85"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="101"/>
       <c r="R14" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="85"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="83"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="155"/>
       <c r="W14" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="82" t="s">
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="83"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="155"/>
       <c r="AB14" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="61" t="s">
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="94" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63" t="s">
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="63" t="s">
+      <c r="AJ14" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AK14" s="65" t="s">
+      <c r="AK14" s="194" t="s">
         <v>211</v>
       </c>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="61" t="s">
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AN14" s="61" t="s">
+      <c r="AN14" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63" t="s">
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="AQ14" s="63" t="s">
+      <c r="AQ14" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="156" t="s">
+      <c r="AR14" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="61" t="s">
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="94" t="s">
         <v>2</v>
       </c>
       <c r="AU14" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="AV14" s="63"/>
+      <c r="AV14" s="87"/>
       <c r="AW14" s="17" t="s">
         <v>112</v>
       </c>
@@ -3924,445 +3959,445 @@
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="125"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="125"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="143"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="36">
         <v>8500</v>
       </c>
-      <c r="N15" s="125"/>
+      <c r="N15" s="113"/>
       <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="85"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="101"/>
       <c r="R15" s="36">
         <v>9700</v>
       </c>
-      <c r="S15" s="85"/>
-      <c r="T15" s="82" t="s">
+      <c r="S15" s="101"/>
+      <c r="T15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="51"/>
-      <c r="V15" s="83" t="s">
+      <c r="U15" s="75"/>
+      <c r="V15" s="155" t="s">
         <v>2</v>
       </c>
       <c r="W15" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="X15" s="85" t="s">
+      <c r="X15" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="83"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="155"/>
       <c r="AB15" s="36">
         <v>11700</v>
       </c>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="82" t="s">
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="61"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="94"/>
       <c r="AG15" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="61"/>
-      <c r="AN15" s="61"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="156"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="61"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="194"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="94"/>
       <c r="AU15" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63" t="s">
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="AX15" s="63" t="s">
+      <c r="AX15" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="AY15" s="156" t="s">
+      <c r="AY15" s="43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="38">
         <v>6500</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="125"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="36">
         <v>7500</v>
       </c>
-      <c r="I16" s="125"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="143"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="125"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="85"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="101"/>
       <c r="R16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="85"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="83"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="155"/>
       <c r="W16" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="83"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="155"/>
       <c r="AB16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="61"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="94"/>
       <c r="AG16" s="30">
         <v>12700</v>
       </c>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63" t="s">
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="65" t="s">
+      <c r="AK16" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="61"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="94"/>
       <c r="AN16" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63" t="s">
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AR16" s="156" t="s">
+      <c r="AR16" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="61"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="94"/>
       <c r="AU16" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="156"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="43"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="97" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="125"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="125"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="143"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="36">
         <v>8400</v>
       </c>
-      <c r="N17" s="125"/>
+      <c r="N17" s="113"/>
       <c r="O17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="85"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="101"/>
       <c r="R17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="85"/>
+      <c r="S17" s="101"/>
       <c r="T17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="51"/>
-      <c r="V17" s="83"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="155"/>
       <c r="W17" s="36">
         <v>10700</v>
       </c>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="82" t="s">
+      <c r="X17" s="101"/>
+      <c r="Y17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="83"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="155"/>
       <c r="AB17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC17" s="85"/>
+      <c r="AC17" s="101"/>
       <c r="AD17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="61"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="94"/>
       <c r="AG17" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="61"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="194"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="94"/>
       <c r="AN17" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="156"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="61"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="94"/>
       <c r="AU17" s="30">
         <v>14700</v>
       </c>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63" t="s">
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="AY17" s="156" t="s">
+      <c r="AY17" s="43" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="125"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="36">
         <v>7400</v>
       </c>
-      <c r="I18" s="125"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="143"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="125"/>
+      <c r="N18" s="113"/>
       <c r="O18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="85" t="s">
+      <c r="P18" s="110"/>
+      <c r="Q18" s="101" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="85" t="s">
+      <c r="S18" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="82" t="s">
+      <c r="T18" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="51"/>
-      <c r="V18" s="83"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="155"/>
       <c r="W18" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="83" t="s">
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="155" t="s">
         <v>10</v>
       </c>
       <c r="AB18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="AC18" s="85" t="s">
+      <c r="AC18" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="82" t="s">
+      <c r="AD18" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="61"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="94"/>
       <c r="AG18" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
       <c r="AJ18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK18" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="61"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="94"/>
       <c r="AN18" s="30">
         <v>13700</v>
       </c>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63" t="s">
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR18" s="156" t="s">
+      <c r="AR18" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="61"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="94"/>
       <c r="AU18" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="156"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="43"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="138"/>
-      <c r="G19" s="125"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="125"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="143" t="s">
+      <c r="K19" s="110"/>
+      <c r="L19" s="119" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="125" t="s">
+      <c r="N19" s="113" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="85"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="101"/>
       <c r="R19" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="83"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="155"/>
       <c r="W19" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="X19" s="85"/>
+      <c r="X19" s="101"/>
       <c r="Y19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="83"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="155"/>
       <c r="AB19" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="61" t="s">
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AG19" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH19" s="63" t="s">
+      <c r="AH19" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63" t="s">
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AK19" s="65" t="s">
+      <c r="AK19" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="61"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="94"/>
       <c r="AN19" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="61"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="94"/>
       <c r="AU19" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
       <c r="AX19" s="17" t="s">
         <v>270</v>
       </c>
@@ -4371,170 +4406,170 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="138"/>
-      <c r="G20" s="125" t="s">
+      <c r="F20" s="196"/>
+      <c r="G20" s="113" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="125" t="s">
+      <c r="I20" s="113" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="99"/>
-      <c r="L20" s="143"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="119"/>
       <c r="M20" s="36">
         <v>8300</v>
       </c>
-      <c r="N20" s="125"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="85"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="101"/>
       <c r="R20" s="36">
         <v>9600</v>
       </c>
-      <c r="S20" s="85"/>
+      <c r="S20" s="101"/>
       <c r="T20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="51"/>
-      <c r="V20" s="83" t="s">
+      <c r="U20" s="75"/>
+      <c r="V20" s="155" t="s">
         <v>10</v>
       </c>
       <c r="W20" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="X20" s="85" t="s">
+      <c r="X20" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="82" t="s">
+      <c r="Y20" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="83"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="155"/>
       <c r="AB20" s="36">
         <v>11600</v>
       </c>
-      <c r="AC20" s="85"/>
+      <c r="AC20" s="101"/>
       <c r="AD20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="61"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="94"/>
       <c r="AG20" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="61"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="194"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="94"/>
       <c r="AN20" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="63"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
       <c r="AQ20" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="61" t="s">
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AU20" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="AV20" s="63" t="s">
+      <c r="AV20" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="63" t="s">
+      <c r="AW20" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="AX20" s="63" t="s">
+      <c r="AX20" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="AY20" s="156" t="s">
+      <c r="AY20" s="43" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="38">
         <v>6400</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="125"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="36">
         <v>7320</v>
       </c>
-      <c r="I21" s="125"/>
-      <c r="J21" s="141" t="s">
+      <c r="I21" s="113"/>
+      <c r="J21" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="99"/>
-      <c r="L21" s="143"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="125"/>
+      <c r="N21" s="113"/>
       <c r="O21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="85"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="101"/>
       <c r="R21" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="85"/>
+      <c r="S21" s="101"/>
       <c r="T21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="51"/>
-      <c r="V21" s="83"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="155"/>
       <c r="W21" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="83"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="155"/>
       <c r="AB21" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AC21" s="85"/>
+      <c r="AC21" s="101"/>
       <c r="AD21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="61"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="94"/>
       <c r="AG21" s="30">
         <v>12600</v>
       </c>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="67" t="s">
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="88" t="s">
         <v>141</v>
       </c>
       <c r="AJ21" s="17" t="s">
@@ -4543,119 +4578,119 @@
       <c r="AK21" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="61" t="s">
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="94" t="s">
         <v>10</v>
       </c>
       <c r="AN21" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="AO21" s="63" t="s">
+      <c r="AO21" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="63"/>
-      <c r="AQ21" s="63" t="s">
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AR21" s="156" t="s">
+      <c r="AR21" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="61"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="94"/>
       <c r="AU21" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AV21" s="63"/>
-      <c r="AW21" s="63"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="156"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="43"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="85" t="s">
+      <c r="A22" s="110"/>
+      <c r="B22" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="38">
         <v>6320</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="138"/>
-      <c r="G22" s="125"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="36">
         <v>7300</v>
       </c>
-      <c r="I22" s="125"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="143"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="36">
         <v>8100</v>
       </c>
-      <c r="N22" s="125"/>
-      <c r="O22" s="126" t="s">
+      <c r="N22" s="113"/>
+      <c r="O22" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="85"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="101"/>
       <c r="R22" s="36">
         <v>9500</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="82" t="s">
+      <c r="S22" s="101"/>
+      <c r="T22" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="83"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="155"/>
       <c r="W22" s="36">
         <v>10600</v>
       </c>
-      <c r="X22" s="85"/>
+      <c r="X22" s="101"/>
       <c r="Y22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="83"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="155"/>
       <c r="AB22" s="36">
         <v>11500</v>
       </c>
-      <c r="AC22" s="85"/>
+      <c r="AC22" s="101"/>
       <c r="AD22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="61"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="94"/>
       <c r="AG22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="67"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="88"/>
       <c r="AJ22" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK22" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="61"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="94"/>
       <c r="AN22" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="AO22" s="63"/>
-      <c r="AP22" s="63"/>
-      <c r="AQ22" s="63"/>
-      <c r="AR22" s="156"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="61"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="94"/>
       <c r="AU22" s="30">
         <v>14600</v>
       </c>
-      <c r="AV22" s="63"/>
-      <c r="AW22" s="63"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
       <c r="AX22" s="17" t="s">
         <v>180</v>
       </c>
@@ -4664,87 +4699,87 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="38">
         <v>6300</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="125"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="125"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="143"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="119"/>
       <c r="M23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="125"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="85"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="101"/>
       <c r="R23" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="85"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="83"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="155"/>
       <c r="W23" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X23" s="85"/>
+      <c r="X23" s="101"/>
       <c r="Y23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="83"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="155"/>
       <c r="AB23" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC23" s="85"/>
+      <c r="AC23" s="101"/>
       <c r="AD23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="61"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="94"/>
       <c r="AG23" s="30">
         <v>12500</v>
       </c>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="67"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="88"/>
       <c r="AJ23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AK23" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="61"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="94"/>
       <c r="AN23" s="30">
         <v>13600</v>
       </c>
-      <c r="AO23" s="63"/>
-      <c r="AP23" s="63"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
       <c r="AQ23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR23" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="61"/>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="94"/>
       <c r="AU23" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="63"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
       <c r="AX23" s="17" t="s">
         <v>270</v>
       </c>
@@ -4753,91 +4788,91 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="38">
         <v>6100</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="125"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="36">
         <v>7100</v>
       </c>
-      <c r="I24" s="125"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="99"/>
-      <c r="L24" s="143"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="119"/>
       <c r="M24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="125"/>
+      <c r="N24" s="113"/>
       <c r="O24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="85"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="101"/>
       <c r="R24" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="85"/>
+      <c r="S24" s="101"/>
       <c r="T24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="51"/>
-      <c r="V24" s="83"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="155"/>
       <c r="W24" s="36">
         <v>10500</v>
       </c>
-      <c r="X24" s="85"/>
+      <c r="X24" s="101"/>
       <c r="Y24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="83"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="155"/>
       <c r="AB24" s="36">
         <v>11400</v>
       </c>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="82" t="s">
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="61"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="94"/>
       <c r="AG24" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="67"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="88"/>
       <c r="AJ24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="61"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="94"/>
       <c r="AN24" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="AO24" s="63"/>
-      <c r="AP24" s="63"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
       <c r="AQ24" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR24" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="61"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="94"/>
       <c r="AU24" s="30">
         <v>14500</v>
       </c>
-      <c r="AV24" s="63"/>
-      <c r="AW24" s="63"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
       <c r="AX24" s="17" t="s">
         <v>180</v>
       </c>
@@ -4846,97 +4881,97 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="97" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="138"/>
-      <c r="G25" s="125"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="94" t="s">
+      <c r="K25" s="110"/>
+      <c r="L25" s="115" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="125" t="s">
+      <c r="N25" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="126" t="s">
+      <c r="O25" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="85"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="101"/>
       <c r="R25" s="36">
         <v>9400</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="82" t="s">
+      <c r="S25" s="101"/>
+      <c r="T25" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="51"/>
-      <c r="V25" s="83"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="155"/>
       <c r="W25" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="X25" s="85"/>
+      <c r="X25" s="101"/>
       <c r="Y25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="83"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="155"/>
       <c r="AB25" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="66" t="s">
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="63" t="s">
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AK25" s="65" t="s">
+      <c r="AK25" s="194" t="s">
         <v>219</v>
       </c>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="191" t="s">
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="77" t="s">
         <v>10</v>
       </c>
       <c r="AN25" s="20">
         <v>13500</v>
       </c>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
       <c r="AQ25" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR25" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="61"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="94"/>
       <c r="AU25" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
       <c r="AX25" s="17" t="s">
         <v>270</v>
       </c>
@@ -4945,329 +4980,337 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="125"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="113"/>
       <c r="J26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="99"/>
-      <c r="L26" s="95"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="116"/>
       <c r="M26" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="125"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="85"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="101"/>
       <c r="R26" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="83"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="155"/>
       <c r="W26" s="36">
         <v>10400</v>
       </c>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="82" t="s">
+      <c r="X26" s="101"/>
+      <c r="Y26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="84"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="178"/>
       <c r="AB26" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AC26" s="86"/>
+      <c r="AC26" s="112"/>
       <c r="AD26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="192"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="194"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="78"/>
       <c r="AN26" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
       <c r="AQ26" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AR26" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="61"/>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="94"/>
       <c r="AU26" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63" t="s">
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AX26" s="63" t="s">
+      <c r="AX26" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="AY26" s="156" t="s">
+      <c r="AY26" s="43" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="138"/>
-      <c r="G27" s="125"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="95"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="125"/>
+      <c r="N27" s="113"/>
       <c r="O27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="85"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="101"/>
       <c r="R27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="85"/>
+      <c r="S27" s="101"/>
       <c r="T27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="51"/>
-      <c r="V27" s="83"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="155"/>
       <c r="W27" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="97"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="34"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="61"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="209"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="211"/>
+      <c r="AC27" s="209"/>
+      <c r="AD27" s="209"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="94"/>
       <c r="AG27" s="30">
         <v>12400</v>
       </c>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="192"/>
-      <c r="AN27" s="66" t="s">
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="194"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63" t="s">
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="63" t="s">
+      <c r="AQ27" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="156" t="s">
+      <c r="AR27" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="61"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="94"/>
       <c r="AU27" s="30">
         <v>14400</v>
       </c>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="156"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="43"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="138"/>
-      <c r="G28" s="125" t="s">
+      <c r="F28" s="196"/>
+      <c r="G28" s="113" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="125"/>
-      <c r="J28" s="141" t="s">
+      <c r="I28" s="113"/>
+      <c r="J28" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="99"/>
-      <c r="L28" s="95"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="116"/>
       <c r="M28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="125"/>
+      <c r="N28" s="113"/>
       <c r="O28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="85" t="s">
+      <c r="P28" s="110"/>
+      <c r="Q28" s="101" t="s">
         <v>85</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="85" t="s">
+      <c r="S28" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="82" t="s">
+      <c r="T28" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="U28" s="51"/>
-      <c r="V28" s="83"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="155"/>
       <c r="W28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="X28" s="85"/>
+      <c r="X28" s="101"/>
       <c r="Y28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="61"/>
+      <c r="Z28" s="209"/>
+      <c r="AA28" s="209"/>
+      <c r="AB28" s="212"/>
+      <c r="AC28" s="209"/>
+      <c r="AD28" s="209"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="94"/>
       <c r="AG28" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="192"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="61"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="194"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="96"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="94"/>
       <c r="AU28" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="156"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="43"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="125"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="125"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="142"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="117"/>
       <c r="M29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="125"/>
+      <c r="N29" s="113"/>
       <c r="O29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="85"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="101"/>
       <c r="R29" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="85"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="83" t="s">
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="155" t="s">
         <v>85</v>
       </c>
       <c r="W29" s="36">
         <v>10320</v>
       </c>
-      <c r="X29" s="85" t="s">
+      <c r="X29" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="97" t="s">
+      <c r="Y29" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="61"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="94"/>
       <c r="AG29" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="67"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="88"/>
       <c r="AJ29" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AK29" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="192"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="78"/>
       <c r="AN29" s="20">
         <v>13400</v>
       </c>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
       <c r="AQ29" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AR29" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="61"/>
+      <c r="AS29" s="75"/>
+      <c r="AT29" s="94"/>
       <c r="AU29" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
       <c r="AX29" s="17" t="s">
         <v>270</v>
       </c>
@@ -5276,266 +5319,266 @@
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="138"/>
-      <c r="G30" s="125"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="125"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="125" t="s">
+      <c r="K30" s="110"/>
+      <c r="L30" s="113" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="125" t="s">
+      <c r="N30" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="126" t="s">
+      <c r="O30" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="85"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="101"/>
       <c r="R30" s="36">
         <v>9320</v>
       </c>
-      <c r="S30" s="85"/>
-      <c r="T30" s="82" t="s">
+      <c r="S30" s="101"/>
+      <c r="T30" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="51"/>
-      <c r="V30" s="83"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="155"/>
       <c r="W30" s="36">
         <v>10300</v>
       </c>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="97"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="61" t="s">
+      <c r="X30" s="101"/>
+      <c r="Y30" s="121"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="94" t="s">
         <v>85</v>
       </c>
       <c r="AG30" s="30">
         <v>12300</v>
       </c>
-      <c r="AH30" s="63" t="s">
+      <c r="AH30" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AI30" s="67"/>
+      <c r="AI30" s="88"/>
       <c r="AJ30" s="17" t="s">
         <v>59</v>
       </c>
       <c r="AK30" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="192"/>
+      <c r